--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="96" windowWidth="2220" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$A$1:$M$108</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$K$106</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="201">
   <si>
     <t>Payslip</t>
   </si>
@@ -210,9 +210,6 @@
     <t>TaxRate.RateCutOff</t>
   </si>
   <si>
-    <t>CalculationBasis</t>
-  </si>
-  <si>
     <t>ExclusionOrder</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>If an Irish county is specified the Country Code must either be blank or set to IRL (i.e. Ireland).</t>
   </si>
   <si>
-    <t>Date of Birth must be a valid date in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
-  </si>
-  <si>
     <t>Date of Birth cannot be over 130 years ago.</t>
   </si>
   <si>
@@ -390,9 +384,6 @@
     <t>Address is mandatory when EmployeeID(PPSN &amp; EmploymentID) is not included.</t>
   </si>
   <si>
-    <t>The sum of Insurable Weeks must be less than or equal to 53 weeks.</t>
-  </si>
-  <si>
     <t>Pension Tracing Number must be in the format:  “PBXXXXXX”, where XXXXXX is a number with up to 6 digits. E.g. PB123456.</t>
   </si>
   <si>
@@ -406,9 +397,6 @@
   </si>
   <si>
     <t>If Country Code is included it must be a valid code.  Codes must follow the International Standard ISO 3166 Alpha-3.</t>
-  </si>
-  <si>
-    <t>DateOfBirth is mandatory when EmployeeID (PPSN &amp; EmploymentID) is not included.</t>
   </si>
   <si>
     <r>
@@ -470,15 +458,6 @@
     <t xml:space="preserve">Date Last Updated cannot be in the future.  </t>
   </si>
   <si>
-    <t>Leave Date must be a valid date in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
-  </si>
-  <si>
-    <t>Pay Date must be a valid date in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
-  </si>
-  <si>
-    <t>Date Last Updated must be a valid date in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
-  </si>
-  <si>
     <t>Date of Birth must not be in the future.</t>
   </si>
   <si>
@@ -491,16 +470,10 @@
     <t>Invalid Eircode format.   Eircode must be a seven character alpha-numeric code.</t>
   </si>
   <si>
-    <t>Invalid date specified. Must be in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Leave Date entered for an employee cannot be more than 12 months in the future.   </t>
   </si>
   <si>
     <t xml:space="preserve">LeaveDate cannot be more than 12 months from the date the PayrollSubmissionRequest is submitted. </t>
-  </si>
-  <si>
-    <t>Invalid date specified.  Must be in the format DD/MM/YYYY (e.g. 31/01/2019).</t>
   </si>
   <si>
     <r>
@@ -529,9 +502,6 @@
     <t xml:space="preserve">PayDate must be within the TaxYear specified in the header of  the PayrollSubmissionRequest.  </t>
   </si>
   <si>
-    <t xml:space="preserve">The sum of InsurableWeeks for PRSI must be less than or equal to 53, the maximum number of weeks allowed. </t>
-  </si>
-  <si>
     <t>PRSIClassDetail.PRSIClass</t>
   </si>
   <si>
@@ -548,9 +518,6 @@
     <t>Address is mandatory if the Employee ID (PPSN &amp; Employment ID) is not known.</t>
   </si>
   <si>
-    <t>Date of Birth is mandatory if the Employee ID (PPSN &amp; Employment ID) is not known.</t>
-  </si>
-  <si>
     <t>Tax Credits field is mandatory when RPN Number is not used.</t>
   </si>
   <si>
@@ -558,12 +525,6 @@
   </si>
   <si>
     <t>TaxRate.RateCutOff is mandatory when no RPNNumber included.</t>
-  </si>
-  <si>
-    <t>Calculation Basis is mandatory when the RPN Number is not used.</t>
-  </si>
-  <si>
-    <t>CalculationBasis is mandatory when no RPNNumber included.</t>
   </si>
   <si>
     <t xml:space="preserve">Exclusion Order marker is mandatory when the RPN Number is not used. </t>
@@ -668,6 +629,57 @@
   </si>
   <si>
     <t>13-16</t>
+  </si>
+  <si>
+    <t>A payroll submission must have at least one payslip to add/delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payslips.lineItemIDsToDelete </t>
+  </si>
+  <si>
+    <t>The sum of Insurable Weeks must be less than or equal to 56 weeks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sum of InsurableWeeks for PRSI must be less than or equal to 56, the maximum number of weeks allowed. </t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>53 weeks changed to 56</t>
+  </si>
+  <si>
+    <t>Pay Date must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Leave Date must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Date of Birth must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Date Last Updated must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Date formatting changes</t>
+  </si>
+  <si>
+    <t>Invalid date specified.  Must be in the format YYYY-MM-DD (e.g. 2019-04-10).</t>
+  </si>
+  <si>
+    <t>EmploymentStartDate</t>
+  </si>
+  <si>
+    <t>Employment Start Date must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
+  </si>
+  <si>
+    <t>Income Tax Calculation Basis is mandatory when the RPN Number is not used.</t>
+  </si>
+  <si>
+    <t>Income Tax Calculation Basis is mandatory when no RPNNumber included.</t>
+  </si>
+  <si>
+    <t>IncomeTaxCalculationBasis</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1119,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFA3FFFF"/>
@@ -1155,8 +1195,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8395335" y="47625"/>
-          <a:ext cx="1819275" cy="885825"/>
+          <a:off x="8394246" y="47625"/>
+          <a:ext cx="1819275" cy="896711"/>
           <a:chOff x="4063321" y="0"/>
           <a:chExt cx="3161899" cy="1553550"/>
         </a:xfrm>
@@ -21291,8 +21331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C7" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21310,7 +21350,7 @@
   <sheetData>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
@@ -21324,16 +21364,16 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -21351,7 +21391,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -21362,16 +21402,16 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C13" s="19">
         <v>43056</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -21384,10 +21424,10 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="15" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -21398,9 +21438,15 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="19">
+        <v>43067</v>
+      </c>
+      <c r="D15" s="15">
+        <v>100</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -21411,8 +21457,12 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="15">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>177</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -21423,8 +21473,12 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="15">
+        <v>47</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -21434,9 +21488,13 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="19">
+        <v>43140</v>
+      </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>194</v>
+      </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -21573,11 +21631,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL440"/>
+  <dimension ref="A1:BL439"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -21608,16 +21666,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>6</v>
@@ -21629,7 +21687,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L1" s="32" t="s">
         <v>2</v>
@@ -21691,7 +21749,7 @@
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -21759,7 +21817,7 @@
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -21830,19 +21888,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G4" s="25">
         <v>401</v>
@@ -21857,7 +21915,7 @@
         <v>1012</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="L4" s="36" t="s">
         <v>12</v>
@@ -21922,19 +21980,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G5" s="25">
         <v>401</v>
@@ -21949,7 +22007,7 @@
         <v>1013</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>12</v>
@@ -22014,19 +22072,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G6" s="25">
         <v>401</v>
@@ -22041,7 +22099,7 @@
         <v>1014</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>12</v>
@@ -22106,19 +22164,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G7" s="56">
         <v>400</v>
@@ -22136,7 +22194,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="36" t="s">
         <v>52</v>
@@ -22147,19 +22205,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G8" s="56">
         <v>400</v>
@@ -22177,7 +22235,7 @@
         <v>26</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8" s="36" t="s">
         <v>52</v>
@@ -22188,19 +22246,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="25">
         <v>2</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G9" s="56">
         <v>403</v>
@@ -22218,7 +22276,7 @@
         <v>27</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M9" s="36" t="s">
         <v>51</v>
@@ -22229,19 +22287,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="25">
         <v>2</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G10" s="56">
         <v>403</v>
@@ -22259,7 +22317,7 @@
         <v>28</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="36" t="s">
         <v>51</v>
@@ -22270,19 +22328,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="25">
         <v>2</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G11" s="56">
         <v>403</v>
@@ -22300,7 +22358,7 @@
         <v>16</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>51</v>
@@ -22311,19 +22369,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="25">
         <v>2</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G12" s="56">
         <v>403</v>
@@ -22338,10 +22396,10 @@
         <v>1011</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" s="36" t="s">
         <v>51</v>
@@ -22352,19 +22410,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G13" s="56">
         <v>400</v>
@@ -22382,7 +22440,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="36" t="s">
         <v>38</v>
@@ -22393,19 +22451,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G14" s="56">
         <v>400</v>
@@ -22423,7 +22481,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="36" t="s">
         <v>38</v>
@@ -22434,19 +22492,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G15" s="56">
         <v>400</v>
@@ -22464,7 +22522,7 @@
         <v>44</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="36" t="s">
         <v>43</v>
@@ -22475,19 +22533,19 @@
         <v>17</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="25">
         <v>5</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G16" s="56">
         <v>400</v>
@@ -22505,7 +22563,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="36" t="s">
         <v>53</v>
@@ -22513,7 +22571,7 @@
     </row>
     <row r="17" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="66"/>
@@ -22584,19 +22642,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G18" s="56" t="s">
         <v>12</v>
@@ -22611,7 +22669,7 @@
         <v>2040</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>0</v>
@@ -22625,19 +22683,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G19" s="56" t="s">
         <v>12</v>
@@ -22666,19 +22724,19 @@
         <v>20</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="5">
         <v>8</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G20" s="56" t="s">
         <v>12</v>
@@ -22707,19 +22765,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="5">
         <v>13</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G21" s="56" t="s">
         <v>12</v>
@@ -22734,7 +22792,7 @@
         <v>2006</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L21" s="35" t="s">
         <v>0</v>
@@ -22748,19 +22806,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D22" s="5">
         <v>13</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G22" s="56" t="s">
         <v>12</v>
@@ -22775,7 +22833,7 @@
         <v>2009</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>0</v>
@@ -22789,19 +22847,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G23" s="56" t="s">
         <v>12</v>
@@ -22816,7 +22874,7 @@
         <v>2010</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>0</v>
@@ -22830,19 +22888,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G24" s="56" t="s">
         <v>12</v>
@@ -22871,19 +22929,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G25" s="56" t="s">
         <v>12</v>
@@ -22898,7 +22956,7 @@
         <v>2014</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>0</v>
@@ -22912,19 +22970,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G26" s="56" t="s">
         <v>12</v>
@@ -22953,19 +23011,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G27" s="56" t="s">
         <v>12</v>
@@ -22994,19 +23052,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G28" s="56" t="s">
         <v>12</v>
@@ -23032,22 +23090,22 @@
     </row>
     <row r="29" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>157</v>
+        <v>115</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D29" s="5">
         <v>12</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G29" s="56" t="s">
         <v>12</v>
@@ -23056,13 +23114,13 @@
         <v>7</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J29" s="5">
-        <v>2011</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>128</v>
+        <v>1002</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>0</v>
@@ -23071,24 +23129,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D30" s="5">
         <v>12</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G30" s="56" t="s">
         <v>12</v>
@@ -23100,10 +23158,10 @@
         <v>11</v>
       </c>
       <c r="J30" s="5">
-        <v>1002</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>144</v>
+        <v>2017</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>0</v>
@@ -23112,24 +23170,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D31" s="5">
         <v>12</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G31" s="56" t="s">
         <v>12</v>
@@ -23141,10 +23199,10 @@
         <v>11</v>
       </c>
       <c r="J31" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L31" s="35" t="s">
         <v>0</v>
@@ -23153,157 +23211,157 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="40" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>32</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="5">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="25">
+        <v>16</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G32" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="5">
-        <v>2018</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="35" t="s">
+      <c r="I32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="55">
+        <v>2020</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:64" s="40" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M32" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="39"/>
+      <c r="BA32" s="39"/>
+      <c r="BB32" s="39"/>
+      <c r="BC32" s="39"/>
+      <c r="BD32" s="39"/>
+      <c r="BE32" s="39"/>
+      <c r="BF32" s="39"/>
+      <c r="BG32" s="39"/>
+      <c r="BH32" s="39"/>
+      <c r="BI32" s="39"/>
+      <c r="BJ32" s="39"/>
+      <c r="BK32" s="39"/>
+      <c r="BL32" s="39"/>
+    </row>
+    <row r="33" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>33</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="25">
+        <v>34</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="5">
         <v>16</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G33" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="55">
-        <v>2020</v>
+      <c r="I33" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1002</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="L33" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="L33" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M33" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="39"/>
-      <c r="AP33" s="39"/>
-      <c r="AQ33" s="39"/>
-      <c r="AR33" s="39"/>
-      <c r="AS33" s="39"/>
-      <c r="AT33" s="39"/>
-      <c r="AU33" s="39"/>
-      <c r="AV33" s="39"/>
-      <c r="AW33" s="39"/>
-      <c r="AX33" s="39"/>
-      <c r="AY33" s="39"/>
-      <c r="AZ33" s="39"/>
-      <c r="BA33" s="39"/>
-      <c r="BB33" s="39"/>
-      <c r="BC33" s="39"/>
-      <c r="BD33" s="39"/>
-      <c r="BE33" s="39"/>
-      <c r="BF33" s="39"/>
-      <c r="BG33" s="39"/>
-      <c r="BH33" s="39"/>
-      <c r="BI33" s="39"/>
-      <c r="BJ33" s="39"/>
-      <c r="BK33" s="39"/>
-      <c r="BL33" s="39"/>
-    </row>
-    <row r="34" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>137</v>
+        <v>115</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="D34" s="5">
         <v>16</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G34" s="56" t="s">
         <v>12</v>
@@ -23311,265 +23369,265 @@
       <c r="H34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="5">
-        <v>1002</v>
-      </c>
-      <c r="K34" s="36" t="s">
-        <v>147</v>
+      <c r="I34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="53">
+        <v>2023</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="41" t="s">
+      <c r="M34" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="40" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>35</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="5">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="42">
+        <v>53</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G35" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="42" t="s">
         <v>36</v>
       </c>
       <c r="J35" s="53">
-        <v>2023</v>
-      </c>
-      <c r="K35" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="L35" s="35" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="L35" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M35" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:64" s="40" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M35" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="39"/>
+      <c r="AM35" s="39"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39"/>
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
+      <c r="AS35" s="39"/>
+      <c r="AT35" s="39"/>
+      <c r="AU35" s="39"/>
+      <c r="AV35" s="39"/>
+      <c r="AW35" s="39"/>
+      <c r="AX35" s="39"/>
+      <c r="AY35" s="39"/>
+      <c r="AZ35" s="39"/>
+      <c r="BA35" s="39"/>
+      <c r="BB35" s="39"/>
+      <c r="BC35" s="39"/>
+      <c r="BD35" s="39"/>
+      <c r="BE35" s="39"/>
+      <c r="BF35" s="39"/>
+      <c r="BG35" s="39"/>
+      <c r="BH35" s="39"/>
+      <c r="BI35" s="39"/>
+      <c r="BJ35" s="39"/>
+      <c r="BK35" s="39"/>
+      <c r="BL35" s="39"/>
+    </row>
+    <row r="36" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>36</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="42">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="4">
+        <v>21</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G36" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="42" t="s">
+      <c r="I36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J36" s="53">
-        <v>2025</v>
-      </c>
-      <c r="K36" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="L36" s="41" t="s">
+        <v>2030</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M36" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="39"/>
-      <c r="AM36" s="39"/>
-      <c r="AN36" s="39"/>
-      <c r="AO36" s="39"/>
-      <c r="AP36" s="39"/>
-      <c r="AQ36" s="39"/>
-      <c r="AR36" s="39"/>
-      <c r="AS36" s="39"/>
-      <c r="AT36" s="39"/>
-      <c r="AU36" s="39"/>
-      <c r="AV36" s="39"/>
-      <c r="AW36" s="39"/>
-      <c r="AX36" s="39"/>
-      <c r="AY36" s="39"/>
-      <c r="AZ36" s="39"/>
-      <c r="BA36" s="39"/>
-      <c r="BB36" s="39"/>
-      <c r="BC36" s="39"/>
-      <c r="BD36" s="39"/>
-      <c r="BE36" s="39"/>
-      <c r="BF36" s="39"/>
-      <c r="BG36" s="39"/>
-      <c r="BH36" s="39"/>
-      <c r="BI36" s="39"/>
-      <c r="BJ36" s="39"/>
-      <c r="BK36" s="39"/>
-      <c r="BL36" s="39"/>
-    </row>
-    <row r="37" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M36" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="23"/>
+      <c r="AN36" s="23"/>
+      <c r="AO36" s="23"/>
+      <c r="AP36" s="23"/>
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="23"/>
+      <c r="AS36" s="23"/>
+      <c r="AT36" s="23"/>
+      <c r="AU36" s="23"/>
+      <c r="AV36" s="23"/>
+      <c r="AW36" s="23"/>
+      <c r="AX36" s="23"/>
+      <c r="AY36" s="23"/>
+      <c r="AZ36" s="23"/>
+      <c r="BA36" s="23"/>
+      <c r="BB36" s="23"/>
+      <c r="BC36" s="23"/>
+      <c r="BD36" s="23"/>
+      <c r="BE36" s="23"/>
+      <c r="BF36" s="23"/>
+      <c r="BG36" s="23"/>
+      <c r="BH36" s="23"/>
+      <c r="BI36" s="23"/>
+      <c r="BJ36" s="23"/>
+      <c r="BK36" s="23"/>
+      <c r="BL36" s="23"/>
+    </row>
+    <row r="37" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="4">
-        <v>21</v>
+        <v>115</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G37" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>36</v>
+      <c r="I37" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="J37" s="53">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="L37" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M37" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="23"/>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="23"/>
-      <c r="AK37" s="23"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="23"/>
-      <c r="AO37" s="23"/>
-      <c r="AP37" s="23"/>
-      <c r="AQ37" s="23"/>
-      <c r="AR37" s="23"/>
-      <c r="AS37" s="23"/>
-      <c r="AT37" s="23"/>
-      <c r="AU37" s="23"/>
-      <c r="AV37" s="23"/>
-      <c r="AW37" s="23"/>
-      <c r="AX37" s="23"/>
-      <c r="AY37" s="23"/>
-      <c r="AZ37" s="23"/>
-      <c r="BA37" s="23"/>
-      <c r="BB37" s="23"/>
-      <c r="BC37" s="23"/>
-      <c r="BD37" s="23"/>
-      <c r="BE37" s="23"/>
-      <c r="BF37" s="23"/>
-      <c r="BG37" s="23"/>
-      <c r="BH37" s="23"/>
-      <c r="BI37" s="23"/>
-      <c r="BJ37" s="23"/>
-      <c r="BK37" s="23"/>
-      <c r="BL37" s="23"/>
+      <c r="M37" s="35" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>12</v>
+        <v>115</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="5">
+        <v>20</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G38" s="56" t="s">
         <v>12</v>
@@ -23578,39 +23636,39 @@
         <v>7</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J38" s="53">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="L38" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>172</v>
+        <v>115</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D39" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G39" s="56" t="s">
         <v>12</v>
@@ -23622,36 +23680,36 @@
         <v>36</v>
       </c>
       <c r="J39" s="53">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M39" s="35" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D40" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G40" s="56" t="s">
         <v>12</v>
@@ -23663,10 +23721,10 @@
         <v>36</v>
       </c>
       <c r="J40" s="53">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>0</v>
@@ -23677,278 +23735,278 @@
     </row>
     <row r="41" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="5">
-        <v>23</v>
+        <v>115</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="25">
+        <v>17</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>36</v>
+      <c r="I41" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="J41" s="53">
-        <v>2032</v>
-      </c>
-      <c r="K41" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="L41" s="35" t="s">
+        <v>2019</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="L41" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="M41" s="35" t="s">
+      <c r="M41" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="25">
+        <v>115</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="5">
         <v>17</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G42" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="53">
-        <v>2019</v>
+      <c r="I42" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1002</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="L42" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="L42" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M42" s="36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M42" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:64" s="40" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
-        <v>43</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="5">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="51">
+        <v>30</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G43" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="53" t="s">
-        <v>11</v>
+      <c r="I43" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="J43" s="5">
-        <v>1002</v>
-      </c>
-      <c r="K43" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="L43" s="35" t="s">
+        <v>2043</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="L43" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:64" s="40" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M43" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
+      <c r="AM43" s="39"/>
+      <c r="AN43" s="39"/>
+      <c r="AO43" s="39"/>
+      <c r="AP43" s="39"/>
+      <c r="AQ43" s="39"/>
+      <c r="AR43" s="39"/>
+      <c r="AS43" s="39"/>
+      <c r="AT43" s="39"/>
+      <c r="AU43" s="39"/>
+      <c r="AV43" s="39"/>
+      <c r="AW43" s="39"/>
+      <c r="AX43" s="39"/>
+      <c r="AY43" s="39"/>
+      <c r="AZ43" s="39"/>
+      <c r="BA43" s="39"/>
+      <c r="BB43" s="39"/>
+      <c r="BC43" s="39"/>
+      <c r="BD43" s="39"/>
+      <c r="BE43" s="39"/>
+      <c r="BF43" s="39"/>
+      <c r="BG43" s="39"/>
+      <c r="BH43" s="39"/>
+      <c r="BI43" s="39"/>
+      <c r="BJ43" s="39"/>
+      <c r="BK43" s="39"/>
+      <c r="BL43" s="39"/>
+    </row>
+    <row r="44" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>44</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="51">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="45">
+        <v>31</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G44" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="54" t="s">
+      <c r="I44" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J44" s="5">
-        <v>2043</v>
-      </c>
-      <c r="K44" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="L44" s="48" t="s">
+      <c r="J44" s="46">
+        <v>2033</v>
+      </c>
+      <c r="K44" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="39"/>
-      <c r="AB44" s="39"/>
-      <c r="AC44" s="39"/>
-      <c r="AD44" s="39"/>
-      <c r="AE44" s="39"/>
-      <c r="AF44" s="39"/>
-      <c r="AG44" s="39"/>
-      <c r="AH44" s="39"/>
-      <c r="AI44" s="39"/>
-      <c r="AJ44" s="39"/>
-      <c r="AK44" s="39"/>
-      <c r="AL44" s="39"/>
-      <c r="AM44" s="39"/>
-      <c r="AN44" s="39"/>
-      <c r="AO44" s="39"/>
-      <c r="AP44" s="39"/>
-      <c r="AQ44" s="39"/>
-      <c r="AR44" s="39"/>
-      <c r="AS44" s="39"/>
-      <c r="AT44" s="39"/>
-      <c r="AU44" s="39"/>
-      <c r="AV44" s="39"/>
-      <c r="AW44" s="39"/>
-      <c r="AX44" s="39"/>
-      <c r="AY44" s="39"/>
-      <c r="AZ44" s="39"/>
-      <c r="BA44" s="39"/>
-      <c r="BB44" s="39"/>
-      <c r="BC44" s="39"/>
-      <c r="BD44" s="39"/>
-      <c r="BE44" s="39"/>
-      <c r="BF44" s="39"/>
-      <c r="BG44" s="39"/>
-      <c r="BH44" s="39"/>
-      <c r="BI44" s="39"/>
-      <c r="BJ44" s="39"/>
-      <c r="BK44" s="39"/>
-      <c r="BL44" s="39"/>
-    </row>
-    <row r="45" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M44" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>45</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="45">
+        <v>46</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="5">
         <v>31</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G45" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="45" t="s">
+      <c r="H45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="J45" s="46">
-        <v>2033</v>
-      </c>
-      <c r="K45" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="L45" s="47" t="s">
+      <c r="I45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="8">
+        <v>2037</v>
+      </c>
+      <c r="K45" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M45" s="47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M45" s="41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="D46" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G46" s="56" t="s">
         <v>12</v>
@@ -23960,36 +24018,36 @@
         <v>11</v>
       </c>
       <c r="J46" s="8">
-        <v>2037</v>
-      </c>
-      <c r="K46" s="34" t="s">
-        <v>23</v>
+        <v>2036</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M46" s="41" t="s">
-        <v>152</v>
+      <c r="M46" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="D47" s="5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G47" s="56" t="s">
         <v>12</v>
@@ -23998,13 +24056,13 @@
         <v>7</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J47" s="8">
-        <v>2036</v>
-      </c>
-      <c r="K47" s="36" t="s">
-        <v>151</v>
+        <v>2038</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="L47" s="35" t="s">
         <v>0</v>
@@ -24013,24 +24071,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>130</v>
+        <v>115</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D48" s="5">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G48" s="56" t="s">
         <v>12</v>
@@ -24039,13 +24097,13 @@
         <v>7</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J48" s="8">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>0</v>
@@ -24054,86 +24112,137 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>49</v>
+    <row r="49" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>50</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="5">
-        <v>39</v>
+        <v>168</v>
+      </c>
+      <c r="D49" s="4">
+        <v>19</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G49" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="8">
-        <v>2039</v>
+      <c r="H49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="10">
+        <v>2044</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="L49" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="L49" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M49" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="M49" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23"/>
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23"/>
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="23"/>
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="23"/>
+      <c r="AS49" s="23"/>
+      <c r="AT49" s="23"/>
+      <c r="AU49" s="23"/>
+      <c r="AV49" s="23"/>
+      <c r="AW49" s="23"/>
+      <c r="AX49" s="23"/>
+      <c r="AY49" s="23"/>
+      <c r="AZ49" s="23"/>
+      <c r="BA49" s="23"/>
+      <c r="BB49" s="23"/>
+      <c r="BC49" s="23"/>
+      <c r="BD49" s="23"/>
+      <c r="BE49" s="23"/>
+      <c r="BF49" s="23"/>
+      <c r="BG49" s="23"/>
+      <c r="BH49" s="23"/>
+      <c r="BI49" s="23"/>
+      <c r="BJ49" s="23"/>
+      <c r="BK49" s="23"/>
+      <c r="BL49" s="23"/>
+    </row>
+    <row r="50" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D50" s="4">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G50" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>39</v>
       </c>
       <c r="J50" s="10">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L50" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M50" s="34" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
@@ -24187,114 +24296,90 @@
       <c r="BK50" s="23"/>
       <c r="BL50" s="23"/>
     </row>
-    <row r="51" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>51</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="4">
-        <v>8</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="G51" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J51" s="10">
-        <v>2045</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="L51" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="23"/>
-      <c r="AD51" s="23"/>
-      <c r="AE51" s="23"/>
-      <c r="AF51" s="23"/>
-      <c r="AG51" s="23"/>
-      <c r="AH51" s="23"/>
-      <c r="AI51" s="23"/>
-      <c r="AJ51" s="23"/>
-      <c r="AK51" s="23"/>
-      <c r="AL51" s="23"/>
-      <c r="AM51" s="23"/>
-      <c r="AN51" s="23"/>
-      <c r="AO51" s="23"/>
-      <c r="AP51" s="23"/>
-      <c r="AQ51" s="23"/>
-      <c r="AR51" s="23"/>
-      <c r="AS51" s="23"/>
-      <c r="AT51" s="23"/>
-      <c r="AU51" s="23"/>
-      <c r="AV51" s="23"/>
-      <c r="AW51" s="23"/>
-      <c r="AX51" s="23"/>
-      <c r="AY51" s="23"/>
-      <c r="AZ51" s="23"/>
-      <c r="BA51" s="23"/>
-      <c r="BB51" s="23"/>
-      <c r="BC51" s="23"/>
-      <c r="BD51" s="23"/>
-      <c r="BE51" s="23"/>
-      <c r="BF51" s="23"/>
-      <c r="BG51" s="23"/>
-      <c r="BH51" s="23"/>
-      <c r="BI51" s="23"/>
-      <c r="BJ51" s="23"/>
-      <c r="BK51" s="23"/>
-      <c r="BL51" s="23"/>
-    </row>
-    <row r="52" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="68" t="s">
+    <row r="51" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="70"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
+      <c r="AG51" s="22"/>
+      <c r="AH51" s="22"/>
+      <c r="AI51" s="22"/>
+      <c r="AJ51" s="22"/>
+      <c r="AK51" s="22"/>
+      <c r="AL51" s="22"/>
+      <c r="AM51" s="22"/>
+      <c r="AN51" s="22"/>
+      <c r="AO51" s="22"/>
+      <c r="AP51" s="22"/>
+      <c r="AQ51" s="22"/>
+      <c r="AR51" s="22"/>
+      <c r="AS51" s="22"/>
+      <c r="AT51" s="22"/>
+      <c r="AU51" s="22"/>
+      <c r="AV51" s="22"/>
+      <c r="AW51" s="22"/>
+      <c r="AX51" s="22"/>
+      <c r="AY51" s="22"/>
+      <c r="AZ51" s="22"/>
+      <c r="BA51" s="22"/>
+      <c r="BB51" s="22"/>
+      <c r="BC51" s="22"/>
+      <c r="BD51" s="22"/>
+      <c r="BE51" s="22"/>
+      <c r="BF51" s="22"/>
+      <c r="BG51" s="22"/>
+      <c r="BH51" s="22"/>
+      <c r="BI51" s="22"/>
+      <c r="BJ51" s="22"/>
+      <c r="BK51" s="22"/>
+      <c r="BL51" s="22"/>
+    </row>
+    <row r="52" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -24347,22 +24432,46 @@
       <c r="BK52" s="22"/>
       <c r="BL52" s="22"/>
     </row>
-    <row r="53" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
+    <row r="53" spans="1:64" s="64" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53" s="25">
+        <v>401</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="63" t="s">
+        <v>12</v>
+      </c>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
@@ -24415,24 +24524,24 @@
       <c r="BK53" s="22"/>
       <c r="BL53" s="22"/>
     </row>
-    <row r="54" spans="1:64" s="64" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G54" s="25">
         <v>401</v>
@@ -24444,15 +24553,15 @@
         <v>39</v>
       </c>
       <c r="J54" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L54" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M54" s="63" t="s">
+      <c r="M54" s="61" t="s">
         <v>12</v>
       </c>
       <c r="N54" s="22"/>
@@ -24509,22 +24618,22 @@
     </row>
     <row r="55" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G55" s="25">
         <v>401</v>
@@ -24536,15 +24645,15 @@
         <v>39</v>
       </c>
       <c r="J55" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L55" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M55" s="61" t="s">
+      <c r="M55" s="34" t="s">
         <v>12</v>
       </c>
       <c r="N55" s="22"/>
@@ -24599,104 +24708,104 @@
       <c r="BK55" s="22"/>
       <c r="BL55" s="22"/>
     </row>
-    <row r="56" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>54</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>117</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G56" s="25">
-        <v>401</v>
-      </c>
-      <c r="H56" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K56" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="L56" s="36" t="s">
-        <v>12</v>
+      <c r="I56" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="25">
+        <v>1003</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="M56" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
-      <c r="AM56" s="22"/>
-      <c r="AN56" s="22"/>
-      <c r="AO56" s="22"/>
-      <c r="AP56" s="22"/>
-      <c r="AQ56" s="22"/>
-      <c r="AR56" s="22"/>
-      <c r="AS56" s="22"/>
-      <c r="AT56" s="22"/>
-      <c r="AU56" s="22"/>
-      <c r="AV56" s="22"/>
-      <c r="AW56" s="22"/>
-      <c r="AX56" s="22"/>
-      <c r="AY56" s="22"/>
-      <c r="AZ56" s="22"/>
-      <c r="BA56" s="22"/>
-      <c r="BB56" s="22"/>
-      <c r="BC56" s="22"/>
-      <c r="BD56" s="22"/>
-      <c r="BE56" s="22"/>
-      <c r="BF56" s="22"/>
-      <c r="BG56" s="22"/>
-      <c r="BH56" s="22"/>
-      <c r="BI56" s="22"/>
-      <c r="BJ56" s="22"/>
-      <c r="BK56" s="22"/>
-      <c r="BL56" s="22"/>
-    </row>
-    <row r="57" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="23"/>
+      <c r="AE56" s="23"/>
+      <c r="AF56" s="23"/>
+      <c r="AG56" s="23"/>
+      <c r="AH56" s="23"/>
+      <c r="AI56" s="23"/>
+      <c r="AJ56" s="23"/>
+      <c r="AK56" s="23"/>
+      <c r="AL56" s="23"/>
+      <c r="AM56" s="23"/>
+      <c r="AN56" s="23"/>
+      <c r="AO56" s="23"/>
+      <c r="AP56" s="23"/>
+      <c r="AQ56" s="23"/>
+      <c r="AR56" s="23"/>
+      <c r="AS56" s="23"/>
+      <c r="AT56" s="23"/>
+      <c r="AU56" s="23"/>
+      <c r="AV56" s="23"/>
+      <c r="AW56" s="23"/>
+      <c r="AX56" s="23"/>
+      <c r="AY56" s="23"/>
+      <c r="AZ56" s="23"/>
+      <c r="BA56" s="23"/>
+      <c r="BB56" s="23"/>
+      <c r="BC56" s="23"/>
+      <c r="BD56" s="23"/>
+      <c r="BE56" s="23"/>
+      <c r="BF56" s="23"/>
+      <c r="BG56" s="23"/>
+      <c r="BH56" s="23"/>
+      <c r="BI56" s="23"/>
+      <c r="BJ56" s="23"/>
+      <c r="BK56" s="23"/>
+      <c r="BL56" s="23"/>
+    </row>
+    <row r="57" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>100</v>
@@ -24705,10 +24814,10 @@
         <v>12</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G57" s="25">
         <v>400</v>
@@ -24717,16 +24826,16 @@
         <v>7</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J57" s="25">
-        <v>1003</v>
+        <v>11</v>
+      </c>
+      <c r="J57" s="26">
+        <v>1004</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L57" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M57" s="34" t="s">
         <v>52</v>
@@ -24783,12 +24892,12 @@
       <c r="BK57" s="23"/>
       <c r="BL57" s="23"/>
     </row>
-    <row r="58" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>101</v>
@@ -24797,13 +24906,13 @@
         <v>12</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G58" s="25">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H58" s="25" t="s">
         <v>7</v>
@@ -24812,16 +24921,16 @@
         <v>11</v>
       </c>
       <c r="J58" s="26">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="K58" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L58" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="N58" s="23"/>
       <c r="O58" s="23"/>
@@ -24877,10 +24986,10 @@
     </row>
     <row r="59" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>102</v>
@@ -24889,10 +24998,10 @@
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G59" s="25">
         <v>403</v>
@@ -24901,19 +25010,19 @@
         <v>7</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J59" s="26">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K59" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L59" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M59" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N59" s="23"/>
       <c r="O59" s="23"/>
@@ -24969,22 +25078,22 @@
     </row>
     <row r="60" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G60" s="25">
         <v>403</v>
@@ -24996,16 +25105,16 @@
         <v>36</v>
       </c>
       <c r="J60" s="26">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K60" s="36" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L60" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M60" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N60" s="23"/>
       <c r="O60" s="23"/>
@@ -25061,22 +25170,22 @@
     </row>
     <row r="61" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G61" s="25">
         <v>403</v>
@@ -25085,19 +25194,19 @@
         <v>7</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="26">
-        <v>1008</v>
+        <v>39</v>
+      </c>
+      <c r="J61" s="25">
+        <v>1011</v>
       </c>
       <c r="K61" s="36" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="L61" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="M61" s="34" t="s">
         <v>69</v>
+      </c>
+      <c r="M61" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="N61" s="23"/>
       <c r="O61" s="23"/>
@@ -25153,43 +25262,43 @@
     </row>
     <row r="62" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G62" s="25">
-        <v>403</v>
-      </c>
-      <c r="H62" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="25" t="s">
+      <c r="I62" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J62" s="25">
-        <v>1011</v>
-      </c>
-      <c r="K62" s="36" t="s">
-        <v>85</v>
+      <c r="J62" s="4">
+        <v>2501</v>
+      </c>
+      <c r="K62" s="34" t="s">
+        <v>48</v>
       </c>
       <c r="L62" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="M62" s="36" t="s">
-        <v>51</v>
+      <c r="M62" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="N62" s="23"/>
       <c r="O62" s="23"/>
@@ -25243,114 +25352,90 @@
       <c r="BK62" s="23"/>
       <c r="BL62" s="23"/>
     </row>
-    <row r="63" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>61</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G63" s="25">
-        <v>404</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J63" s="4">
-        <v>2501</v>
-      </c>
-      <c r="K63" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L63" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="M63" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="23"/>
-      <c r="Z63" s="23"/>
-      <c r="AA63" s="23"/>
-      <c r="AB63" s="23"/>
-      <c r="AC63" s="23"/>
-      <c r="AD63" s="23"/>
-      <c r="AE63" s="23"/>
-      <c r="AF63" s="23"/>
-      <c r="AG63" s="23"/>
-      <c r="AH63" s="23"/>
-      <c r="AI63" s="23"/>
-      <c r="AJ63" s="23"/>
-      <c r="AK63" s="23"/>
-      <c r="AL63" s="23"/>
-      <c r="AM63" s="23"/>
-      <c r="AN63" s="23"/>
-      <c r="AO63" s="23"/>
-      <c r="AP63" s="23"/>
-      <c r="AQ63" s="23"/>
-      <c r="AR63" s="23"/>
-      <c r="AS63" s="23"/>
-      <c r="AT63" s="23"/>
-      <c r="AU63" s="23"/>
-      <c r="AV63" s="23"/>
-      <c r="AW63" s="23"/>
-      <c r="AX63" s="23"/>
-      <c r="AY63" s="23"/>
-      <c r="AZ63" s="23"/>
-      <c r="BA63" s="23"/>
-      <c r="BB63" s="23"/>
-      <c r="BC63" s="23"/>
-      <c r="BD63" s="23"/>
-      <c r="BE63" s="23"/>
-      <c r="BF63" s="23"/>
-      <c r="BG63" s="23"/>
-      <c r="BH63" s="23"/>
-      <c r="BI63" s="23"/>
-      <c r="BJ63" s="23"/>
-      <c r="BK63" s="23"/>
-      <c r="BL63" s="23"/>
-    </row>
-    <row r="64" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="67" t="s">
+    <row r="63" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="22"/>
+      <c r="AH63" s="22"/>
+      <c r="AI63" s="22"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="22"/>
+      <c r="AL63" s="22"/>
+      <c r="AM63" s="22"/>
+      <c r="AN63" s="22"/>
+      <c r="AO63" s="22"/>
+      <c r="AP63" s="22"/>
+      <c r="AQ63" s="22"/>
+      <c r="AR63" s="22"/>
+      <c r="AS63" s="22"/>
+      <c r="AT63" s="22"/>
+      <c r="AU63" s="22"/>
+      <c r="AV63" s="22"/>
+      <c r="AW63" s="22"/>
+      <c r="AX63" s="22"/>
+      <c r="AY63" s="22"/>
+      <c r="AZ63" s="22"/>
+      <c r="BA63" s="22"/>
+      <c r="BB63" s="22"/>
+      <c r="BC63" s="22"/>
+      <c r="BD63" s="22"/>
+      <c r="BE63" s="22"/>
+      <c r="BF63" s="22"/>
+      <c r="BG63" s="22"/>
+      <c r="BH63" s="22"/>
+      <c r="BI63" s="22"/>
+      <c r="BJ63" s="22"/>
+      <c r="BK63" s="22"/>
+      <c r="BL63" s="22"/>
+    </row>
+    <row r="64" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
@@ -25403,22 +25488,46 @@
       <c r="BK64" s="22"/>
       <c r="BL64" s="22"/>
     </row>
-    <row r="65" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
+    <row r="65" spans="1:64" s="64" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>62</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="25">
+        <v>401</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="63" t="s">
+        <v>12</v>
+      </c>
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
@@ -25471,24 +25580,24 @@
       <c r="BK65" s="22"/>
       <c r="BL65" s="22"/>
     </row>
-    <row r="66" spans="1:64" s="64" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G66" s="25">
         <v>401</v>
@@ -25500,15 +25609,15 @@
         <v>39</v>
       </c>
       <c r="J66" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L66" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M66" s="63" t="s">
+      <c r="M66" s="61" t="s">
         <v>12</v>
       </c>
       <c r="N66" s="22"/>
@@ -25565,22 +25674,22 @@
     </row>
     <row r="67" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G67" s="25">
         <v>401</v>
@@ -25592,15 +25701,15 @@
         <v>39</v>
       </c>
       <c r="J67" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L67" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M67" s="61" t="s">
+      <c r="M67" s="34" t="s">
         <v>12</v>
       </c>
       <c r="N67" s="22"/>
@@ -25655,136 +25764,136 @@
       <c r="BK67" s="22"/>
       <c r="BL67" s="22"/>
     </row>
-    <row r="68" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>64</v>
-      </c>
-      <c r="B68" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="24" t="s">
-        <v>186</v>
+      <c r="C68" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G68" s="25">
-        <v>401</v>
-      </c>
-      <c r="H68" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H68" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J68" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K68" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="L68" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="M68" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="22"/>
-      <c r="AJ68" s="22"/>
-      <c r="AK68" s="22"/>
-      <c r="AL68" s="22"/>
-      <c r="AM68" s="22"/>
-      <c r="AN68" s="22"/>
-      <c r="AO68" s="22"/>
-      <c r="AP68" s="22"/>
-      <c r="AQ68" s="22"/>
-      <c r="AR68" s="22"/>
-      <c r="AS68" s="22"/>
-      <c r="AT68" s="22"/>
-      <c r="AU68" s="22"/>
-      <c r="AV68" s="22"/>
-      <c r="AW68" s="22"/>
-      <c r="AX68" s="22"/>
-      <c r="AY68" s="22"/>
-      <c r="AZ68" s="22"/>
-      <c r="BA68" s="22"/>
-      <c r="BB68" s="22"/>
-      <c r="BC68" s="22"/>
-      <c r="BD68" s="22"/>
-      <c r="BE68" s="22"/>
-      <c r="BF68" s="22"/>
-      <c r="BG68" s="22"/>
-      <c r="BH68" s="22"/>
-      <c r="BI68" s="22"/>
-      <c r="BJ68" s="22"/>
-      <c r="BK68" s="22"/>
-      <c r="BL68" s="22"/>
-    </row>
-    <row r="69" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="I68" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="26">
+        <v>1003</v>
+      </c>
+      <c r="K68" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="23"/>
+      <c r="Y68" s="23"/>
+      <c r="Z68" s="23"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="23"/>
+      <c r="AC68" s="23"/>
+      <c r="AD68" s="23"/>
+      <c r="AE68" s="23"/>
+      <c r="AF68" s="23"/>
+      <c r="AG68" s="23"/>
+      <c r="AH68" s="23"/>
+      <c r="AI68" s="23"/>
+      <c r="AJ68" s="23"/>
+      <c r="AK68" s="23"/>
+      <c r="AL68" s="23"/>
+      <c r="AM68" s="23"/>
+      <c r="AN68" s="23"/>
+      <c r="AO68" s="23"/>
+      <c r="AP68" s="23"/>
+      <c r="AQ68" s="23"/>
+      <c r="AR68" s="23"/>
+      <c r="AS68" s="23"/>
+      <c r="AT68" s="23"/>
+      <c r="AU68" s="23"/>
+      <c r="AV68" s="23"/>
+      <c r="AW68" s="23"/>
+      <c r="AX68" s="23"/>
+      <c r="AY68" s="23"/>
+      <c r="AZ68" s="23"/>
+      <c r="BA68" s="23"/>
+      <c r="BB68" s="23"/>
+      <c r="BC68" s="23"/>
+      <c r="BD68" s="23"/>
+      <c r="BE68" s="23"/>
+      <c r="BF68" s="23"/>
+      <c r="BG68" s="23"/>
+      <c r="BH68" s="23"/>
+      <c r="BI68" s="23"/>
+      <c r="BJ68" s="23"/>
+      <c r="BK68" s="23"/>
+      <c r="BL68" s="23"/>
+    </row>
+    <row r="69" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G69" s="25">
         <v>400</v>
       </c>
-      <c r="H69" s="26" t="s">
+      <c r="H69" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J69" s="26">
-        <v>1003</v>
-      </c>
-      <c r="K69" s="61" t="s">
-        <v>14</v>
+        <v>1004</v>
+      </c>
+      <c r="K69" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="L69" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="M69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M69" s="34" t="s">
         <v>52</v>
       </c>
       <c r="N69" s="23"/>
@@ -25839,12 +25948,12 @@
       <c r="BK69" s="23"/>
       <c r="BL69" s="23"/>
     </row>
-    <row r="70" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>101</v>
@@ -25853,13 +25962,13 @@
         <v>12</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G70" s="25">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H70" s="25" t="s">
         <v>7</v>
@@ -25868,16 +25977,16 @@
         <v>11</v>
       </c>
       <c r="J70" s="26">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="K70" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L70" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="N70" s="23"/>
       <c r="O70" s="23"/>
@@ -25933,10 +26042,10 @@
     </row>
     <row r="71" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>102</v>
@@ -25945,10 +26054,10 @@
         <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G71" s="25">
         <v>403</v>
@@ -25957,19 +26066,19 @@
         <v>7</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J71" s="26">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K71" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L71" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M71" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N71" s="23"/>
       <c r="O71" s="23"/>
@@ -26025,10 +26134,10 @@
     </row>
     <row r="72" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>103</v>
@@ -26037,10 +26146,10 @@
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G72" s="25">
         <v>403</v>
@@ -26052,16 +26161,16 @@
         <v>36</v>
       </c>
       <c r="J72" s="26">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K72" s="34" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L72" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M72" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
@@ -26117,22 +26226,22 @@
     </row>
     <row r="73" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G73" s="25">
         <v>403</v>
@@ -26141,19 +26250,19 @@
         <v>7</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J73" s="26">
-        <v>1008</v>
-      </c>
-      <c r="K73" s="34" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="J73" s="25">
+        <v>1011</v>
+      </c>
+      <c r="K73" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="L73" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="M73" s="34" t="s">
         <v>69</v>
+      </c>
+      <c r="M73" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
@@ -26209,43 +26318,43 @@
     </row>
     <row r="74" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G74" s="25">
-        <v>403</v>
-      </c>
-      <c r="H74" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I74" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74" s="25">
-        <v>1011</v>
-      </c>
-      <c r="K74" s="36" t="s">
-        <v>85</v>
+      <c r="I74" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J74" s="10">
+        <v>2506</v>
+      </c>
+      <c r="K74" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="L74" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="M74" s="36" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="M74" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="N74" s="23"/>
       <c r="O74" s="23"/>
@@ -26299,114 +26408,90 @@
       <c r="BK74" s="23"/>
       <c r="BL74" s="23"/>
     </row>
-    <row r="75" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>71</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G75" s="25">
-        <v>404</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J75" s="10">
-        <v>2506</v>
-      </c>
-      <c r="K75" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L75" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="M75" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
-      <c r="X75" s="23"/>
-      <c r="Y75" s="23"/>
-      <c r="Z75" s="23"/>
-      <c r="AA75" s="23"/>
-      <c r="AB75" s="23"/>
-      <c r="AC75" s="23"/>
-      <c r="AD75" s="23"/>
-      <c r="AE75" s="23"/>
-      <c r="AF75" s="23"/>
-      <c r="AG75" s="23"/>
-      <c r="AH75" s="23"/>
-      <c r="AI75" s="23"/>
-      <c r="AJ75" s="23"/>
-      <c r="AK75" s="23"/>
-      <c r="AL75" s="23"/>
-      <c r="AM75" s="23"/>
-      <c r="AN75" s="23"/>
-      <c r="AO75" s="23"/>
-      <c r="AP75" s="23"/>
-      <c r="AQ75" s="23"/>
-      <c r="AR75" s="23"/>
-      <c r="AS75" s="23"/>
-      <c r="AT75" s="23"/>
-      <c r="AU75" s="23"/>
-      <c r="AV75" s="23"/>
-      <c r="AW75" s="23"/>
-      <c r="AX75" s="23"/>
-      <c r="AY75" s="23"/>
-      <c r="AZ75" s="23"/>
-      <c r="BA75" s="23"/>
-      <c r="BB75" s="23"/>
-      <c r="BC75" s="23"/>
-      <c r="BD75" s="23"/>
-      <c r="BE75" s="23"/>
-      <c r="BF75" s="23"/>
-      <c r="BG75" s="23"/>
-      <c r="BH75" s="23"/>
-      <c r="BI75" s="23"/>
-      <c r="BJ75" s="23"/>
-      <c r="BK75" s="23"/>
-      <c r="BL75" s="23"/>
-    </row>
-    <row r="76" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="67"/>
+    <row r="75" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="67"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="22"/>
+      <c r="U75" s="22"/>
+      <c r="V75" s="22"/>
+      <c r="W75" s="22"/>
+      <c r="X75" s="22"/>
+      <c r="Y75" s="22"/>
+      <c r="Z75" s="22"/>
+      <c r="AA75" s="22"/>
+      <c r="AB75" s="22"/>
+      <c r="AC75" s="22"/>
+      <c r="AD75" s="22"/>
+      <c r="AE75" s="22"/>
+      <c r="AF75" s="22"/>
+      <c r="AG75" s="22"/>
+      <c r="AH75" s="22"/>
+      <c r="AI75" s="22"/>
+      <c r="AJ75" s="22"/>
+      <c r="AK75" s="22"/>
+      <c r="AL75" s="22"/>
+      <c r="AM75" s="22"/>
+      <c r="AN75" s="22"/>
+      <c r="AO75" s="22"/>
+      <c r="AP75" s="22"/>
+      <c r="AQ75" s="22"/>
+      <c r="AR75" s="22"/>
+      <c r="AS75" s="22"/>
+      <c r="AT75" s="22"/>
+      <c r="AU75" s="22"/>
+      <c r="AV75" s="22"/>
+      <c r="AW75" s="22"/>
+      <c r="AX75" s="22"/>
+      <c r="AY75" s="22"/>
+      <c r="AZ75" s="22"/>
+      <c r="BA75" s="22"/>
+      <c r="BB75" s="22"/>
+      <c r="BC75" s="22"/>
+      <c r="BD75" s="22"/>
+      <c r="BE75" s="22"/>
+      <c r="BF75" s="22"/>
+      <c r="BG75" s="22"/>
+      <c r="BH75" s="22"/>
+      <c r="BI75" s="22"/>
+      <c r="BJ75" s="22"/>
+      <c r="BK75" s="22"/>
+      <c r="BL75" s="22"/>
+    </row>
+    <row r="76" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
+      <c r="M76" s="66"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
@@ -26459,22 +26544,46 @@
       <c r="BK76" s="22"/>
       <c r="BL76" s="22"/>
     </row>
-    <row r="77" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
-      <c r="M77" s="66"/>
+    <row r="77" spans="1:64" s="64" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>72</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" s="25">
+        <v>401</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K77" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L77" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="63" t="s">
+        <v>12</v>
+      </c>
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
       <c r="P77" s="22"/>
@@ -26527,24 +26636,24 @@
       <c r="BK77" s="22"/>
       <c r="BL77" s="22"/>
     </row>
-    <row r="78" spans="1:64" s="64" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G78" s="25">
         <v>401</v>
@@ -26556,15 +26665,15 @@
         <v>39</v>
       </c>
       <c r="J78" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L78" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M78" s="63" t="s">
+      <c r="M78" s="61" t="s">
         <v>12</v>
       </c>
       <c r="N78" s="22"/>
@@ -26621,22 +26730,22 @@
     </row>
     <row r="79" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G79" s="25">
         <v>401</v>
@@ -26648,15 +26757,15 @@
         <v>39</v>
       </c>
       <c r="J79" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L79" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M79" s="61" t="s">
+      <c r="M79" s="34" t="s">
         <v>12</v>
       </c>
       <c r="N79" s="22"/>
@@ -26711,116 +26820,116 @@
       <c r="BK79" s="22"/>
       <c r="BL79" s="22"/>
     </row>
-    <row r="80" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>74</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>186</v>
+        <v>75</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G80" s="25">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J80" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K80" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="L80" s="36" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="J80" s="10">
+        <v>1003</v>
+      </c>
+      <c r="K80" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="34" t="s">
+        <v>153</v>
       </c>
       <c r="M80" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="22"/>
-      <c r="U80" s="22"/>
-      <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="22"/>
-      <c r="Y80" s="22"/>
-      <c r="Z80" s="22"/>
-      <c r="AA80" s="22"/>
-      <c r="AB80" s="22"/>
-      <c r="AC80" s="22"/>
-      <c r="AD80" s="22"/>
-      <c r="AE80" s="22"/>
-      <c r="AF80" s="22"/>
-      <c r="AG80" s="22"/>
-      <c r="AH80" s="22"/>
-      <c r="AI80" s="22"/>
-      <c r="AJ80" s="22"/>
-      <c r="AK80" s="22"/>
-      <c r="AL80" s="22"/>
-      <c r="AM80" s="22"/>
-      <c r="AN80" s="22"/>
-      <c r="AO80" s="22"/>
-      <c r="AP80" s="22"/>
-      <c r="AQ80" s="22"/>
-      <c r="AR80" s="22"/>
-      <c r="AS80" s="22"/>
-      <c r="AT80" s="22"/>
-      <c r="AU80" s="22"/>
-      <c r="AV80" s="22"/>
-      <c r="AW80" s="22"/>
-      <c r="AX80" s="22"/>
-      <c r="AY80" s="22"/>
-      <c r="AZ80" s="22"/>
-      <c r="BA80" s="22"/>
-      <c r="BB80" s="22"/>
-      <c r="BC80" s="22"/>
-      <c r="BD80" s="22"/>
-      <c r="BE80" s="22"/>
-      <c r="BF80" s="22"/>
-      <c r="BG80" s="22"/>
-      <c r="BH80" s="22"/>
-      <c r="BI80" s="22"/>
-      <c r="BJ80" s="22"/>
-      <c r="BK80" s="22"/>
-      <c r="BL80" s="22"/>
-    </row>
-    <row r="81" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="23"/>
+      <c r="Z80" s="23"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="23"/>
+      <c r="AC80" s="23"/>
+      <c r="AD80" s="23"/>
+      <c r="AE80" s="23"/>
+      <c r="AF80" s="23"/>
+      <c r="AG80" s="23"/>
+      <c r="AH80" s="23"/>
+      <c r="AI80" s="23"/>
+      <c r="AJ80" s="23"/>
+      <c r="AK80" s="23"/>
+      <c r="AL80" s="23"/>
+      <c r="AM80" s="23"/>
+      <c r="AN80" s="23"/>
+      <c r="AO80" s="23"/>
+      <c r="AP80" s="23"/>
+      <c r="AQ80" s="23"/>
+      <c r="AR80" s="23"/>
+      <c r="AS80" s="23"/>
+      <c r="AT80" s="23"/>
+      <c r="AU80" s="23"/>
+      <c r="AV80" s="23"/>
+      <c r="AW80" s="23"/>
+      <c r="AX80" s="23"/>
+      <c r="AY80" s="23"/>
+      <c r="AZ80" s="23"/>
+      <c r="BA80" s="23"/>
+      <c r="BB80" s="23"/>
+      <c r="BC80" s="23"/>
+      <c r="BD80" s="23"/>
+      <c r="BE80" s="23"/>
+      <c r="BF80" s="23"/>
+      <c r="BG80" s="23"/>
+      <c r="BH80" s="23"/>
+      <c r="BI80" s="23"/>
+      <c r="BJ80" s="23"/>
+      <c r="BK80" s="23"/>
+      <c r="BL80" s="23"/>
+    </row>
+    <row r="81" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G81" s="25">
         <v>400</v>
@@ -26829,16 +26938,16 @@
         <v>7</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J81" s="10">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="K81" s="34" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L81" s="34" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M81" s="34" t="s">
         <v>52</v>
@@ -26895,24 +27004,24 @@
       <c r="BK81" s="23"/>
       <c r="BL81" s="23"/>
     </row>
-    <row r="82" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G82" s="25">
         <v>400</v>
@@ -26921,16 +27030,16 @@
         <v>7</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J82" s="10">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="K82" s="34" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L82" s="34" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M82" s="34" t="s">
         <v>52</v>
@@ -26989,43 +27098,43 @@
     </row>
     <row r="83" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G83" s="25">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J83" s="10">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="K83" s="34" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L83" s="34" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M83" s="34" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
@@ -27081,10 +27190,10 @@
     </row>
     <row r="84" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>102</v>
@@ -27093,10 +27202,10 @@
         <v>12</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G84" s="25">
         <v>403</v>
@@ -27105,19 +27214,19 @@
         <v>7</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J84" s="10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K84" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L84" s="34" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M84" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N84" s="23"/>
       <c r="O84" s="23"/>
@@ -27171,12 +27280,12 @@
       <c r="BK84" s="23"/>
       <c r="BL84" s="23"/>
     </row>
-    <row r="85" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>103</v>
@@ -27185,10 +27294,10 @@
         <v>12</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G85" s="25">
         <v>403</v>
@@ -27200,16 +27309,16 @@
         <v>36</v>
       </c>
       <c r="J85" s="10">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K85" s="34" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L85" s="34" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M85" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N85" s="23"/>
       <c r="O85" s="23"/>
@@ -27265,22 +27374,22 @@
     </row>
     <row r="86" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D86" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G86" s="25">
         <v>403</v>
@@ -27289,19 +27398,19 @@
         <v>7</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J86" s="10">
-        <v>1008</v>
-      </c>
-      <c r="K86" s="34" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="J86" s="4">
+        <v>1011</v>
+      </c>
+      <c r="K86" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="L86" s="34" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M86" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N86" s="23"/>
       <c r="O86" s="23"/>
@@ -27357,25 +27466,25 @@
     </row>
     <row r="87" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G87" s="25">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>7</v>
@@ -27383,17 +27492,17 @@
       <c r="I87" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J87" s="4">
-        <v>1011</v>
-      </c>
-      <c r="K87" s="36" t="s">
-        <v>85</v>
+      <c r="J87" s="10">
+        <v>3001</v>
+      </c>
+      <c r="K87" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="L87" s="34" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M87" s="34" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N87" s="23"/>
       <c r="O87" s="23"/>
@@ -27447,24 +27556,24 @@
       <c r="BK87" s="23"/>
       <c r="BL87" s="23"/>
     </row>
-    <row r="88" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G88" s="25">
         <v>400</v>
@@ -27473,16 +27582,16 @@
         <v>7</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J88" s="10">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="K88" s="34" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="L88" s="34" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M88" s="34" t="s">
         <v>75</v>
@@ -27539,24 +27648,24 @@
       <c r="BK88" s="23"/>
       <c r="BL88" s="23"/>
     </row>
-    <row r="89" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G89" s="25">
         <v>400</v>
@@ -27567,17 +27676,17 @@
       <c r="I89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J89" s="10">
-        <v>3002</v>
-      </c>
-      <c r="K89" s="34" t="s">
-        <v>32</v>
+      <c r="J89" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K89" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="L89" s="34" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M89" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N89" s="23"/>
       <c r="O89" s="23"/>
@@ -27631,274 +27740,250 @@
       <c r="BK89" s="23"/>
       <c r="BL89" s="23"/>
     </row>
-    <row r="90" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
-        <v>84</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D90" s="4" t="s">
+    <row r="90" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
+      <c r="M90" s="66"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="22"/>
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="22"/>
+      <c r="AA90" s="22"/>
+      <c r="AB90" s="22"/>
+      <c r="AC90" s="22"/>
+      <c r="AD90" s="22"/>
+      <c r="AE90" s="22"/>
+      <c r="AF90" s="22"/>
+      <c r="AG90" s="22"/>
+      <c r="AH90" s="22"/>
+      <c r="AI90" s="22"/>
+      <c r="AJ90" s="22"/>
+      <c r="AK90" s="22"/>
+      <c r="AL90" s="22"/>
+      <c r="AM90" s="22"/>
+      <c r="AN90" s="22"/>
+      <c r="AO90" s="22"/>
+      <c r="AP90" s="22"/>
+      <c r="AQ90" s="22"/>
+      <c r="AR90" s="22"/>
+      <c r="AS90" s="22"/>
+      <c r="AT90" s="22"/>
+      <c r="AU90" s="22"/>
+      <c r="AV90" s="22"/>
+      <c r="AW90" s="22"/>
+      <c r="AX90" s="22"/>
+      <c r="AY90" s="22"/>
+      <c r="AZ90" s="22"/>
+      <c r="BA90" s="22"/>
+      <c r="BB90" s="22"/>
+      <c r="BC90" s="22"/>
+      <c r="BD90" s="22"/>
+      <c r="BE90" s="22"/>
+      <c r="BF90" s="22"/>
+      <c r="BG90" s="22"/>
+      <c r="BH90" s="22"/>
+      <c r="BI90" s="22"/>
+      <c r="BJ90" s="22"/>
+      <c r="BK90" s="22"/>
+      <c r="BL90" s="22"/>
+    </row>
+    <row r="91" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>85</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="4">
+        <v>8</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G91" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G90" s="25">
-        <v>400</v>
-      </c>
-      <c r="H90" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J90" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K90" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="L90" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="M90" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N90" s="23"/>
-      <c r="O90" s="23"/>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="23"/>
-      <c r="R90" s="23"/>
-      <c r="S90" s="23"/>
-      <c r="T90" s="23"/>
-      <c r="U90" s="23"/>
-      <c r="V90" s="23"/>
-      <c r="W90" s="23"/>
-      <c r="X90" s="23"/>
-      <c r="Y90" s="23"/>
-      <c r="Z90" s="23"/>
-      <c r="AA90" s="23"/>
-      <c r="AB90" s="23"/>
-      <c r="AC90" s="23"/>
-      <c r="AD90" s="23"/>
-      <c r="AE90" s="23"/>
-      <c r="AF90" s="23"/>
-      <c r="AG90" s="23"/>
-      <c r="AH90" s="23"/>
-      <c r="AI90" s="23"/>
-      <c r="AJ90" s="23"/>
-      <c r="AK90" s="23"/>
-      <c r="AL90" s="23"/>
-      <c r="AM90" s="23"/>
-      <c r="AN90" s="23"/>
-      <c r="AO90" s="23"/>
-      <c r="AP90" s="23"/>
-      <c r="AQ90" s="23"/>
-      <c r="AR90" s="23"/>
-      <c r="AS90" s="23"/>
-      <c r="AT90" s="23"/>
-      <c r="AU90" s="23"/>
-      <c r="AV90" s="23"/>
-      <c r="AW90" s="23"/>
-      <c r="AX90" s="23"/>
-      <c r="AY90" s="23"/>
-      <c r="AZ90" s="23"/>
-      <c r="BA90" s="23"/>
-      <c r="BB90" s="23"/>
-      <c r="BC90" s="23"/>
-      <c r="BD90" s="23"/>
-      <c r="BE90" s="23"/>
-      <c r="BF90" s="23"/>
-      <c r="BG90" s="23"/>
-      <c r="BH90" s="23"/>
-      <c r="BI90" s="23"/>
-      <c r="BJ90" s="23"/>
-      <c r="BK90" s="23"/>
-      <c r="BL90" s="23"/>
-    </row>
-    <row r="91" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-      <c r="L91" s="66"/>
-      <c r="M91" s="66"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
-      <c r="AA91" s="22"/>
-      <c r="AB91" s="22"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="22"/>
-      <c r="AE91" s="22"/>
-      <c r="AF91" s="22"/>
-      <c r="AG91" s="22"/>
-      <c r="AH91" s="22"/>
-      <c r="AI91" s="22"/>
-      <c r="AJ91" s="22"/>
-      <c r="AK91" s="22"/>
-      <c r="AL91" s="22"/>
-      <c r="AM91" s="22"/>
-      <c r="AN91" s="22"/>
-      <c r="AO91" s="22"/>
-      <c r="AP91" s="22"/>
-      <c r="AQ91" s="22"/>
-      <c r="AR91" s="22"/>
-      <c r="AS91" s="22"/>
-      <c r="AT91" s="22"/>
-      <c r="AU91" s="22"/>
-      <c r="AV91" s="22"/>
-      <c r="AW91" s="22"/>
-      <c r="AX91" s="22"/>
-      <c r="AY91" s="22"/>
-      <c r="AZ91" s="22"/>
-      <c r="BA91" s="22"/>
-      <c r="BB91" s="22"/>
-      <c r="BC91" s="22"/>
-      <c r="BD91" s="22"/>
-      <c r="BE91" s="22"/>
-      <c r="BF91" s="22"/>
-      <c r="BG91" s="22"/>
-      <c r="BH91" s="22"/>
-      <c r="BI91" s="22"/>
-      <c r="BJ91" s="22"/>
-      <c r="BK91" s="22"/>
-      <c r="BL91" s="22"/>
-    </row>
-    <row r="92" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <v>85</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" s="4">
-        <v>8</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="G92" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J92" s="4">
+      <c r="J91" s="4">
         <v>1010</v>
       </c>
-      <c r="K92" s="34" t="s">
+      <c r="K91" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="L92" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="M92" s="34" t="s">
+      <c r="L91" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M91" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="N92" s="23"/>
-      <c r="O92" s="23"/>
-      <c r="P92" s="23"/>
-      <c r="Q92" s="23"/>
-      <c r="R92" s="23"/>
-      <c r="S92" s="23"/>
-      <c r="T92" s="23"/>
-      <c r="U92" s="23"/>
-      <c r="V92" s="23"/>
-      <c r="W92" s="23"/>
-      <c r="X92" s="23"/>
-      <c r="Y92" s="23"/>
-      <c r="Z92" s="23"/>
-      <c r="AA92" s="23"/>
-      <c r="AB92" s="23"/>
-      <c r="AC92" s="23"/>
-      <c r="AD92" s="23"/>
-      <c r="AE92" s="23"/>
-      <c r="AF92" s="23"/>
-      <c r="AG92" s="23"/>
-      <c r="AH92" s="23"/>
-      <c r="AI92" s="23"/>
-      <c r="AJ92" s="23"/>
-      <c r="AK92" s="23"/>
-      <c r="AL92" s="23"/>
-      <c r="AM92" s="23"/>
-      <c r="AN92" s="23"/>
-      <c r="AO92" s="23"/>
-      <c r="AP92" s="23"/>
-      <c r="AQ92" s="23"/>
-      <c r="AR92" s="23"/>
-      <c r="AS92" s="23"/>
-      <c r="AT92" s="23"/>
-      <c r="AU92" s="23"/>
-      <c r="AV92" s="23"/>
-      <c r="AW92" s="23"/>
-      <c r="AX92" s="23"/>
-      <c r="AY92" s="23"/>
-      <c r="AZ92" s="23"/>
-      <c r="BA92" s="23"/>
-      <c r="BB92" s="23"/>
-      <c r="BC92" s="23"/>
-      <c r="BD92" s="23"/>
-      <c r="BE92" s="23"/>
-      <c r="BF92" s="23"/>
-      <c r="BG92" s="23"/>
-      <c r="BH92" s="23"/>
-      <c r="BI92" s="23"/>
-      <c r="BJ92" s="23"/>
-      <c r="BK92" s="23"/>
-      <c r="BL92" s="23"/>
-    </row>
-    <row r="93" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="B93" s="67"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="67"/>
-      <c r="L93" s="67"/>
-      <c r="M93" s="67"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
+      <c r="AL91" s="23"/>
+      <c r="AM91" s="23"/>
+      <c r="AN91" s="23"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="23"/>
+      <c r="AQ91" s="23"/>
+      <c r="AR91" s="23"/>
+      <c r="AS91" s="23"/>
+      <c r="AT91" s="23"/>
+      <c r="AU91" s="23"/>
+      <c r="AV91" s="23"/>
+      <c r="AW91" s="23"/>
+      <c r="AX91" s="23"/>
+      <c r="AY91" s="23"/>
+      <c r="AZ91" s="23"/>
+      <c r="BA91" s="23"/>
+      <c r="BB91" s="23"/>
+      <c r="BC91" s="23"/>
+      <c r="BD91" s="23"/>
+      <c r="BE91" s="23"/>
+      <c r="BF91" s="23"/>
+      <c r="BG91" s="23"/>
+      <c r="BH91" s="23"/>
+      <c r="BI91" s="23"/>
+      <c r="BJ91" s="23"/>
+      <c r="BK91" s="23"/>
+      <c r="BL91" s="23"/>
+    </row>
+    <row r="92" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="67"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22"/>
+      <c r="X92" s="22"/>
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="22"/>
+      <c r="AA92" s="22"/>
+      <c r="AB92" s="22"/>
+      <c r="AC92" s="22"/>
+      <c r="AD92" s="22"/>
+      <c r="AE92" s="22"/>
+      <c r="AF92" s="22"/>
+      <c r="AG92" s="22"/>
+      <c r="AH92" s="22"/>
+      <c r="AI92" s="22"/>
+      <c r="AJ92" s="22"/>
+      <c r="AK92" s="22"/>
+      <c r="AL92" s="22"/>
+      <c r="AM92" s="22"/>
+      <c r="AN92" s="22"/>
+      <c r="AO92" s="22"/>
+      <c r="AP92" s="22"/>
+      <c r="AQ92" s="22"/>
+      <c r="AR92" s="22"/>
+      <c r="AS92" s="22"/>
+      <c r="AT92" s="22"/>
+      <c r="AU92" s="22"/>
+      <c r="AV92" s="22"/>
+      <c r="AW92" s="22"/>
+      <c r="AX92" s="22"/>
+      <c r="AY92" s="22"/>
+      <c r="AZ92" s="22"/>
+      <c r="BA92" s="22"/>
+      <c r="BB92" s="22"/>
+      <c r="BC92" s="22"/>
+      <c r="BD92" s="22"/>
+      <c r="BE92" s="22"/>
+      <c r="BF92" s="22"/>
+      <c r="BG92" s="22"/>
+      <c r="BH92" s="22"/>
+      <c r="BI92" s="22"/>
+      <c r="BJ92" s="22"/>
+      <c r="BK92" s="22"/>
+      <c r="BL92" s="22"/>
+    </row>
+    <row r="93" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="66"/>
+      <c r="L93" s="66"/>
+      <c r="M93" s="66"/>
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
@@ -27951,22 +28036,46 @@
       <c r="BK93" s="22"/>
       <c r="BL93" s="22"/>
     </row>
-    <row r="94" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="66"/>
-      <c r="J94" s="66"/>
-      <c r="K94" s="66"/>
-      <c r="L94" s="66"/>
-      <c r="M94" s="66"/>
+    <row r="94" spans="1:64" s="64" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>86</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G94" s="25">
+        <v>401</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L94" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" s="63" t="s">
+        <v>12</v>
+      </c>
       <c r="N94" s="22"/>
       <c r="O94" s="22"/>
       <c r="P94" s="22"/>
@@ -28019,24 +28128,24 @@
       <c r="BK94" s="22"/>
       <c r="BL94" s="22"/>
     </row>
-    <row r="95" spans="1:64" s="64" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G95" s="25">
         <v>401</v>
@@ -28048,15 +28157,15 @@
         <v>39</v>
       </c>
       <c r="J95" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L95" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M95" s="63" t="s">
+      <c r="M95" s="61" t="s">
         <v>12</v>
       </c>
       <c r="N95" s="22"/>
@@ -28113,22 +28222,22 @@
     </row>
     <row r="96" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G96" s="25">
         <v>401</v>
@@ -28140,15 +28249,15 @@
         <v>39</v>
       </c>
       <c r="J96" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L96" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M96" s="61" t="s">
+      <c r="M96" s="34" t="s">
         <v>12</v>
       </c>
       <c r="N96" s="22"/>
@@ -28203,116 +28312,116 @@
       <c r="BK96" s="22"/>
       <c r="BL96" s="22"/>
     </row>
-    <row r="97" spans="1:64" s="64" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>88</v>
-      </c>
-      <c r="B97" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>186</v>
+        <v>89</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G97" s="25">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J97" s="4">
-        <v>1014</v>
-      </c>
-      <c r="K97" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="L97" s="36" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="J97" s="10">
+        <v>1003</v>
+      </c>
+      <c r="K97" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="M97" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N97" s="22"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
-      <c r="T97" s="22"/>
-      <c r="U97" s="22"/>
-      <c r="V97" s="22"/>
-      <c r="W97" s="22"/>
-      <c r="X97" s="22"/>
-      <c r="Y97" s="22"/>
-      <c r="Z97" s="22"/>
-      <c r="AA97" s="22"/>
-      <c r="AB97" s="22"/>
-      <c r="AC97" s="22"/>
-      <c r="AD97" s="22"/>
-      <c r="AE97" s="22"/>
-      <c r="AF97" s="22"/>
-      <c r="AG97" s="22"/>
-      <c r="AH97" s="22"/>
-      <c r="AI97" s="22"/>
-      <c r="AJ97" s="22"/>
-      <c r="AK97" s="22"/>
-      <c r="AL97" s="22"/>
-      <c r="AM97" s="22"/>
-      <c r="AN97" s="22"/>
-      <c r="AO97" s="22"/>
-      <c r="AP97" s="22"/>
-      <c r="AQ97" s="22"/>
-      <c r="AR97" s="22"/>
-      <c r="AS97" s="22"/>
-      <c r="AT97" s="22"/>
-      <c r="AU97" s="22"/>
-      <c r="AV97" s="22"/>
-      <c r="AW97" s="22"/>
-      <c r="AX97" s="22"/>
-      <c r="AY97" s="22"/>
-      <c r="AZ97" s="22"/>
-      <c r="BA97" s="22"/>
-      <c r="BB97" s="22"/>
-      <c r="BC97" s="22"/>
-      <c r="BD97" s="22"/>
-      <c r="BE97" s="22"/>
-      <c r="BF97" s="22"/>
-      <c r="BG97" s="22"/>
-      <c r="BH97" s="22"/>
-      <c r="BI97" s="22"/>
-      <c r="BJ97" s="22"/>
-      <c r="BK97" s="22"/>
-      <c r="BL97" s="22"/>
-    </row>
-    <row r="98" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
+      <c r="R97" s="23"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="23"/>
+      <c r="U97" s="23"/>
+      <c r="V97" s="23"/>
+      <c r="W97" s="23"/>
+      <c r="X97" s="23"/>
+      <c r="Y97" s="23"/>
+      <c r="Z97" s="23"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="23"/>
+      <c r="AC97" s="23"/>
+      <c r="AD97" s="23"/>
+      <c r="AE97" s="23"/>
+      <c r="AF97" s="23"/>
+      <c r="AG97" s="23"/>
+      <c r="AH97" s="23"/>
+      <c r="AI97" s="23"/>
+      <c r="AJ97" s="23"/>
+      <c r="AK97" s="23"/>
+      <c r="AL97" s="23"/>
+      <c r="AM97" s="23"/>
+      <c r="AN97" s="23"/>
+      <c r="AO97" s="23"/>
+      <c r="AP97" s="23"/>
+      <c r="AQ97" s="23"/>
+      <c r="AR97" s="23"/>
+      <c r="AS97" s="23"/>
+      <c r="AT97" s="23"/>
+      <c r="AU97" s="23"/>
+      <c r="AV97" s="23"/>
+      <c r="AW97" s="23"/>
+      <c r="AX97" s="23"/>
+      <c r="AY97" s="23"/>
+      <c r="AZ97" s="23"/>
+      <c r="BA97" s="23"/>
+      <c r="BB97" s="23"/>
+      <c r="BC97" s="23"/>
+      <c r="BD97" s="23"/>
+      <c r="BE97" s="23"/>
+      <c r="BF97" s="23"/>
+      <c r="BG97" s="23"/>
+      <c r="BH97" s="23"/>
+      <c r="BI97" s="23"/>
+      <c r="BJ97" s="23"/>
+      <c r="BK97" s="23"/>
+      <c r="BL97" s="23"/>
+    </row>
+    <row r="98" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G98" s="25">
         <v>400</v>
@@ -28321,16 +28430,16 @@
         <v>7</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J98" s="10">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="K98" s="34" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L98" s="34" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M98" s="34" t="s">
         <v>52</v>
@@ -28387,24 +28496,24 @@
       <c r="BK98" s="23"/>
       <c r="BL98" s="23"/>
     </row>
-    <row r="99" spans="1:64" s="7" customFormat="1" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G99" s="25">
         <v>400</v>
@@ -28413,16 +28522,16 @@
         <v>7</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J99" s="10">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="K99" s="34" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L99" s="34" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M99" s="34" t="s">
         <v>52</v>
@@ -28481,43 +28590,43 @@
     </row>
     <row r="100" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G100" s="25">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J100" s="10">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="K100" s="34" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L100" s="34" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M100" s="34" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
@@ -28573,10 +28682,10 @@
     </row>
     <row r="101" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>102</v>
@@ -28585,10 +28694,10 @@
         <v>12</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G101" s="25">
         <v>403</v>
@@ -28597,19 +28706,19 @@
         <v>7</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J101" s="10">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K101" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L101" s="34" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M101" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N101" s="23"/>
       <c r="O101" s="23"/>
@@ -28663,12 +28772,12 @@
       <c r="BK101" s="23"/>
       <c r="BL101" s="23"/>
     </row>
-    <row r="102" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>103</v>
@@ -28677,10 +28786,10 @@
         <v>12</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G102" s="25">
         <v>403</v>
@@ -28692,16 +28801,16 @@
         <v>36</v>
       </c>
       <c r="J102" s="10">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K102" s="34" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L102" s="34" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M102" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
@@ -28757,22 +28866,22 @@
     </row>
     <row r="103" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G103" s="25">
         <v>403</v>
@@ -28781,19 +28890,19 @@
         <v>7</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J103" s="10">
-        <v>1008</v>
-      </c>
-      <c r="K103" s="34" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1011</v>
+      </c>
+      <c r="K103" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="L103" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M103" s="34" t="s">
-        <v>69</v>
+        <v>158</v>
+      </c>
+      <c r="M103" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="N103" s="23"/>
       <c r="O103" s="23"/>
@@ -28849,25 +28958,25 @@
     </row>
     <row r="104" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D104" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G104" s="25">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>7</v>
@@ -28875,17 +28984,17 @@
       <c r="I104" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J104" s="4">
-        <v>1011</v>
-      </c>
-      <c r="K104" s="36" t="s">
-        <v>85</v>
+      <c r="J104" s="10">
+        <v>4001</v>
+      </c>
+      <c r="K104" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="L104" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M104" s="36" t="s">
-        <v>51</v>
+        <v>158</v>
+      </c>
+      <c r="M104" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="N104" s="23"/>
       <c r="O104" s="23"/>
@@ -28939,184 +29048,133 @@
       <c r="BK104" s="23"/>
       <c r="BL104" s="23"/>
     </row>
-    <row r="105" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
-        <v>96</v>
-      </c>
-      <c r="B105" s="34" t="s">
+    <row r="105" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D105" s="4" t="s">
+      <c r="B105" s="72"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="72"/>
+      <c r="M105" s="73"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="22"/>
+      <c r="S105" s="22"/>
+      <c r="T105" s="22"/>
+      <c r="U105" s="22"/>
+      <c r="V105" s="22"/>
+      <c r="W105" s="22"/>
+      <c r="X105" s="22"/>
+      <c r="Y105" s="22"/>
+      <c r="Z105" s="22"/>
+      <c r="AA105" s="22"/>
+      <c r="AB105" s="22"/>
+      <c r="AC105" s="22"/>
+      <c r="AD105" s="22"/>
+      <c r="AE105" s="22"/>
+      <c r="AF105" s="22"/>
+      <c r="AG105" s="22"/>
+      <c r="AH105" s="22"/>
+      <c r="AI105" s="22"/>
+      <c r="AJ105" s="22"/>
+      <c r="AK105" s="22"/>
+      <c r="AL105" s="22"/>
+      <c r="AM105" s="22"/>
+      <c r="AN105" s="22"/>
+      <c r="AO105" s="22"/>
+      <c r="AP105" s="22"/>
+      <c r="AQ105" s="22"/>
+      <c r="AR105" s="22"/>
+      <c r="AS105" s="22"/>
+      <c r="AT105" s="22"/>
+      <c r="AU105" s="22"/>
+      <c r="AV105" s="22"/>
+      <c r="AW105" s="22"/>
+      <c r="AX105" s="22"/>
+      <c r="AY105" s="22"/>
+      <c r="AZ105" s="22"/>
+      <c r="BA105" s="22"/>
+      <c r="BB105" s="22"/>
+      <c r="BC105" s="22"/>
+      <c r="BD105" s="22"/>
+      <c r="BE105" s="22"/>
+      <c r="BF105" s="22"/>
+      <c r="BG105" s="22"/>
+      <c r="BH105" s="22"/>
+      <c r="BI105" s="22"/>
+      <c r="BJ105" s="22"/>
+      <c r="BK105" s="22"/>
+      <c r="BL105" s="22"/>
+    </row>
+    <row r="106" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>97</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G105" s="25">
-        <v>400</v>
-      </c>
-      <c r="H105" s="4" t="s">
+      <c r="E106" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G106" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I105" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J105" s="10">
-        <v>4001</v>
-      </c>
-      <c r="K105" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L105" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M105" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="N105" s="23"/>
-      <c r="O105" s="23"/>
-      <c r="P105" s="23"/>
-      <c r="Q105" s="23"/>
-      <c r="R105" s="23"/>
-      <c r="S105" s="23"/>
-      <c r="T105" s="23"/>
-      <c r="U105" s="23"/>
-      <c r="V105" s="23"/>
-      <c r="W105" s="23"/>
-      <c r="X105" s="23"/>
-      <c r="Y105" s="23"/>
-      <c r="Z105" s="23"/>
-      <c r="AA105" s="23"/>
-      <c r="AB105" s="23"/>
-      <c r="AC105" s="23"/>
-      <c r="AD105" s="23"/>
-      <c r="AE105" s="23"/>
-      <c r="AF105" s="23"/>
-      <c r="AG105" s="23"/>
-      <c r="AH105" s="23"/>
-      <c r="AI105" s="23"/>
-      <c r="AJ105" s="23"/>
-      <c r="AK105" s="23"/>
-      <c r="AL105" s="23"/>
-      <c r="AM105" s="23"/>
-      <c r="AN105" s="23"/>
-      <c r="AO105" s="23"/>
-      <c r="AP105" s="23"/>
-      <c r="AQ105" s="23"/>
-      <c r="AR105" s="23"/>
-      <c r="AS105" s="23"/>
-      <c r="AT105" s="23"/>
-      <c r="AU105" s="23"/>
-      <c r="AV105" s="23"/>
-      <c r="AW105" s="23"/>
-      <c r="AX105" s="23"/>
-      <c r="AY105" s="23"/>
-      <c r="AZ105" s="23"/>
-      <c r="BA105" s="23"/>
-      <c r="BB105" s="23"/>
-      <c r="BC105" s="23"/>
-      <c r="BD105" s="23"/>
-      <c r="BE105" s="23"/>
-      <c r="BF105" s="23"/>
-      <c r="BG105" s="23"/>
-      <c r="BH105" s="23"/>
-      <c r="BI105" s="23"/>
-      <c r="BJ105" s="23"/>
-      <c r="BK105" s="23"/>
-      <c r="BL105" s="23"/>
-    </row>
-    <row r="106" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="B106" s="72"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="72"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="73"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="22"/>
-      <c r="S106" s="22"/>
-      <c r="T106" s="22"/>
-      <c r="U106" s="22"/>
-      <c r="V106" s="22"/>
-      <c r="W106" s="22"/>
-      <c r="X106" s="22"/>
-      <c r="Y106" s="22"/>
-      <c r="Z106" s="22"/>
-      <c r="AA106" s="22"/>
-      <c r="AB106" s="22"/>
-      <c r="AC106" s="22"/>
-      <c r="AD106" s="22"/>
-      <c r="AE106" s="22"/>
-      <c r="AF106" s="22"/>
-      <c r="AG106" s="22"/>
-      <c r="AH106" s="22"/>
-      <c r="AI106" s="22"/>
-      <c r="AJ106" s="22"/>
-      <c r="AK106" s="22"/>
-      <c r="AL106" s="22"/>
-      <c r="AM106" s="22"/>
-      <c r="AN106" s="22"/>
-      <c r="AO106" s="22"/>
-      <c r="AP106" s="22"/>
-      <c r="AQ106" s="22"/>
-      <c r="AR106" s="22"/>
-      <c r="AS106" s="22"/>
-      <c r="AT106" s="22"/>
-      <c r="AU106" s="22"/>
-      <c r="AV106" s="22"/>
-      <c r="AW106" s="22"/>
-      <c r="AX106" s="22"/>
-      <c r="AY106" s="22"/>
-      <c r="AZ106" s="22"/>
-      <c r="BA106" s="22"/>
-      <c r="BB106" s="22"/>
-      <c r="BC106" s="22"/>
-      <c r="BD106" s="22"/>
-      <c r="BE106" s="22"/>
-      <c r="BF106" s="22"/>
-      <c r="BG106" s="22"/>
-      <c r="BH106" s="22"/>
-      <c r="BI106" s="22"/>
-      <c r="BJ106" s="22"/>
-      <c r="BK106" s="22"/>
-      <c r="BL106" s="22"/>
+      <c r="I106" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J106" s="8">
+        <v>4002</v>
+      </c>
+      <c r="K106" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L106" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="M106" s="35" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="107" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G107" s="42" t="s">
         <v>12</v>
@@ -29124,169 +29182,195 @@
       <c r="H107" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I107" s="5" t="s">
+      <c r="I107" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J107" s="8">
-        <v>4002</v>
+      <c r="J107" s="30">
+        <v>4003</v>
       </c>
       <c r="K107" s="36" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="L107" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="M107" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="M107" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>98</v>
-      </c>
-      <c r="B108" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D108" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="4">
+        <v>8</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G108" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G108" s="42" t="s">
+      <c r="H108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="4">
+        <v>1010</v>
+      </c>
+      <c r="K108" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="M108" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N108" s="23"/>
+      <c r="O108" s="23"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="23"/>
+      <c r="R108" s="23"/>
+      <c r="S108" s="23"/>
+      <c r="T108" s="23"/>
+      <c r="U108" s="23"/>
+      <c r="V108" s="23"/>
+      <c r="W108" s="23"/>
+      <c r="X108" s="23"/>
+      <c r="Y108" s="23"/>
+      <c r="Z108" s="23"/>
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="23"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="23"/>
+      <c r="AE108" s="23"/>
+      <c r="AF108" s="23"/>
+      <c r="AG108" s="23"/>
+      <c r="AH108" s="23"/>
+      <c r="AI108" s="23"/>
+      <c r="AJ108" s="23"/>
+      <c r="AK108" s="23"/>
+      <c r="AL108" s="23"/>
+      <c r="AM108" s="23"/>
+      <c r="AN108" s="23"/>
+      <c r="AO108" s="23"/>
+      <c r="AP108" s="23"/>
+      <c r="AQ108" s="23"/>
+      <c r="AR108" s="23"/>
+      <c r="AS108" s="23"/>
+      <c r="AT108" s="23"/>
+      <c r="AU108" s="23"/>
+      <c r="AV108" s="23"/>
+      <c r="AW108" s="23"/>
+      <c r="AX108" s="23"/>
+      <c r="AY108" s="23"/>
+      <c r="AZ108" s="23"/>
+      <c r="BA108" s="23"/>
+      <c r="BB108" s="23"/>
+      <c r="BC108" s="23"/>
+      <c r="BD108" s="23"/>
+      <c r="BE108" s="23"/>
+      <c r="BF108" s="23"/>
+      <c r="BG108" s="23"/>
+      <c r="BH108" s="23"/>
+      <c r="BI108" s="23"/>
+      <c r="BJ108" s="23"/>
+      <c r="BK108" s="23"/>
+      <c r="BL108" s="23"/>
+    </row>
+    <row r="109" spans="1:64" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>100</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="E109" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G109" s="56">
+        <v>400</v>
+      </c>
+      <c r="H109" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I108" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J108" s="30">
-        <v>4003</v>
-      </c>
-      <c r="K108" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="L108" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="M108" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:64" s="7" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
-        <v>99</v>
-      </c>
-      <c r="B109" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D109" s="4">
-        <v>8</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F109" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="G109" s="25" t="s">
+      <c r="I109" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J109" s="25">
+        <v>2046</v>
+      </c>
+      <c r="K109" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="L109" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="M109" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>101</v>
+      </c>
+      <c r="B110" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="E110" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G110" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="I110" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J109" s="4">
-        <v>1010</v>
-      </c>
-      <c r="K109" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="L109" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M109" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="N109" s="23"/>
-      <c r="O109" s="23"/>
-      <c r="P109" s="23"/>
-      <c r="Q109" s="23"/>
-      <c r="R109" s="23"/>
-      <c r="S109" s="23"/>
-      <c r="T109" s="23"/>
-      <c r="U109" s="23"/>
-      <c r="V109" s="23"/>
-      <c r="W109" s="23"/>
-      <c r="X109" s="23"/>
-      <c r="Y109" s="23"/>
-      <c r="Z109" s="23"/>
-      <c r="AA109" s="23"/>
-      <c r="AB109" s="23"/>
-      <c r="AC109" s="23"/>
-      <c r="AD109" s="23"/>
-      <c r="AE109" s="23"/>
-      <c r="AF109" s="23"/>
-      <c r="AG109" s="23"/>
-      <c r="AH109" s="23"/>
-      <c r="AI109" s="23"/>
-      <c r="AJ109" s="23"/>
-      <c r="AK109" s="23"/>
-      <c r="AL109" s="23"/>
-      <c r="AM109" s="23"/>
-      <c r="AN109" s="23"/>
-      <c r="AO109" s="23"/>
-      <c r="AP109" s="23"/>
-      <c r="AQ109" s="23"/>
-      <c r="AR109" s="23"/>
-      <c r="AS109" s="23"/>
-      <c r="AT109" s="23"/>
-      <c r="AU109" s="23"/>
-      <c r="AV109" s="23"/>
-      <c r="AW109" s="23"/>
-      <c r="AX109" s="23"/>
-      <c r="AY109" s="23"/>
-      <c r="AZ109" s="23"/>
-      <c r="BA109" s="23"/>
-      <c r="BB109" s="23"/>
-      <c r="BC109" s="23"/>
-      <c r="BD109" s="23"/>
-      <c r="BE109" s="23"/>
-      <c r="BF109" s="23"/>
-      <c r="BG109" s="23"/>
-      <c r="BH109" s="23"/>
-      <c r="BI109" s="23"/>
-      <c r="BJ109" s="23"/>
-      <c r="BK109" s="23"/>
-      <c r="BL109" s="23"/>
-    </row>
-    <row r="110" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="58"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="38"/>
+      <c r="J110" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K110" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="L110" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="M110" s="37" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="111" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A111" s="21"/>
@@ -29516,17 +29600,17 @@
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="58"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="57"/>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="21"/>
       <c r="K126" s="38"/>
       <c r="L126" s="22"/>
-      <c r="M126" s="38"/>
+      <c r="M126" s="22"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
@@ -34223,46 +34307,31 @@
       <c r="L439" s="22"/>
       <c r="M439" s="22"/>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A440" s="21"/>
-      <c r="B440" s="22"/>
-      <c r="C440" s="23"/>
-      <c r="D440" s="21"/>
-      <c r="E440" s="21"/>
-      <c r="F440" s="21"/>
-      <c r="G440" s="57"/>
-      <c r="H440" s="21"/>
-      <c r="I440" s="21"/>
-      <c r="J440" s="21"/>
-      <c r="K440" s="38"/>
-      <c r="L440" s="22"/>
-      <c r="M440" s="22"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A106:M106"/>
-    <mergeCell ref="A91:M91"/>
-    <mergeCell ref="A94:M94"/>
-    <mergeCell ref="A77:M77"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A93:M93"/>
     <mergeCell ref="A76:M76"/>
-    <mergeCell ref="A93:M93"/>
-    <mergeCell ref="A65:M65"/>
-    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A75:M75"/>
+    <mergeCell ref="A92:M92"/>
+    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="A52:M52"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A52:M52"/>
-    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A63:M63"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H69:H75 H18:H43 H57:H63 H45:H51 H107:H109 H98:H105 H81:H90 H92 H7:H16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H74 H56:H62 H44:H50 H97:H104 H80:H89 H91 H18:H42 H106:H110 H7:H16">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:I43 I57:I63 I69:I75 I45:I51 I107 I109 I98:I105 I81:I90 I92 I7:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I56:I62 I68:I74 I44:I50 I106 I97:I104 I80:I89 I91 I18:I42 I108:I109 I7:I16">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18:J33 J69:J75 J57:J63 J81:J89 J35:J42 J92 J109 J98:J105 J107 J45:J49 J7:J16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J74 J56:J62 J80:J88 J34:J41 J91 J108 J97:J104 J106 J44:J48 J7:J16 J18:J32">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -34274,8 +34343,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="16" max="16383" man="1"/>
-    <brk id="51" max="16383" man="1"/>
-    <brk id="75" max="9" man="1"/>
+    <brk id="50" max="16383" man="1"/>
+    <brk id="74" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="202">
   <si>
     <t>Payslip</t>
   </si>
@@ -681,6 +681,9 @@
   <si>
     <t>IncomeTaxCalculationBasis</t>
   </si>
+  <si>
+    <t>1.0 Milestone 2</t>
+  </si>
 </sst>
 </file>
 
@@ -1091,6 +1094,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1104,15 +1116,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21331,8 +21334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21487,7 +21490,9 @@
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="B18" s="19" t="s">
+        <v>201</v>
+      </c>
       <c r="C18" s="19">
         <v>43140</v>
       </c>
@@ -21633,7 +21638,7 @@
   </sheetPr>
   <dimension ref="A1:BL439"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
@@ -21748,21 +21753,21 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -21816,21 +21821,21 @@
       <c r="BL2" s="22"/>
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -22570,21 +22575,21 @@
       </c>
     </row>
     <row r="17" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -24297,21 +24302,21 @@
       <c r="BL50" s="23"/>
     </row>
     <row r="51" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="70"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="73"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -24365,21 +24370,21 @@
       <c r="BL51" s="22"/>
     </row>
     <row r="52" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -25353,21 +25358,21 @@
       <c r="BL62" s="23"/>
     </row>
     <row r="63" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
@@ -25421,21 +25426,21 @@
       <c r="BL63" s="22"/>
     </row>
     <row r="64" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
@@ -26409,21 +26414,21 @@
       <c r="BL74" s="23"/>
     </row>
     <row r="75" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="67"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="70"/>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
@@ -26477,21 +26482,21 @@
       <c r="BL75" s="22"/>
     </row>
     <row r="76" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="66" t="s">
+      <c r="A76" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="66"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
@@ -27741,21 +27746,21 @@
       <c r="BL89" s="23"/>
     </row>
     <row r="90" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="66" t="s">
+      <c r="A90" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="66"/>
-      <c r="M90" s="66"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="69"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="69"/>
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
@@ -27901,21 +27906,21 @@
       <c r="BL91" s="23"/>
     </row>
     <row r="92" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="67" t="s">
+      <c r="A92" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="67"/>
-      <c r="M92" s="67"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="70"/>
       <c r="N92" s="22"/>
       <c r="O92" s="22"/>
       <c r="P92" s="22"/>
@@ -27969,21 +27974,21 @@
       <c r="BL92" s="22"/>
     </row>
     <row r="93" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="66" t="s">
+      <c r="A93" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="66"/>
-      <c r="J93" s="66"/>
-      <c r="K93" s="66"/>
-      <c r="L93" s="66"/>
-      <c r="M93" s="66"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="69"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="69"/>
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
@@ -29049,21 +29054,21 @@
       <c r="BL104" s="23"/>
     </row>
     <row r="105" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="71" t="s">
+      <c r="A105" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="72"/>
-      <c r="H105" s="72"/>
-      <c r="I105" s="72"/>
-      <c r="J105" s="72"/>
-      <c r="K105" s="72"/>
-      <c r="L105" s="72"/>
-      <c r="M105" s="73"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
+      <c r="L105" s="67"/>
+      <c r="M105" s="68"/>
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
@@ -34310,12 +34315,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="A90:M90"/>
-    <mergeCell ref="A93:M93"/>
-    <mergeCell ref="A76:M76"/>
-    <mergeCell ref="A75:M75"/>
-    <mergeCell ref="A92:M92"/>
     <mergeCell ref="A64:M64"/>
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A2:M2"/>
@@ -34323,6 +34322,12 @@
     <mergeCell ref="A17:M17"/>
     <mergeCell ref="A51:M51"/>
     <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="A90:M90"/>
+    <mergeCell ref="A93:M93"/>
+    <mergeCell ref="A76:M76"/>
+    <mergeCell ref="A75:M75"/>
+    <mergeCell ref="A92:M92"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H74 H56:H62 H44:H50 H97:H104 H80:H89 H91 H18:H42 H106:H110 H7:H16">

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="14280" windowHeight="7308" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="201">
   <si>
     <t>Payslip</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Duplicate request across RequestID and EmployerRegistrationNumber.</t>
-  </si>
-  <si>
-    <t>The elements in the PayrollSubmissionRequest Header differ between batches for the same SubmissionID.</t>
   </si>
   <si>
     <t>Eircode must not be included for non-Irish address.</t>
@@ -376,9 +373,6 @@
   </si>
   <si>
     <t>Check Payroll Run</t>
-  </si>
-  <si>
-    <t>The details in the Payroll Submission Request Header should match for each Payroll Submission in a batch submission.</t>
   </si>
   <si>
     <t>Address is mandatory when EmployeeID(PPSN &amp; EmploymentID) is not included.</t>
@@ -683,6 +677,9 @@
   </si>
   <si>
     <t>1.0 Milestone 2</t>
+  </si>
+  <si>
+    <t>A payroll submission must contain at least one payslip or a LineItemToDelete</t>
   </si>
 </sst>
 </file>
@@ -21334,7 +21331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -21353,7 +21350,7 @@
   <sheetData>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
@@ -21367,16 +21364,16 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -21394,7 +21391,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -21405,16 +21402,16 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C13" s="19">
         <v>43056</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -21427,10 +21424,10 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -21448,7 +21445,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -21464,7 +21461,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -21480,7 +21477,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -21491,14 +21488,14 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C18" s="19">
         <v>43140</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -21636,11 +21633,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL439"/>
+  <dimension ref="A1:BL438"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -21660,7 +21657,7 @@
     <col min="65" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
@@ -21671,16 +21668,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="32" t="s">
         <v>161</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>163</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>6</v>
@@ -21692,7 +21689,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L1" s="32" t="s">
         <v>2</v>
@@ -21754,7 +21751,7 @@
     </row>
     <row r="2" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -21822,7 +21819,7 @@
     </row>
     <row r="3" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -21893,19 +21890,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G4" s="25">
         <v>401</v>
@@ -21914,13 +21911,13 @@
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4">
         <v>1012</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L4" s="36" t="s">
         <v>12</v>
@@ -21985,19 +21982,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G5" s="25">
         <v>401</v>
@@ -22006,13 +22003,13 @@
         <v>7</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="4">
         <v>1013</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>12</v>
@@ -22077,19 +22074,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G6" s="25">
         <v>401</v>
@@ -22098,13 +22095,13 @@
         <v>7</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="4">
         <v>1014</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>12</v>
@@ -22169,19 +22166,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G7" s="56">
         <v>400</v>
@@ -22190,7 +22187,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="49">
         <v>1003</v>
@@ -22199,10 +22196,10 @@
         <v>14</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:64" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -22210,19 +22207,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G8" s="56">
         <v>400</v>
@@ -22237,13 +22234,13 @@
         <v>1004</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:64" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -22251,19 +22248,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="25">
         <v>2</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G9" s="56">
         <v>403</v>
@@ -22278,13 +22275,13 @@
         <v>1006</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:64" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -22292,19 +22289,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="25">
         <v>2</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G10" s="56">
         <v>403</v>
@@ -22313,19 +22310,19 @@
         <v>7</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="26">
         <v>1007</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:64" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -22333,19 +22330,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="25">
         <v>2</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G11" s="56">
         <v>403</v>
@@ -22354,7 +22351,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="26">
         <v>1008</v>
@@ -22363,10 +22360,10 @@
         <v>16</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -22374,19 +22371,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="25">
         <v>2</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12" s="56">
         <v>403</v>
@@ -22395,19 +22392,19 @@
         <v>7</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="25">
         <v>1011</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:64" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -22415,19 +22412,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" s="56">
         <v>400</v>
@@ -22436,39 +22433,39 @@
         <v>7</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="25">
         <v>2001</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:64" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>200</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G14" s="56">
         <v>400</v>
@@ -22477,19 +22474,19 @@
         <v>7</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="25">
-        <v>2005</v>
+        <v>2046</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:64" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -22497,19 +22494,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G15" s="56">
         <v>400</v>
@@ -22518,19 +22515,19 @@
         <v>7</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="25">
         <v>2004</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -22538,19 +22535,19 @@
         <v>17</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="25">
         <v>5</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G16" s="56">
         <v>400</v>
@@ -22568,15 +22565,15 @@
         <v>17</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17" s="69"/>
       <c r="C17" s="69"/>
@@ -22647,19 +22644,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G18" s="56" t="s">
         <v>12</v>
@@ -22674,7 +22671,7 @@
         <v>2040</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>0</v>
@@ -22688,19 +22685,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G19" s="56" t="s">
         <v>12</v>
@@ -22709,7 +22706,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="5">
         <v>2007</v>
@@ -22721,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -22729,19 +22726,19 @@
         <v>20</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="5">
         <v>8</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G20" s="56" t="s">
         <v>12</v>
@@ -22756,7 +22753,7 @@
         <v>1010</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>0</v>
@@ -22770,19 +22767,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="5">
         <v>13</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G21" s="56" t="s">
         <v>12</v>
@@ -22791,19 +22788,19 @@
         <v>7</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" s="5">
         <v>2006</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L21" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -22811,19 +22808,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D22" s="5">
         <v>13</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G22" s="56" t="s">
         <v>12</v>
@@ -22832,19 +22829,19 @@
         <v>7</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="8">
         <v>2009</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -22852,19 +22849,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G23" s="56" t="s">
         <v>12</v>
@@ -22873,19 +22870,19 @@
         <v>7</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" s="5">
         <v>2010</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -22893,19 +22890,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G24" s="56" t="s">
         <v>12</v>
@@ -22914,19 +22911,19 @@
         <v>7</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="5">
         <v>2012</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M24" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -22934,19 +22931,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G25" s="56" t="s">
         <v>12</v>
@@ -22961,13 +22958,13 @@
         <v>2014</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M25" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -22975,19 +22972,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G26" s="56" t="s">
         <v>12</v>
@@ -22996,19 +22993,19 @@
         <v>7</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" s="5">
         <v>2015</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23016,19 +23013,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G27" s="56" t="s">
         <v>12</v>
@@ -23043,13 +23040,13 @@
         <v>2016</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23057,19 +23054,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G28" s="56" t="s">
         <v>12</v>
@@ -23078,19 +23075,19 @@
         <v>7</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" s="8">
         <v>2013</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23098,19 +23095,19 @@
         <v>30</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D29" s="5">
         <v>12</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G29" s="56" t="s">
         <v>12</v>
@@ -23125,13 +23122,13 @@
         <v>1002</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23139,19 +23136,19 @@
         <v>31</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D30" s="5">
         <v>12</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G30" s="56" t="s">
         <v>12</v>
@@ -23172,27 +23169,27 @@
         <v>0</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:64" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>32</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="5">
         <v>12</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G31" s="56" t="s">
         <v>12</v>
@@ -23207,13 +23204,13 @@
         <v>2018</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L31" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:64" s="40" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23221,19 +23218,19 @@
         <v>33</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D32" s="25">
         <v>16</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G32" s="56" t="s">
         <v>12</v>
@@ -23242,19 +23239,19 @@
         <v>7</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" s="55">
         <v>2020</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L32" s="41" t="s">
         <v>0</v>
       </c>
       <c r="M32" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N32" s="39"/>
       <c r="O32" s="39"/>
@@ -23313,19 +23310,19 @@
         <v>34</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D33" s="5">
         <v>16</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G33" s="56" t="s">
         <v>12</v>
@@ -23340,13 +23337,13 @@
         <v>1002</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23354,19 +23351,19 @@
         <v>35</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="5">
         <v>16</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G34" s="56" t="s">
         <v>12</v>
@@ -23375,19 +23372,19 @@
         <v>7</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34" s="53">
         <v>2023</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:64" s="40" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23395,19 +23392,19 @@
         <v>36</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D35" s="42">
         <v>53</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G35" s="56" t="s">
         <v>12</v>
@@ -23416,19 +23413,19 @@
         <v>7</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35" s="53">
         <v>2025</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L35" s="41" t="s">
         <v>0</v>
       </c>
       <c r="M35" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N35" s="39"/>
       <c r="O35" s="39"/>
@@ -23487,19 +23484,19 @@
         <v>37</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D36" s="4">
         <v>21</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G36" s="56" t="s">
         <v>12</v>
@@ -23508,19 +23505,19 @@
         <v>7</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" s="53">
         <v>2030</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L36" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
@@ -23579,19 +23576,19 @@
         <v>38</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G37" s="56" t="s">
         <v>12</v>
@@ -23606,13 +23603,13 @@
         <v>2028</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23620,19 +23617,19 @@
         <v>39</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D38" s="5">
         <v>20</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G38" s="56" t="s">
         <v>12</v>
@@ -23641,19 +23638,19 @@
         <v>7</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J38" s="53">
         <v>2029</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L38" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23661,19 +23658,19 @@
         <v>40</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D39" s="5">
         <v>22</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G39" s="56" t="s">
         <v>12</v>
@@ -23682,19 +23679,19 @@
         <v>7</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J39" s="53">
         <v>2031</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M39" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23702,19 +23699,19 @@
         <v>41</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" s="5">
         <v>23</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G40" s="56" t="s">
         <v>12</v>
@@ -23723,19 +23720,19 @@
         <v>7</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40" s="53">
         <v>2032</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23743,19 +23740,19 @@
         <v>42</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="25">
         <v>17</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G41" s="56" t="s">
         <v>12</v>
@@ -23764,19 +23761,19 @@
         <v>7</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41" s="53">
         <v>2019</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L41" s="36" t="s">
         <v>0</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23784,19 +23781,19 @@
         <v>43</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D42" s="5">
         <v>17</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G42" s="56" t="s">
         <v>12</v>
@@ -23811,13 +23808,13 @@
         <v>1002</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L42" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M42" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:64" s="40" customFormat="1" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23825,19 +23822,19 @@
         <v>44</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="51">
         <v>30</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G43" s="56" t="s">
         <v>12</v>
@@ -23846,19 +23843,19 @@
         <v>7</v>
       </c>
       <c r="I43" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J43" s="5">
         <v>2043</v>
       </c>
       <c r="K43" s="48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
@@ -23917,19 +23914,19 @@
         <v>45</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="45">
         <v>31</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G44" s="56" t="s">
         <v>12</v>
@@ -23938,19 +23935,19 @@
         <v>7</v>
       </c>
       <c r="I44" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J44" s="46">
         <v>2033</v>
       </c>
       <c r="K44" s="60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L44" s="47" t="s">
         <v>0</v>
       </c>
       <c r="M44" s="47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23958,19 +23955,19 @@
         <v>46</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="5">
         <v>31</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G45" s="56" t="s">
         <v>12</v>
@@ -23985,13 +23982,13 @@
         <v>2037</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L45" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -23999,19 +23996,19 @@
         <v>47</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D46" s="5">
         <v>32</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G46" s="56" t="s">
         <v>12</v>
@@ -24026,13 +24023,13 @@
         <v>2036</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24040,19 +24037,19 @@
         <v>48</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D47" s="5">
         <v>35</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G47" s="56" t="s">
         <v>12</v>
@@ -24061,19 +24058,19 @@
         <v>7</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J47" s="8">
         <v>2038</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L47" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M47" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:64" ht="46.8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24081,19 +24078,19 @@
         <v>49</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D48" s="5">
         <v>39</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G48" s="56" t="s">
         <v>12</v>
@@ -24108,13 +24105,13 @@
         <v>2039</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M48" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:64" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -24122,40 +24119,40 @@
         <v>50</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D49" s="4">
         <v>19</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G49" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J49" s="10">
         <v>2044</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L49" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M49" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
@@ -24214,34 +24211,34 @@
         <v>51</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D50" s="4">
         <v>8</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G50" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J50" s="10">
         <v>2045</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L50" s="34" t="s">
         <v>0</v>
@@ -24303,7 +24300,7 @@
     </row>
     <row r="51" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="72"/>
       <c r="C51" s="72"/>
@@ -24371,7 +24368,7 @@
     </row>
     <row r="52" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B52" s="69"/>
       <c r="C52" s="69"/>
@@ -24441,20 +24438,20 @@
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>180</v>
+      <c r="C53" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G53" s="25">
         <v>401</v>
@@ -24463,13 +24460,13 @@
         <v>7</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J53" s="4">
         <v>1012</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L53" s="36" t="s">
         <v>12</v>
@@ -24533,20 +24530,20 @@
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="34" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G54" s="25">
         <v>401</v>
@@ -24555,13 +24552,13 @@
         <v>7</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54" s="4">
         <v>1013</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L54" s="36" t="s">
         <v>12</v>
@@ -24625,20 +24622,20 @@
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="34" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G55" s="25">
         <v>401</v>
@@ -24647,13 +24644,13 @@
         <v>7</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55" s="4">
         <v>1014</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L55" s="36" t="s">
         <v>12</v>
@@ -24718,19 +24715,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G56" s="25">
         <v>400</v>
@@ -24739,7 +24736,7 @@
         <v>7</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J56" s="25">
         <v>1003</v>
@@ -24748,10 +24745,10 @@
         <v>14</v>
       </c>
       <c r="L56" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M56" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N56" s="23"/>
       <c r="O56" s="23"/>
@@ -24810,19 +24807,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G57" s="25">
         <v>400</v>
@@ -24837,13 +24834,13 @@
         <v>1004</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L57" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M57" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
@@ -24902,19 +24899,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G58" s="25">
         <v>403</v>
@@ -24929,13 +24926,13 @@
         <v>1006</v>
       </c>
       <c r="K58" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L58" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N58" s="23"/>
       <c r="O58" s="23"/>
@@ -24994,19 +24991,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G59" s="25">
         <v>403</v>
@@ -25015,19 +25012,19 @@
         <v>7</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J59" s="26">
         <v>1007</v>
       </c>
       <c r="K59" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L59" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M59" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N59" s="23"/>
       <c r="O59" s="23"/>
@@ -25086,19 +25083,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G60" s="25">
         <v>403</v>
@@ -25107,7 +25104,7 @@
         <v>7</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J60" s="26">
         <v>1008</v>
@@ -25116,10 +25113,10 @@
         <v>16</v>
       </c>
       <c r="L60" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M60" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N60" s="23"/>
       <c r="O60" s="23"/>
@@ -25178,19 +25175,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G61" s="25">
         <v>403</v>
@@ -25199,19 +25196,19 @@
         <v>7</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J61" s="25">
         <v>1011</v>
       </c>
       <c r="K61" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L61" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M61" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N61" s="23"/>
       <c r="O61" s="23"/>
@@ -25270,19 +25267,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G62" s="25">
         <v>404</v>
@@ -25291,19 +25288,19 @@
         <v>7</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62" s="4">
         <v>2501</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L62" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N62" s="23"/>
       <c r="O62" s="23"/>
@@ -25359,7 +25356,7 @@
     </row>
     <row r="63" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" s="70"/>
       <c r="C63" s="70"/>
@@ -25427,7 +25424,7 @@
     </row>
     <row r="64" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
@@ -25497,20 +25494,20 @@
       <c r="A65" s="4">
         <v>62</v>
       </c>
-      <c r="B65" s="36" t="s">
-        <v>115</v>
+      <c r="B65" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G65" s="25">
         <v>401</v>
@@ -25519,13 +25516,13 @@
         <v>7</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65" s="4">
         <v>1012</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L65" s="36" t="s">
         <v>12</v>
@@ -25589,20 +25586,20 @@
       <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66" s="36" t="s">
-        <v>115</v>
+      <c r="B66" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G66" s="25">
         <v>401</v>
@@ -25611,13 +25608,13 @@
         <v>7</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J66" s="4">
         <v>1013</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L66" s="36" t="s">
         <v>12</v>
@@ -25681,20 +25678,20 @@
       <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="36" t="s">
-        <v>115</v>
+      <c r="B67" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G67" s="25">
         <v>401</v>
@@ -25703,13 +25700,13 @@
         <v>7</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J67" s="4">
         <v>1014</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L67" s="36" t="s">
         <v>12</v>
@@ -25774,19 +25771,19 @@
         <v>65</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G68" s="25">
         <v>400</v>
@@ -25795,7 +25792,7 @@
         <v>7</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J68" s="26">
         <v>1003</v>
@@ -25804,10 +25801,10 @@
         <v>14</v>
       </c>
       <c r="L68" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N68" s="23"/>
       <c r="O68" s="23"/>
@@ -25866,19 +25863,19 @@
         <v>66</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G69" s="25">
         <v>400</v>
@@ -25893,13 +25890,13 @@
         <v>1004</v>
       </c>
       <c r="K69" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L69" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M69" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N69" s="23"/>
       <c r="O69" s="23"/>
@@ -25958,19 +25955,19 @@
         <v>67</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G70" s="25">
         <v>403</v>
@@ -25985,13 +25982,13 @@
         <v>1006</v>
       </c>
       <c r="K70" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L70" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N70" s="23"/>
       <c r="O70" s="23"/>
@@ -26050,19 +26047,19 @@
         <v>68</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G71" s="25">
         <v>403</v>
@@ -26071,19 +26068,19 @@
         <v>7</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J71" s="26">
         <v>1007</v>
       </c>
       <c r="K71" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L71" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M71" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N71" s="23"/>
       <c r="O71" s="23"/>
@@ -26142,19 +26139,19 @@
         <v>69</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G72" s="25">
         <v>403</v>
@@ -26163,7 +26160,7 @@
         <v>7</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J72" s="26">
         <v>1008</v>
@@ -26172,10 +26169,10 @@
         <v>16</v>
       </c>
       <c r="L72" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M72" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
@@ -26234,19 +26231,19 @@
         <v>70</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G73" s="25">
         <v>403</v>
@@ -26255,19 +26252,19 @@
         <v>7</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J73" s="25">
         <v>1011</v>
       </c>
       <c r="K73" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L73" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M73" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
@@ -26326,19 +26323,19 @@
         <v>71</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G74" s="25">
         <v>404</v>
@@ -26347,19 +26344,19 @@
         <v>7</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J74" s="10">
         <v>2506</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L74" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M74" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N74" s="23"/>
       <c r="O74" s="23"/>
@@ -26415,7 +26412,7 @@
     </row>
     <row r="75" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B75" s="70"/>
       <c r="C75" s="70"/>
@@ -26483,7 +26480,7 @@
     </row>
     <row r="76" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B76" s="69"/>
       <c r="C76" s="69"/>
@@ -26553,20 +26550,20 @@
       <c r="A77" s="4">
         <v>72</v>
       </c>
-      <c r="B77" s="36" t="s">
-        <v>115</v>
+      <c r="B77" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G77" s="25">
         <v>401</v>
@@ -26575,13 +26572,13 @@
         <v>7</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77" s="4">
         <v>1012</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L77" s="36" t="s">
         <v>12</v>
@@ -26645,20 +26642,20 @@
       <c r="A78" s="4">
         <v>73</v>
       </c>
-      <c r="B78" s="36" t="s">
-        <v>115</v>
+      <c r="B78" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G78" s="25">
         <v>401</v>
@@ -26667,13 +26664,13 @@
         <v>7</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J78" s="4">
         <v>1013</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L78" s="36" t="s">
         <v>12</v>
@@ -26737,20 +26734,20 @@
       <c r="A79" s="4">
         <v>74</v>
       </c>
-      <c r="B79" s="36" t="s">
-        <v>115</v>
+      <c r="B79" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G79" s="25">
         <v>401</v>
@@ -26759,13 +26756,13 @@
         <v>7</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J79" s="4">
         <v>1014</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L79" s="36" t="s">
         <v>12</v>
@@ -26830,19 +26827,19 @@
         <v>75</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G80" s="25">
         <v>400</v>
@@ -26851,7 +26848,7 @@
         <v>7</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J80" s="10">
         <v>1003</v>
@@ -26860,10 +26857,10 @@
         <v>14</v>
       </c>
       <c r="L80" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M80" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N80" s="23"/>
       <c r="O80" s="23"/>
@@ -26922,19 +26919,19 @@
         <v>76</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G81" s="25">
         <v>400</v>
@@ -26949,13 +26946,13 @@
         <v>1004</v>
       </c>
       <c r="K81" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L81" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M81" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N81" s="23"/>
       <c r="O81" s="23"/>
@@ -27014,19 +27011,19 @@
         <v>77</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" s="25">
         <v>400</v>
@@ -27035,7 +27032,7 @@
         <v>7</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J82" s="10">
         <v>1005</v>
@@ -27044,10 +27041,10 @@
         <v>15</v>
       </c>
       <c r="L82" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M82" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N82" s="23"/>
       <c r="O82" s="23"/>
@@ -27106,19 +27103,19 @@
         <v>78</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" s="25">
         <v>403</v>
@@ -27133,13 +27130,13 @@
         <v>1006</v>
       </c>
       <c r="K83" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L83" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M83" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
@@ -27198,19 +27195,19 @@
         <v>79</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" s="25">
         <v>403</v>
@@ -27219,19 +27216,19 @@
         <v>7</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J84" s="10">
         <v>1007</v>
       </c>
       <c r="K84" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L84" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M84" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N84" s="23"/>
       <c r="O84" s="23"/>
@@ -27290,19 +27287,19 @@
         <v>80</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" s="25">
         <v>403</v>
@@ -27311,7 +27308,7 @@
         <v>7</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J85" s="10">
         <v>1008</v>
@@ -27320,10 +27317,10 @@
         <v>16</v>
       </c>
       <c r="L85" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M85" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N85" s="23"/>
       <c r="O85" s="23"/>
@@ -27382,19 +27379,19 @@
         <v>81</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" s="25">
         <v>403</v>
@@ -27403,19 +27400,19 @@
         <v>7</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J86" s="4">
         <v>1011</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L86" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M86" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N86" s="23"/>
       <c r="O86" s="23"/>
@@ -27474,19 +27471,19 @@
         <v>82</v>
       </c>
       <c r="B87" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G87" s="25">
         <v>400</v>
@@ -27495,19 +27492,19 @@
         <v>7</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J87" s="10">
         <v>3001</v>
       </c>
       <c r="K87" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L87" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M87" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N87" s="23"/>
       <c r="O87" s="23"/>
@@ -27566,19 +27563,19 @@
         <v>83</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G88" s="25">
         <v>400</v>
@@ -27593,13 +27590,13 @@
         <v>3002</v>
       </c>
       <c r="K88" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L88" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M88" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N88" s="23"/>
       <c r="O88" s="23"/>
@@ -27658,19 +27655,19 @@
         <v>84</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G89" s="25">
         <v>400</v>
@@ -27685,13 +27682,13 @@
         <v>1012</v>
       </c>
       <c r="K89" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L89" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M89" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N89" s="23"/>
       <c r="O89" s="23"/>
@@ -27747,7 +27744,7 @@
     </row>
     <row r="90" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B90" s="69"/>
       <c r="C90" s="69"/>
@@ -27818,19 +27815,19 @@
         <v>85</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="4">
         <v>8</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G91" s="56" t="s">
         <v>12</v>
@@ -27845,10 +27842,10 @@
         <v>1010</v>
       </c>
       <c r="K91" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L91" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M91" s="34" t="s">
         <v>1</v>
@@ -27907,7 +27904,7 @@
     </row>
     <row r="92" spans="1:64" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B92" s="70"/>
       <c r="C92" s="70"/>
@@ -27975,7 +27972,7 @@
     </row>
     <row r="93" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B93" s="69"/>
       <c r="C93" s="69"/>
@@ -28045,20 +28042,20 @@
       <c r="A94" s="4">
         <v>86</v>
       </c>
-      <c r="B94" s="36" t="s">
-        <v>115</v>
+      <c r="B94" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G94" s="25">
         <v>401</v>
@@ -28067,13 +28064,13 @@
         <v>7</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J94" s="4">
         <v>1012</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L94" s="36" t="s">
         <v>12</v>
@@ -28137,20 +28134,20 @@
       <c r="A95" s="4">
         <v>87</v>
       </c>
-      <c r="B95" s="36" t="s">
-        <v>115</v>
+      <c r="B95" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G95" s="25">
         <v>401</v>
@@ -28159,13 +28156,13 @@
         <v>7</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J95" s="4">
         <v>1013</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L95" s="36" t="s">
         <v>12</v>
@@ -28229,20 +28226,20 @@
       <c r="A96" s="4">
         <v>88</v>
       </c>
-      <c r="B96" s="36" t="s">
-        <v>115</v>
+      <c r="B96" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G96" s="25">
         <v>401</v>
@@ -28251,13 +28248,13 @@
         <v>7</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J96" s="4">
         <v>1014</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L96" s="36" t="s">
         <v>12</v>
@@ -28322,19 +28319,19 @@
         <v>89</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G97" s="25">
         <v>400</v>
@@ -28343,7 +28340,7 @@
         <v>7</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J97" s="10">
         <v>1003</v>
@@ -28352,10 +28349,10 @@
         <v>14</v>
       </c>
       <c r="L97" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M97" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
@@ -28414,19 +28411,19 @@
         <v>90</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G98" s="25">
         <v>400</v>
@@ -28441,13 +28438,13 @@
         <v>1004</v>
       </c>
       <c r="K98" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L98" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M98" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N98" s="23"/>
       <c r="O98" s="23"/>
@@ -28506,19 +28503,19 @@
         <v>91</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G99" s="25">
         <v>400</v>
@@ -28527,7 +28524,7 @@
         <v>7</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J99" s="10">
         <v>1005</v>
@@ -28536,10 +28533,10 @@
         <v>15</v>
       </c>
       <c r="L99" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M99" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N99" s="23"/>
       <c r="O99" s="23"/>
@@ -28598,19 +28595,19 @@
         <v>92</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G100" s="25">
         <v>403</v>
@@ -28625,13 +28622,13 @@
         <v>1006</v>
       </c>
       <c r="K100" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L100" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M100" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
@@ -28690,19 +28687,19 @@
         <v>93</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G101" s="25">
         <v>403</v>
@@ -28711,19 +28708,19 @@
         <v>7</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J101" s="10">
         <v>1007</v>
       </c>
       <c r="K101" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L101" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M101" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N101" s="23"/>
       <c r="O101" s="23"/>
@@ -28782,19 +28779,19 @@
         <v>94</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G102" s="25">
         <v>403</v>
@@ -28803,7 +28800,7 @@
         <v>7</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J102" s="10">
         <v>1008</v>
@@ -28812,10 +28809,10 @@
         <v>16</v>
       </c>
       <c r="L102" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M102" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
@@ -28874,19 +28871,19 @@
         <v>95</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G103" s="25">
         <v>403</v>
@@ -28895,19 +28892,19 @@
         <v>7</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J103" s="4">
         <v>1011</v>
       </c>
       <c r="K103" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L103" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M103" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N103" s="23"/>
       <c r="O103" s="23"/>
@@ -28966,19 +28963,19 @@
         <v>96</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G104" s="25">
         <v>400</v>
@@ -28987,7 +28984,7 @@
         <v>7</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J104" s="10">
         <v>4001</v>
@@ -28996,10 +28993,10 @@
         <v>19</v>
       </c>
       <c r="L104" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M104" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N104" s="23"/>
       <c r="O104" s="23"/>
@@ -29055,7 +29052,7 @@
     </row>
     <row r="105" spans="1:64" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B105" s="67"/>
       <c r="C105" s="67"/>
@@ -29126,19 +29123,19 @@
         <v>97</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G106" s="42" t="s">
         <v>12</v>
@@ -29147,19 +29144,19 @@
         <v>7</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J106" s="8">
         <v>4002</v>
       </c>
       <c r="K106" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L106" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M106" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -29167,19 +29164,19 @@
         <v>98</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D107" s="30" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G107" s="42" t="s">
         <v>12</v>
@@ -29188,16 +29185,16 @@
         <v>7</v>
       </c>
       <c r="I107" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J107" s="30">
         <v>4003</v>
       </c>
       <c r="K107" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L107" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M107" s="37" t="s">
         <v>1</v>
@@ -29207,20 +29204,20 @@
       <c r="A108" s="4">
         <v>99</v>
       </c>
-      <c r="B108" s="34" t="s">
-        <v>115</v>
+      <c r="B108" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D108" s="4">
         <v>8</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G108" s="25" t="s">
         <v>12</v>
@@ -29235,10 +29232,10 @@
         <v>1010</v>
       </c>
       <c r="K108" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L108" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M108" s="34" t="s">
         <v>1</v>
@@ -29295,87 +29292,61 @@
       <c r="BK108" s="23"/>
       <c r="BL108" s="23"/>
     </row>
-    <row r="109" spans="1:64" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>100</v>
-      </c>
-      <c r="B109" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D109" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="F109" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="G109" s="56">
-        <v>400</v>
-      </c>
-      <c r="H109" s="25" t="s">
+      <c r="E109" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G109" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J109" s="25">
-        <v>2046</v>
+      <c r="I109" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109" s="4">
+        <v>1012</v>
       </c>
       <c r="K109" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="L109" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="M109" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="110" spans="1:64" ht="31.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
-        <v>101</v>
-      </c>
-      <c r="B110" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G110" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I110" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J110" s="4">
-        <v>1012</v>
-      </c>
-      <c r="K110" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="L110" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="M110" s="37" t="s">
-        <v>196</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="L109" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="M109" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="38"/>
     </row>
     <row r="111" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A111" s="21"/>
@@ -29590,17 +29561,17 @@
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="58"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="57"/>
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
       <c r="J125" s="21"/>
       <c r="K125" s="38"/>
       <c r="L125" s="22"/>
-      <c r="M125" s="38"/>
+      <c r="M125" s="22"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="21"/>
@@ -34296,21 +34267,6 @@
       <c r="K438" s="38"/>
       <c r="L438" s="22"/>
       <c r="M438" s="22"/>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A439" s="21"/>
-      <c r="B439" s="22"/>
-      <c r="C439" s="23"/>
-      <c r="D439" s="21"/>
-      <c r="E439" s="21"/>
-      <c r="F439" s="21"/>
-      <c r="G439" s="57"/>
-      <c r="H439" s="21"/>
-      <c r="I439" s="21"/>
-      <c r="J439" s="21"/>
-      <c r="K439" s="38"/>
-      <c r="L439" s="22"/>
-      <c r="M439" s="22"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -34330,13 +34286,13 @@
     <mergeCell ref="A92:M92"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H74 H56:H62 H44:H50 H97:H104 H80:H89 H91 H18:H42 H106:H110 H7:H16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68:H74 H56:H62 H44:H50 H97:H104 H80:H89 H91 H18:H42 H7:H16 H106:H108 H109">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I56:I62 I68:I74 I44:I50 I106 I97:I104 I80:I89 I91 I18:I42 I108:I109 I7:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I56:I62 I68:I74 I44:I50 I106 I97:I104 I80:I89 I91 I18:I42 I7:I16 I108">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J74 J56:J62 J80:J88 J34:J41 J91 J108 J97:J104 J106 J44:J48 J7:J16 J18:J32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J74 J56:J62 J80:J88 J34:J41 J91 J108 J97:J104 J106 J44:J48 J18:J32 J7:J13 J15:J16">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$454</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$455</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$124</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$125</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="262">
   <si>
     <t>Payslip</t>
   </si>
@@ -858,6 +858,12 @@
   <si>
     <t>Agent TAIN and Employer Registration Number must be linked on or before submission date to be able to view details.</t>
   </si>
+  <si>
+    <t>Leave date cannot be before 01/01/2019</t>
+  </si>
+  <si>
+    <t>LeaveDate cannot be earlier than 01/01/2019</t>
+  </si>
 </sst>
 </file>
 
@@ -1371,6 +1377,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,9 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22079,10 +22085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M49"/>
+  <dimension ref="B8:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A19" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22099,18 +22105,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
@@ -22570,8 +22576,8 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="100"/>
-      <c r="C48" s="100">
+      <c r="B48" s="97"/>
+      <c r="C48" s="97">
         <v>10</v>
       </c>
       <c r="D48" s="79" t="s">
@@ -22584,6 +22590,15 @@
         <v>148</v>
       </c>
       <c r="D49" s="81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="80"/>
+      <c r="C50" s="80">
+        <v>149</v>
+      </c>
+      <c r="D50" s="81" t="s">
         <v>166</v>
       </c>
     </row>
@@ -22602,11 +22617,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN454"/>
+  <dimension ref="A1:BN455"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -22725,23 +22740,23 @@
       <c r="BN1" s="20"/>
     </row>
     <row r="2" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -22795,23 +22810,23 @@
       <c r="BN2" s="21"/>
     </row>
     <row r="3" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -23895,23 +23910,23 @@
       </c>
     </row>
     <row r="23" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
@@ -23964,26 +23979,26 @@
       <c r="BM23" s="21"/>
       <c r="BN23" s="21"/>
     </row>
-    <row r="24" spans="1:66" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>97</v>
+    <row r="24" spans="1:66" s="11" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="94">
+        <v>149</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="94">
         <v>200</v>
       </c>
       <c r="H24" s="24" t="s">
@@ -23992,132 +24007,132 @@
       <c r="I24" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="38" t="s">
+      <c r="K24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="94">
+        <v>2024</v>
+      </c>
+      <c r="M24" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="N24" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="O24" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>143</v>
+      <c r="O24" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="21"/>
+      <c r="AT24" s="21"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="21"/>
+      <c r="AY24" s="21"/>
+      <c r="AZ24" s="21"/>
+      <c r="BA24" s="21"/>
+      <c r="BB24" s="21"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="21"/>
+      <c r="BE24" s="21"/>
+      <c r="BF24" s="21"/>
+      <c r="BG24" s="21"/>
+      <c r="BH24" s="21"/>
+      <c r="BI24" s="21"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="21"/>
+      <c r="BL24" s="21"/>
+      <c r="BM24" s="21"/>
+      <c r="BN24" s="21"/>
+    </row>
+    <row r="25" spans="1:66" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>97</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="5" t="s">
         <v>144</v>
       </c>
       <c r="G25" s="39">
         <v>200</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="24" t="s">
         <v>221</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="39">
-        <v>2050</v>
-      </c>
-      <c r="M25" s="38" t="s">
-        <v>248</v>
+        <v>32</v>
+      </c>
+      <c r="L25" s="8">
+        <v>4002</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="N25" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="86" t="s">
-        <v>249</v>
-      </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="36"/>
-      <c r="AS25" s="36"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="36"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="36"/>
-      <c r="AX25" s="36"/>
-      <c r="AY25" s="36"/>
-      <c r="AZ25" s="36"/>
-      <c r="BA25" s="36"/>
-      <c r="BB25" s="36"/>
-      <c r="BC25" s="36"/>
-      <c r="BD25" s="36"/>
-      <c r="BE25" s="36"/>
-      <c r="BF25" s="36"/>
-      <c r="BG25" s="36"/>
-      <c r="BH25" s="36"/>
-      <c r="BI25" s="36"/>
-      <c r="BJ25" s="36"/>
-      <c r="BK25" s="36"/>
-      <c r="BL25" s="36"/>
-      <c r="BM25" s="36"/>
-      <c r="BN25" s="36"/>
+      <c r="O25" s="32" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>245</v>
+      <c r="C26" s="89" t="s">
+        <v>248</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>12</v>
@@ -24128,32 +24143,32 @@
       <c r="F26" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="24">
-        <v>400</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>220</v>
+      <c r="G26" s="39">
+        <v>200</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>221</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J26" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="66">
-        <v>2051</v>
+      <c r="K26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="39">
+        <v>2050</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N26" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O26" s="44" t="s">
-        <v>244</v>
+      <c r="O26" s="86" t="s">
+        <v>249</v>
       </c>
       <c r="P26" s="36"/>
       <c r="Q26" s="36"/>
@@ -24207,18 +24222,18 @@
       <c r="BM26" s="36"/>
       <c r="BN26" s="36"/>
     </row>
-    <row r="27" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>20</v>
+    <row r="27" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>144</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="5">
-        <v>8</v>
+      <c r="C27" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>144</v>
@@ -24227,45 +24242,96 @@
         <v>144</v>
       </c>
       <c r="G27" s="24">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="J27" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1010</v>
-      </c>
-      <c r="M27" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="32" t="s">
+      <c r="K27" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="66">
+        <v>2051</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="N27" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O27" s="32" t="s">
-        <v>1</v>
-      </c>
+      <c r="O27" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="36"/>
+      <c r="AZ27" s="36"/>
+      <c r="BA27" s="36"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="36"/>
+      <c r="BD27" s="36"/>
+      <c r="BE27" s="36"/>
+      <c r="BF27" s="36"/>
+      <c r="BG27" s="36"/>
+      <c r="BH27" s="36"/>
+      <c r="BI27" s="36"/>
+      <c r="BJ27" s="36"/>
+      <c r="BK27" s="36"/>
+      <c r="BL27" s="36"/>
+      <c r="BM27" s="36"/>
+      <c r="BN27" s="36"/>
     </row>
     <row r="28" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="D28" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>144</v>
@@ -24276,7 +24342,7 @@
       <c r="G28" s="24">
         <v>200</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="24" t="s">
         <v>221</v>
       </c>
       <c r="I28" s="24" t="s">
@@ -24286,33 +24352,33 @@
         <v>7</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="8">
-        <v>2009</v>
+        <v>11</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1010</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="N28" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O28" s="32" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>70</v>
+      <c r="C29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="5">
+        <v>13</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>144</v>
@@ -24335,31 +24401,31 @@
       <c r="K29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="5">
-        <v>2010</v>
+      <c r="L29" s="8">
+        <v>2009</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="N29" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="31" t="s">
-        <v>49</v>
+      <c r="O29" s="32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>71</v>
+      <c r="C30" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>144</v>
@@ -24380,30 +24446,30 @@
         <v>7</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L30" s="5">
-        <v>2014</v>
-      </c>
-      <c r="M30" s="33" t="s">
-        <v>238</v>
+        <v>2010</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="N30" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:66" ht="35.450000000000003" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
+      <c r="C31" s="23" t="s">
+        <v>237</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>71</v>
@@ -24417,7 +24483,7 @@
       <c r="G31" s="24">
         <v>200</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="55" t="s">
         <v>221</v>
       </c>
       <c r="I31" s="24" t="s">
@@ -24427,13 +24493,13 @@
         <v>7</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L31" s="5">
-        <v>2015</v>
-      </c>
-      <c r="M31" s="31" t="s">
-        <v>20</v>
+        <v>2014</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>238</v>
       </c>
       <c r="N31" s="32" t="s">
         <v>0</v>
@@ -24442,109 +24508,109 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:66" s="74" customFormat="1" ht="52.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A32" s="59">
-        <v>27</v>
-      </c>
-      <c r="B32" s="60" t="s">
+    <row r="32" spans="1:66" ht="35.450000000000003" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>26</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="59" t="s">
+      <c r="C32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="24" t="s">
         <v>144</v>
       </c>
       <c r="G32" s="24">
         <v>200</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J32" s="59" t="s">
+      <c r="J32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="62">
-        <v>2016</v>
-      </c>
-      <c r="M32" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" s="60" t="s">
+      <c r="K32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="5">
+        <v>2015</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O32" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>31</v>
+      <c r="O32" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:66" s="74" customFormat="1" ht="52.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="59">
+        <v>27</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="5">
-        <v>12</v>
-      </c>
-      <c r="E33" s="24" t="s">
+      <c r="C33" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="59" t="s">
         <v>144</v>
       </c>
       <c r="G33" s="24">
         <v>200</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="5">
-        <v>2017</v>
-      </c>
-      <c r="M33" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N33" s="32" t="s">
+      <c r="L33" s="62">
+        <v>2016</v>
+      </c>
+      <c r="M33" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O33" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
-        <v>134</v>
+      <c r="O33" s="60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>31</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="90" t="s">
-        <v>210</v>
+      <c r="C34" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D34" s="5">
         <v>12</v>
@@ -24568,13 +24634,13 @@
         <v>7</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="27">
-        <v>2048</v>
-      </c>
-      <c r="M34" s="90" t="s">
-        <v>210</v>
+        <v>11</v>
+      </c>
+      <c r="L34" s="5">
+        <v>2017</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>13</v>
       </c>
       <c r="N34" s="32" t="s">
         <v>0</v>
@@ -24583,15 +24649,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>32</v>
+    <row r="35" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>134</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>96</v>
+      <c r="C35" s="90" t="s">
+        <v>210</v>
       </c>
       <c r="D35" s="5">
         <v>12</v>
@@ -24615,13 +24681,13 @@
         <v>7</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="5">
-        <v>2018</v>
-      </c>
-      <c r="M35" s="31" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="L35" s="27">
+        <v>2048</v>
+      </c>
+      <c r="M35" s="90" t="s">
+        <v>210</v>
       </c>
       <c r="N35" s="32" t="s">
         <v>0</v>
@@ -24630,18 +24696,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>33</v>
-      </c>
-      <c r="B36" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="24">
-        <v>16</v>
+      <c r="C36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="5">
+        <v>12</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>144</v>
@@ -24658,87 +24724,36 @@
       <c r="I36" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="25">
-        <v>2020</v>
-      </c>
-      <c r="M36" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="N36" s="38" t="s">
+      <c r="K36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="5">
+        <v>2018</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
-      <c r="AT36" s="36"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="36"/>
-      <c r="AX36" s="36"/>
-      <c r="AY36" s="36"/>
-      <c r="AZ36" s="36"/>
-      <c r="BA36" s="36"/>
-      <c r="BB36" s="36"/>
-      <c r="BC36" s="36"/>
-      <c r="BD36" s="36"/>
-      <c r="BE36" s="36"/>
-      <c r="BF36" s="36"/>
-      <c r="BG36" s="36"/>
-      <c r="BH36" s="36"/>
-      <c r="BI36" s="36"/>
-      <c r="BJ36" s="36"/>
-      <c r="BK36" s="36"/>
-      <c r="BL36" s="36"/>
-      <c r="BM36" s="36"/>
-      <c r="BN36" s="36"/>
-    </row>
-    <row r="37" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O36" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>35</v>
-      </c>
-      <c r="B37" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="5">
+        <v>119</v>
+      </c>
+      <c r="D37" s="24">
         <v>16</v>
       </c>
       <c r="E37" s="24" t="s">
@@ -24756,37 +24771,88 @@
       <c r="I37" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="5">
-        <v>2023</v>
-      </c>
-      <c r="M37" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="N37" s="32" t="s">
+      <c r="K37" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="25">
+        <v>2020</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="N37" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O37" s="32" t="s">
+      <c r="O37" s="38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:66" s="37" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="36"/>
+      <c r="AU37" s="36"/>
+      <c r="AV37" s="36"/>
+      <c r="AW37" s="36"/>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="36"/>
+      <c r="AZ37" s="36"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="36"/>
+      <c r="BC37" s="36"/>
+      <c r="BD37" s="36"/>
+      <c r="BE37" s="36"/>
+      <c r="BF37" s="36"/>
+      <c r="BG37" s="36"/>
+      <c r="BH37" s="36"/>
+      <c r="BI37" s="36"/>
+      <c r="BJ37" s="36"/>
+      <c r="BK37" s="36"/>
+      <c r="BL37" s="36"/>
+      <c r="BM37" s="36"/>
+      <c r="BN37" s="36"/>
+    </row>
+    <row r="38" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>36</v>
-      </c>
-      <c r="B38" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="39">
-        <v>53</v>
+      <c r="C38" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="5">
+        <v>16</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>144</v>
@@ -24803,88 +24869,37 @@
       <c r="I38" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J38" s="39" t="s">
+      <c r="J38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="5">
-        <v>2025</v>
-      </c>
-      <c r="M38" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="N38" s="38" t="s">
+        <v>2023</v>
+      </c>
+      <c r="M38" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="N38" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O38" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="36"/>
-      <c r="AT38" s="36"/>
-      <c r="AU38" s="36"/>
-      <c r="AV38" s="36"/>
-      <c r="AW38" s="36"/>
-      <c r="AX38" s="36"/>
-      <c r="AY38" s="36"/>
-      <c r="AZ38" s="36"/>
-      <c r="BA38" s="36"/>
-      <c r="BB38" s="36"/>
-      <c r="BC38" s="36"/>
-      <c r="BD38" s="36"/>
-      <c r="BE38" s="36"/>
-      <c r="BF38" s="36"/>
-      <c r="BG38" s="36"/>
-      <c r="BH38" s="36"/>
-      <c r="BI38" s="36"/>
-      <c r="BJ38" s="36"/>
-      <c r="BK38" s="36"/>
-      <c r="BL38" s="36"/>
-      <c r="BM38" s="36"/>
-      <c r="BN38" s="36"/>
-    </row>
-    <row r="39" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O38" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:66" s="37" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>37</v>
-      </c>
-      <c r="B39" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="4">
-        <v>21</v>
+      <c r="C39" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="39">
+        <v>53</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>144</v>
@@ -24901,88 +24916,88 @@
       <c r="I39" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L39" s="5">
-        <v>2030</v>
-      </c>
-      <c r="M39" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="N39" s="31" t="s">
+        <v>2025</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="N39" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O39" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="22"/>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="22"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="22"/>
-      <c r="AL39" s="22"/>
-      <c r="AM39" s="22"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="22"/>
-      <c r="AP39" s="22"/>
-      <c r="AQ39" s="22"/>
-      <c r="AR39" s="22"/>
-      <c r="AS39" s="22"/>
-      <c r="AT39" s="22"/>
-      <c r="AU39" s="22"/>
-      <c r="AV39" s="22"/>
-      <c r="AW39" s="22"/>
-      <c r="AX39" s="22"/>
-      <c r="AY39" s="22"/>
-      <c r="AZ39" s="22"/>
-      <c r="BA39" s="22"/>
-      <c r="BB39" s="22"/>
-      <c r="BC39" s="22"/>
-      <c r="BD39" s="22"/>
-      <c r="BE39" s="22"/>
-      <c r="BF39" s="22"/>
-      <c r="BG39" s="22"/>
-      <c r="BH39" s="22"/>
-      <c r="BI39" s="22"/>
-      <c r="BJ39" s="22"/>
-      <c r="BK39" s="22"/>
-      <c r="BL39" s="22"/>
-      <c r="BM39" s="22"/>
-      <c r="BN39" s="22"/>
-    </row>
-    <row r="40" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O39" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="36"/>
+      <c r="AM39" s="36"/>
+      <c r="AN39" s="36"/>
+      <c r="AO39" s="36"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="36"/>
+      <c r="AR39" s="36"/>
+      <c r="AS39" s="36"/>
+      <c r="AT39" s="36"/>
+      <c r="AU39" s="36"/>
+      <c r="AV39" s="36"/>
+      <c r="AW39" s="36"/>
+      <c r="AX39" s="36"/>
+      <c r="AY39" s="36"/>
+      <c r="AZ39" s="36"/>
+      <c r="BA39" s="36"/>
+      <c r="BB39" s="36"/>
+      <c r="BC39" s="36"/>
+      <c r="BD39" s="36"/>
+      <c r="BE39" s="36"/>
+      <c r="BF39" s="36"/>
+      <c r="BG39" s="36"/>
+      <c r="BH39" s="36"/>
+      <c r="BI39" s="36"/>
+      <c r="BJ39" s="36"/>
+      <c r="BK39" s="36"/>
+      <c r="BL39" s="36"/>
+      <c r="BM39" s="36"/>
+      <c r="BN39" s="36"/>
+    </row>
+    <row r="40" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>12</v>
+      <c r="C40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="4">
+        <v>21</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>144</v>
@@ -24999,37 +25014,88 @@
       <c r="I40" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>11</v>
+      <c r="K40" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="L40" s="5">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="N40" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O40" s="32" t="s">
-        <v>53</v>
-      </c>
+      <c r="O40" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="22"/>
+      <c r="AQ40" s="22"/>
+      <c r="AR40" s="22"/>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="22"/>
+      <c r="AU40" s="22"/>
+      <c r="AV40" s="22"/>
+      <c r="AW40" s="22"/>
+      <c r="AX40" s="22"/>
+      <c r="AY40" s="22"/>
+      <c r="AZ40" s="22"/>
+      <c r="BA40" s="22"/>
+      <c r="BB40" s="22"/>
+      <c r="BC40" s="22"/>
+      <c r="BD40" s="22"/>
+      <c r="BE40" s="22"/>
+      <c r="BF40" s="22"/>
+      <c r="BG40" s="22"/>
+      <c r="BH40" s="22"/>
+      <c r="BI40" s="22"/>
+      <c r="BJ40" s="22"/>
+      <c r="BK40" s="22"/>
+      <c r="BL40" s="22"/>
+      <c r="BM40" s="22"/>
+      <c r="BN40" s="22"/>
     </row>
     <row r="41" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="5">
-        <v>20</v>
+      <c r="C41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>144</v>
@@ -25050,33 +25116,33 @@
         <v>7</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L41" s="5">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="N41" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>172</v>
+      <c r="C42" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="D42" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>144</v>
@@ -25100,30 +25166,30 @@
         <v>32</v>
       </c>
       <c r="L42" s="5">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="N42" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D43" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>144</v>
@@ -25147,30 +25213,30 @@
         <v>32</v>
       </c>
       <c r="L43" s="5">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="N43" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="24">
-        <v>17</v>
+      <c r="C44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="5">
+        <v>23</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>144</v>
@@ -25187,42 +25253,42 @@
       <c r="I44" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="24" t="s">
-        <v>34</v>
+      <c r="K44" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="L44" s="5">
-        <v>2019</v>
-      </c>
-      <c r="M44" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="N44" s="33" t="s">
+        <v>2032</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="N44" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="33" t="s">
-        <v>56</v>
+      <c r="O44" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A45" s="59">
-        <v>43</v>
-      </c>
-      <c r="B45" s="60" t="s">
+      <c r="A45" s="5">
+        <v>42</v>
+      </c>
+      <c r="B45" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="59">
+      <c r="C45" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="24">
         <v>17</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="24" t="s">
         <v>144</v>
       </c>
       <c r="G45" s="24">
@@ -25234,42 +25300,42 @@
       <c r="I45" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="59">
-        <v>1002</v>
-      </c>
-      <c r="M45" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="N45" s="60" t="s">
+      <c r="K45" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="5">
+        <v>2019</v>
+      </c>
+      <c r="M45" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="O45" s="60" t="s">
+      <c r="O45" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>44</v>
-      </c>
-      <c r="B46" s="40" t="s">
+    <row r="46" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A46" s="59">
+        <v>43</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="43">
-        <v>30</v>
-      </c>
-      <c r="E46" s="24" t="s">
+      <c r="C46" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="59">
+        <v>17</v>
+      </c>
+      <c r="E46" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="59" t="s">
         <v>144</v>
       </c>
       <c r="G46" s="24">
@@ -25281,88 +25347,37 @@
       <c r="I46" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J46" s="43" t="s">
+      <c r="J46" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="5">
-        <v>2043</v>
-      </c>
-      <c r="M46" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="N46" s="40" t="s">
+      <c r="K46" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="59">
+        <v>1002</v>
+      </c>
+      <c r="M46" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="N46" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O46" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
-      <c r="AF46" s="36"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="36"/>
-      <c r="AJ46" s="36"/>
-      <c r="AK46" s="36"/>
-      <c r="AL46" s="36"/>
-      <c r="AM46" s="36"/>
-      <c r="AN46" s="36"/>
-      <c r="AO46" s="36"/>
-      <c r="AP46" s="36"/>
-      <c r="AQ46" s="36"/>
-      <c r="AR46" s="36"/>
-      <c r="AS46" s="36"/>
-      <c r="AT46" s="36"/>
-      <c r="AU46" s="36"/>
-      <c r="AV46" s="36"/>
-      <c r="AW46" s="36"/>
-      <c r="AX46" s="36"/>
-      <c r="AY46" s="36"/>
-      <c r="AZ46" s="36"/>
-      <c r="BA46" s="36"/>
-      <c r="BB46" s="36"/>
-      <c r="BC46" s="36"/>
-      <c r="BD46" s="36"/>
-      <c r="BE46" s="36"/>
-      <c r="BF46" s="36"/>
-      <c r="BG46" s="36"/>
-      <c r="BH46" s="36"/>
-      <c r="BI46" s="36"/>
-      <c r="BJ46" s="36"/>
-      <c r="BK46" s="36"/>
-      <c r="BL46" s="36"/>
-      <c r="BM46" s="36"/>
-      <c r="BN46" s="36"/>
-    </row>
-    <row r="47" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O46" s="60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>45</v>
-      </c>
-      <c r="B47" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="5">
-        <v>31</v>
+      <c r="C47" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="43">
+        <v>30</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>144</v>
@@ -25379,34 +25394,85 @@
       <c r="I47" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="8">
-        <v>2033</v>
-      </c>
-      <c r="M47" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="N47" s="32" t="s">
+      <c r="L47" s="5">
+        <v>2043</v>
+      </c>
+      <c r="M47" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="N47" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O47" s="32" t="s">
-        <v>108</v>
-      </c>
+      <c r="O47" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="36"/>
+      <c r="AA47" s="36"/>
+      <c r="AB47" s="36"/>
+      <c r="AC47" s="36"/>
+      <c r="AD47" s="36"/>
+      <c r="AE47" s="36"/>
+      <c r="AF47" s="36"/>
+      <c r="AG47" s="36"/>
+      <c r="AH47" s="36"/>
+      <c r="AI47" s="36"/>
+      <c r="AJ47" s="36"/>
+      <c r="AK47" s="36"/>
+      <c r="AL47" s="36"/>
+      <c r="AM47" s="36"/>
+      <c r="AN47" s="36"/>
+      <c r="AO47" s="36"/>
+      <c r="AP47" s="36"/>
+      <c r="AQ47" s="36"/>
+      <c r="AR47" s="36"/>
+      <c r="AS47" s="36"/>
+      <c r="AT47" s="36"/>
+      <c r="AU47" s="36"/>
+      <c r="AV47" s="36"/>
+      <c r="AW47" s="36"/>
+      <c r="AX47" s="36"/>
+      <c r="AY47" s="36"/>
+      <c r="AZ47" s="36"/>
+      <c r="BA47" s="36"/>
+      <c r="BB47" s="36"/>
+      <c r="BC47" s="36"/>
+      <c r="BD47" s="36"/>
+      <c r="BE47" s="36"/>
+      <c r="BF47" s="36"/>
+      <c r="BG47" s="36"/>
+      <c r="BH47" s="36"/>
+      <c r="BI47" s="36"/>
+      <c r="BJ47" s="36"/>
+      <c r="BK47" s="36"/>
+      <c r="BL47" s="36"/>
+      <c r="BM47" s="36"/>
+      <c r="BN47" s="36"/>
     </row>
     <row r="48" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D48" s="5">
         <v>31</v>
@@ -25430,33 +25496,33 @@
         <v>7</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L48" s="8">
-        <v>2037</v>
-      </c>
-      <c r="M48" s="31" t="s">
-        <v>22</v>
+        <v>2033</v>
+      </c>
+      <c r="M48" s="33" t="s">
+        <v>112</v>
       </c>
       <c r="N48" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O48" s="38" t="s">
-        <v>124</v>
+      <c r="O48" s="32" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="D49" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>144</v>
@@ -25480,30 +25546,30 @@
         <v>11</v>
       </c>
       <c r="L49" s="8">
-        <v>2036</v>
-      </c>
-      <c r="M49" s="33" t="s">
-        <v>165</v>
+        <v>2037</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="N49" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O49" s="32" t="s">
-        <v>58</v>
+      <c r="O49" s="38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>111</v>
+      <c r="C50" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="D50" s="5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>144</v>
@@ -25524,178 +25590,127 @@
         <v>7</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L50" s="8">
-        <v>2038</v>
-      </c>
-      <c r="M50" s="31" t="s">
-        <v>110</v>
+        <v>2036</v>
+      </c>
+      <c r="M50" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="N50" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:66" s="74" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A51" s="59">
-        <v>49</v>
-      </c>
-      <c r="B51" s="60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>48</v>
+      </c>
+      <c r="B51" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="59">
-        <v>39</v>
-      </c>
-      <c r="E51" s="59" t="s">
+      <c r="C51" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="5">
+        <v>35</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="59" t="s">
+      <c r="F51" s="24" t="s">
         <v>144</v>
       </c>
       <c r="G51" s="24">
         <v>200</v>
       </c>
-      <c r="H51" s="75" t="s">
+      <c r="H51" s="24" t="s">
         <v>221</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J51" s="59" t="s">
+      <c r="J51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K51" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="62">
-        <v>2039</v>
-      </c>
-      <c r="M51" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="N51" s="60" t="s">
+      <c r="K51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="8">
+        <v>2038</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="N51" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O51" s="60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>50</v>
+      <c r="O51" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:66" s="74" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A52" s="59">
+        <v>49</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="4">
-        <v>19</v>
-      </c>
-      <c r="E52" s="24" t="s">
+      <c r="C52" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="59">
+        <v>39</v>
+      </c>
+      <c r="E52" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="59" t="s">
         <v>144</v>
       </c>
       <c r="G52" s="24">
         <v>200</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="75" t="s">
         <v>221</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L52" s="10">
-        <v>2044</v>
-      </c>
-      <c r="M52" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="N52" s="31" t="s">
+      <c r="J52" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="62">
+        <v>2039</v>
+      </c>
+      <c r="M52" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="N52" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O52" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="22"/>
-      <c r="AI52" s="22"/>
-      <c r="AJ52" s="22"/>
-      <c r="AK52" s="22"/>
-      <c r="AL52" s="22"/>
-      <c r="AM52" s="22"/>
-      <c r="AN52" s="22"/>
-      <c r="AO52" s="22"/>
-      <c r="AP52" s="22"/>
-      <c r="AQ52" s="22"/>
-      <c r="AR52" s="22"/>
-      <c r="AS52" s="22"/>
-      <c r="AT52" s="22"/>
-      <c r="AU52" s="22"/>
-      <c r="AV52" s="22"/>
-      <c r="AW52" s="22"/>
-      <c r="AX52" s="22"/>
-      <c r="AY52" s="22"/>
-      <c r="AZ52" s="22"/>
-      <c r="BA52" s="22"/>
-      <c r="BB52" s="22"/>
-      <c r="BC52" s="22"/>
-      <c r="BD52" s="22"/>
-      <c r="BE52" s="22"/>
-      <c r="BF52" s="22"/>
-      <c r="BG52" s="22"/>
-      <c r="BH52" s="22"/>
-      <c r="BI52" s="22"/>
-      <c r="BJ52" s="22"/>
-      <c r="BK52" s="22"/>
-      <c r="BL52" s="22"/>
-      <c r="BM52" s="22"/>
-      <c r="BN52" s="22"/>
+      <c r="O52" s="60" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="53" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="91" t="s">
-        <v>242</v>
+      <c r="C53" s="48" t="s">
+        <v>148</v>
       </c>
       <c r="D53" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>144</v>
@@ -25719,16 +25734,16 @@
         <v>34</v>
       </c>
       <c r="L53" s="10">
-        <v>2045</v>
-      </c>
-      <c r="M53" s="92" t="s">
-        <v>242</v>
+        <v>2044</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="N53" s="31" t="s">
         <v>0</v>
       </c>
       <c r="O53" s="31" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
@@ -25784,24 +25799,24 @@
     </row>
     <row r="54" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>122</v>
-      </c>
-      <c r="B54" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="55" t="s">
+      <c r="C54" s="91" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="4">
+        <v>8</v>
+      </c>
+      <c r="E54" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="55" t="s">
+      <c r="F54" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="55">
+      <c r="G54" s="24">
         <v>200</v>
       </c>
       <c r="H54" s="24" t="s">
@@ -25810,23 +25825,23 @@
       <c r="I54" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J54" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" s="54">
-        <v>2047</v>
-      </c>
-      <c r="M54" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="N54" s="53" t="s">
+      <c r="J54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="10">
+        <v>2045</v>
+      </c>
+      <c r="M54" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="N54" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O54" s="64" t="s">
-        <v>0</v>
+      <c r="O54" s="31" t="s">
+        <v>1</v>
       </c>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
@@ -25880,79 +25895,107 @@
       <c r="BM54" s="22"/>
       <c r="BN54" s="22"/>
     </row>
-    <row r="55" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="98" t="s">
+    <row r="55" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>122</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="55">
+        <v>200</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J55" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="54">
+        <v>2047</v>
+      </c>
+      <c r="M55" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="N55" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+      <c r="AO55" s="22"/>
+      <c r="AP55" s="22"/>
+      <c r="AQ55" s="22"/>
+      <c r="AR55" s="22"/>
+      <c r="AS55" s="22"/>
+      <c r="AT55" s="22"/>
+      <c r="AU55" s="22"/>
+      <c r="AV55" s="22"/>
+      <c r="AW55" s="22"/>
+      <c r="AX55" s="22"/>
+      <c r="AY55" s="22"/>
+      <c r="AZ55" s="22"/>
+      <c r="BA55" s="22"/>
+      <c r="BB55" s="22"/>
+      <c r="BC55" s="22"/>
+      <c r="BD55" s="22"/>
+      <c r="BE55" s="22"/>
+      <c r="BF55" s="22"/>
+      <c r="BG55" s="22"/>
+      <c r="BH55" s="22"/>
+      <c r="BI55" s="22"/>
+      <c r="BJ55" s="22"/>
+      <c r="BK55" s="22"/>
+      <c r="BL55" s="22"/>
+      <c r="BM55" s="22"/>
+      <c r="BN55" s="22"/>
+    </row>
+    <row r="56" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="99" t="s">
         <v>44</v>
-      </c>
-      <c r="B55" s="98"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="98"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="98"/>
-      <c r="O55" s="98"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
-      <c r="AE55" s="21"/>
-      <c r="AF55" s="21"/>
-      <c r="AG55" s="21"/>
-      <c r="AH55" s="21"/>
-      <c r="AI55" s="21"/>
-      <c r="AJ55" s="21"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="21"/>
-      <c r="AM55" s="21"/>
-      <c r="AN55" s="21"/>
-      <c r="AO55" s="21"/>
-      <c r="AP55" s="21"/>
-      <c r="AQ55" s="21"/>
-      <c r="AR55" s="21"/>
-      <c r="AS55" s="21"/>
-      <c r="AT55" s="21"/>
-      <c r="AU55" s="21"/>
-      <c r="AV55" s="21"/>
-      <c r="AW55" s="21"/>
-      <c r="AX55" s="21"/>
-      <c r="AY55" s="21"/>
-      <c r="AZ55" s="21"/>
-      <c r="BA55" s="21"/>
-      <c r="BB55" s="21"/>
-      <c r="BC55" s="21"/>
-      <c r="BD55" s="21"/>
-      <c r="BE55" s="21"/>
-      <c r="BF55" s="21"/>
-      <c r="BG55" s="21"/>
-      <c r="BH55" s="21"/>
-      <c r="BI55" s="21"/>
-      <c r="BJ55" s="21"/>
-      <c r="BK55" s="21"/>
-      <c r="BL55" s="21"/>
-      <c r="BM55" s="21"/>
-      <c r="BN55" s="21"/>
-    </row>
-    <row r="56" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="99" t="s">
-        <v>150</v>
       </c>
       <c r="B56" s="99"/>
       <c r="C56" s="99"/>
@@ -26020,52 +26063,24 @@
       <c r="BM56" s="21"/>
       <c r="BN56" s="21"/>
     </row>
-    <row r="57" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94">
-        <v>148</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="D57" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="94">
-        <v>403</v>
-      </c>
-      <c r="H57" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J57" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K57" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="L57" s="94">
-        <v>1111</v>
-      </c>
-      <c r="M57" s="95" t="s">
-        <v>258</v>
-      </c>
-      <c r="N57" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O57" s="31" t="s">
-        <v>61</v>
-      </c>
+    <row r="57" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="100"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
@@ -26118,15 +26133,15 @@
       <c r="BM57" s="21"/>
       <c r="BN57" s="21"/>
     </row>
-    <row r="58" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C58" s="95" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D58" s="94" t="s">
         <v>12</v>
@@ -26153,16 +26168,16 @@
         <v>34</v>
       </c>
       <c r="L58" s="94">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M58" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="N58" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="O58" s="95" t="s">
-        <v>12</v>
+        <v>258</v>
+      </c>
+      <c r="N58" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O58" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
@@ -26216,50 +26231,50 @@
       <c r="BM58" s="21"/>
       <c r="BN58" s="21"/>
     </row>
-    <row r="59" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>52</v>
+    <row r="59" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="94">
+        <v>146</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C59" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G59" s="24">
-        <v>401</v>
-      </c>
-      <c r="H59" s="59" t="s">
+      <c r="G59" s="94">
+        <v>403</v>
+      </c>
+      <c r="H59" s="94" t="s">
         <v>220</v>
       </c>
       <c r="I59" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L59" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M59" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N59" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O59" s="50" t="s">
+      <c r="L59" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M59" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N59" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="O59" s="95" t="s">
         <v>12</v>
       </c>
       <c r="P59" s="21"/>
@@ -26314,15 +26329,15 @@
       <c r="BM59" s="21"/>
       <c r="BN59" s="21"/>
     </row>
-    <row r="60" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>151</v>
+      <c r="C60" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>12</v>
@@ -26349,15 +26364,15 @@
         <v>34</v>
       </c>
       <c r="L60" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N60" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O60" s="48" t="s">
+      <c r="O60" s="50" t="s">
         <v>12</v>
       </c>
       <c r="P60" s="21"/>
@@ -26412,15 +26427,15 @@
       <c r="BM60" s="21"/>
       <c r="BN60" s="21"/>
     </row>
-    <row r="61" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>12</v>
@@ -26432,7 +26447,7 @@
         <v>144</v>
       </c>
       <c r="G61" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H61" s="59" t="s">
         <v>220</v>
@@ -26440,85 +26455,85 @@
       <c r="I61" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K61" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="24">
-        <v>1003</v>
-      </c>
-      <c r="M61" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N61" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O61" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="22"/>
-      <c r="AO61" s="22"/>
-      <c r="AP61" s="22"/>
-      <c r="AQ61" s="22"/>
-      <c r="AR61" s="22"/>
-      <c r="AS61" s="22"/>
-      <c r="AT61" s="22"/>
-      <c r="AU61" s="22"/>
-      <c r="AV61" s="22"/>
-      <c r="AW61" s="22"/>
-      <c r="AX61" s="22"/>
-      <c r="AY61" s="22"/>
-      <c r="AZ61" s="22"/>
-      <c r="BA61" s="22"/>
-      <c r="BB61" s="22"/>
-      <c r="BC61" s="22"/>
-      <c r="BD61" s="22"/>
-      <c r="BE61" s="22"/>
-      <c r="BF61" s="22"/>
-      <c r="BG61" s="22"/>
-      <c r="BH61" s="22"/>
-      <c r="BI61" s="22"/>
-      <c r="BJ61" s="22"/>
-      <c r="BK61" s="22"/>
-      <c r="BL61" s="22"/>
-      <c r="BM61" s="22"/>
-      <c r="BN61" s="22"/>
-    </row>
-    <row r="62" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K61" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M61" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N61" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="21"/>
+      <c r="AP61" s="21"/>
+      <c r="AQ61" s="21"/>
+      <c r="AR61" s="21"/>
+      <c r="AS61" s="21"/>
+      <c r="AT61" s="21"/>
+      <c r="AU61" s="21"/>
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="21"/>
+      <c r="AX61" s="21"/>
+      <c r="AY61" s="21"/>
+      <c r="AZ61" s="21"/>
+      <c r="BA61" s="21"/>
+      <c r="BB61" s="21"/>
+      <c r="BC61" s="21"/>
+      <c r="BD61" s="21"/>
+      <c r="BE61" s="21"/>
+      <c r="BF61" s="21"/>
+      <c r="BG61" s="21"/>
+      <c r="BH61" s="21"/>
+      <c r="BI61" s="21"/>
+      <c r="BJ61" s="21"/>
+      <c r="BK61" s="21"/>
+      <c r="BL61" s="21"/>
+      <c r="BM61" s="21"/>
+      <c r="BN61" s="21"/>
+    </row>
+    <row r="62" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>12</v>
@@ -26542,13 +26557,13 @@
         <v>7</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L62" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L62" s="24">
+        <v>1003</v>
       </c>
       <c r="M62" s="33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N62" s="31" t="s">
         <v>62</v>
@@ -26608,26 +26623,26 @@
       <c r="BM62" s="22"/>
       <c r="BN62" s="22"/>
     </row>
-    <row r="63" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="54" t="s">
+      <c r="C63" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="54" t="s">
+      <c r="E63" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G63" s="55">
+      <c r="G63" s="24">
         <v>400</v>
       </c>
       <c r="H63" s="59" t="s">
@@ -26636,46 +26651,97 @@
       <c r="I63" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J63" s="54" t="s">
+      <c r="J63" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K63" s="55" t="s">
+      <c r="K63" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M63" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="N63" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="O63" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L63" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M63" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O63" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="22"/>
+      <c r="AH63" s="22"/>
+      <c r="AI63" s="22"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="22"/>
+      <c r="AL63" s="22"/>
+      <c r="AM63" s="22"/>
+      <c r="AN63" s="22"/>
+      <c r="AO63" s="22"/>
+      <c r="AP63" s="22"/>
+      <c r="AQ63" s="22"/>
+      <c r="AR63" s="22"/>
+      <c r="AS63" s="22"/>
+      <c r="AT63" s="22"/>
+      <c r="AU63" s="22"/>
+      <c r="AV63" s="22"/>
+      <c r="AW63" s="22"/>
+      <c r="AX63" s="22"/>
+      <c r="AY63" s="22"/>
+      <c r="AZ63" s="22"/>
+      <c r="BA63" s="22"/>
+      <c r="BB63" s="22"/>
+      <c r="BC63" s="22"/>
+      <c r="BD63" s="22"/>
+      <c r="BE63" s="22"/>
+      <c r="BF63" s="22"/>
+      <c r="BG63" s="22"/>
+      <c r="BH63" s="22"/>
+      <c r="BI63" s="22"/>
+      <c r="BJ63" s="22"/>
+      <c r="BK63" s="22"/>
+      <c r="BL63" s="22"/>
+      <c r="BM63" s="22"/>
+      <c r="BN63" s="22"/>
+    </row>
+    <row r="64" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G64" s="24">
-        <v>403</v>
+      <c r="G64" s="55">
+        <v>400</v>
       </c>
       <c r="H64" s="59" t="s">
         <v>220</v>
@@ -26683,85 +26749,34 @@
       <c r="I64" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="J64" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K64" s="24" t="s">
+      <c r="K64" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M64" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O64" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="22"/>
-      <c r="AJ64" s="22"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="22"/>
-      <c r="AM64" s="22"/>
-      <c r="AN64" s="22"/>
-      <c r="AO64" s="22"/>
-      <c r="AP64" s="22"/>
-      <c r="AQ64" s="22"/>
-      <c r="AR64" s="22"/>
-      <c r="AS64" s="22"/>
-      <c r="AT64" s="22"/>
-      <c r="AU64" s="22"/>
-      <c r="AV64" s="22"/>
-      <c r="AW64" s="22"/>
-      <c r="AX64" s="22"/>
-      <c r="AY64" s="22"/>
-      <c r="AZ64" s="22"/>
-      <c r="BA64" s="22"/>
-      <c r="BB64" s="22"/>
-      <c r="BC64" s="22"/>
-      <c r="BD64" s="22"/>
-      <c r="BE64" s="22"/>
-      <c r="BF64" s="22"/>
-      <c r="BG64" s="22"/>
-      <c r="BH64" s="22"/>
-      <c r="BI64" s="22"/>
-      <c r="BJ64" s="22"/>
-      <c r="BK64" s="22"/>
-      <c r="BL64" s="22"/>
-      <c r="BM64" s="22"/>
-      <c r="BN64" s="22"/>
+      <c r="L64" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M64" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N64" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="O64" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
@@ -26785,13 +26800,13 @@
         <v>7</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L65" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M65" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N65" s="31" t="s">
         <v>62</v>
@@ -26853,13 +26868,13 @@
     </row>
     <row r="66" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
@@ -26886,10 +26901,10 @@
         <v>32</v>
       </c>
       <c r="L66" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M66" s="33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N66" s="31" t="s">
         <v>62</v>
@@ -26951,15 +26966,15 @@
     </row>
     <row r="67" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -26981,19 +26996,19 @@
         <v>7</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L67" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L67" s="25">
+        <v>1008</v>
       </c>
       <c r="M67" s="33" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="N67" s="31" t="s">
         <v>62</v>
       </c>
       <c r="O67" s="31" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P67" s="22"/>
       <c r="Q67" s="22"/>
@@ -27049,15 +27064,15 @@
     </row>
     <row r="68" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -27067,7 +27082,7 @@
         <v>144</v>
       </c>
       <c r="G68" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H68" s="59" t="s">
         <v>220</v>
@@ -27075,23 +27090,23 @@
       <c r="I68" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J68" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L68" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M68" s="31" t="s">
-        <v>42</v>
+      <c r="L68" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="N68" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="P68" s="22"/>
       <c r="Q68" s="22"/>
@@ -27145,79 +27160,107 @@
       <c r="BM68" s="22"/>
       <c r="BN68" s="22"/>
     </row>
-    <row r="69" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="98" t="s">
+    <row r="69" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>61</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" s="24">
+        <v>404</v>
+      </c>
+      <c r="H69" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L69" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M69" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="O69" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="22"/>
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="22"/>
+      <c r="AT69" s="22"/>
+      <c r="AU69" s="22"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="22"/>
+      <c r="AY69" s="22"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="22"/>
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="22"/>
+      <c r="BG69" s="22"/>
+      <c r="BH69" s="22"/>
+      <c r="BI69" s="22"/>
+      <c r="BJ69" s="22"/>
+      <c r="BK69" s="22"/>
+      <c r="BL69" s="22"/>
+      <c r="BM69" s="22"/>
+      <c r="BN69" s="22"/>
+    </row>
+    <row r="70" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="99" t="s">
         <v>43</v>
-      </c>
-      <c r="B69" s="98"/>
-      <c r="C69" s="98"/>
-      <c r="D69" s="98"/>
-      <c r="E69" s="98"/>
-      <c r="F69" s="98"/>
-      <c r="G69" s="98"/>
-      <c r="H69" s="98"/>
-      <c r="I69" s="98"/>
-      <c r="J69" s="98"/>
-      <c r="K69" s="98"/>
-      <c r="L69" s="98"/>
-      <c r="M69" s="98"/>
-      <c r="N69" s="98"/>
-      <c r="O69" s="98"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="21"/>
-      <c r="AD69" s="21"/>
-      <c r="AE69" s="21"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
-      <c r="AI69" s="21"/>
-      <c r="AJ69" s="21"/>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="21"/>
-      <c r="AM69" s="21"/>
-      <c r="AN69" s="21"/>
-      <c r="AO69" s="21"/>
-      <c r="AP69" s="21"/>
-      <c r="AQ69" s="21"/>
-      <c r="AR69" s="21"/>
-      <c r="AS69" s="21"/>
-      <c r="AT69" s="21"/>
-      <c r="AU69" s="21"/>
-      <c r="AV69" s="21"/>
-      <c r="AW69" s="21"/>
-      <c r="AX69" s="21"/>
-      <c r="AY69" s="21"/>
-      <c r="AZ69" s="21"/>
-      <c r="BA69" s="21"/>
-      <c r="BB69" s="21"/>
-      <c r="BC69" s="21"/>
-      <c r="BD69" s="21"/>
-      <c r="BE69" s="21"/>
-      <c r="BF69" s="21"/>
-      <c r="BG69" s="21"/>
-      <c r="BH69" s="21"/>
-      <c r="BI69" s="21"/>
-      <c r="BJ69" s="21"/>
-      <c r="BK69" s="21"/>
-      <c r="BL69" s="21"/>
-      <c r="BM69" s="21"/>
-      <c r="BN69" s="21"/>
-    </row>
-    <row r="70" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="99" t="s">
-        <v>150</v>
       </c>
       <c r="B70" s="99"/>
       <c r="C70" s="99"/>
@@ -27285,52 +27328,24 @@
       <c r="BM70" s="21"/>
       <c r="BN70" s="21"/>
     </row>
-    <row r="71" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="94">
-        <v>148</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="D71" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="F71" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" s="94">
-        <v>403</v>
-      </c>
-      <c r="H71" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I71" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J71" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K71" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="L71" s="94">
-        <v>1111</v>
-      </c>
-      <c r="M71" s="95" t="s">
-        <v>258</v>
-      </c>
-      <c r="N71" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O71" s="31" t="s">
-        <v>61</v>
-      </c>
+    <row r="71" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100"/>
+      <c r="I71" s="100"/>
+      <c r="J71" s="100"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="100"/>
+      <c r="M71" s="100"/>
+      <c r="N71" s="100"/>
+      <c r="O71" s="100"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
@@ -27383,15 +27398,15 @@
       <c r="BM71" s="21"/>
       <c r="BN71" s="21"/>
     </row>
-    <row r="72" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D72" s="94" t="s">
         <v>12</v>
@@ -27418,16 +27433,16 @@
         <v>34</v>
       </c>
       <c r="L72" s="94">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M72" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="N72" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="O72" s="95" t="s">
-        <v>12</v>
+        <v>258</v>
+      </c>
+      <c r="N72" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O72" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="P72" s="21"/>
       <c r="Q72" s="21"/>
@@ -27481,50 +27496,50 @@
       <c r="BM72" s="21"/>
       <c r="BN72" s="21"/>
     </row>
-    <row r="73" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>62</v>
+    <row r="73" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="94">
+        <v>146</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G73" s="24">
-        <v>401</v>
-      </c>
-      <c r="H73" s="59" t="s">
+      <c r="G73" s="94">
+        <v>403</v>
+      </c>
+      <c r="H73" s="94" t="s">
         <v>220</v>
       </c>
       <c r="I73" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L73" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M73" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N73" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O73" s="50" t="s">
+      <c r="L73" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M73" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N73" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="O73" s="95" t="s">
         <v>12</v>
       </c>
       <c r="P73" s="21"/>
@@ -27579,15 +27594,15 @@
       <c r="BM73" s="21"/>
       <c r="BN73" s="21"/>
     </row>
-    <row r="74" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>12</v>
@@ -27614,15 +27629,15 @@
         <v>34</v>
       </c>
       <c r="L74" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N74" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O74" s="48" t="s">
+      <c r="O74" s="50" t="s">
         <v>12</v>
       </c>
       <c r="P74" s="21"/>
@@ -27677,15 +27692,15 @@
       <c r="BM74" s="21"/>
       <c r="BN74" s="21"/>
     </row>
-    <row r="75" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="26" t="s">
-        <v>88</v>
+      <c r="C75" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>12</v>
@@ -27697,7 +27712,7 @@
         <v>144</v>
       </c>
       <c r="G75" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H75" s="59" t="s">
         <v>220</v>
@@ -27705,85 +27720,85 @@
       <c r="I75" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J75" s="25" t="s">
+      <c r="J75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K75" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="25">
-        <v>1003</v>
-      </c>
-      <c r="M75" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="N75" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="22"/>
-      <c r="AB75" s="22"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="22"/>
-      <c r="AE75" s="22"/>
-      <c r="AF75" s="22"/>
-      <c r="AG75" s="22"/>
-      <c r="AH75" s="22"/>
-      <c r="AI75" s="22"/>
-      <c r="AJ75" s="22"/>
-      <c r="AK75" s="22"/>
-      <c r="AL75" s="22"/>
-      <c r="AM75" s="22"/>
-      <c r="AN75" s="22"/>
-      <c r="AO75" s="22"/>
-      <c r="AP75" s="22"/>
-      <c r="AQ75" s="22"/>
-      <c r="AR75" s="22"/>
-      <c r="AS75" s="22"/>
-      <c r="AT75" s="22"/>
-      <c r="AU75" s="22"/>
-      <c r="AV75" s="22"/>
-      <c r="AW75" s="22"/>
-      <c r="AX75" s="22"/>
-      <c r="AY75" s="22"/>
-      <c r="AZ75" s="22"/>
-      <c r="BA75" s="22"/>
-      <c r="BB75" s="22"/>
-      <c r="BC75" s="22"/>
-      <c r="BD75" s="22"/>
-      <c r="BE75" s="22"/>
-      <c r="BF75" s="22"/>
-      <c r="BG75" s="22"/>
-      <c r="BH75" s="22"/>
-      <c r="BI75" s="22"/>
-      <c r="BJ75" s="22"/>
-      <c r="BK75" s="22"/>
-      <c r="BL75" s="22"/>
-      <c r="BM75" s="22"/>
-      <c r="BN75" s="22"/>
-    </row>
-    <row r="76" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N75" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O75" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="21"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="21"/>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="21"/>
+      <c r="AK75" s="21"/>
+      <c r="AL75" s="21"/>
+      <c r="AM75" s="21"/>
+      <c r="AN75" s="21"/>
+      <c r="AO75" s="21"/>
+      <c r="AP75" s="21"/>
+      <c r="AQ75" s="21"/>
+      <c r="AR75" s="21"/>
+      <c r="AS75" s="21"/>
+      <c r="AT75" s="21"/>
+      <c r="AU75" s="21"/>
+      <c r="AV75" s="21"/>
+      <c r="AW75" s="21"/>
+      <c r="AX75" s="21"/>
+      <c r="AY75" s="21"/>
+      <c r="AZ75" s="21"/>
+      <c r="BA75" s="21"/>
+      <c r="BB75" s="21"/>
+      <c r="BC75" s="21"/>
+      <c r="BD75" s="21"/>
+      <c r="BE75" s="21"/>
+      <c r="BF75" s="21"/>
+      <c r="BG75" s="21"/>
+      <c r="BH75" s="21"/>
+      <c r="BI75" s="21"/>
+      <c r="BJ75" s="21"/>
+      <c r="BK75" s="21"/>
+      <c r="BL75" s="21"/>
+      <c r="BM75" s="21"/>
+      <c r="BN75" s="21"/>
+    </row>
+    <row r="76" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="23" t="s">
-        <v>89</v>
+      <c r="C76" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>12</v>
@@ -27803,22 +27818,22 @@
       <c r="I76" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J76" s="24" t="s">
+      <c r="J76" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L76" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M76" s="31" t="s">
-        <v>25</v>
+        <v>1003</v>
+      </c>
+      <c r="M76" s="48" t="s">
+        <v>14</v>
       </c>
       <c r="N76" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O76" s="31" t="s">
+      <c r="O76" s="4" t="s">
         <v>45</v>
       </c>
       <c r="P76" s="22"/>
@@ -27873,26 +27888,26 @@
       <c r="BM76" s="22"/>
       <c r="BN76" s="22"/>
     </row>
-    <row r="77" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D77" s="54" t="s">
+      <c r="C77" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="54" t="s">
+      <c r="E77" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F77" s="54" t="s">
+      <c r="F77" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G77" s="55">
+      <c r="G77" s="24">
         <v>400</v>
       </c>
       <c r="H77" s="59" t="s">
@@ -27901,46 +27916,97 @@
       <c r="I77" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J77" s="54" t="s">
+      <c r="J77" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="55" t="s">
+      <c r="K77" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L77" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M77" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="N77" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="O77" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L77" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M77" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O77" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="22"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
+      <c r="Y77" s="22"/>
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="22"/>
+      <c r="AB77" s="22"/>
+      <c r="AC77" s="22"/>
+      <c r="AD77" s="22"/>
+      <c r="AE77" s="22"/>
+      <c r="AF77" s="22"/>
+      <c r="AG77" s="22"/>
+      <c r="AH77" s="22"/>
+      <c r="AI77" s="22"/>
+      <c r="AJ77" s="22"/>
+      <c r="AK77" s="22"/>
+      <c r="AL77" s="22"/>
+      <c r="AM77" s="22"/>
+      <c r="AN77" s="22"/>
+      <c r="AO77" s="22"/>
+      <c r="AP77" s="22"/>
+      <c r="AQ77" s="22"/>
+      <c r="AR77" s="22"/>
+      <c r="AS77" s="22"/>
+      <c r="AT77" s="22"/>
+      <c r="AU77" s="22"/>
+      <c r="AV77" s="22"/>
+      <c r="AW77" s="22"/>
+      <c r="AX77" s="22"/>
+      <c r="AY77" s="22"/>
+      <c r="AZ77" s="22"/>
+      <c r="BA77" s="22"/>
+      <c r="BB77" s="22"/>
+      <c r="BC77" s="22"/>
+      <c r="BD77" s="22"/>
+      <c r="BE77" s="22"/>
+      <c r="BF77" s="22"/>
+      <c r="BG77" s="22"/>
+      <c r="BH77" s="22"/>
+      <c r="BI77" s="22"/>
+      <c r="BJ77" s="22"/>
+      <c r="BK77" s="22"/>
+      <c r="BL77" s="22"/>
+      <c r="BM77" s="22"/>
+      <c r="BN77" s="22"/>
+    </row>
+    <row r="78" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G78" s="24">
-        <v>403</v>
+      <c r="G78" s="55">
+        <v>400</v>
       </c>
       <c r="H78" s="59" t="s">
         <v>220</v>
@@ -27948,85 +28014,34 @@
       <c r="I78" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J78" s="24" t="s">
+      <c r="J78" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K78" s="24" t="s">
+      <c r="K78" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L78" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M78" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N78" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O78" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="22"/>
-      <c r="U78" s="22"/>
-      <c r="V78" s="22"/>
-      <c r="W78" s="22"/>
-      <c r="X78" s="22"/>
-      <c r="Y78" s="22"/>
-      <c r="Z78" s="22"/>
-      <c r="AA78" s="22"/>
-      <c r="AB78" s="22"/>
-      <c r="AC78" s="22"/>
-      <c r="AD78" s="22"/>
-      <c r="AE78" s="22"/>
-      <c r="AF78" s="22"/>
-      <c r="AG78" s="22"/>
-      <c r="AH78" s="22"/>
-      <c r="AI78" s="22"/>
-      <c r="AJ78" s="22"/>
-      <c r="AK78" s="22"/>
-      <c r="AL78" s="22"/>
-      <c r="AM78" s="22"/>
-      <c r="AN78" s="22"/>
-      <c r="AO78" s="22"/>
-      <c r="AP78" s="22"/>
-      <c r="AQ78" s="22"/>
-      <c r="AR78" s="22"/>
-      <c r="AS78" s="22"/>
-      <c r="AT78" s="22"/>
-      <c r="AU78" s="22"/>
-      <c r="AV78" s="22"/>
-      <c r="AW78" s="22"/>
-      <c r="AX78" s="22"/>
-      <c r="AY78" s="22"/>
-      <c r="AZ78" s="22"/>
-      <c r="BA78" s="22"/>
-      <c r="BB78" s="22"/>
-      <c r="BC78" s="22"/>
-      <c r="BD78" s="22"/>
-      <c r="BE78" s="22"/>
-      <c r="BF78" s="22"/>
-      <c r="BG78" s="22"/>
-      <c r="BH78" s="22"/>
-      <c r="BI78" s="22"/>
-      <c r="BJ78" s="22"/>
-      <c r="BK78" s="22"/>
-      <c r="BL78" s="22"/>
-      <c r="BM78" s="22"/>
-      <c r="BN78" s="22"/>
+      <c r="L78" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M78" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N78" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="O78" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="79" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
@@ -28050,13 +28065,13 @@
         <v>7</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L79" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M79" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N79" s="31" t="s">
         <v>62</v>
@@ -28118,13 +28133,13 @@
     </row>
     <row r="80" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
@@ -28151,10 +28166,10 @@
         <v>32</v>
       </c>
       <c r="L80" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M80" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N80" s="31" t="s">
         <v>62</v>
@@ -28216,15 +28231,15 @@
     </row>
     <row r="81" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -28246,19 +28261,19 @@
         <v>7</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L81" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M81" s="33" t="s">
-        <v>206</v>
+        <v>32</v>
+      </c>
+      <c r="L81" s="25">
+        <v>1008</v>
+      </c>
+      <c r="M81" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="N81" s="31" t="s">
         <v>62</v>
       </c>
       <c r="O81" s="31" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P81" s="22"/>
       <c r="Q81" s="22"/>
@@ -28314,15 +28329,15 @@
     </row>
     <row r="82" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -28332,7 +28347,7 @@
         <v>144</v>
       </c>
       <c r="G82" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H82" s="59" t="s">
         <v>220</v>
@@ -28340,23 +28355,23 @@
       <c r="I82" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="10">
-        <v>2506</v>
-      </c>
-      <c r="M82" s="31" t="s">
-        <v>41</v>
+      <c r="K82" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L82" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M82" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="N82" s="31" t="s">
         <v>62</v>
       </c>
       <c r="O82" s="31" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="P82" s="22"/>
       <c r="Q82" s="22"/>
@@ -28410,79 +28425,107 @@
       <c r="BM82" s="22"/>
       <c r="BN82" s="22"/>
     </row>
-    <row r="83" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="98" t="s">
+    <row r="83" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>71</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G83" s="24">
+        <v>404</v>
+      </c>
+      <c r="H83" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L83" s="10">
+        <v>2506</v>
+      </c>
+      <c r="M83" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N83" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O83" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="22"/>
+      <c r="AA83" s="22"/>
+      <c r="AB83" s="22"/>
+      <c r="AC83" s="22"/>
+      <c r="AD83" s="22"/>
+      <c r="AE83" s="22"/>
+      <c r="AF83" s="22"/>
+      <c r="AG83" s="22"/>
+      <c r="AH83" s="22"/>
+      <c r="AI83" s="22"/>
+      <c r="AJ83" s="22"/>
+      <c r="AK83" s="22"/>
+      <c r="AL83" s="22"/>
+      <c r="AM83" s="22"/>
+      <c r="AN83" s="22"/>
+      <c r="AO83" s="22"/>
+      <c r="AP83" s="22"/>
+      <c r="AQ83" s="22"/>
+      <c r="AR83" s="22"/>
+      <c r="AS83" s="22"/>
+      <c r="AT83" s="22"/>
+      <c r="AU83" s="22"/>
+      <c r="AV83" s="22"/>
+      <c r="AW83" s="22"/>
+      <c r="AX83" s="22"/>
+      <c r="AY83" s="22"/>
+      <c r="AZ83" s="22"/>
+      <c r="BA83" s="22"/>
+      <c r="BB83" s="22"/>
+      <c r="BC83" s="22"/>
+      <c r="BD83" s="22"/>
+      <c r="BE83" s="22"/>
+      <c r="BF83" s="22"/>
+      <c r="BG83" s="22"/>
+      <c r="BH83" s="22"/>
+      <c r="BI83" s="22"/>
+      <c r="BJ83" s="22"/>
+      <c r="BK83" s="22"/>
+      <c r="BL83" s="22"/>
+      <c r="BM83" s="22"/>
+      <c r="BN83" s="22"/>
+    </row>
+    <row r="84" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="99" t="s">
         <v>133</v>
-      </c>
-      <c r="B83" s="98"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="98"/>
-      <c r="E83" s="98"/>
-      <c r="F83" s="98"/>
-      <c r="G83" s="98"/>
-      <c r="H83" s="98"/>
-      <c r="I83" s="98"/>
-      <c r="J83" s="98"/>
-      <c r="K83" s="98"/>
-      <c r="L83" s="98"/>
-      <c r="M83" s="98"/>
-      <c r="N83" s="98"/>
-      <c r="O83" s="98"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
-      <c r="U83" s="21"/>
-      <c r="V83" s="21"/>
-      <c r="W83" s="21"/>
-      <c r="X83" s="21"/>
-      <c r="Y83" s="21"/>
-      <c r="Z83" s="21"/>
-      <c r="AA83" s="21"/>
-      <c r="AB83" s="21"/>
-      <c r="AC83" s="21"/>
-      <c r="AD83" s="21"/>
-      <c r="AE83" s="21"/>
-      <c r="AF83" s="21"/>
-      <c r="AG83" s="21"/>
-      <c r="AH83" s="21"/>
-      <c r="AI83" s="21"/>
-      <c r="AJ83" s="21"/>
-      <c r="AK83" s="21"/>
-      <c r="AL83" s="21"/>
-      <c r="AM83" s="21"/>
-      <c r="AN83" s="21"/>
-      <c r="AO83" s="21"/>
-      <c r="AP83" s="21"/>
-      <c r="AQ83" s="21"/>
-      <c r="AR83" s="21"/>
-      <c r="AS83" s="21"/>
-      <c r="AT83" s="21"/>
-      <c r="AU83" s="21"/>
-      <c r="AV83" s="21"/>
-      <c r="AW83" s="21"/>
-      <c r="AX83" s="21"/>
-      <c r="AY83" s="21"/>
-      <c r="AZ83" s="21"/>
-      <c r="BA83" s="21"/>
-      <c r="BB83" s="21"/>
-      <c r="BC83" s="21"/>
-      <c r="BD83" s="21"/>
-      <c r="BE83" s="21"/>
-      <c r="BF83" s="21"/>
-      <c r="BG83" s="21"/>
-      <c r="BH83" s="21"/>
-      <c r="BI83" s="21"/>
-      <c r="BJ83" s="21"/>
-      <c r="BK83" s="21"/>
-      <c r="BL83" s="21"/>
-      <c r="BM83" s="21"/>
-      <c r="BN83" s="21"/>
-    </row>
-    <row r="84" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="99" t="s">
-        <v>150</v>
       </c>
       <c r="B84" s="99"/>
       <c r="C84" s="99"/>
@@ -28550,52 +28593,24 @@
       <c r="BM84" s="21"/>
       <c r="BN84" s="21"/>
     </row>
-    <row r="85" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="94">
-        <v>146</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="D85" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="F85" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="G85" s="94">
-        <v>403</v>
-      </c>
-      <c r="H85" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J85" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K85" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="L85" s="94">
-        <v>1016</v>
-      </c>
-      <c r="M85" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="N85" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="O85" s="95" t="s">
-        <v>12</v>
-      </c>
+    <row r="85" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="100"/>
+      <c r="C85" s="100"/>
+      <c r="D85" s="100"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="100"/>
+      <c r="K85" s="100"/>
+      <c r="L85" s="100"/>
+      <c r="M85" s="100"/>
+      <c r="N85" s="100"/>
+      <c r="O85" s="100"/>
       <c r="P85" s="21"/>
       <c r="Q85" s="21"/>
       <c r="R85" s="21"/>
@@ -28648,50 +28663,50 @@
       <c r="BM85" s="21"/>
       <c r="BN85" s="21"/>
     </row>
-    <row r="86" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>72</v>
+    <row r="86" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="94">
+        <v>146</v>
       </c>
       <c r="B86" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="C86" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G86" s="24">
-        <v>401</v>
-      </c>
-      <c r="H86" s="59" t="s">
+      <c r="G86" s="94">
+        <v>403</v>
+      </c>
+      <c r="H86" s="94" t="s">
         <v>220</v>
       </c>
       <c r="I86" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="J86" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K86" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L86" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M86" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N86" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O86" s="50" t="s">
+      <c r="L86" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M86" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N86" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="O86" s="95" t="s">
         <v>12</v>
       </c>
       <c r="P86" s="21"/>
@@ -28746,15 +28761,15 @@
       <c r="BM86" s="21"/>
       <c r="BN86" s="21"/>
     </row>
-    <row r="87" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B87" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>12</v>
@@ -28781,15 +28796,15 @@
         <v>34</v>
       </c>
       <c r="L87" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N87" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O87" s="48" t="s">
+      <c r="O87" s="50" t="s">
         <v>12</v>
       </c>
       <c r="P87" s="21"/>
@@ -28844,15 +28859,15 @@
       <c r="BM87" s="21"/>
       <c r="BN87" s="21"/>
     </row>
-    <row r="88" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B88" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>88</v>
+      <c r="C88" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
@@ -28864,7 +28879,7 @@
         <v>144</v>
       </c>
       <c r="G88" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H88" s="59" t="s">
         <v>220</v>
@@ -28876,81 +28891,81 @@
         <v>7</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L88" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M88" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N88" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="O88" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="22"/>
-      <c r="V88" s="22"/>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
-      <c r="Z88" s="22"/>
-      <c r="AA88" s="22"/>
-      <c r="AB88" s="22"/>
-      <c r="AC88" s="22"/>
-      <c r="AD88" s="22"/>
-      <c r="AE88" s="22"/>
-      <c r="AF88" s="22"/>
-      <c r="AG88" s="22"/>
-      <c r="AH88" s="22"/>
-      <c r="AI88" s="22"/>
-      <c r="AJ88" s="22"/>
-      <c r="AK88" s="22"/>
-      <c r="AL88" s="22"/>
-      <c r="AM88" s="22"/>
-      <c r="AN88" s="22"/>
-      <c r="AO88" s="22"/>
-      <c r="AP88" s="22"/>
-      <c r="AQ88" s="22"/>
-      <c r="AR88" s="22"/>
-      <c r="AS88" s="22"/>
-      <c r="AT88" s="22"/>
-      <c r="AU88" s="22"/>
-      <c r="AV88" s="22"/>
-      <c r="AW88" s="22"/>
-      <c r="AX88" s="22"/>
-      <c r="AY88" s="22"/>
-      <c r="AZ88" s="22"/>
-      <c r="BA88" s="22"/>
-      <c r="BB88" s="22"/>
-      <c r="BC88" s="22"/>
-      <c r="BD88" s="22"/>
-      <c r="BE88" s="22"/>
-      <c r="BF88" s="22"/>
-      <c r="BG88" s="22"/>
-      <c r="BH88" s="22"/>
-      <c r="BI88" s="22"/>
-      <c r="BJ88" s="22"/>
-      <c r="BK88" s="22"/>
-      <c r="BL88" s="22"/>
-      <c r="BM88" s="22"/>
-      <c r="BN88" s="22"/>
-    </row>
-    <row r="89" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="L88" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M88" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N88" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O88" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="21"/>
+      <c r="AI88" s="21"/>
+      <c r="AJ88" s="21"/>
+      <c r="AK88" s="21"/>
+      <c r="AL88" s="21"/>
+      <c r="AM88" s="21"/>
+      <c r="AN88" s="21"/>
+      <c r="AO88" s="21"/>
+      <c r="AP88" s="21"/>
+      <c r="AQ88" s="21"/>
+      <c r="AR88" s="21"/>
+      <c r="AS88" s="21"/>
+      <c r="AT88" s="21"/>
+      <c r="AU88" s="21"/>
+      <c r="AV88" s="21"/>
+      <c r="AW88" s="21"/>
+      <c r="AX88" s="21"/>
+      <c r="AY88" s="21"/>
+      <c r="AZ88" s="21"/>
+      <c r="BA88" s="21"/>
+      <c r="BB88" s="21"/>
+      <c r="BC88" s="21"/>
+      <c r="BD88" s="21"/>
+      <c r="BE88" s="21"/>
+      <c r="BF88" s="21"/>
+      <c r="BG88" s="21"/>
+      <c r="BH88" s="21"/>
+      <c r="BI88" s="21"/>
+      <c r="BJ88" s="21"/>
+      <c r="BK88" s="21"/>
+      <c r="BL88" s="21"/>
+      <c r="BM88" s="21"/>
+      <c r="BN88" s="21"/>
+    </row>
+    <row r="89" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
@@ -28974,13 +28989,13 @@
         <v>7</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L89" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M89" s="31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N89" s="31" t="s">
         <v>135</v>
@@ -29040,15 +29055,15 @@
       <c r="BM89" s="22"/>
       <c r="BN89" s="22"/>
     </row>
-    <row r="90" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>12</v>
@@ -29072,13 +29087,13 @@
         <v>7</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L90" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M90" s="31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N90" s="31" t="s">
         <v>135</v>
@@ -29138,26 +29153,26 @@
       <c r="BM90" s="22"/>
       <c r="BN90" s="22"/>
     </row>
-    <row r="91" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C91" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D91" s="54" t="s">
+      <c r="C91" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="54" t="s">
+      <c r="E91" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F91" s="54" t="s">
+      <c r="F91" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G91" s="55">
+      <c r="G91" s="24">
         <v>400</v>
       </c>
       <c r="H91" s="59" t="s">
@@ -29166,46 +29181,97 @@
       <c r="I91" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J91" s="54" t="s">
+      <c r="J91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K91" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="L91" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M91" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="N91" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="O91" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K91" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L91" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M91" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N91" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="O91" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
+      <c r="V91" s="22"/>
+      <c r="W91" s="22"/>
+      <c r="X91" s="22"/>
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="22"/>
+      <c r="AA91" s="22"/>
+      <c r="AB91" s="22"/>
+      <c r="AC91" s="22"/>
+      <c r="AD91" s="22"/>
+      <c r="AE91" s="22"/>
+      <c r="AF91" s="22"/>
+      <c r="AG91" s="22"/>
+      <c r="AH91" s="22"/>
+      <c r="AI91" s="22"/>
+      <c r="AJ91" s="22"/>
+      <c r="AK91" s="22"/>
+      <c r="AL91" s="22"/>
+      <c r="AM91" s="22"/>
+      <c r="AN91" s="22"/>
+      <c r="AO91" s="22"/>
+      <c r="AP91" s="22"/>
+      <c r="AQ91" s="22"/>
+      <c r="AR91" s="22"/>
+      <c r="AS91" s="22"/>
+      <c r="AT91" s="22"/>
+      <c r="AU91" s="22"/>
+      <c r="AV91" s="22"/>
+      <c r="AW91" s="22"/>
+      <c r="AX91" s="22"/>
+      <c r="AY91" s="22"/>
+      <c r="AZ91" s="22"/>
+      <c r="BA91" s="22"/>
+      <c r="BB91" s="22"/>
+      <c r="BC91" s="22"/>
+      <c r="BD91" s="22"/>
+      <c r="BE91" s="22"/>
+      <c r="BF91" s="22"/>
+      <c r="BG91" s="22"/>
+      <c r="BH91" s="22"/>
+      <c r="BI91" s="22"/>
+      <c r="BJ91" s="22"/>
+      <c r="BK91" s="22"/>
+      <c r="BL91" s="22"/>
+      <c r="BM91" s="22"/>
+      <c r="BN91" s="22"/>
+    </row>
+    <row r="92" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B92" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" s="4" t="s">
+      <c r="C92" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G92" s="24">
-        <v>403</v>
+      <c r="G92" s="55">
+        <v>400</v>
       </c>
       <c r="H92" s="59" t="s">
         <v>220</v>
@@ -29213,85 +29279,34 @@
       <c r="I92" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="J92" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K92" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L92" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M92" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N92" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="O92" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="22"/>
-      <c r="V92" s="22"/>
-      <c r="W92" s="22"/>
-      <c r="X92" s="22"/>
-      <c r="Y92" s="22"/>
-      <c r="Z92" s="22"/>
-      <c r="AA92" s="22"/>
-      <c r="AB92" s="22"/>
-      <c r="AC92" s="22"/>
-      <c r="AD92" s="22"/>
-      <c r="AE92" s="22"/>
-      <c r="AF92" s="22"/>
-      <c r="AG92" s="22"/>
-      <c r="AH92" s="22"/>
-      <c r="AI92" s="22"/>
-      <c r="AJ92" s="22"/>
-      <c r="AK92" s="22"/>
-      <c r="AL92" s="22"/>
-      <c r="AM92" s="22"/>
-      <c r="AN92" s="22"/>
-      <c r="AO92" s="22"/>
-      <c r="AP92" s="22"/>
-      <c r="AQ92" s="22"/>
-      <c r="AR92" s="22"/>
-      <c r="AS92" s="22"/>
-      <c r="AT92" s="22"/>
-      <c r="AU92" s="22"/>
-      <c r="AV92" s="22"/>
-      <c r="AW92" s="22"/>
-      <c r="AX92" s="22"/>
-      <c r="AY92" s="22"/>
-      <c r="AZ92" s="22"/>
-      <c r="BA92" s="22"/>
-      <c r="BB92" s="22"/>
-      <c r="BC92" s="22"/>
-      <c r="BD92" s="22"/>
-      <c r="BE92" s="22"/>
-      <c r="BF92" s="22"/>
-      <c r="BG92" s="22"/>
-      <c r="BH92" s="22"/>
-      <c r="BI92" s="22"/>
-      <c r="BJ92" s="22"/>
-      <c r="BK92" s="22"/>
-      <c r="BL92" s="22"/>
-      <c r="BM92" s="22"/>
-      <c r="BN92" s="22"/>
+      <c r="L92" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M92" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N92" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="O92" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="93" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B93" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
@@ -29315,13 +29330,13 @@
         <v>7</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L93" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M93" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N93" s="31" t="s">
         <v>135</v>
@@ -29381,15 +29396,15 @@
       <c r="BM93" s="22"/>
       <c r="BN93" s="22"/>
     </row>
-    <row r="94" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
@@ -29416,10 +29431,10 @@
         <v>32</v>
       </c>
       <c r="L94" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M94" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N94" s="31" t="s">
         <v>135</v>
@@ -29481,15 +29496,15 @@
     </row>
     <row r="95" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D95" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -29511,19 +29526,19 @@
         <v>7</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L95" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M95" s="33" t="s">
-        <v>206</v>
+        <v>32</v>
+      </c>
+      <c r="L95" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M95" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="N95" s="31" t="s">
         <v>135</v>
       </c>
       <c r="O95" s="31" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P95" s="22"/>
       <c r="Q95" s="22"/>
@@ -29577,17 +29592,17 @@
       <c r="BM95" s="22"/>
       <c r="BN95" s="22"/>
     </row>
-    <row r="96" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -29597,7 +29612,7 @@
         <v>144</v>
       </c>
       <c r="G96" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H96" s="59" t="s">
         <v>220</v>
@@ -29611,17 +29626,17 @@
       <c r="K96" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L96" s="10">
-        <v>3001</v>
-      </c>
-      <c r="M96" s="31" t="s">
-        <v>215</v>
+      <c r="L96" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M96" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="N96" s="31" t="s">
         <v>135</v>
       </c>
       <c r="O96" s="31" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="P96" s="22"/>
       <c r="Q96" s="22"/>
@@ -29675,15 +29690,15 @@
       <c r="BM96" s="22"/>
       <c r="BN96" s="22"/>
     </row>
-    <row r="97" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>12</v>
@@ -29707,19 +29722,19 @@
         <v>7</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L97" s="10">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="M97" s="31" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="N97" s="31" t="s">
         <v>135</v>
       </c>
       <c r="O97" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P97" s="22"/>
       <c r="Q97" s="22"/>
@@ -29774,14 +29789,14 @@
       <c r="BN97" s="22"/>
     </row>
     <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A98" s="27">
-        <v>137</v>
+      <c r="A98" s="4">
+        <v>83</v>
       </c>
       <c r="B98" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C98" s="72" t="s">
-        <v>211</v>
+      <c r="C98" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
@@ -29789,8 +29804,8 @@
       <c r="E98" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F98" s="27" t="s">
-        <v>145</v>
+      <c r="F98" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G98" s="24">
         <v>400</v>
@@ -29807,17 +29822,17 @@
       <c r="K98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L98" s="27">
-        <v>3009</v>
-      </c>
-      <c r="M98" s="72" t="s">
-        <v>211</v>
+      <c r="L98" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M98" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="N98" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="O98" s="34" t="s">
-        <v>216</v>
+      <c r="O98" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="P98" s="22"/>
       <c r="Q98" s="22"/>
@@ -29871,15 +29886,15 @@
       <c r="BM98" s="22"/>
       <c r="BN98" s="22"/>
     </row>
-    <row r="99" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="27">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C99" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
@@ -29903,81 +29918,81 @@
         <v>7</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L99" s="27">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="M99" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N99" s="31" t="s">
         <v>135</v>
       </c>
       <c r="O99" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="P99" s="21"/>
-      <c r="Q99" s="21"/>
-      <c r="R99" s="21"/>
-      <c r="S99" s="21"/>
-      <c r="T99" s="21"/>
-      <c r="U99" s="21"/>
-      <c r="V99" s="21"/>
-      <c r="W99" s="21"/>
-      <c r="X99" s="21"/>
-      <c r="Y99" s="21"/>
-      <c r="Z99" s="21"/>
-      <c r="AA99" s="21"/>
-      <c r="AB99" s="21"/>
-      <c r="AC99" s="21"/>
-      <c r="AD99" s="21"/>
-      <c r="AE99" s="21"/>
-      <c r="AF99" s="21"/>
-      <c r="AG99" s="21"/>
-      <c r="AH99" s="21"/>
-      <c r="AI99" s="21"/>
-      <c r="AJ99" s="21"/>
-      <c r="AK99" s="21"/>
-      <c r="AL99" s="21"/>
-      <c r="AM99" s="21"/>
-      <c r="AN99" s="21"/>
-      <c r="AO99" s="21"/>
-      <c r="AP99" s="21"/>
-      <c r="AQ99" s="21"/>
-      <c r="AR99" s="21"/>
-      <c r="AS99" s="21"/>
-      <c r="AT99" s="21"/>
-      <c r="AU99" s="21"/>
-      <c r="AV99" s="21"/>
-      <c r="AW99" s="21"/>
-      <c r="AX99" s="21"/>
-      <c r="AY99" s="21"/>
-      <c r="AZ99" s="21"/>
-      <c r="BA99" s="21"/>
-      <c r="BB99" s="21"/>
-      <c r="BC99" s="21"/>
-      <c r="BD99" s="21"/>
-      <c r="BE99" s="21"/>
-      <c r="BF99" s="21"/>
-      <c r="BG99" s="21"/>
-      <c r="BH99" s="21"/>
-      <c r="BI99" s="21"/>
-      <c r="BJ99" s="21"/>
-      <c r="BK99" s="21"/>
-      <c r="BL99" s="21"/>
-      <c r="BM99" s="21"/>
-      <c r="BN99" s="21"/>
-    </row>
-    <row r="100" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+      <c r="X99" s="22"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="22"/>
+      <c r="AD99" s="22"/>
+      <c r="AE99" s="22"/>
+      <c r="AF99" s="22"/>
+      <c r="AG99" s="22"/>
+      <c r="AH99" s="22"/>
+      <c r="AI99" s="22"/>
+      <c r="AJ99" s="22"/>
+      <c r="AK99" s="22"/>
+      <c r="AL99" s="22"/>
+      <c r="AM99" s="22"/>
+      <c r="AN99" s="22"/>
+      <c r="AO99" s="22"/>
+      <c r="AP99" s="22"/>
+      <c r="AQ99" s="22"/>
+      <c r="AR99" s="22"/>
+      <c r="AS99" s="22"/>
+      <c r="AT99" s="22"/>
+      <c r="AU99" s="22"/>
+      <c r="AV99" s="22"/>
+      <c r="AW99" s="22"/>
+      <c r="AX99" s="22"/>
+      <c r="AY99" s="22"/>
+      <c r="AZ99" s="22"/>
+      <c r="BA99" s="22"/>
+      <c r="BB99" s="22"/>
+      <c r="BC99" s="22"/>
+      <c r="BD99" s="22"/>
+      <c r="BE99" s="22"/>
+      <c r="BF99" s="22"/>
+      <c r="BG99" s="22"/>
+      <c r="BH99" s="22"/>
+      <c r="BI99" s="22"/>
+      <c r="BJ99" s="22"/>
+      <c r="BK99" s="22"/>
+      <c r="BL99" s="22"/>
+      <c r="BM99" s="22"/>
+      <c r="BN99" s="22"/>
+    </row>
+    <row r="100" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C100" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>12</v>
@@ -30004,10 +30019,10 @@
         <v>32</v>
       </c>
       <c r="L100" s="27">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="M100" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N100" s="31" t="s">
         <v>135</v>
@@ -30067,15 +30082,15 @@
       <c r="BM100" s="21"/>
       <c r="BN100" s="21"/>
     </row>
-    <row r="101" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B101" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C101" s="72" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>12</v>
@@ -30087,7 +30102,7 @@
         <v>145</v>
       </c>
       <c r="G101" s="24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H101" s="59" t="s">
         <v>220</v>
@@ -30102,16 +30117,16 @@
         <v>32</v>
       </c>
       <c r="L101" s="27">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="M101" s="72" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="N101" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="O101" s="31" t="s">
-        <v>12</v>
+      <c r="O101" s="34" t="s">
+        <v>217</v>
       </c>
       <c r="P101" s="21"/>
       <c r="Q101" s="21"/>
@@ -30167,13 +30182,13 @@
     </row>
     <row r="102" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="27">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="85" t="s">
-        <v>233</v>
+      <c r="C102" s="72" t="s">
+        <v>225</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>12</v>
@@ -30185,7 +30200,7 @@
         <v>145</v>
       </c>
       <c r="G102" s="24">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H102" s="59" t="s">
         <v>220</v>
@@ -30200,16 +30215,16 @@
         <v>32</v>
       </c>
       <c r="L102" s="27">
-        <v>3013</v>
-      </c>
-      <c r="M102" s="85" t="s">
-        <v>234</v>
+        <v>3012</v>
+      </c>
+      <c r="M102" s="72" t="s">
+        <v>226</v>
       </c>
       <c r="N102" s="31" t="s">
         <v>135</v>
       </c>
       <c r="O102" s="31" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="P102" s="21"/>
       <c r="Q102" s="21"/>
@@ -30263,26 +30278,26 @@
       <c r="BM102" s="21"/>
       <c r="BN102" s="21"/>
     </row>
-    <row r="103" spans="1:66" s="51" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A103" s="59">
-        <v>84</v>
-      </c>
-      <c r="B103" s="60" t="s">
+    <row r="103" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A103" s="27">
+        <v>141</v>
+      </c>
+      <c r="B103" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D103" s="59" t="s">
+      <c r="C103" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E103" s="73" t="s">
+      <c r="E103" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F103" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="G103" s="59">
+      <c r="F103" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G103" s="24">
         <v>400</v>
       </c>
       <c r="H103" s="59" t="s">
@@ -30291,23 +30306,23 @@
       <c r="I103" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J103" s="59" t="s">
+      <c r="J103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K103" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L103" s="59">
-        <v>1002</v>
-      </c>
-      <c r="M103" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="N103" s="60" t="s">
+      <c r="K103" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L103" s="27">
+        <v>3013</v>
+      </c>
+      <c r="M103" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="N103" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="O103" s="60" t="s">
-        <v>68</v>
+      <c r="O103" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="P103" s="21"/>
       <c r="Q103" s="21"/>
@@ -30361,24 +30376,52 @@
       <c r="BM103" s="21"/>
       <c r="BN103" s="21"/>
     </row>
-    <row r="104" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A104" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" s="99"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="99"/>
-      <c r="E104" s="99"/>
-      <c r="F104" s="99"/>
-      <c r="G104" s="99"/>
-      <c r="H104" s="99"/>
-      <c r="I104" s="99"/>
-      <c r="J104" s="99"/>
-      <c r="K104" s="99"/>
-      <c r="L104" s="99"/>
-      <c r="M104" s="99"/>
-      <c r="N104" s="99"/>
-      <c r="O104" s="99"/>
+    <row r="104" spans="1:66" s="51" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A104" s="59">
+        <v>84</v>
+      </c>
+      <c r="B104" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F104" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G104" s="59">
+        <v>400</v>
+      </c>
+      <c r="H104" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="I104" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J104" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K104" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104" s="59">
+        <v>1002</v>
+      </c>
+      <c r="M104" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="N104" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="O104" s="60" t="s">
+        <v>68</v>
+      </c>
       <c r="P104" s="21"/>
       <c r="Q104" s="21"/>
       <c r="R104" s="21"/>
@@ -30431,220 +30474,220 @@
       <c r="BM104" s="21"/>
       <c r="BN104" s="21"/>
     </row>
-    <row r="105" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A105" s="39">
+    <row r="105" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A105" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" s="100"/>
+      <c r="C105" s="100"/>
+      <c r="D105" s="100"/>
+      <c r="E105" s="100"/>
+      <c r="F105" s="100"/>
+      <c r="G105" s="100"/>
+      <c r="H105" s="100"/>
+      <c r="I105" s="100"/>
+      <c r="J105" s="100"/>
+      <c r="K105" s="100"/>
+      <c r="L105" s="100"/>
+      <c r="M105" s="100"/>
+      <c r="N105" s="100"/>
+      <c r="O105" s="100"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="21"/>
+      <c r="S105" s="21"/>
+      <c r="T105" s="21"/>
+      <c r="U105" s="21"/>
+      <c r="V105" s="21"/>
+      <c r="W105" s="21"/>
+      <c r="X105" s="21"/>
+      <c r="Y105" s="21"/>
+      <c r="Z105" s="21"/>
+      <c r="AA105" s="21"/>
+      <c r="AB105" s="21"/>
+      <c r="AC105" s="21"/>
+      <c r="AD105" s="21"/>
+      <c r="AE105" s="21"/>
+      <c r="AF105" s="21"/>
+      <c r="AG105" s="21"/>
+      <c r="AH105" s="21"/>
+      <c r="AI105" s="21"/>
+      <c r="AJ105" s="21"/>
+      <c r="AK105" s="21"/>
+      <c r="AL105" s="21"/>
+      <c r="AM105" s="21"/>
+      <c r="AN105" s="21"/>
+      <c r="AO105" s="21"/>
+      <c r="AP105" s="21"/>
+      <c r="AQ105" s="21"/>
+      <c r="AR105" s="21"/>
+      <c r="AS105" s="21"/>
+      <c r="AT105" s="21"/>
+      <c r="AU105" s="21"/>
+      <c r="AV105" s="21"/>
+      <c r="AW105" s="21"/>
+      <c r="AX105" s="21"/>
+      <c r="AY105" s="21"/>
+      <c r="AZ105" s="21"/>
+      <c r="BA105" s="21"/>
+      <c r="BB105" s="21"/>
+      <c r="BC105" s="21"/>
+      <c r="BD105" s="21"/>
+      <c r="BE105" s="21"/>
+      <c r="BF105" s="21"/>
+      <c r="BG105" s="21"/>
+      <c r="BH105" s="21"/>
+      <c r="BI105" s="21"/>
+      <c r="BJ105" s="21"/>
+      <c r="BK105" s="21"/>
+      <c r="BL105" s="21"/>
+      <c r="BM105" s="21"/>
+      <c r="BN105" s="21"/>
+    </row>
+    <row r="106" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A106" s="39">
         <v>145</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="D105" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G105" s="24">
-        <v>400</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="I105" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J105" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="K105" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="L105" s="87">
-        <v>3008</v>
-      </c>
-      <c r="M105" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="N105" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="O105" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="36"/>
-      <c r="R105" s="36"/>
-      <c r="S105" s="36"/>
-      <c r="T105" s="36"/>
-      <c r="U105" s="36"/>
-      <c r="V105" s="36"/>
-      <c r="W105" s="36"/>
-      <c r="X105" s="36"/>
-      <c r="Y105" s="36"/>
-      <c r="Z105" s="36"/>
-      <c r="AA105" s="36"/>
-      <c r="AB105" s="36"/>
-      <c r="AC105" s="36"/>
-      <c r="AD105" s="36"/>
-      <c r="AE105" s="36"/>
-      <c r="AF105" s="36"/>
-      <c r="AG105" s="36"/>
-      <c r="AH105" s="36"/>
-      <c r="AI105" s="36"/>
-      <c r="AJ105" s="36"/>
-      <c r="AK105" s="36"/>
-      <c r="AL105" s="36"/>
-      <c r="AM105" s="36"/>
-      <c r="AN105" s="36"/>
-      <c r="AO105" s="36"/>
-      <c r="AP105" s="36"/>
-      <c r="AQ105" s="36"/>
-      <c r="AR105" s="36"/>
-      <c r="AS105" s="36"/>
-      <c r="AT105" s="36"/>
-      <c r="AU105" s="36"/>
-      <c r="AV105" s="36"/>
-      <c r="AW105" s="36"/>
-      <c r="AX105" s="36"/>
-      <c r="AY105" s="36"/>
-      <c r="AZ105" s="36"/>
-      <c r="BA105" s="36"/>
-      <c r="BB105" s="36"/>
-      <c r="BC105" s="36"/>
-      <c r="BD105" s="36"/>
-      <c r="BE105" s="36"/>
-      <c r="BF105" s="36"/>
-      <c r="BG105" s="36"/>
-      <c r="BH105" s="36"/>
-      <c r="BI105" s="36"/>
-      <c r="BJ105" s="36"/>
-      <c r="BK105" s="36"/>
-      <c r="BL105" s="36"/>
-      <c r="BM105" s="36"/>
-      <c r="BN105" s="36"/>
-    </row>
-    <row r="106" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
-        <v>85</v>
       </c>
       <c r="B106" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D106" s="4">
-        <v>8</v>
+      <c r="C106" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>144</v>
       </c>
       <c r="F106" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G106" s="24">
+        <v>400</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="I106" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J106" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K106" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" s="87">
+        <v>3008</v>
+      </c>
+      <c r="M106" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="N106" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O106" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="P106" s="36"/>
+      <c r="Q106" s="36"/>
+      <c r="R106" s="36"/>
+      <c r="S106" s="36"/>
+      <c r="T106" s="36"/>
+      <c r="U106" s="36"/>
+      <c r="V106" s="36"/>
+      <c r="W106" s="36"/>
+      <c r="X106" s="36"/>
+      <c r="Y106" s="36"/>
+      <c r="Z106" s="36"/>
+      <c r="AA106" s="36"/>
+      <c r="AB106" s="36"/>
+      <c r="AC106" s="36"/>
+      <c r="AD106" s="36"/>
+      <c r="AE106" s="36"/>
+      <c r="AF106" s="36"/>
+      <c r="AG106" s="36"/>
+      <c r="AH106" s="36"/>
+      <c r="AI106" s="36"/>
+      <c r="AJ106" s="36"/>
+      <c r="AK106" s="36"/>
+      <c r="AL106" s="36"/>
+      <c r="AM106" s="36"/>
+      <c r="AN106" s="36"/>
+      <c r="AO106" s="36"/>
+      <c r="AP106" s="36"/>
+      <c r="AQ106" s="36"/>
+      <c r="AR106" s="36"/>
+      <c r="AS106" s="36"/>
+      <c r="AT106" s="36"/>
+      <c r="AU106" s="36"/>
+      <c r="AV106" s="36"/>
+      <c r="AW106" s="36"/>
+      <c r="AX106" s="36"/>
+      <c r="AY106" s="36"/>
+      <c r="AZ106" s="36"/>
+      <c r="BA106" s="36"/>
+      <c r="BB106" s="36"/>
+      <c r="BC106" s="36"/>
+      <c r="BD106" s="36"/>
+      <c r="BE106" s="36"/>
+      <c r="BF106" s="36"/>
+      <c r="BG106" s="36"/>
+      <c r="BH106" s="36"/>
+      <c r="BI106" s="36"/>
+      <c r="BJ106" s="36"/>
+      <c r="BK106" s="36"/>
+      <c r="BL106" s="36"/>
+      <c r="BM106" s="36"/>
+      <c r="BN106" s="36"/>
+    </row>
+    <row r="107" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>85</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" s="4">
+        <v>8</v>
+      </c>
+      <c r="E107" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G106" s="45">
+      <c r="F107" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G107" s="45">
         <v>200</v>
       </c>
-      <c r="H106" s="24" t="s">
+      <c r="H107" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="I106" s="24" t="s">
+      <c r="I107" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J106" s="4" t="s">
+      <c r="J107" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K106" s="4" t="s">
+      <c r="K107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L106" s="4">
+      <c r="L107" s="4">
         <v>1010</v>
       </c>
-      <c r="M106" s="31" t="s">
+      <c r="M107" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N106" s="31" t="s">
+      <c r="N107" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="O106" s="31" t="s">
+      <c r="O107" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="22"/>
-      <c r="S106" s="22"/>
-      <c r="T106" s="22"/>
-      <c r="U106" s="22"/>
-      <c r="V106" s="22"/>
-      <c r="W106" s="22"/>
-      <c r="X106" s="22"/>
-      <c r="Y106" s="22"/>
-      <c r="Z106" s="22"/>
-      <c r="AA106" s="22"/>
-      <c r="AB106" s="22"/>
-      <c r="AC106" s="22"/>
-      <c r="AD106" s="22"/>
-      <c r="AE106" s="22"/>
-      <c r="AF106" s="22"/>
-      <c r="AG106" s="22"/>
-      <c r="AH106" s="22"/>
-      <c r="AI106" s="22"/>
-      <c r="AJ106" s="22"/>
-      <c r="AK106" s="22"/>
-      <c r="AL106" s="22"/>
-      <c r="AM106" s="22"/>
-      <c r="AN106" s="22"/>
-      <c r="AO106" s="22"/>
-      <c r="AP106" s="22"/>
-      <c r="AQ106" s="22"/>
-      <c r="AR106" s="22"/>
-      <c r="AS106" s="22"/>
-      <c r="AT106" s="22"/>
-      <c r="AU106" s="22"/>
-      <c r="AV106" s="22"/>
-      <c r="AW106" s="22"/>
-      <c r="AX106" s="22"/>
-      <c r="AY106" s="22"/>
-      <c r="AZ106" s="22"/>
-      <c r="BA106" s="22"/>
-      <c r="BB106" s="22"/>
-      <c r="BC106" s="22"/>
-      <c r="BD106" s="22"/>
-      <c r="BE106" s="22"/>
-      <c r="BF106" s="22"/>
-      <c r="BG106" s="22"/>
-      <c r="BH106" s="22"/>
-      <c r="BI106" s="22"/>
-      <c r="BJ106" s="22"/>
-      <c r="BK106" s="22"/>
-      <c r="BL106" s="22"/>
-      <c r="BM106" s="22"/>
-      <c r="BN106" s="22"/>
-    </row>
-    <row r="107" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A107" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B107" s="98"/>
-      <c r="C107" s="98"/>
-      <c r="D107" s="98"/>
-      <c r="E107" s="98"/>
-      <c r="F107" s="98"/>
-      <c r="G107" s="98"/>
-      <c r="H107" s="98"/>
-      <c r="I107" s="98"/>
-      <c r="J107" s="98"/>
-      <c r="K107" s="98"/>
-      <c r="L107" s="98"/>
-      <c r="M107" s="98"/>
-      <c r="N107" s="98"/>
-      <c r="O107" s="98"/>
       <c r="P107" s="22"/>
       <c r="Q107" s="22"/>
       <c r="R107" s="22"/>
@@ -30697,9 +30740,9 @@
       <c r="BM107" s="22"/>
       <c r="BN107" s="22"/>
     </row>
-    <row r="108" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="99" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B108" s="99"/>
       <c r="C108" s="99"/>
@@ -30767,160 +30810,183 @@
       <c r="BM108" s="22"/>
       <c r="BN108" s="22"/>
     </row>
-    <row r="109" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="94">
+    <row r="109" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A109" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="100"/>
+      <c r="C109" s="100"/>
+      <c r="D109" s="100"/>
+      <c r="E109" s="100"/>
+      <c r="F109" s="100"/>
+      <c r="G109" s="100"/>
+      <c r="H109" s="100"/>
+      <c r="I109" s="100"/>
+      <c r="J109" s="100"/>
+      <c r="K109" s="100"/>
+      <c r="L109" s="100"/>
+      <c r="M109" s="100"/>
+      <c r="N109" s="100"/>
+      <c r="O109" s="100"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="22"/>
+      <c r="S109" s="22"/>
+      <c r="T109" s="22"/>
+      <c r="U109" s="22"/>
+      <c r="V109" s="22"/>
+      <c r="W109" s="22"/>
+      <c r="X109" s="22"/>
+      <c r="Y109" s="22"/>
+      <c r="Z109" s="22"/>
+      <c r="AA109" s="22"/>
+      <c r="AB109" s="22"/>
+      <c r="AC109" s="22"/>
+      <c r="AD109" s="22"/>
+      <c r="AE109" s="22"/>
+      <c r="AF109" s="22"/>
+      <c r="AG109" s="22"/>
+      <c r="AH109" s="22"/>
+      <c r="AI109" s="22"/>
+      <c r="AJ109" s="22"/>
+      <c r="AK109" s="22"/>
+      <c r="AL109" s="22"/>
+      <c r="AM109" s="22"/>
+      <c r="AN109" s="22"/>
+      <c r="AO109" s="22"/>
+      <c r="AP109" s="22"/>
+      <c r="AQ109" s="22"/>
+      <c r="AR109" s="22"/>
+      <c r="AS109" s="22"/>
+      <c r="AT109" s="22"/>
+      <c r="AU109" s="22"/>
+      <c r="AV109" s="22"/>
+      <c r="AW109" s="22"/>
+      <c r="AX109" s="22"/>
+      <c r="AY109" s="22"/>
+      <c r="AZ109" s="22"/>
+      <c r="BA109" s="22"/>
+      <c r="BB109" s="22"/>
+      <c r="BC109" s="22"/>
+      <c r="BD109" s="22"/>
+      <c r="BE109" s="22"/>
+      <c r="BF109" s="22"/>
+      <c r="BG109" s="22"/>
+      <c r="BH109" s="22"/>
+      <c r="BI109" s="22"/>
+      <c r="BJ109" s="22"/>
+      <c r="BK109" s="22"/>
+      <c r="BL109" s="22"/>
+      <c r="BM109" s="22"/>
+      <c r="BN109" s="22"/>
+    </row>
+    <row r="110" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="94">
         <v>146</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C109" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="D109" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="F109" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="G109" s="94">
-        <v>403</v>
-      </c>
-      <c r="H109" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I109" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J109" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K109" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="L109" s="94">
-        <v>1016</v>
-      </c>
-      <c r="M109" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="N109" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="O109" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="P109" s="21"/>
-      <c r="Q109" s="21"/>
-      <c r="R109" s="21"/>
-      <c r="S109" s="21"/>
-      <c r="T109" s="21"/>
-      <c r="U109" s="21"/>
-      <c r="V109" s="21"/>
-      <c r="W109" s="21"/>
-      <c r="X109" s="21"/>
-      <c r="Y109" s="21"/>
-      <c r="Z109" s="21"/>
-      <c r="AA109" s="21"/>
-      <c r="AB109" s="21"/>
-      <c r="AC109" s="21"/>
-      <c r="AD109" s="21"/>
-      <c r="AE109" s="21"/>
-      <c r="AF109" s="21"/>
-      <c r="AG109" s="21"/>
-      <c r="AH109" s="21"/>
-      <c r="AI109" s="21"/>
-      <c r="AJ109" s="21"/>
-      <c r="AK109" s="21"/>
-      <c r="AL109" s="21"/>
-      <c r="AM109" s="21"/>
-      <c r="AN109" s="21"/>
-      <c r="AO109" s="21"/>
-      <c r="AP109" s="21"/>
-      <c r="AQ109" s="21"/>
-      <c r="AR109" s="21"/>
-      <c r="AS109" s="21"/>
-      <c r="AT109" s="21"/>
-      <c r="AU109" s="21"/>
-      <c r="AV109" s="21"/>
-      <c r="AW109" s="21"/>
-      <c r="AX109" s="21"/>
-      <c r="AY109" s="21"/>
-      <c r="AZ109" s="21"/>
-      <c r="BA109" s="21"/>
-      <c r="BB109" s="21"/>
-      <c r="BC109" s="21"/>
-      <c r="BD109" s="21"/>
-      <c r="BE109" s="21"/>
-      <c r="BF109" s="21"/>
-      <c r="BG109" s="21"/>
-      <c r="BH109" s="21"/>
-      <c r="BI109" s="21"/>
-      <c r="BJ109" s="21"/>
-      <c r="BK109" s="21"/>
-      <c r="BL109" s="21"/>
-      <c r="BM109" s="21"/>
-      <c r="BN109" s="21"/>
-    </row>
-    <row r="110" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
-        <v>86</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C110" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D110" s="4" t="s">
+      <c r="C110" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D110" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G110" s="24">
-        <v>401</v>
-      </c>
-      <c r="H110" s="59" t="s">
+      <c r="G110" s="94">
+        <v>403</v>
+      </c>
+      <c r="H110" s="94" t="s">
         <v>220</v>
       </c>
       <c r="I110" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J110" s="4" t="s">
+      <c r="J110" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K110" s="4" t="s">
+      <c r="K110" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L110" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M110" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N110" s="33" t="s">
+      <c r="L110" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M110" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N110" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="O110" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="O110" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
+      <c r="V110" s="21"/>
+      <c r="W110" s="21"/>
+      <c r="X110" s="21"/>
+      <c r="Y110" s="21"/>
+      <c r="Z110" s="21"/>
+      <c r="AA110" s="21"/>
+      <c r="AB110" s="21"/>
+      <c r="AC110" s="21"/>
+      <c r="AD110" s="21"/>
+      <c r="AE110" s="21"/>
+      <c r="AF110" s="21"/>
+      <c r="AG110" s="21"/>
+      <c r="AH110" s="21"/>
+      <c r="AI110" s="21"/>
+      <c r="AJ110" s="21"/>
+      <c r="AK110" s="21"/>
+      <c r="AL110" s="21"/>
+      <c r="AM110" s="21"/>
+      <c r="AN110" s="21"/>
+      <c r="AO110" s="21"/>
+      <c r="AP110" s="21"/>
+      <c r="AQ110" s="21"/>
+      <c r="AR110" s="21"/>
+      <c r="AS110" s="21"/>
+      <c r="AT110" s="21"/>
+      <c r="AU110" s="21"/>
+      <c r="AV110" s="21"/>
+      <c r="AW110" s="21"/>
+      <c r="AX110" s="21"/>
+      <c r="AY110" s="21"/>
+      <c r="AZ110" s="21"/>
+      <c r="BA110" s="21"/>
+      <c r="BB110" s="21"/>
+      <c r="BC110" s="21"/>
+      <c r="BD110" s="21"/>
+      <c r="BE110" s="21"/>
+      <c r="BF110" s="21"/>
+      <c r="BG110" s="21"/>
+      <c r="BH110" s="21"/>
+      <c r="BI110" s="21"/>
+      <c r="BJ110" s="21"/>
+      <c r="BK110" s="21"/>
+      <c r="BL110" s="21"/>
+      <c r="BM110" s="21"/>
+      <c r="BN110" s="21"/>
+    </row>
+    <row r="111" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B111" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C111" s="23" t="s">
-        <v>151</v>
+      <c r="C111" s="52" t="s">
+        <v>158</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>12</v>
@@ -30947,78 +31013,27 @@
         <v>34</v>
       </c>
       <c r="L111" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M111" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N111" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O111" s="48" t="s">
+      <c r="O111" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="22"/>
-      <c r="U111" s="22"/>
-      <c r="V111" s="22"/>
-      <c r="W111" s="22"/>
-      <c r="X111" s="22"/>
-      <c r="Y111" s="22"/>
-      <c r="Z111" s="22"/>
-      <c r="AA111" s="22"/>
-      <c r="AB111" s="22"/>
-      <c r="AC111" s="22"/>
-      <c r="AD111" s="22"/>
-      <c r="AE111" s="22"/>
-      <c r="AF111" s="22"/>
-      <c r="AG111" s="22"/>
-      <c r="AH111" s="22"/>
-      <c r="AI111" s="22"/>
-      <c r="AJ111" s="22"/>
-      <c r="AK111" s="22"/>
-      <c r="AL111" s="22"/>
-      <c r="AM111" s="22"/>
-      <c r="AN111" s="22"/>
-      <c r="AO111" s="22"/>
-      <c r="AP111" s="22"/>
-      <c r="AQ111" s="22"/>
-      <c r="AR111" s="22"/>
-      <c r="AS111" s="22"/>
-      <c r="AT111" s="22"/>
-      <c r="AU111" s="22"/>
-      <c r="AV111" s="22"/>
-      <c r="AW111" s="22"/>
-      <c r="AX111" s="22"/>
-      <c r="AY111" s="22"/>
-      <c r="AZ111" s="22"/>
-      <c r="BA111" s="22"/>
-      <c r="BB111" s="22"/>
-      <c r="BC111" s="22"/>
-      <c r="BD111" s="22"/>
-      <c r="BE111" s="22"/>
-      <c r="BF111" s="22"/>
-      <c r="BG111" s="22"/>
-      <c r="BH111" s="22"/>
-      <c r="BI111" s="22"/>
-      <c r="BJ111" s="22"/>
-      <c r="BK111" s="22"/>
-      <c r="BL111" s="22"/>
-      <c r="BM111" s="22"/>
-      <c r="BN111" s="22"/>
     </row>
     <row r="112" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>88</v>
+      <c r="C112" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>12</v>
@@ -31030,7 +31045,7 @@
         <v>144</v>
       </c>
       <c r="G112" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H112" s="59" t="s">
         <v>220</v>
@@ -31042,19 +31057,19 @@
         <v>7</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L112" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M112" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N112" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="O112" s="31" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="L112" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N112" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O112" s="48" t="s">
+        <v>12</v>
       </c>
       <c r="P112" s="22"/>
       <c r="Q112" s="22"/>
@@ -31108,15 +31123,15 @@
       <c r="BM112" s="22"/>
       <c r="BN112" s="22"/>
     </row>
-    <row r="113" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>12</v>
@@ -31140,13 +31155,13 @@
         <v>7</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L113" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M113" s="31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N113" s="31" t="s">
         <v>138</v>
@@ -31206,15 +31221,15 @@
       <c r="BM113" s="22"/>
       <c r="BN113" s="22"/>
     </row>
-    <row r="114" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>12</v>
@@ -31238,13 +31253,13 @@
         <v>7</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L114" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M114" s="31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N114" s="31" t="s">
         <v>138</v>
@@ -31304,26 +31319,26 @@
       <c r="BM114" s="22"/>
       <c r="BN114" s="22"/>
     </row>
-    <row r="115" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B115" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C115" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D115" s="54" t="s">
+      <c r="C115" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="54" t="s">
+      <c r="E115" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F115" s="54" t="s">
+      <c r="F115" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G115" s="55">
+      <c r="G115" s="24">
         <v>400</v>
       </c>
       <c r="H115" s="59" t="s">
@@ -31332,23 +31347,23 @@
       <c r="I115" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J115" s="54" t="s">
+      <c r="J115" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K115" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="L115" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M115" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="N115" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="O115" s="64" t="s">
-        <v>12</v>
+      <c r="K115" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L115" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M115" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N115" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O115" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="P115" s="22"/>
       <c r="Q115" s="22"/>
@@ -31402,27 +31417,27 @@
       <c r="BM115" s="22"/>
       <c r="BN115" s="22"/>
     </row>
-    <row r="116" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D116" s="4" t="s">
+      <c r="C116" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D116" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G116" s="24">
-        <v>404</v>
+      <c r="G116" s="55">
+        <v>400</v>
       </c>
       <c r="H116" s="59" t="s">
         <v>220</v>
@@ -31430,85 +31445,85 @@
       <c r="I116" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J116" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K116" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L116" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M116" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N116" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="O116" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P116" s="21"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="21"/>
-      <c r="S116" s="21"/>
-      <c r="T116" s="21"/>
-      <c r="U116" s="21"/>
-      <c r="V116" s="21"/>
-      <c r="W116" s="21"/>
-      <c r="X116" s="21"/>
-      <c r="Y116" s="21"/>
-      <c r="Z116" s="21"/>
-      <c r="AA116" s="21"/>
-      <c r="AB116" s="21"/>
-      <c r="AC116" s="21"/>
-      <c r="AD116" s="21"/>
-      <c r="AE116" s="21"/>
-      <c r="AF116" s="21"/>
-      <c r="AG116" s="21"/>
-      <c r="AH116" s="21"/>
-      <c r="AI116" s="21"/>
-      <c r="AJ116" s="21"/>
-      <c r="AK116" s="21"/>
-      <c r="AL116" s="21"/>
-      <c r="AM116" s="21"/>
-      <c r="AN116" s="21"/>
-      <c r="AO116" s="21"/>
-      <c r="AP116" s="21"/>
-      <c r="AQ116" s="21"/>
-      <c r="AR116" s="21"/>
-      <c r="AS116" s="21"/>
-      <c r="AT116" s="21"/>
-      <c r="AU116" s="21"/>
-      <c r="AV116" s="21"/>
-      <c r="AW116" s="21"/>
-      <c r="AX116" s="21"/>
-      <c r="AY116" s="21"/>
-      <c r="AZ116" s="21"/>
-      <c r="BA116" s="21"/>
-      <c r="BB116" s="21"/>
-      <c r="BC116" s="21"/>
-      <c r="BD116" s="21"/>
-      <c r="BE116" s="21"/>
-      <c r="BF116" s="21"/>
-      <c r="BG116" s="21"/>
-      <c r="BH116" s="21"/>
-      <c r="BI116" s="21"/>
-      <c r="BJ116" s="21"/>
-      <c r="BK116" s="21"/>
-      <c r="BL116" s="21"/>
-      <c r="BM116" s="21"/>
-      <c r="BN116" s="21"/>
-    </row>
-    <row r="117" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L116" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M116" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N116" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="O116" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="22"/>
+      <c r="S116" s="22"/>
+      <c r="T116" s="22"/>
+      <c r="U116" s="22"/>
+      <c r="V116" s="22"/>
+      <c r="W116" s="22"/>
+      <c r="X116" s="22"/>
+      <c r="Y116" s="22"/>
+      <c r="Z116" s="22"/>
+      <c r="AA116" s="22"/>
+      <c r="AB116" s="22"/>
+      <c r="AC116" s="22"/>
+      <c r="AD116" s="22"/>
+      <c r="AE116" s="22"/>
+      <c r="AF116" s="22"/>
+      <c r="AG116" s="22"/>
+      <c r="AH116" s="22"/>
+      <c r="AI116" s="22"/>
+      <c r="AJ116" s="22"/>
+      <c r="AK116" s="22"/>
+      <c r="AL116" s="22"/>
+      <c r="AM116" s="22"/>
+      <c r="AN116" s="22"/>
+      <c r="AO116" s="22"/>
+      <c r="AP116" s="22"/>
+      <c r="AQ116" s="22"/>
+      <c r="AR116" s="22"/>
+      <c r="AS116" s="22"/>
+      <c r="AT116" s="22"/>
+      <c r="AU116" s="22"/>
+      <c r="AV116" s="22"/>
+      <c r="AW116" s="22"/>
+      <c r="AX116" s="22"/>
+      <c r="AY116" s="22"/>
+      <c r="AZ116" s="22"/>
+      <c r="BA116" s="22"/>
+      <c r="BB116" s="22"/>
+      <c r="BC116" s="22"/>
+      <c r="BD116" s="22"/>
+      <c r="BE116" s="22"/>
+      <c r="BF116" s="22"/>
+      <c r="BG116" s="22"/>
+      <c r="BH116" s="22"/>
+      <c r="BI116" s="22"/>
+      <c r="BJ116" s="22"/>
+      <c r="BK116" s="22"/>
+      <c r="BL116" s="22"/>
+      <c r="BM116" s="22"/>
+      <c r="BN116" s="22"/>
+    </row>
+    <row r="117" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>12</v>
@@ -31532,13 +31547,13 @@
         <v>7</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L117" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M117" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N117" s="31" t="s">
         <v>138</v>
@@ -31546,16 +31561,67 @@
       <c r="O117" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="118" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P117" s="21"/>
+      <c r="Q117" s="21"/>
+      <c r="R117" s="21"/>
+      <c r="S117" s="21"/>
+      <c r="T117" s="21"/>
+      <c r="U117" s="21"/>
+      <c r="V117" s="21"/>
+      <c r="W117" s="21"/>
+      <c r="X117" s="21"/>
+      <c r="Y117" s="21"/>
+      <c r="Z117" s="21"/>
+      <c r="AA117" s="21"/>
+      <c r="AB117" s="21"/>
+      <c r="AC117" s="21"/>
+      <c r="AD117" s="21"/>
+      <c r="AE117" s="21"/>
+      <c r="AF117" s="21"/>
+      <c r="AG117" s="21"/>
+      <c r="AH117" s="21"/>
+      <c r="AI117" s="21"/>
+      <c r="AJ117" s="21"/>
+      <c r="AK117" s="21"/>
+      <c r="AL117" s="21"/>
+      <c r="AM117" s="21"/>
+      <c r="AN117" s="21"/>
+      <c r="AO117" s="21"/>
+      <c r="AP117" s="21"/>
+      <c r="AQ117" s="21"/>
+      <c r="AR117" s="21"/>
+      <c r="AS117" s="21"/>
+      <c r="AT117" s="21"/>
+      <c r="AU117" s="21"/>
+      <c r="AV117" s="21"/>
+      <c r="AW117" s="21"/>
+      <c r="AX117" s="21"/>
+      <c r="AY117" s="21"/>
+      <c r="AZ117" s="21"/>
+      <c r="BA117" s="21"/>
+      <c r="BB117" s="21"/>
+      <c r="BC117" s="21"/>
+      <c r="BD117" s="21"/>
+      <c r="BE117" s="21"/>
+      <c r="BF117" s="21"/>
+      <c r="BG117" s="21"/>
+      <c r="BH117" s="21"/>
+      <c r="BI117" s="21"/>
+      <c r="BJ117" s="21"/>
+      <c r="BK117" s="21"/>
+      <c r="BL117" s="21"/>
+      <c r="BM117" s="21"/>
+      <c r="BN117" s="21"/>
+    </row>
+    <row r="118" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>12</v>
@@ -31567,7 +31633,7 @@
         <v>144</v>
       </c>
       <c r="G118" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H118" s="59" t="s">
         <v>220</v>
@@ -31582,10 +31648,10 @@
         <v>32</v>
       </c>
       <c r="L118" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M118" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N118" s="31" t="s">
         <v>138</v>
@@ -31594,15 +31660,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A119" s="27">
-        <v>141</v>
+    <row r="119" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>94</v>
       </c>
       <c r="B119" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C119" s="85" t="s">
-        <v>233</v>
+      <c r="C119" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>12</v>
@@ -31610,11 +31676,11 @@
       <c r="E119" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F119" s="27" t="s">
-        <v>145</v>
+      <c r="F119" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G119" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H119" s="59" t="s">
         <v>220</v>
@@ -31628,91 +31694,40 @@
       <c r="K119" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L119" s="27">
-        <v>3013</v>
-      </c>
-      <c r="M119" s="85" t="s">
-        <v>234</v>
+      <c r="L119" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M119" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="N119" s="31" t="s">
         <v>138</v>
       </c>
       <c r="O119" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="P119" s="21"/>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-      <c r="S119" s="21"/>
-      <c r="T119" s="21"/>
-      <c r="U119" s="21"/>
-      <c r="V119" s="21"/>
-      <c r="W119" s="21"/>
-      <c r="X119" s="21"/>
-      <c r="Y119" s="21"/>
-      <c r="Z119" s="21"/>
-      <c r="AA119" s="21"/>
-      <c r="AB119" s="21"/>
-      <c r="AC119" s="21"/>
-      <c r="AD119" s="21"/>
-      <c r="AE119" s="21"/>
-      <c r="AF119" s="21"/>
-      <c r="AG119" s="21"/>
-      <c r="AH119" s="21"/>
-      <c r="AI119" s="21"/>
-      <c r="AJ119" s="21"/>
-      <c r="AK119" s="21"/>
-      <c r="AL119" s="21"/>
-      <c r="AM119" s="21"/>
-      <c r="AN119" s="21"/>
-      <c r="AO119" s="21"/>
-      <c r="AP119" s="21"/>
-      <c r="AQ119" s="21"/>
-      <c r="AR119" s="21"/>
-      <c r="AS119" s="21"/>
-      <c r="AT119" s="21"/>
-      <c r="AU119" s="21"/>
-      <c r="AV119" s="21"/>
-      <c r="AW119" s="21"/>
-      <c r="AX119" s="21"/>
-      <c r="AY119" s="21"/>
-      <c r="AZ119" s="21"/>
-      <c r="BA119" s="21"/>
-      <c r="BB119" s="21"/>
-      <c r="BC119" s="21"/>
-      <c r="BD119" s="21"/>
-      <c r="BE119" s="21"/>
-      <c r="BF119" s="21"/>
-      <c r="BG119" s="21"/>
-      <c r="BH119" s="21"/>
-      <c r="BI119" s="21"/>
-      <c r="BJ119" s="21"/>
-      <c r="BK119" s="21"/>
-      <c r="BL119" s="21"/>
-      <c r="BM119" s="21"/>
-      <c r="BN119" s="21"/>
-    </row>
-    <row r="120" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
-        <v>95</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A120" s="27">
+        <v>141</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D120" s="24" t="s">
+      <c r="C120" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>144</v>
+      <c r="F120" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="G120" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H120" s="59" t="s">
         <v>220</v>
@@ -31724,32 +31739,83 @@
         <v>7</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L120" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M120" s="33" t="s">
-        <v>206</v>
+        <v>32</v>
+      </c>
+      <c r="L120" s="27">
+        <v>3013</v>
+      </c>
+      <c r="M120" s="85" t="s">
+        <v>234</v>
       </c>
       <c r="N120" s="31" t="s">
         <v>138</v>
       </c>
       <c r="O120" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="P120" s="21"/>
+      <c r="Q120" s="21"/>
+      <c r="R120" s="21"/>
+      <c r="S120" s="21"/>
+      <c r="T120" s="21"/>
+      <c r="U120" s="21"/>
+      <c r="V120" s="21"/>
+      <c r="W120" s="21"/>
+      <c r="X120" s="21"/>
+      <c r="Y120" s="21"/>
+      <c r="Z120" s="21"/>
+      <c r="AA120" s="21"/>
+      <c r="AB120" s="21"/>
+      <c r="AC120" s="21"/>
+      <c r="AD120" s="21"/>
+      <c r="AE120" s="21"/>
+      <c r="AF120" s="21"/>
+      <c r="AG120" s="21"/>
+      <c r="AH120" s="21"/>
+      <c r="AI120" s="21"/>
+      <c r="AJ120" s="21"/>
+      <c r="AK120" s="21"/>
+      <c r="AL120" s="21"/>
+      <c r="AM120" s="21"/>
+      <c r="AN120" s="21"/>
+      <c r="AO120" s="21"/>
+      <c r="AP120" s="21"/>
+      <c r="AQ120" s="21"/>
+      <c r="AR120" s="21"/>
+      <c r="AS120" s="21"/>
+      <c r="AT120" s="21"/>
+      <c r="AU120" s="21"/>
+      <c r="AV120" s="21"/>
+      <c r="AW120" s="21"/>
+      <c r="AX120" s="21"/>
+      <c r="AY120" s="21"/>
+      <c r="AZ120" s="21"/>
+      <c r="BA120" s="21"/>
+      <c r="BB120" s="21"/>
+      <c r="BC120" s="21"/>
+      <c r="BD120" s="21"/>
+      <c r="BE120" s="21"/>
+      <c r="BF120" s="21"/>
+      <c r="BG120" s="21"/>
+      <c r="BH120" s="21"/>
+      <c r="BI120" s="21"/>
+      <c r="BJ120" s="21"/>
+      <c r="BK120" s="21"/>
+      <c r="BL120" s="21"/>
+      <c r="BM120" s="21"/>
+      <c r="BN120" s="21"/>
+    </row>
+    <row r="121" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D121" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D121" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E121" s="4" t="s">
@@ -31759,7 +31825,7 @@
         <v>144</v>
       </c>
       <c r="G121" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H121" s="59" t="s">
         <v>220</v>
@@ -31773,178 +31839,178 @@
       <c r="K121" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L121" s="10">
-        <v>4001</v>
-      </c>
-      <c r="M121" s="31" t="s">
-        <v>19</v>
+      <c r="L121" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M121" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="N121" s="31" t="s">
         <v>138</v>
       </c>
       <c r="O121" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P121" s="22"/>
-      <c r="Q121" s="22"/>
-      <c r="R121" s="22"/>
-      <c r="S121" s="22"/>
-      <c r="T121" s="22"/>
-      <c r="U121" s="22"/>
-      <c r="V121" s="22"/>
-      <c r="W121" s="22"/>
-      <c r="X121" s="22"/>
-      <c r="Y121" s="22"/>
-      <c r="Z121" s="22"/>
-      <c r="AA121" s="22"/>
-      <c r="AB121" s="22"/>
-      <c r="AC121" s="22"/>
-      <c r="AD121" s="22"/>
-      <c r="AE121" s="22"/>
-      <c r="AF121" s="22"/>
-      <c r="AG121" s="22"/>
-      <c r="AH121" s="22"/>
-      <c r="AI121" s="22"/>
-      <c r="AJ121" s="22"/>
-      <c r="AK121" s="22"/>
-      <c r="AL121" s="22"/>
-      <c r="AM121" s="22"/>
-      <c r="AN121" s="22"/>
-      <c r="AO121" s="22"/>
-      <c r="AP121" s="22"/>
-      <c r="AQ121" s="22"/>
-      <c r="AR121" s="22"/>
-      <c r="AS121" s="22"/>
-      <c r="AT121" s="22"/>
-      <c r="AU121" s="22"/>
-      <c r="AV121" s="22"/>
-      <c r="AW121" s="22"/>
-      <c r="AX121" s="22"/>
-      <c r="AY121" s="22"/>
-      <c r="AZ121" s="22"/>
-      <c r="BA121" s="22"/>
-      <c r="BB121" s="22"/>
-      <c r="BC121" s="22"/>
-      <c r="BD121" s="22"/>
-      <c r="BE121" s="22"/>
-      <c r="BF121" s="22"/>
-      <c r="BG121" s="22"/>
-      <c r="BH121" s="22"/>
-      <c r="BI121" s="22"/>
-      <c r="BJ121" s="22"/>
-      <c r="BK121" s="22"/>
-      <c r="BL121" s="22"/>
-      <c r="BM121" s="22"/>
-      <c r="BN121" s="22"/>
-    </row>
-    <row r="122" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A122" s="27">
-        <v>142</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>96</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C122" s="85" t="s">
+      <c r="C122" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G122" s="24">
+        <v>400</v>
+      </c>
+      <c r="H122" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="I122" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L122" s="10">
+        <v>4001</v>
+      </c>
+      <c r="M122" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N122" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O122" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="22"/>
+      <c r="S122" s="22"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
+      <c r="V122" s="22"/>
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+      <c r="Y122" s="22"/>
+      <c r="Z122" s="22"/>
+      <c r="AA122" s="22"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="22"/>
+      <c r="AD122" s="22"/>
+      <c r="AE122" s="22"/>
+      <c r="AF122" s="22"/>
+      <c r="AG122" s="22"/>
+      <c r="AH122" s="22"/>
+      <c r="AI122" s="22"/>
+      <c r="AJ122" s="22"/>
+      <c r="AK122" s="22"/>
+      <c r="AL122" s="22"/>
+      <c r="AM122" s="22"/>
+      <c r="AN122" s="22"/>
+      <c r="AO122" s="22"/>
+      <c r="AP122" s="22"/>
+      <c r="AQ122" s="22"/>
+      <c r="AR122" s="22"/>
+      <c r="AS122" s="22"/>
+      <c r="AT122" s="22"/>
+      <c r="AU122" s="22"/>
+      <c r="AV122" s="22"/>
+      <c r="AW122" s="22"/>
+      <c r="AX122" s="22"/>
+      <c r="AY122" s="22"/>
+      <c r="AZ122" s="22"/>
+      <c r="BA122" s="22"/>
+      <c r="BB122" s="22"/>
+      <c r="BC122" s="22"/>
+      <c r="BD122" s="22"/>
+      <c r="BE122" s="22"/>
+      <c r="BF122" s="22"/>
+      <c r="BG122" s="22"/>
+      <c r="BH122" s="22"/>
+      <c r="BI122" s="22"/>
+      <c r="BJ122" s="22"/>
+      <c r="BK122" s="22"/>
+      <c r="BL122" s="22"/>
+      <c r="BM122" s="22"/>
+      <c r="BN122" s="22"/>
+    </row>
+    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A123" s="27">
+        <v>142</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="66">
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="66">
         <v>413</v>
       </c>
-      <c r="H122" s="66" t="s">
+      <c r="H123" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="I122" s="66"/>
-      <c r="J122" s="59" t="s">
+      <c r="I123" s="66"/>
+      <c r="J123" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
-      <c r="M122" s="85" t="s">
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="N122" s="34"/>
-      <c r="O122" s="34"/>
-    </row>
-    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A123" s="99" t="s">
+      <c r="N123" s="34"/>
+      <c r="O123" s="34"/>
+    </row>
+    <row r="124" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A124" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="B123" s="99"/>
-      <c r="C123" s="99"/>
-      <c r="D123" s="99"/>
-      <c r="E123" s="99"/>
-      <c r="F123" s="99"/>
-      <c r="G123" s="99"/>
-      <c r="H123" s="99"/>
-      <c r="I123" s="99"/>
-      <c r="J123" s="99"/>
-      <c r="K123" s="99"/>
-      <c r="L123" s="99"/>
-      <c r="M123" s="99"/>
-      <c r="N123" s="99"/>
-      <c r="O123" s="99"/>
-    </row>
-    <row r="124" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
-        <v>97</v>
-      </c>
-      <c r="B124" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G124" s="39">
-        <v>200</v>
-      </c>
-      <c r="H124" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="I124" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K124" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L124" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M124" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="N124" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="O124" s="32" t="s">
-        <v>64</v>
-      </c>
+      <c r="B124" s="100"/>
+      <c r="C124" s="100"/>
+      <c r="D124" s="100"/>
+      <c r="E124" s="100"/>
+      <c r="F124" s="100"/>
+      <c r="G124" s="100"/>
+      <c r="H124" s="100"/>
+      <c r="I124" s="100"/>
+      <c r="J124" s="100"/>
+      <c r="K124" s="100"/>
+      <c r="L124" s="100"/>
+      <c r="M124" s="100"/>
+      <c r="N124" s="100"/>
+      <c r="O124" s="100"/>
     </row>
     <row r="125" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C125" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D125" s="27" t="s">
+      <c r="C125" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E125" s="5" t="s">
@@ -31965,31 +32031,31 @@
       <c r="J125" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K125" s="27" t="s">
+      <c r="K125" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L125" s="27">
-        <v>4003</v>
+      <c r="L125" s="8">
+        <v>4002</v>
       </c>
       <c r="M125" s="33" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="N125" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="O125" s="34" t="s">
-        <v>1</v>
+      <c r="O125" s="32" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B126" s="32" t="s">
         <v>137</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>12</v>
@@ -32016,35 +32082,35 @@
         <v>32</v>
       </c>
       <c r="L126" s="27">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="M126" s="33" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="N126" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="O126" s="32" t="s">
-        <v>188</v>
+      <c r="O126" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B127" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D127" s="4">
-        <v>8</v>
-      </c>
-      <c r="E127" s="24" t="s">
+      <c r="C127" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F127" s="24" t="s">
+      <c r="F127" s="5" t="s">
         <v>144</v>
       </c>
       <c r="G127" s="39">
@@ -32056,47 +32122,75 @@
       <c r="I127" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="J127" s="4" t="s">
+      <c r="J127" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K127" s="4" t="s">
+      <c r="K127" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L127" s="27">
+        <v>4004</v>
+      </c>
+      <c r="M127" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="N127" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="O127" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>99</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128" s="4">
+        <v>8</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G128" s="39">
+        <v>200</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L127" s="4">
+      <c r="L128" s="4">
         <v>1010</v>
       </c>
-      <c r="M127" s="31" t="s">
+      <c r="M128" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N127" s="31" t="s">
+      <c r="N128" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="O127" s="31" t="s">
+      <c r="O128" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="98" t="s">
+    <row r="129" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="99" t="s">
         <v>177</v>
-      </c>
-      <c r="B128" s="98"/>
-      <c r="C128" s="98"/>
-      <c r="D128" s="98"/>
-      <c r="E128" s="98"/>
-      <c r="F128" s="98"/>
-      <c r="G128" s="98"/>
-      <c r="H128" s="98"/>
-      <c r="I128" s="98"/>
-      <c r="J128" s="98"/>
-      <c r="K128" s="98"/>
-      <c r="L128" s="98"/>
-      <c r="M128" s="98"/>
-      <c r="N128" s="98"/>
-      <c r="O128" s="98"/>
-    </row>
-    <row r="129" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A129" s="99" t="s">
-        <v>150</v>
       </c>
       <c r="B129" s="99"/>
       <c r="C129" s="99"/>
@@ -32113,62 +32207,34 @@
       <c r="N129" s="99"/>
       <c r="O129" s="99"/>
     </row>
-    <row r="130" spans="1:66" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A130" s="94">
+    <row r="130" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A130" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="100"/>
+      <c r="C130" s="100"/>
+      <c r="D130" s="100"/>
+      <c r="E130" s="100"/>
+      <c r="F130" s="100"/>
+      <c r="G130" s="100"/>
+      <c r="H130" s="100"/>
+      <c r="I130" s="100"/>
+      <c r="J130" s="100"/>
+      <c r="K130" s="100"/>
+      <c r="L130" s="100"/>
+      <c r="M130" s="100"/>
+      <c r="N130" s="100"/>
+      <c r="O130" s="100"/>
+    </row>
+    <row r="131" spans="1:66" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A131" s="94">
         <v>147</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C130" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="D130" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="F130" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="G130" s="94">
-        <v>400</v>
-      </c>
-      <c r="H130" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I130" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J130" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K130" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="L130" s="94">
-        <v>3015</v>
-      </c>
-      <c r="M130" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="N130" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="O130" s="95" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="131" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="94">
-        <v>146</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C131" s="95" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D131" s="94" t="s">
         <v>12</v>
@@ -32180,7 +32246,7 @@
         <v>144</v>
       </c>
       <c r="G131" s="94">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H131" s="94" t="s">
         <v>220</v>
@@ -32192,128 +32258,128 @@
         <v>7</v>
       </c>
       <c r="K131" s="94" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L131" s="94">
-        <v>1016</v>
+        <v>3015</v>
       </c>
       <c r="M131" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="N131" s="95" t="s">
-        <v>57</v>
+        <v>255</v>
+      </c>
+      <c r="N131" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="O131" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="P131" s="21"/>
-      <c r="Q131" s="21"/>
-      <c r="R131" s="21"/>
-      <c r="S131" s="21"/>
-      <c r="T131" s="21"/>
-      <c r="U131" s="21"/>
-      <c r="V131" s="21"/>
-      <c r="W131" s="21"/>
-      <c r="X131" s="21"/>
-      <c r="Y131" s="21"/>
-      <c r="Z131" s="21"/>
-      <c r="AA131" s="21"/>
-      <c r="AB131" s="21"/>
-      <c r="AC131" s="21"/>
-      <c r="AD131" s="21"/>
-      <c r="AE131" s="21"/>
-      <c r="AF131" s="21"/>
-      <c r="AG131" s="21"/>
-      <c r="AH131" s="21"/>
-      <c r="AI131" s="21"/>
-      <c r="AJ131" s="21"/>
-      <c r="AK131" s="21"/>
-      <c r="AL131" s="21"/>
-      <c r="AM131" s="21"/>
-      <c r="AN131" s="21"/>
-      <c r="AO131" s="21"/>
-      <c r="AP131" s="21"/>
-      <c r="AQ131" s="21"/>
-      <c r="AR131" s="21"/>
-      <c r="AS131" s="21"/>
-      <c r="AT131" s="21"/>
-      <c r="AU131" s="21"/>
-      <c r="AV131" s="21"/>
-      <c r="AW131" s="21"/>
-      <c r="AX131" s="21"/>
-      <c r="AY131" s="21"/>
-      <c r="AZ131" s="21"/>
-      <c r="BA131" s="21"/>
-      <c r="BB131" s="21"/>
-      <c r="BC131" s="21"/>
-      <c r="BD131" s="21"/>
-      <c r="BE131" s="21"/>
-      <c r="BF131" s="21"/>
-      <c r="BG131" s="21"/>
-      <c r="BH131" s="21"/>
-      <c r="BI131" s="21"/>
-      <c r="BJ131" s="21"/>
-      <c r="BK131" s="21"/>
-      <c r="BL131" s="21"/>
-      <c r="BM131" s="21"/>
-      <c r="BN131" s="21"/>
-    </row>
-    <row r="132" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
-        <v>102</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="94">
+        <v>146</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C132" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D132" s="4" t="s">
+      <c r="C132" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D132" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G132" s="24">
-        <v>401</v>
-      </c>
-      <c r="H132" s="66" t="s">
+      <c r="G132" s="94">
+        <v>403</v>
+      </c>
+      <c r="H132" s="94" t="s">
         <v>220</v>
       </c>
       <c r="I132" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J132" s="4" t="s">
+      <c r="J132" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K132" s="4" t="s">
+      <c r="K132" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L132" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M132" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N132" s="33" t="s">
+      <c r="L132" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M132" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N132" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="O132" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="O132" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P132" s="21"/>
+      <c r="Q132" s="21"/>
+      <c r="R132" s="21"/>
+      <c r="S132" s="21"/>
+      <c r="T132" s="21"/>
+      <c r="U132" s="21"/>
+      <c r="V132" s="21"/>
+      <c r="W132" s="21"/>
+      <c r="X132" s="21"/>
+      <c r="Y132" s="21"/>
+      <c r="Z132" s="21"/>
+      <c r="AA132" s="21"/>
+      <c r="AB132" s="21"/>
+      <c r="AC132" s="21"/>
+      <c r="AD132" s="21"/>
+      <c r="AE132" s="21"/>
+      <c r="AF132" s="21"/>
+      <c r="AG132" s="21"/>
+      <c r="AH132" s="21"/>
+      <c r="AI132" s="21"/>
+      <c r="AJ132" s="21"/>
+      <c r="AK132" s="21"/>
+      <c r="AL132" s="21"/>
+      <c r="AM132" s="21"/>
+      <c r="AN132" s="21"/>
+      <c r="AO132" s="21"/>
+      <c r="AP132" s="21"/>
+      <c r="AQ132" s="21"/>
+      <c r="AR132" s="21"/>
+      <c r="AS132" s="21"/>
+      <c r="AT132" s="21"/>
+      <c r="AU132" s="21"/>
+      <c r="AV132" s="21"/>
+      <c r="AW132" s="21"/>
+      <c r="AX132" s="21"/>
+      <c r="AY132" s="21"/>
+      <c r="AZ132" s="21"/>
+      <c r="BA132" s="21"/>
+      <c r="BB132" s="21"/>
+      <c r="BC132" s="21"/>
+      <c r="BD132" s="21"/>
+      <c r="BE132" s="21"/>
+      <c r="BF132" s="21"/>
+      <c r="BG132" s="21"/>
+      <c r="BH132" s="21"/>
+      <c r="BI132" s="21"/>
+      <c r="BJ132" s="21"/>
+      <c r="BK132" s="21"/>
+      <c r="BL132" s="21"/>
+      <c r="BM132" s="21"/>
+      <c r="BN132" s="21"/>
+    </row>
+    <row r="133" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C133" s="23" t="s">
-        <v>151</v>
+      <c r="C133" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>12</v>
@@ -32340,39 +32406,39 @@
         <v>34</v>
       </c>
       <c r="L133" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M133" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N133" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O133" s="48" t="s">
+      <c r="O133" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D134" s="24">
-        <v>201</v>
-      </c>
-      <c r="E134" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F134" s="24" t="s">
+      <c r="F134" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G134" s="45">
-        <v>400</v>
+      <c r="G134" s="24">
+        <v>401</v>
       </c>
       <c r="H134" s="66" t="s">
         <v>220</v>
@@ -32380,34 +32446,34 @@
       <c r="I134" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J134" s="24" t="s">
+      <c r="J134" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K134" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L134" s="41">
-        <v>1003</v>
-      </c>
-      <c r="M134" s="33" t="s">
-        <v>14</v>
+      <c r="K134" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L134" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M134" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="N134" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="O134" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O134" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D135" s="24">
         <v>201</v>
@@ -32431,13 +32497,13 @@
         <v>7</v>
       </c>
       <c r="K135" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L135" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L135" s="41">
+        <v>1003</v>
       </c>
       <c r="M135" s="33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N135" s="33" t="s">
         <v>57</v>
@@ -32446,26 +32512,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C136" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D136" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" s="54" t="s">
+      <c r="C136" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D136" s="24">
+        <v>201</v>
+      </c>
+      <c r="E136" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F136" s="54" t="s">
+      <c r="F136" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G136" s="55">
+      <c r="G136" s="45">
         <v>400</v>
       </c>
       <c r="H136" s="66" t="s">
@@ -32474,46 +32540,46 @@
       <c r="I136" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J136" s="54" t="s">
+      <c r="J136" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K136" s="55" t="s">
+      <c r="K136" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L136" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M136" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="N136" s="53" t="s">
+      <c r="L136" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M136" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N136" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="O136" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="O136" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C137" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D137" s="24">
-        <v>202</v>
-      </c>
-      <c r="E137" s="24" t="s">
+      <c r="C137" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F137" s="24" t="s">
+      <c r="F137" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G137" s="45">
-        <v>403</v>
+      <c r="G137" s="55">
+        <v>400</v>
       </c>
       <c r="H137" s="66" t="s">
         <v>220</v>
@@ -32521,34 +32587,34 @@
       <c r="I137" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J137" s="24" t="s">
+      <c r="J137" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K137" s="24" t="s">
+      <c r="K137" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L137" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M137" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N137" s="33" t="s">
+      <c r="L137" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M137" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N137" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="O137" s="31" t="s">
-        <v>61</v>
+      <c r="O137" s="64" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D138" s="24">
         <v>202</v>
@@ -32572,13 +32638,13 @@
         <v>7</v>
       </c>
       <c r="K138" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L138" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M138" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N138" s="33" t="s">
         <v>57</v>
@@ -32587,15 +32653,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B139" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D139" s="24">
         <v>202</v>
@@ -32606,7 +32672,7 @@
       <c r="F139" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G139" s="24">
+      <c r="G139" s="45">
         <v>403</v>
       </c>
       <c r="H139" s="66" t="s">
@@ -32622,10 +32688,10 @@
         <v>32</v>
       </c>
       <c r="L139" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M139" s="33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N139" s="33" t="s">
         <v>57</v>
@@ -32636,13 +32702,13 @@
     </row>
     <row r="140" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="D140" s="24">
         <v>202</v>
@@ -32668,11 +32734,11 @@
       <c r="K140" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L140" s="66">
-        <v>5001</v>
+      <c r="L140" s="25">
+        <v>1008</v>
       </c>
       <c r="M140" s="33" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="N140" s="33" t="s">
         <v>57</v>
@@ -32681,15 +32747,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B141" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D141" s="24">
         <v>202</v>
@@ -32700,7 +32766,7 @@
       <c r="F141" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G141" s="45">
+      <c r="G141" s="24">
         <v>403</v>
       </c>
       <c r="H141" s="66" t="s">
@@ -32713,42 +32779,42 @@
         <v>7</v>
       </c>
       <c r="K141" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L141" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L141" s="66">
+        <v>5001</v>
       </c>
       <c r="M141" s="33" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="N141" s="33" t="s">
         <v>57</v>
       </c>
       <c r="O141" s="31" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D142" s="4">
-        <v>203</v>
-      </c>
-      <c r="E142" s="4" t="s">
+      <c r="C142" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D142" s="24">
+        <v>202</v>
+      </c>
+      <c r="E142" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G142" s="24">
-        <v>400</v>
+      <c r="G142" s="45">
+        <v>403</v>
       </c>
       <c r="H142" s="66" t="s">
         <v>220</v>
@@ -32756,34 +32822,34 @@
       <c r="I142" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J142" s="4" t="s">
+      <c r="J142" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K142" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L142" s="10">
-        <v>3002</v>
-      </c>
-      <c r="M142" s="31" t="s">
-        <v>182</v>
+      <c r="K142" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L142" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M142" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="N142" s="33" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="O142" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="27">
-        <v>132</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>112</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C143" s="58" t="s">
-        <v>199</v>
+      <c r="C143" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="D143" s="4">
         <v>203</v>
@@ -32803,19 +32869,19 @@
       <c r="I143" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J143" s="59" t="s">
+      <c r="J143" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L143" s="27">
-        <v>3003</v>
-      </c>
-      <c r="M143" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="N143" s="34" t="s">
+      <c r="L143" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M143" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="N143" s="33" t="s">
         <v>218</v>
       </c>
       <c r="O143" s="31" t="s">
@@ -32824,16 +32890,16 @@
     </row>
     <row r="144" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A144" s="27">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C144" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D144" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>144</v>
@@ -32857,30 +32923,30 @@
         <v>11</v>
       </c>
       <c r="L144" s="27">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="M144" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N144" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="O144" s="57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="8">
-        <v>130</v>
+      <c r="O144" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="27">
+        <v>131</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C145" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="D145" s="4">
+        <v>204</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>144</v>
@@ -32904,30 +32970,30 @@
         <v>11</v>
       </c>
       <c r="L145" s="27">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="M145" s="58" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N145" s="34" t="s">
         <v>218</v>
       </c>
       <c r="O145" s="57" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B146" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C146" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="D146" s="4">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>144</v>
@@ -32951,30 +33017,30 @@
         <v>11</v>
       </c>
       <c r="L146" s="27">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="M146" s="58" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N146" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="O146" s="58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="27">
-        <v>129</v>
+      <c r="O146" s="57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="8">
+        <v>128</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C147" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>12</v>
+      <c r="C147" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147" s="4">
+        <v>203</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>144</v>
@@ -32982,8 +33048,8 @@
       <c r="F147" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G147" s="66">
-        <v>404</v>
+      <c r="G147" s="24">
+        <v>400</v>
       </c>
       <c r="H147" s="66" t="s">
         <v>220</v>
@@ -32997,11 +33063,11 @@
       <c r="K147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L147" s="67">
-        <v>3007</v>
-      </c>
-      <c r="M147" s="68" t="s">
-        <v>209</v>
+      <c r="L147" s="27">
+        <v>3006</v>
+      </c>
+      <c r="M147" s="58" t="s">
+        <v>202</v>
       </c>
       <c r="N147" s="34" t="s">
         <v>218</v>
@@ -33011,21 +33077,51 @@
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" s="20"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="46"/>
-      <c r="I148" s="46"/>
-      <c r="J148" s="20"/>
-      <c r="K148" s="20"/>
-      <c r="L148" s="20"/>
-      <c r="M148" s="35"/>
-      <c r="N148" s="21"/>
-      <c r="O148" s="21"/>
+      <c r="A148" s="27">
+        <v>129</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C148" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G148" s="66">
+        <v>404</v>
+      </c>
+      <c r="H148" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="I148" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J148" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L148" s="67">
+        <v>3007</v>
+      </c>
+      <c r="M148" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="N148" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="O148" s="58" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
@@ -33328,6 +33424,7 @@
       <c r="I166" s="46"/>
       <c r="J166" s="20"/>
       <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
       <c r="M166" s="35"/>
       <c r="N166" s="21"/>
       <c r="O166" s="21"/>
@@ -33344,7 +33441,6 @@
       <c r="I167" s="46"/>
       <c r="J167" s="20"/>
       <c r="K167" s="20"/>
-      <c r="L167" s="20"/>
       <c r="M167" s="35"/>
       <c r="N167" s="21"/>
       <c r="O167" s="21"/>
@@ -38228,34 +38324,51 @@
       <c r="N454" s="21"/>
       <c r="O454" s="21"/>
     </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A455" s="20"/>
+      <c r="B455" s="21"/>
+      <c r="C455" s="22"/>
+      <c r="D455" s="20"/>
+      <c r="E455" s="20"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="46"/>
+      <c r="H455" s="46"/>
+      <c r="I455" s="46"/>
+      <c r="J455" s="20"/>
+      <c r="K455" s="20"/>
+      <c r="L455" s="20"/>
+      <c r="M455" s="35"/>
+      <c r="N455" s="21"/>
+      <c r="O455" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G454"/>
+  <autoFilter ref="G1:G455"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A129:O129"/>
+    <mergeCell ref="A130:O130"/>
+    <mergeCell ref="A124:O124"/>
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A109:O109"/>
+    <mergeCell ref="A85:O85"/>
+    <mergeCell ref="A84:O84"/>
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="A57:O57"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A55:O55"/>
-    <mergeCell ref="A69:O69"/>
-    <mergeCell ref="A84:O84"/>
-    <mergeCell ref="A83:O83"/>
-    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="A56:O56"/>
     <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A56:O56"/>
-    <mergeCell ref="A128:O128"/>
-    <mergeCell ref="A129:O129"/>
-    <mergeCell ref="A123:O123"/>
-    <mergeCell ref="A104:O104"/>
-    <mergeCell ref="A108:O108"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J64:J68 J47:J53 J92:J103 J78:J82 J7:J8 J61:J62 J75:J76 J88:J90 J112:J114 J134:J135 J10:J16 J137:J147 J20:J22 J116:J122 J105:J106 J124:J127 J24:J45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J48:J54 J93:J104 J79:J83 J7:J8 J62:J63 J76:J77 J89:J91 J113:J115 J135:J136 J10:J16 J138:J148 J20:J22 J117:J123 J106:J107 J125:J128 J25:J46">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K47:K53 K64:K68 K78:K82 K127 K7:K8 K61:K62 K75:K76 K88:K90 K112:K114 K134:K135 K10:K16 K92:K103 K137:K147 K20:K22 K116:K122 K105:K106 K124 K24:K45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K48:K54 K65:K69 K79:K83 K128 K7:K8 K62:K63 K76:K77 K89:K91 K113:K115 K135:K136 K10:K16 K93:K104 K138:K148 K20:K22 K117:K123 K106:K107 K125 K24:K46">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L64:L68 L10:L14 L78:L82 L106 L127 L47:L51 L141:L142 L137:L139 L7:L8 L61:L62 L75:L76 L88:L90 L112:L114 L134:L135 L16 L35:L44 L92:L97 L116:L118 L20:L22 L120:L122 L124 L24 L26:L33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L65:L69 L10:L14 L79:L83 L107 L128 L48:L52 L142:L143 L138:L140 L7:L8 L62:L63 L76:L77 L89:L91 L113:L115 L135:L136 L16 L36:L45 L93:L98 L117:L119 L20:L22 L121:L123 L125 L25 L27:L34">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -38267,8 +38380,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="22" max="16383" man="1"/>
-    <brk id="54" max="16383" man="1"/>
-    <brk id="82" max="9" man="1"/>
+    <brk id="55" max="16383" man="1"/>
+    <brk id="83" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -11,9 +11,9 @@
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$455</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$456</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$125</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$126</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="264">
   <si>
     <t>Payslip</t>
   </si>
@@ -864,6 +864,12 @@
   <si>
     <t>LeaveDate cannot be earlier than 01/01/2019</t>
   </si>
+  <si>
+    <t>StartDate must be within or before the TaxYear specified in the header of the PayrollSubmissionRequest</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
 </sst>
 </file>
 
@@ -22085,7 +22091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M50"/>
+  <dimension ref="B8:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="70" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
@@ -22602,6 +22608,15 @@
         <v>166</v>
       </c>
     </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="80"/>
+      <c r="C51" s="80">
+        <v>150</v>
+      </c>
+      <c r="D51" s="81" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:E9"/>
@@ -22617,11 +22632,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN455"/>
+  <dimension ref="A1:BN456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -23979,15 +23994,15 @@
       <c r="BM23" s="21"/>
       <c r="BN23" s="21"/>
     </row>
-    <row r="24" spans="1:66" s="11" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" s="11" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="95" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D24" s="94" t="s">
         <v>12</v>
@@ -24014,16 +24029,16 @@
         <v>11</v>
       </c>
       <c r="L24" s="94">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="M24" s="95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N24" s="53" t="s">
         <v>0</v>
       </c>
       <c r="O24" s="31" t="s">
-        <v>50</v>
+        <v>263</v>
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
@@ -24077,26 +24092,26 @@
       <c r="BM24" s="21"/>
       <c r="BN24" s="21"/>
     </row>
-    <row r="25" spans="1:66" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>97</v>
+    <row r="25" spans="1:66" s="11" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="94">
+        <v>149</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="94">
         <v>200</v>
       </c>
       <c r="H25" s="24" t="s">
@@ -24105,132 +24120,132 @@
       <c r="I25" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M25" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="38" t="s">
+      <c r="K25" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="94">
+        <v>2024</v>
+      </c>
+      <c r="M25" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="N25" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>143</v>
+      <c r="O25" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="21"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="21"/>
+      <c r="AT25" s="21"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
+      <c r="AW25" s="21"/>
+      <c r="AX25" s="21"/>
+      <c r="AY25" s="21"/>
+      <c r="AZ25" s="21"/>
+      <c r="BA25" s="21"/>
+      <c r="BB25" s="21"/>
+      <c r="BC25" s="21"/>
+      <c r="BD25" s="21"/>
+      <c r="BE25" s="21"/>
+      <c r="BF25" s="21"/>
+      <c r="BG25" s="21"/>
+      <c r="BH25" s="21"/>
+      <c r="BI25" s="21"/>
+      <c r="BJ25" s="21"/>
+      <c r="BK25" s="21"/>
+      <c r="BL25" s="21"/>
+      <c r="BM25" s="21"/>
+      <c r="BN25" s="21"/>
+    </row>
+    <row r="26" spans="1:66" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>97</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="D26" s="39" t="s">
+      <c r="C26" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="5" t="s">
         <v>144</v>
       </c>
       <c r="G26" s="39">
         <v>200</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="24" t="s">
         <v>221</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="39">
-        <v>2050</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>248</v>
+        <v>32</v>
+      </c>
+      <c r="L26" s="8">
+        <v>4002</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="N26" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O26" s="86" t="s">
-        <v>249</v>
-      </c>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="36"/>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="36"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="36"/>
-      <c r="AZ26" s="36"/>
-      <c r="BA26" s="36"/>
-      <c r="BB26" s="36"/>
-      <c r="BC26" s="36"/>
-      <c r="BD26" s="36"/>
-      <c r="BE26" s="36"/>
-      <c r="BF26" s="36"/>
-      <c r="BG26" s="36"/>
-      <c r="BH26" s="36"/>
-      <c r="BI26" s="36"/>
-      <c r="BJ26" s="36"/>
-      <c r="BK26" s="36"/>
-      <c r="BL26" s="36"/>
-      <c r="BM26" s="36"/>
-      <c r="BN26" s="36"/>
+      <c r="O26" s="32" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="42" t="s">
-        <v>245</v>
+      <c r="C27" s="89" t="s">
+        <v>248</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>12</v>
@@ -24241,32 +24256,32 @@
       <c r="F27" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="24">
-        <v>400</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>220</v>
+      <c r="G27" s="39">
+        <v>200</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>221</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J27" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="66">
-        <v>2051</v>
+      <c r="K27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="39">
+        <v>2050</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N27" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O27" s="44" t="s">
-        <v>244</v>
+      <c r="O27" s="86" t="s">
+        <v>249</v>
       </c>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
@@ -24320,18 +24335,18 @@
       <c r="BM27" s="36"/>
       <c r="BN27" s="36"/>
     </row>
-    <row r="28" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>20</v>
+    <row r="28" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>144</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="5">
-        <v>8</v>
+      <c r="C28" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>144</v>
@@ -24340,45 +24355,96 @@
         <v>144</v>
       </c>
       <c r="G28" s="24">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="J28" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1010</v>
-      </c>
-      <c r="M28" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="32" t="s">
+      <c r="K28" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="66">
+        <v>2051</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="N28" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="32" t="s">
-        <v>1</v>
-      </c>
+      <c r="O28" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="36"/>
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="36"/>
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="36"/>
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="36"/>
+      <c r="BM28" s="36"/>
+      <c r="BN28" s="36"/>
     </row>
     <row r="29" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="D29" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>144</v>
@@ -24389,7 +24455,7 @@
       <c r="G29" s="24">
         <v>200</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="24" t="s">
         <v>221</v>
       </c>
       <c r="I29" s="24" t="s">
@@ -24399,33 +24465,33 @@
         <v>7</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="8">
-        <v>2009</v>
+        <v>11</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1010</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="N29" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>70</v>
+      <c r="C30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="5">
+        <v>13</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>144</v>
@@ -24448,31 +24514,31 @@
       <c r="K30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="5">
-        <v>2010</v>
+      <c r="L30" s="8">
+        <v>2009</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="N30" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O30" s="31" t="s">
-        <v>49</v>
+      <c r="O30" s="32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>71</v>
+      <c r="C31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>144</v>
@@ -24493,30 +24559,30 @@
         <v>7</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L31" s="5">
-        <v>2014</v>
-      </c>
-      <c r="M31" s="33" t="s">
-        <v>238</v>
+        <v>2010</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="N31" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:66" ht="35.450000000000003" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>31</v>
+      <c r="C32" s="23" t="s">
+        <v>237</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>71</v>
@@ -24530,7 +24596,7 @@
       <c r="G32" s="24">
         <v>200</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="55" t="s">
         <v>221</v>
       </c>
       <c r="I32" s="24" t="s">
@@ -24540,13 +24606,13 @@
         <v>7</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L32" s="5">
-        <v>2015</v>
-      </c>
-      <c r="M32" s="31" t="s">
-        <v>20</v>
+        <v>2014</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>238</v>
       </c>
       <c r="N32" s="32" t="s">
         <v>0</v>
@@ -24555,109 +24621,109 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:66" s="74" customFormat="1" ht="52.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A33" s="59">
-        <v>27</v>
+    <row r="33" spans="1:66" ht="35.450000000000003" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>26</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="59" t="s">
+      <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="24" t="s">
         <v>144</v>
       </c>
       <c r="G33" s="24">
         <v>200</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="62">
-        <v>2016</v>
-      </c>
-      <c r="M33" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" s="60" t="s">
+      <c r="K33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="5">
+        <v>2015</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O33" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>31</v>
+      <c r="O33" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:66" s="74" customFormat="1" ht="52.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A34" s="59">
+        <v>27</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="5">
-        <v>12</v>
-      </c>
-      <c r="E34" s="24" t="s">
+      <c r="C34" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="59" t="s">
         <v>144</v>
       </c>
       <c r="G34" s="24">
         <v>200</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="5">
-        <v>2017</v>
-      </c>
-      <c r="M34" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N34" s="32" t="s">
+      <c r="L34" s="62">
+        <v>2016</v>
+      </c>
+      <c r="M34" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O34" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
-        <v>134</v>
+      <c r="O34" s="60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>31</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="90" t="s">
-        <v>210</v>
+      <c r="C35" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D35" s="5">
         <v>12</v>
@@ -24681,13 +24747,13 @@
         <v>7</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="27">
-        <v>2048</v>
-      </c>
-      <c r="M35" s="90" t="s">
-        <v>210</v>
+        <v>11</v>
+      </c>
+      <c r="L35" s="5">
+        <v>2017</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>13</v>
       </c>
       <c r="N35" s="32" t="s">
         <v>0</v>
@@ -24696,15 +24762,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>32</v>
+    <row r="36" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>134</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>96</v>
+      <c r="C36" s="90" t="s">
+        <v>210</v>
       </c>
       <c r="D36" s="5">
         <v>12</v>
@@ -24728,13 +24794,13 @@
         <v>7</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="5">
-        <v>2018</v>
-      </c>
-      <c r="M36" s="31" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="L36" s="27">
+        <v>2048</v>
+      </c>
+      <c r="M36" s="90" t="s">
+        <v>210</v>
       </c>
       <c r="N36" s="32" t="s">
         <v>0</v>
@@ -24743,18 +24809,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>33</v>
-      </c>
-      <c r="B37" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="24">
-        <v>16</v>
+      <c r="C37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="5">
+        <v>12</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>144</v>
@@ -24771,87 +24837,36 @@
       <c r="I37" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L37" s="25">
-        <v>2020</v>
-      </c>
-      <c r="M37" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="N37" s="38" t="s">
+      <c r="K37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="5">
+        <v>2018</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O37" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="36"/>
-      <c r="AM37" s="36"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="36"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="36"/>
-      <c r="AU37" s="36"/>
-      <c r="AV37" s="36"/>
-      <c r="AW37" s="36"/>
-      <c r="AX37" s="36"/>
-      <c r="AY37" s="36"/>
-      <c r="AZ37" s="36"/>
-      <c r="BA37" s="36"/>
-      <c r="BB37" s="36"/>
-      <c r="BC37" s="36"/>
-      <c r="BD37" s="36"/>
-      <c r="BE37" s="36"/>
-      <c r="BF37" s="36"/>
-      <c r="BG37" s="36"/>
-      <c r="BH37" s="36"/>
-      <c r="BI37" s="36"/>
-      <c r="BJ37" s="36"/>
-      <c r="BK37" s="36"/>
-      <c r="BL37" s="36"/>
-      <c r="BM37" s="36"/>
-      <c r="BN37" s="36"/>
-    </row>
-    <row r="38" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O37" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>35</v>
-      </c>
-      <c r="B38" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="5">
+        <v>119</v>
+      </c>
+      <c r="D38" s="24">
         <v>16</v>
       </c>
       <c r="E38" s="24" t="s">
@@ -24869,37 +24884,88 @@
       <c r="I38" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="5">
-        <v>2023</v>
-      </c>
-      <c r="M38" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="N38" s="32" t="s">
+      <c r="K38" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="25">
+        <v>2020</v>
+      </c>
+      <c r="M38" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="N38" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O38" s="32" t="s">
+      <c r="O38" s="38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:66" s="37" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
+      <c r="AT38" s="36"/>
+      <c r="AU38" s="36"/>
+      <c r="AV38" s="36"/>
+      <c r="AW38" s="36"/>
+      <c r="AX38" s="36"/>
+      <c r="AY38" s="36"/>
+      <c r="AZ38" s="36"/>
+      <c r="BA38" s="36"/>
+      <c r="BB38" s="36"/>
+      <c r="BC38" s="36"/>
+      <c r="BD38" s="36"/>
+      <c r="BE38" s="36"/>
+      <c r="BF38" s="36"/>
+      <c r="BG38" s="36"/>
+      <c r="BH38" s="36"/>
+      <c r="BI38" s="36"/>
+      <c r="BJ38" s="36"/>
+      <c r="BK38" s="36"/>
+      <c r="BL38" s="36"/>
+      <c r="BM38" s="36"/>
+      <c r="BN38" s="36"/>
+    </row>
+    <row r="39" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>36</v>
-      </c>
-      <c r="B39" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="39">
-        <v>53</v>
+      <c r="C39" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="5">
+        <v>16</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>144</v>
@@ -24916,88 +24982,37 @@
       <c r="I39" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J39" s="39" t="s">
+      <c r="J39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="39" t="s">
+      <c r="K39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L39" s="5">
-        <v>2025</v>
-      </c>
-      <c r="M39" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="N39" s="38" t="s">
+        <v>2023</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="N39" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O39" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="36"/>
-      <c r="AX39" s="36"/>
-      <c r="AY39" s="36"/>
-      <c r="AZ39" s="36"/>
-      <c r="BA39" s="36"/>
-      <c r="BB39" s="36"/>
-      <c r="BC39" s="36"/>
-      <c r="BD39" s="36"/>
-      <c r="BE39" s="36"/>
-      <c r="BF39" s="36"/>
-      <c r="BG39" s="36"/>
-      <c r="BH39" s="36"/>
-      <c r="BI39" s="36"/>
-      <c r="BJ39" s="36"/>
-      <c r="BK39" s="36"/>
-      <c r="BL39" s="36"/>
-      <c r="BM39" s="36"/>
-      <c r="BN39" s="36"/>
-    </row>
-    <row r="40" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O39" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:66" s="37" customFormat="1" ht="161.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>37</v>
-      </c>
-      <c r="B40" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="4">
-        <v>21</v>
+      <c r="C40" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="39">
+        <v>53</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>144</v>
@@ -25014,88 +25029,88 @@
       <c r="I40" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="39" t="s">
         <v>32</v>
       </c>
       <c r="L40" s="5">
-        <v>2030</v>
-      </c>
-      <c r="M40" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="N40" s="31" t="s">
+        <v>2025</v>
+      </c>
+      <c r="M40" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O40" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-      <c r="AP40" s="22"/>
-      <c r="AQ40" s="22"/>
-      <c r="AR40" s="22"/>
-      <c r="AS40" s="22"/>
-      <c r="AT40" s="22"/>
-      <c r="AU40" s="22"/>
-      <c r="AV40" s="22"/>
-      <c r="AW40" s="22"/>
-      <c r="AX40" s="22"/>
-      <c r="AY40" s="22"/>
-      <c r="AZ40" s="22"/>
-      <c r="BA40" s="22"/>
-      <c r="BB40" s="22"/>
-      <c r="BC40" s="22"/>
-      <c r="BD40" s="22"/>
-      <c r="BE40" s="22"/>
-      <c r="BF40" s="22"/>
-      <c r="BG40" s="22"/>
-      <c r="BH40" s="22"/>
-      <c r="BI40" s="22"/>
-      <c r="BJ40" s="22"/>
-      <c r="BK40" s="22"/>
-      <c r="BL40" s="22"/>
-      <c r="BM40" s="22"/>
-      <c r="BN40" s="22"/>
-    </row>
-    <row r="41" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O40" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+      <c r="AM40" s="36"/>
+      <c r="AN40" s="36"/>
+      <c r="AO40" s="36"/>
+      <c r="AP40" s="36"/>
+      <c r="AQ40" s="36"/>
+      <c r="AR40" s="36"/>
+      <c r="AS40" s="36"/>
+      <c r="AT40" s="36"/>
+      <c r="AU40" s="36"/>
+      <c r="AV40" s="36"/>
+      <c r="AW40" s="36"/>
+      <c r="AX40" s="36"/>
+      <c r="AY40" s="36"/>
+      <c r="AZ40" s="36"/>
+      <c r="BA40" s="36"/>
+      <c r="BB40" s="36"/>
+      <c r="BC40" s="36"/>
+      <c r="BD40" s="36"/>
+      <c r="BE40" s="36"/>
+      <c r="BF40" s="36"/>
+      <c r="BG40" s="36"/>
+      <c r="BH40" s="36"/>
+      <c r="BI40" s="36"/>
+      <c r="BJ40" s="36"/>
+      <c r="BK40" s="36"/>
+      <c r="BL40" s="36"/>
+      <c r="BM40" s="36"/>
+      <c r="BN40" s="36"/>
+    </row>
+    <row r="41" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>12</v>
+      <c r="C41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="4">
+        <v>21</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>144</v>
@@ -25112,37 +25127,88 @@
       <c r="I41" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>11</v>
+      <c r="K41" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="L41" s="5">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="N41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O41" s="32" t="s">
-        <v>53</v>
-      </c>
+      <c r="O41" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="22"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
+      <c r="AQ41" s="22"/>
+      <c r="AR41" s="22"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="22"/>
+      <c r="AU41" s="22"/>
+      <c r="AV41" s="22"/>
+      <c r="AW41" s="22"/>
+      <c r="AX41" s="22"/>
+      <c r="AY41" s="22"/>
+      <c r="AZ41" s="22"/>
+      <c r="BA41" s="22"/>
+      <c r="BB41" s="22"/>
+      <c r="BC41" s="22"/>
+      <c r="BD41" s="22"/>
+      <c r="BE41" s="22"/>
+      <c r="BF41" s="22"/>
+      <c r="BG41" s="22"/>
+      <c r="BH41" s="22"/>
+      <c r="BI41" s="22"/>
+      <c r="BJ41" s="22"/>
+      <c r="BK41" s="22"/>
+      <c r="BL41" s="22"/>
+      <c r="BM41" s="22"/>
+      <c r="BN41" s="22"/>
     </row>
     <row r="42" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="5">
-        <v>20</v>
+      <c r="C42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>144</v>
@@ -25163,33 +25229,33 @@
         <v>7</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L42" s="5">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="N42" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>172</v>
+      <c r="C43" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="D43" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>144</v>
@@ -25213,30 +25279,30 @@
         <v>32</v>
       </c>
       <c r="L43" s="5">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="N43" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D44" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>144</v>
@@ -25260,30 +25326,30 @@
         <v>32</v>
       </c>
       <c r="L44" s="5">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="N44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="24">
-        <v>17</v>
+      <c r="C45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="5">
+        <v>23</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>144</v>
@@ -25300,42 +25366,42 @@
       <c r="I45" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="24" t="s">
-        <v>34</v>
+      <c r="K45" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="L45" s="5">
-        <v>2019</v>
-      </c>
-      <c r="M45" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="N45" s="33" t="s">
+        <v>2032</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="N45" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O45" s="33" t="s">
-        <v>56</v>
+      <c r="O45" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A46" s="59">
-        <v>43</v>
+      <c r="A46" s="5">
+        <v>42</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="59">
+      <c r="C46" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="24">
         <v>17</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="24" t="s">
         <v>144</v>
       </c>
       <c r="G46" s="24">
@@ -25347,42 +25413,42 @@
       <c r="I46" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J46" s="59" t="s">
+      <c r="J46" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="59">
-        <v>1002</v>
-      </c>
-      <c r="M46" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="N46" s="60" t="s">
+      <c r="K46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="5">
+        <v>2019</v>
+      </c>
+      <c r="M46" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="O46" s="60" t="s">
+      <c r="O46" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>44</v>
-      </c>
-      <c r="B47" s="40" t="s">
+    <row r="47" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A47" s="59">
+        <v>43</v>
+      </c>
+      <c r="B47" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="43">
-        <v>30</v>
-      </c>
-      <c r="E47" s="24" t="s">
+      <c r="C47" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="59">
+        <v>17</v>
+      </c>
+      <c r="E47" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="59" t="s">
         <v>144</v>
       </c>
       <c r="G47" s="24">
@@ -25394,88 +25460,37 @@
       <c r="I47" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J47" s="43" t="s">
+      <c r="J47" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="5">
-        <v>2043</v>
-      </c>
-      <c r="M47" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="N47" s="40" t="s">
+      <c r="K47" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="59">
+        <v>1002</v>
+      </c>
+      <c r="M47" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="N47" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O47" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="36"/>
-      <c r="AJ47" s="36"/>
-      <c r="AK47" s="36"/>
-      <c r="AL47" s="36"/>
-      <c r="AM47" s="36"/>
-      <c r="AN47" s="36"/>
-      <c r="AO47" s="36"/>
-      <c r="AP47" s="36"/>
-      <c r="AQ47" s="36"/>
-      <c r="AR47" s="36"/>
-      <c r="AS47" s="36"/>
-      <c r="AT47" s="36"/>
-      <c r="AU47" s="36"/>
-      <c r="AV47" s="36"/>
-      <c r="AW47" s="36"/>
-      <c r="AX47" s="36"/>
-      <c r="AY47" s="36"/>
-      <c r="AZ47" s="36"/>
-      <c r="BA47" s="36"/>
-      <c r="BB47" s="36"/>
-      <c r="BC47" s="36"/>
-      <c r="BD47" s="36"/>
-      <c r="BE47" s="36"/>
-      <c r="BF47" s="36"/>
-      <c r="BG47" s="36"/>
-      <c r="BH47" s="36"/>
-      <c r="BI47" s="36"/>
-      <c r="BJ47" s="36"/>
-      <c r="BK47" s="36"/>
-      <c r="BL47" s="36"/>
-      <c r="BM47" s="36"/>
-      <c r="BN47" s="36"/>
-    </row>
-    <row r="48" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="O47" s="60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:66" s="37" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>45</v>
-      </c>
-      <c r="B48" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="5">
-        <v>31</v>
+      <c r="C48" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="43">
+        <v>30</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>144</v>
@@ -25492,34 +25507,85 @@
       <c r="I48" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="L48" s="8">
-        <v>2033</v>
-      </c>
-      <c r="M48" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="N48" s="32" t="s">
+      <c r="L48" s="5">
+        <v>2043</v>
+      </c>
+      <c r="M48" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="N48" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O48" s="32" t="s">
-        <v>108</v>
-      </c>
+      <c r="O48" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="36"/>
+      <c r="AJ48" s="36"/>
+      <c r="AK48" s="36"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="36"/>
+      <c r="AN48" s="36"/>
+      <c r="AO48" s="36"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="36"/>
+      <c r="AR48" s="36"/>
+      <c r="AS48" s="36"/>
+      <c r="AT48" s="36"/>
+      <c r="AU48" s="36"/>
+      <c r="AV48" s="36"/>
+      <c r="AW48" s="36"/>
+      <c r="AX48" s="36"/>
+      <c r="AY48" s="36"/>
+      <c r="AZ48" s="36"/>
+      <c r="BA48" s="36"/>
+      <c r="BB48" s="36"/>
+      <c r="BC48" s="36"/>
+      <c r="BD48" s="36"/>
+      <c r="BE48" s="36"/>
+      <c r="BF48" s="36"/>
+      <c r="BG48" s="36"/>
+      <c r="BH48" s="36"/>
+      <c r="BI48" s="36"/>
+      <c r="BJ48" s="36"/>
+      <c r="BK48" s="36"/>
+      <c r="BL48" s="36"/>
+      <c r="BM48" s="36"/>
+      <c r="BN48" s="36"/>
     </row>
     <row r="49" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D49" s="5">
         <v>31</v>
@@ -25543,33 +25609,33 @@
         <v>7</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L49" s="8">
-        <v>2037</v>
-      </c>
-      <c r="M49" s="31" t="s">
-        <v>22</v>
+        <v>2033</v>
+      </c>
+      <c r="M49" s="33" t="s">
+        <v>112</v>
       </c>
       <c r="N49" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O49" s="38" t="s">
-        <v>124</v>
+      <c r="O49" s="32" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="D50" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>144</v>
@@ -25593,30 +25659,30 @@
         <v>11</v>
       </c>
       <c r="L50" s="8">
-        <v>2036</v>
-      </c>
-      <c r="M50" s="33" t="s">
-        <v>165</v>
+        <v>2037</v>
+      </c>
+      <c r="M50" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="N50" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O50" s="32" t="s">
-        <v>58</v>
+      <c r="O50" s="38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>111</v>
+      <c r="C51" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="D51" s="5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>144</v>
@@ -25637,178 +25703,127 @@
         <v>7</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L51" s="8">
-        <v>2038</v>
-      </c>
-      <c r="M51" s="31" t="s">
-        <v>110</v>
+        <v>2036</v>
+      </c>
+      <c r="M51" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="N51" s="32" t="s">
         <v>0</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:66" s="74" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A52" s="59">
-        <v>49</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>48</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="59">
-        <v>39</v>
-      </c>
-      <c r="E52" s="59" t="s">
+      <c r="C52" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="5">
+        <v>35</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="59" t="s">
+      <c r="F52" s="24" t="s">
         <v>144</v>
       </c>
       <c r="G52" s="24">
         <v>200</v>
       </c>
-      <c r="H52" s="75" t="s">
+      <c r="H52" s="24" t="s">
         <v>221</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J52" s="59" t="s">
+      <c r="J52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="62">
-        <v>2039</v>
-      </c>
-      <c r="M52" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="N52" s="60" t="s">
+      <c r="K52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="8">
+        <v>2038</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="N52" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O52" s="60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>50</v>
+      <c r="O52" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:66" s="74" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A53" s="59">
+        <v>49</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="4">
-        <v>19</v>
-      </c>
-      <c r="E53" s="24" t="s">
+      <c r="C53" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="59">
+        <v>39</v>
+      </c>
+      <c r="E53" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="59" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="24">
         <v>200</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="75" t="s">
         <v>221</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L53" s="10">
-        <v>2044</v>
-      </c>
-      <c r="M53" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="N53" s="31" t="s">
+      <c r="J53" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="62">
+        <v>2039</v>
+      </c>
+      <c r="M53" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="N53" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="O53" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="22"/>
-      <c r="AH53" s="22"/>
-      <c r="AI53" s="22"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="22"/>
-      <c r="AL53" s="22"/>
-      <c r="AM53" s="22"/>
-      <c r="AN53" s="22"/>
-      <c r="AO53" s="22"/>
-      <c r="AP53" s="22"/>
-      <c r="AQ53" s="22"/>
-      <c r="AR53" s="22"/>
-      <c r="AS53" s="22"/>
-      <c r="AT53" s="22"/>
-      <c r="AU53" s="22"/>
-      <c r="AV53" s="22"/>
-      <c r="AW53" s="22"/>
-      <c r="AX53" s="22"/>
-      <c r="AY53" s="22"/>
-      <c r="AZ53" s="22"/>
-      <c r="BA53" s="22"/>
-      <c r="BB53" s="22"/>
-      <c r="BC53" s="22"/>
-      <c r="BD53" s="22"/>
-      <c r="BE53" s="22"/>
-      <c r="BF53" s="22"/>
-      <c r="BG53" s="22"/>
-      <c r="BH53" s="22"/>
-      <c r="BI53" s="22"/>
-      <c r="BJ53" s="22"/>
-      <c r="BK53" s="22"/>
-      <c r="BL53" s="22"/>
-      <c r="BM53" s="22"/>
-      <c r="BN53" s="22"/>
+      <c r="O53" s="60" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="54" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="91" t="s">
-        <v>242</v>
+      <c r="C54" s="48" t="s">
+        <v>148</v>
       </c>
       <c r="D54" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>144</v>
@@ -25832,16 +25847,16 @@
         <v>34</v>
       </c>
       <c r="L54" s="10">
-        <v>2045</v>
-      </c>
-      <c r="M54" s="92" t="s">
-        <v>242</v>
+        <v>2044</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="N54" s="31" t="s">
         <v>0</v>
       </c>
       <c r="O54" s="31" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
@@ -25897,24 +25912,24 @@
     </row>
     <row r="55" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>122</v>
-      </c>
-      <c r="B55" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="D55" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="55" t="s">
+      <c r="C55" s="91" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="4">
+        <v>8</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="55">
+      <c r="G55" s="24">
         <v>200</v>
       </c>
       <c r="H55" s="24" t="s">
@@ -25923,23 +25938,23 @@
       <c r="I55" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J55" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="54">
-        <v>2047</v>
-      </c>
-      <c r="M55" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="N55" s="53" t="s">
+      <c r="J55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="10">
+        <v>2045</v>
+      </c>
+      <c r="M55" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="N55" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O55" s="64" t="s">
-        <v>0</v>
+      <c r="O55" s="31" t="s">
+        <v>1</v>
       </c>
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
@@ -25993,94 +26008,122 @@
       <c r="BM55" s="22"/>
       <c r="BN55" s="22"/>
     </row>
-    <row r="56" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="99" t="s">
+    <row r="56" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>122</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="55">
+        <v>200</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J56" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="54">
+        <v>2047</v>
+      </c>
+      <c r="M56" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="N56" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="22"/>
+      <c r="AQ56" s="22"/>
+      <c r="AR56" s="22"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="22"/>
+      <c r="AV56" s="22"/>
+      <c r="AW56" s="22"/>
+      <c r="AX56" s="22"/>
+      <c r="AY56" s="22"/>
+      <c r="AZ56" s="22"/>
+      <c r="BA56" s="22"/>
+      <c r="BB56" s="22"/>
+      <c r="BC56" s="22"/>
+      <c r="BD56" s="22"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="22"/>
+      <c r="BG56" s="22"/>
+      <c r="BH56" s="22"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="22"/>
+      <c r="BK56" s="22"/>
+      <c r="BL56" s="22"/>
+      <c r="BM56" s="22"/>
+      <c r="BN56" s="22"/>
+    </row>
+    <row r="57" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="99"/>
-      <c r="M56" s="99"/>
-      <c r="N56" s="99"/>
-      <c r="O56" s="99"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="21"/>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21"/>
-      <c r="AL56" s="21"/>
-      <c r="AM56" s="21"/>
-      <c r="AN56" s="21"/>
-      <c r="AO56" s="21"/>
-      <c r="AP56" s="21"/>
-      <c r="AQ56" s="21"/>
-      <c r="AR56" s="21"/>
-      <c r="AS56" s="21"/>
-      <c r="AT56" s="21"/>
-      <c r="AU56" s="21"/>
-      <c r="AV56" s="21"/>
-      <c r="AW56" s="21"/>
-      <c r="AX56" s="21"/>
-      <c r="AY56" s="21"/>
-      <c r="AZ56" s="21"/>
-      <c r="BA56" s="21"/>
-      <c r="BB56" s="21"/>
-      <c r="BC56" s="21"/>
-      <c r="BD56" s="21"/>
-      <c r="BE56" s="21"/>
-      <c r="BF56" s="21"/>
-      <c r="BG56" s="21"/>
-      <c r="BH56" s="21"/>
-      <c r="BI56" s="21"/>
-      <c r="BJ56" s="21"/>
-      <c r="BK56" s="21"/>
-      <c r="BL56" s="21"/>
-      <c r="BM56" s="21"/>
-      <c r="BN56" s="21"/>
-    </row>
-    <row r="57" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="100"/>
-      <c r="M57" s="100"/>
-      <c r="N57" s="100"/>
-      <c r="O57" s="100"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="99"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
@@ -26133,52 +26176,24 @@
       <c r="BM57" s="21"/>
       <c r="BN57" s="21"/>
     </row>
-    <row r="58" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="94">
-        <v>148</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="D58" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="F58" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="94">
-        <v>403</v>
-      </c>
-      <c r="H58" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I58" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J58" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="L58" s="94">
-        <v>1111</v>
-      </c>
-      <c r="M58" s="95" t="s">
-        <v>258</v>
-      </c>
-      <c r="N58" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O58" s="31" t="s">
-        <v>61</v>
-      </c>
+    <row r="58" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="100"/>
+      <c r="N58" s="100"/>
+      <c r="O58" s="100"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
@@ -26231,15 +26246,15 @@
       <c r="BM58" s="21"/>
       <c r="BN58" s="21"/>
     </row>
-    <row r="59" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C59" s="95" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D59" s="94" t="s">
         <v>12</v>
@@ -26266,16 +26281,16 @@
         <v>34</v>
       </c>
       <c r="L59" s="94">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M59" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="N59" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="O59" s="95" t="s">
-        <v>12</v>
+        <v>258</v>
+      </c>
+      <c r="N59" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O59" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="P59" s="21"/>
       <c r="Q59" s="21"/>
@@ -26329,50 +26344,50 @@
       <c r="BM59" s="21"/>
       <c r="BN59" s="21"/>
     </row>
-    <row r="60" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>52</v>
+    <row r="60" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="94">
+        <v>146</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="C60" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G60" s="24">
-        <v>401</v>
-      </c>
-      <c r="H60" s="59" t="s">
+      <c r="G60" s="94">
+        <v>403</v>
+      </c>
+      <c r="H60" s="94" t="s">
         <v>220</v>
       </c>
       <c r="I60" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="J60" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L60" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M60" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N60" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O60" s="50" t="s">
+      <c r="L60" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M60" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N60" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="O60" s="95" t="s">
         <v>12</v>
       </c>
       <c r="P60" s="21"/>
@@ -26427,15 +26442,15 @@
       <c r="BM60" s="21"/>
       <c r="BN60" s="21"/>
     </row>
-    <row r="61" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>151</v>
+      <c r="C61" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>12</v>
@@ -26462,15 +26477,15 @@
         <v>34</v>
       </c>
       <c r="L61" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N61" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O61" s="48" t="s">
+      <c r="O61" s="50" t="s">
         <v>12</v>
       </c>
       <c r="P61" s="21"/>
@@ -26525,15 +26540,15 @@
       <c r="BM61" s="21"/>
       <c r="BN61" s="21"/>
     </row>
-    <row r="62" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>12</v>
@@ -26545,7 +26560,7 @@
         <v>144</v>
       </c>
       <c r="G62" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H62" s="59" t="s">
         <v>220</v>
@@ -26553,85 +26568,85 @@
       <c r="I62" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J62" s="24" t="s">
+      <c r="J62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K62" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="24">
-        <v>1003</v>
-      </c>
-      <c r="M62" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N62" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O62" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="22"/>
-      <c r="AB62" s="22"/>
-      <c r="AC62" s="22"/>
-      <c r="AD62" s="22"/>
-      <c r="AE62" s="22"/>
-      <c r="AF62" s="22"/>
-      <c r="AG62" s="22"/>
-      <c r="AH62" s="22"/>
-      <c r="AI62" s="22"/>
-      <c r="AJ62" s="22"/>
-      <c r="AK62" s="22"/>
-      <c r="AL62" s="22"/>
-      <c r="AM62" s="22"/>
-      <c r="AN62" s="22"/>
-      <c r="AO62" s="22"/>
-      <c r="AP62" s="22"/>
-      <c r="AQ62" s="22"/>
-      <c r="AR62" s="22"/>
-      <c r="AS62" s="22"/>
-      <c r="AT62" s="22"/>
-      <c r="AU62" s="22"/>
-      <c r="AV62" s="22"/>
-      <c r="AW62" s="22"/>
-      <c r="AX62" s="22"/>
-      <c r="AY62" s="22"/>
-      <c r="AZ62" s="22"/>
-      <c r="BA62" s="22"/>
-      <c r="BB62" s="22"/>
-      <c r="BC62" s="22"/>
-      <c r="BD62" s="22"/>
-      <c r="BE62" s="22"/>
-      <c r="BF62" s="22"/>
-      <c r="BG62" s="22"/>
-      <c r="BH62" s="22"/>
-      <c r="BI62" s="22"/>
-      <c r="BJ62" s="22"/>
-      <c r="BK62" s="22"/>
-      <c r="BL62" s="22"/>
-      <c r="BM62" s="22"/>
-      <c r="BN62" s="22"/>
-    </row>
-    <row r="63" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M62" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N62" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O62" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="21"/>
+      <c r="AC62" s="21"/>
+      <c r="AD62" s="21"/>
+      <c r="AE62" s="21"/>
+      <c r="AF62" s="21"/>
+      <c r="AG62" s="21"/>
+      <c r="AH62" s="21"/>
+      <c r="AI62" s="21"/>
+      <c r="AJ62" s="21"/>
+      <c r="AK62" s="21"/>
+      <c r="AL62" s="21"/>
+      <c r="AM62" s="21"/>
+      <c r="AN62" s="21"/>
+      <c r="AO62" s="21"/>
+      <c r="AP62" s="21"/>
+      <c r="AQ62" s="21"/>
+      <c r="AR62" s="21"/>
+      <c r="AS62" s="21"/>
+      <c r="AT62" s="21"/>
+      <c r="AU62" s="21"/>
+      <c r="AV62" s="21"/>
+      <c r="AW62" s="21"/>
+      <c r="AX62" s="21"/>
+      <c r="AY62" s="21"/>
+      <c r="AZ62" s="21"/>
+      <c r="BA62" s="21"/>
+      <c r="BB62" s="21"/>
+      <c r="BC62" s="21"/>
+      <c r="BD62" s="21"/>
+      <c r="BE62" s="21"/>
+      <c r="BF62" s="21"/>
+      <c r="BG62" s="21"/>
+      <c r="BH62" s="21"/>
+      <c r="BI62" s="21"/>
+      <c r="BJ62" s="21"/>
+      <c r="BK62" s="21"/>
+      <c r="BL62" s="21"/>
+      <c r="BM62" s="21"/>
+      <c r="BN62" s="21"/>
+    </row>
+    <row r="63" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>12</v>
@@ -26655,13 +26670,13 @@
         <v>7</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L63" s="24">
+        <v>1003</v>
       </c>
       <c r="M63" s="33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N63" s="31" t="s">
         <v>62</v>
@@ -26721,26 +26736,26 @@
       <c r="BM63" s="22"/>
       <c r="BN63" s="22"/>
     </row>
-    <row r="64" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D64" s="54" t="s">
+      <c r="C64" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="54" t="s">
+      <c r="E64" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="F64" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G64" s="55">
+      <c r="G64" s="24">
         <v>400</v>
       </c>
       <c r="H64" s="59" t="s">
@@ -26749,46 +26764,97 @@
       <c r="I64" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J64" s="54" t="s">
+      <c r="J64" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K64" s="55" t="s">
+      <c r="K64" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M64" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="N64" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="O64" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L64" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M64" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O64" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="22"/>
+      <c r="AD64" s="22"/>
+      <c r="AE64" s="22"/>
+      <c r="AF64" s="22"/>
+      <c r="AG64" s="22"/>
+      <c r="AH64" s="22"/>
+      <c r="AI64" s="22"/>
+      <c r="AJ64" s="22"/>
+      <c r="AK64" s="22"/>
+      <c r="AL64" s="22"/>
+      <c r="AM64" s="22"/>
+      <c r="AN64" s="22"/>
+      <c r="AO64" s="22"/>
+      <c r="AP64" s="22"/>
+      <c r="AQ64" s="22"/>
+      <c r="AR64" s="22"/>
+      <c r="AS64" s="22"/>
+      <c r="AT64" s="22"/>
+      <c r="AU64" s="22"/>
+      <c r="AV64" s="22"/>
+      <c r="AW64" s="22"/>
+      <c r="AX64" s="22"/>
+      <c r="AY64" s="22"/>
+      <c r="AZ64" s="22"/>
+      <c r="BA64" s="22"/>
+      <c r="BB64" s="22"/>
+      <c r="BC64" s="22"/>
+      <c r="BD64" s="22"/>
+      <c r="BE64" s="22"/>
+      <c r="BF64" s="22"/>
+      <c r="BG64" s="22"/>
+      <c r="BH64" s="22"/>
+      <c r="BI64" s="22"/>
+      <c r="BJ64" s="22"/>
+      <c r="BK64" s="22"/>
+      <c r="BL64" s="22"/>
+      <c r="BM64" s="22"/>
+      <c r="BN64" s="22"/>
+    </row>
+    <row r="65" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G65" s="24">
-        <v>403</v>
+      <c r="G65" s="55">
+        <v>400</v>
       </c>
       <c r="H65" s="59" t="s">
         <v>220</v>
@@ -26796,85 +26862,34 @@
       <c r="I65" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="J65" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="24" t="s">
+      <c r="K65" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L65" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M65" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O65" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="22"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="22"/>
-      <c r="AB65" s="22"/>
-      <c r="AC65" s="22"/>
-      <c r="AD65" s="22"/>
-      <c r="AE65" s="22"/>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="22"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="22"/>
-      <c r="AJ65" s="22"/>
-      <c r="AK65" s="22"/>
-      <c r="AL65" s="22"/>
-      <c r="AM65" s="22"/>
-      <c r="AN65" s="22"/>
-      <c r="AO65" s="22"/>
-      <c r="AP65" s="22"/>
-      <c r="AQ65" s="22"/>
-      <c r="AR65" s="22"/>
-      <c r="AS65" s="22"/>
-      <c r="AT65" s="22"/>
-      <c r="AU65" s="22"/>
-      <c r="AV65" s="22"/>
-      <c r="AW65" s="22"/>
-      <c r="AX65" s="22"/>
-      <c r="AY65" s="22"/>
-      <c r="AZ65" s="22"/>
-      <c r="BA65" s="22"/>
-      <c r="BB65" s="22"/>
-      <c r="BC65" s="22"/>
-      <c r="BD65" s="22"/>
-      <c r="BE65" s="22"/>
-      <c r="BF65" s="22"/>
-      <c r="BG65" s="22"/>
-      <c r="BH65" s="22"/>
-      <c r="BI65" s="22"/>
-      <c r="BJ65" s="22"/>
-      <c r="BK65" s="22"/>
-      <c r="BL65" s="22"/>
-      <c r="BM65" s="22"/>
-      <c r="BN65" s="22"/>
+      <c r="L65" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M65" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N65" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="O65" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
@@ -26898,13 +26913,13 @@
         <v>7</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L66" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M66" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N66" s="31" t="s">
         <v>62</v>
@@ -26966,13 +26981,13 @@
     </row>
     <row r="67" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>12</v>
@@ -26999,10 +27014,10 @@
         <v>32</v>
       </c>
       <c r="L67" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M67" s="33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N67" s="31" t="s">
         <v>62</v>
@@ -27064,15 +27079,15 @@
     </row>
     <row r="68" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D68" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -27094,19 +27109,19 @@
         <v>7</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L68" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L68" s="25">
+        <v>1008</v>
       </c>
       <c r="M68" s="33" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="N68" s="31" t="s">
         <v>62</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P68" s="22"/>
       <c r="Q68" s="22"/>
@@ -27162,15 +27177,15 @@
     </row>
     <row r="69" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D69" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -27180,7 +27195,7 @@
         <v>144</v>
       </c>
       <c r="G69" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H69" s="59" t="s">
         <v>220</v>
@@ -27188,23 +27203,23 @@
       <c r="I69" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L69" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M69" s="31" t="s">
-        <v>42</v>
+      <c r="L69" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M69" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="N69" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O69" s="31" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
@@ -27258,94 +27273,122 @@
       <c r="BM69" s="22"/>
       <c r="BN69" s="22"/>
     </row>
-    <row r="70" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="99" t="s">
+    <row r="70" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>61</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G70" s="24">
+        <v>404</v>
+      </c>
+      <c r="H70" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L70" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M70" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="O70" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="22"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="22"/>
+      <c r="AC70" s="22"/>
+      <c r="AD70" s="22"/>
+      <c r="AE70" s="22"/>
+      <c r="AF70" s="22"/>
+      <c r="AG70" s="22"/>
+      <c r="AH70" s="22"/>
+      <c r="AI70" s="22"/>
+      <c r="AJ70" s="22"/>
+      <c r="AK70" s="22"/>
+      <c r="AL70" s="22"/>
+      <c r="AM70" s="22"/>
+      <c r="AN70" s="22"/>
+      <c r="AO70" s="22"/>
+      <c r="AP70" s="22"/>
+      <c r="AQ70" s="22"/>
+      <c r="AR70" s="22"/>
+      <c r="AS70" s="22"/>
+      <c r="AT70" s="22"/>
+      <c r="AU70" s="22"/>
+      <c r="AV70" s="22"/>
+      <c r="AW70" s="22"/>
+      <c r="AX70" s="22"/>
+      <c r="AY70" s="22"/>
+      <c r="AZ70" s="22"/>
+      <c r="BA70" s="22"/>
+      <c r="BB70" s="22"/>
+      <c r="BC70" s="22"/>
+      <c r="BD70" s="22"/>
+      <c r="BE70" s="22"/>
+      <c r="BF70" s="22"/>
+      <c r="BG70" s="22"/>
+      <c r="BH70" s="22"/>
+      <c r="BI70" s="22"/>
+      <c r="BJ70" s="22"/>
+      <c r="BK70" s="22"/>
+      <c r="BL70" s="22"/>
+      <c r="BM70" s="22"/>
+      <c r="BN70" s="22"/>
+    </row>
+    <row r="71" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="99"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="99"/>
-      <c r="L70" s="99"/>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="99"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
-      <c r="U70" s="21"/>
-      <c r="V70" s="21"/>
-      <c r="W70" s="21"/>
-      <c r="X70" s="21"/>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="21"/>
-      <c r="AA70" s="21"/>
-      <c r="AB70" s="21"/>
-      <c r="AC70" s="21"/>
-      <c r="AD70" s="21"/>
-      <c r="AE70" s="21"/>
-      <c r="AF70" s="21"/>
-      <c r="AG70" s="21"/>
-      <c r="AH70" s="21"/>
-      <c r="AI70" s="21"/>
-      <c r="AJ70" s="21"/>
-      <c r="AK70" s="21"/>
-      <c r="AL70" s="21"/>
-      <c r="AM70" s="21"/>
-      <c r="AN70" s="21"/>
-      <c r="AO70" s="21"/>
-      <c r="AP70" s="21"/>
-      <c r="AQ70" s="21"/>
-      <c r="AR70" s="21"/>
-      <c r="AS70" s="21"/>
-      <c r="AT70" s="21"/>
-      <c r="AU70" s="21"/>
-      <c r="AV70" s="21"/>
-      <c r="AW70" s="21"/>
-      <c r="AX70" s="21"/>
-      <c r="AY70" s="21"/>
-      <c r="AZ70" s="21"/>
-      <c r="BA70" s="21"/>
-      <c r="BB70" s="21"/>
-      <c r="BC70" s="21"/>
-      <c r="BD70" s="21"/>
-      <c r="BE70" s="21"/>
-      <c r="BF70" s="21"/>
-      <c r="BG70" s="21"/>
-      <c r="BH70" s="21"/>
-      <c r="BI70" s="21"/>
-      <c r="BJ70" s="21"/>
-      <c r="BK70" s="21"/>
-      <c r="BL70" s="21"/>
-      <c r="BM70" s="21"/>
-      <c r="BN70" s="21"/>
-    </row>
-    <row r="71" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="100"/>
-      <c r="F71" s="100"/>
-      <c r="G71" s="100"/>
-      <c r="H71" s="100"/>
-      <c r="I71" s="100"/>
-      <c r="J71" s="100"/>
-      <c r="K71" s="100"/>
-      <c r="L71" s="100"/>
-      <c r="M71" s="100"/>
-      <c r="N71" s="100"/>
-      <c r="O71" s="100"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="99"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="99"/>
+      <c r="N71" s="99"/>
+      <c r="O71" s="99"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
@@ -27398,52 +27441,24 @@
       <c r="BM71" s="21"/>
       <c r="BN71" s="21"/>
     </row>
-    <row r="72" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="94">
-        <v>148</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="D72" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="F72" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="G72" s="94">
-        <v>403</v>
-      </c>
-      <c r="H72" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I72" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J72" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K72" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="L72" s="94">
-        <v>1111</v>
-      </c>
-      <c r="M72" s="95" t="s">
-        <v>258</v>
-      </c>
-      <c r="N72" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O72" s="31" t="s">
-        <v>61</v>
-      </c>
+    <row r="72" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="100"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="100"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="100"/>
+      <c r="I72" s="100"/>
+      <c r="J72" s="100"/>
+      <c r="K72" s="100"/>
+      <c r="L72" s="100"/>
+      <c r="M72" s="100"/>
+      <c r="N72" s="100"/>
+      <c r="O72" s="100"/>
       <c r="P72" s="21"/>
       <c r="Q72" s="21"/>
       <c r="R72" s="21"/>
@@ -27496,15 +27511,15 @@
       <c r="BM72" s="21"/>
       <c r="BN72" s="21"/>
     </row>
-    <row r="73" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C73" s="95" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D73" s="94" t="s">
         <v>12</v>
@@ -27531,16 +27546,16 @@
         <v>34</v>
       </c>
       <c r="L73" s="94">
-        <v>1016</v>
+        <v>1111</v>
       </c>
       <c r="M73" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="N73" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="O73" s="95" t="s">
-        <v>12</v>
+        <v>258</v>
+      </c>
+      <c r="N73" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O73" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="P73" s="21"/>
       <c r="Q73" s="21"/>
@@ -27594,50 +27609,50 @@
       <c r="BM73" s="21"/>
       <c r="BN73" s="21"/>
     </row>
-    <row r="74" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>62</v>
+    <row r="74" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="94">
+        <v>146</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="C74" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D74" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G74" s="24">
-        <v>401</v>
-      </c>
-      <c r="H74" s="59" t="s">
+      <c r="G74" s="94">
+        <v>403</v>
+      </c>
+      <c r="H74" s="94" t="s">
         <v>220</v>
       </c>
       <c r="I74" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K74" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L74" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M74" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N74" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O74" s="50" t="s">
+      <c r="L74" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M74" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N74" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="O74" s="95" t="s">
         <v>12</v>
       </c>
       <c r="P74" s="21"/>
@@ -27692,15 +27707,15 @@
       <c r="BM74" s="21"/>
       <c r="BN74" s="21"/>
     </row>
-    <row r="75" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>12</v>
@@ -27727,15 +27742,15 @@
         <v>34</v>
       </c>
       <c r="L75" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N75" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O75" s="48" t="s">
+      <c r="O75" s="50" t="s">
         <v>12</v>
       </c>
       <c r="P75" s="21"/>
@@ -27790,15 +27805,15 @@
       <c r="BM75" s="21"/>
       <c r="BN75" s="21"/>
     </row>
-    <row r="76" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="26" t="s">
-        <v>88</v>
+      <c r="C76" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>12</v>
@@ -27810,7 +27825,7 @@
         <v>144</v>
       </c>
       <c r="G76" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H76" s="59" t="s">
         <v>220</v>
@@ -27818,85 +27833,85 @@
       <c r="I76" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J76" s="25" t="s">
+      <c r="J76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="25">
-        <v>1003</v>
-      </c>
-      <c r="M76" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="N76" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="22"/>
-      <c r="U76" s="22"/>
-      <c r="V76" s="22"/>
-      <c r="W76" s="22"/>
-      <c r="X76" s="22"/>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="22"/>
-      <c r="AB76" s="22"/>
-      <c r="AC76" s="22"/>
-      <c r="AD76" s="22"/>
-      <c r="AE76" s="22"/>
-      <c r="AF76" s="22"/>
-      <c r="AG76" s="22"/>
-      <c r="AH76" s="22"/>
-      <c r="AI76" s="22"/>
-      <c r="AJ76" s="22"/>
-      <c r="AK76" s="22"/>
-      <c r="AL76" s="22"/>
-      <c r="AM76" s="22"/>
-      <c r="AN76" s="22"/>
-      <c r="AO76" s="22"/>
-      <c r="AP76" s="22"/>
-      <c r="AQ76" s="22"/>
-      <c r="AR76" s="22"/>
-      <c r="AS76" s="22"/>
-      <c r="AT76" s="22"/>
-      <c r="AU76" s="22"/>
-      <c r="AV76" s="22"/>
-      <c r="AW76" s="22"/>
-      <c r="AX76" s="22"/>
-      <c r="AY76" s="22"/>
-      <c r="AZ76" s="22"/>
-      <c r="BA76" s="22"/>
-      <c r="BB76" s="22"/>
-      <c r="BC76" s="22"/>
-      <c r="BD76" s="22"/>
-      <c r="BE76" s="22"/>
-      <c r="BF76" s="22"/>
-      <c r="BG76" s="22"/>
-      <c r="BH76" s="22"/>
-      <c r="BI76" s="22"/>
-      <c r="BJ76" s="22"/>
-      <c r="BK76" s="22"/>
-      <c r="BL76" s="22"/>
-      <c r="BM76" s="22"/>
-      <c r="BN76" s="22"/>
-    </row>
-    <row r="77" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M76" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N76" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O76" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="21"/>
+      <c r="X76" s="21"/>
+      <c r="Y76" s="21"/>
+      <c r="Z76" s="21"/>
+      <c r="AA76" s="21"/>
+      <c r="AB76" s="21"/>
+      <c r="AC76" s="21"/>
+      <c r="AD76" s="21"/>
+      <c r="AE76" s="21"/>
+      <c r="AF76" s="21"/>
+      <c r="AG76" s="21"/>
+      <c r="AH76" s="21"/>
+      <c r="AI76" s="21"/>
+      <c r="AJ76" s="21"/>
+      <c r="AK76" s="21"/>
+      <c r="AL76" s="21"/>
+      <c r="AM76" s="21"/>
+      <c r="AN76" s="21"/>
+      <c r="AO76" s="21"/>
+      <c r="AP76" s="21"/>
+      <c r="AQ76" s="21"/>
+      <c r="AR76" s="21"/>
+      <c r="AS76" s="21"/>
+      <c r="AT76" s="21"/>
+      <c r="AU76" s="21"/>
+      <c r="AV76" s="21"/>
+      <c r="AW76" s="21"/>
+      <c r="AX76" s="21"/>
+      <c r="AY76" s="21"/>
+      <c r="AZ76" s="21"/>
+      <c r="BA76" s="21"/>
+      <c r="BB76" s="21"/>
+      <c r="BC76" s="21"/>
+      <c r="BD76" s="21"/>
+      <c r="BE76" s="21"/>
+      <c r="BF76" s="21"/>
+      <c r="BG76" s="21"/>
+      <c r="BH76" s="21"/>
+      <c r="BI76" s="21"/>
+      <c r="BJ76" s="21"/>
+      <c r="BK76" s="21"/>
+      <c r="BL76" s="21"/>
+      <c r="BM76" s="21"/>
+      <c r="BN76" s="21"/>
+    </row>
+    <row r="77" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>89</v>
+      <c r="C77" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>12</v>
@@ -27916,22 +27931,22 @@
       <c r="I77" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J77" s="24" t="s">
+      <c r="J77" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L77" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M77" s="31" t="s">
-        <v>25</v>
+        <v>1003</v>
+      </c>
+      <c r="M77" s="48" t="s">
+        <v>14</v>
       </c>
       <c r="N77" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O77" s="31" t="s">
+      <c r="O77" s="4" t="s">
         <v>45</v>
       </c>
       <c r="P77" s="22"/>
@@ -27986,26 +28001,26 @@
       <c r="BM77" s="22"/>
       <c r="BN77" s="22"/>
     </row>
-    <row r="78" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D78" s="54" t="s">
+      <c r="C78" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="54" t="s">
+      <c r="E78" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F78" s="54" t="s">
+      <c r="F78" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G78" s="55">
+      <c r="G78" s="24">
         <v>400</v>
       </c>
       <c r="H78" s="59" t="s">
@@ -28014,46 +28029,97 @@
       <c r="I78" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J78" s="54" t="s">
+      <c r="J78" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K78" s="55" t="s">
+      <c r="K78" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L78" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M78" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="N78" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="O78" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L78" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M78" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O78" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="22"/>
+      <c r="X78" s="22"/>
+      <c r="Y78" s="22"/>
+      <c r="Z78" s="22"/>
+      <c r="AA78" s="22"/>
+      <c r="AB78" s="22"/>
+      <c r="AC78" s="22"/>
+      <c r="AD78" s="22"/>
+      <c r="AE78" s="22"/>
+      <c r="AF78" s="22"/>
+      <c r="AG78" s="22"/>
+      <c r="AH78" s="22"/>
+      <c r="AI78" s="22"/>
+      <c r="AJ78" s="22"/>
+      <c r="AK78" s="22"/>
+      <c r="AL78" s="22"/>
+      <c r="AM78" s="22"/>
+      <c r="AN78" s="22"/>
+      <c r="AO78" s="22"/>
+      <c r="AP78" s="22"/>
+      <c r="AQ78" s="22"/>
+      <c r="AR78" s="22"/>
+      <c r="AS78" s="22"/>
+      <c r="AT78" s="22"/>
+      <c r="AU78" s="22"/>
+      <c r="AV78" s="22"/>
+      <c r="AW78" s="22"/>
+      <c r="AX78" s="22"/>
+      <c r="AY78" s="22"/>
+      <c r="AZ78" s="22"/>
+      <c r="BA78" s="22"/>
+      <c r="BB78" s="22"/>
+      <c r="BC78" s="22"/>
+      <c r="BD78" s="22"/>
+      <c r="BE78" s="22"/>
+      <c r="BF78" s="22"/>
+      <c r="BG78" s="22"/>
+      <c r="BH78" s="22"/>
+      <c r="BI78" s="22"/>
+      <c r="BJ78" s="22"/>
+      <c r="BK78" s="22"/>
+      <c r="BL78" s="22"/>
+      <c r="BM78" s="22"/>
+      <c r="BN78" s="22"/>
+    </row>
+    <row r="79" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G79" s="24">
-        <v>403</v>
+      <c r="G79" s="55">
+        <v>400</v>
       </c>
       <c r="H79" s="59" t="s">
         <v>220</v>
@@ -28061,85 +28127,34 @@
       <c r="I79" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J79" s="24" t="s">
+      <c r="J79" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K79" s="24" t="s">
+      <c r="K79" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L79" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M79" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O79" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="22"/>
-      <c r="T79" s="22"/>
-      <c r="U79" s="22"/>
-      <c r="V79" s="22"/>
-      <c r="W79" s="22"/>
-      <c r="X79" s="22"/>
-      <c r="Y79" s="22"/>
-      <c r="Z79" s="22"/>
-      <c r="AA79" s="22"/>
-      <c r="AB79" s="22"/>
-      <c r="AC79" s="22"/>
-      <c r="AD79" s="22"/>
-      <c r="AE79" s="22"/>
-      <c r="AF79" s="22"/>
-      <c r="AG79" s="22"/>
-      <c r="AH79" s="22"/>
-      <c r="AI79" s="22"/>
-      <c r="AJ79" s="22"/>
-      <c r="AK79" s="22"/>
-      <c r="AL79" s="22"/>
-      <c r="AM79" s="22"/>
-      <c r="AN79" s="22"/>
-      <c r="AO79" s="22"/>
-      <c r="AP79" s="22"/>
-      <c r="AQ79" s="22"/>
-      <c r="AR79" s="22"/>
-      <c r="AS79" s="22"/>
-      <c r="AT79" s="22"/>
-      <c r="AU79" s="22"/>
-      <c r="AV79" s="22"/>
-      <c r="AW79" s="22"/>
-      <c r="AX79" s="22"/>
-      <c r="AY79" s="22"/>
-      <c r="AZ79" s="22"/>
-      <c r="BA79" s="22"/>
-      <c r="BB79" s="22"/>
-      <c r="BC79" s="22"/>
-      <c r="BD79" s="22"/>
-      <c r="BE79" s="22"/>
-      <c r="BF79" s="22"/>
-      <c r="BG79" s="22"/>
-      <c r="BH79" s="22"/>
-      <c r="BI79" s="22"/>
-      <c r="BJ79" s="22"/>
-      <c r="BK79" s="22"/>
-      <c r="BL79" s="22"/>
-      <c r="BM79" s="22"/>
-      <c r="BN79" s="22"/>
+      <c r="L79" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M79" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N79" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="O79" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
@@ -28163,13 +28178,13 @@
         <v>7</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L80" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M80" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N80" s="31" t="s">
         <v>62</v>
@@ -28231,13 +28246,13 @@
     </row>
     <row r="81" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>12</v>
@@ -28264,10 +28279,10 @@
         <v>32</v>
       </c>
       <c r="L81" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M81" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N81" s="31" t="s">
         <v>62</v>
@@ -28329,15 +28344,15 @@
     </row>
     <row r="82" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -28359,19 +28374,19 @@
         <v>7</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L82" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M82" s="33" t="s">
-        <v>206</v>
+        <v>32</v>
+      </c>
+      <c r="L82" s="25">
+        <v>1008</v>
+      </c>
+      <c r="M82" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="N82" s="31" t="s">
         <v>62</v>
       </c>
       <c r="O82" s="31" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P82" s="22"/>
       <c r="Q82" s="22"/>
@@ -28427,15 +28442,15 @@
     </row>
     <row r="83" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -28445,7 +28460,7 @@
         <v>144</v>
       </c>
       <c r="G83" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H83" s="59" t="s">
         <v>220</v>
@@ -28453,23 +28468,23 @@
       <c r="I83" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="J83" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L83" s="10">
-        <v>2506</v>
-      </c>
-      <c r="M83" s="31" t="s">
-        <v>41</v>
+      <c r="K83" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L83" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M83" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="N83" s="31" t="s">
         <v>62</v>
       </c>
       <c r="O83" s="31" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="P83" s="22"/>
       <c r="Q83" s="22"/>
@@ -28523,94 +28538,122 @@
       <c r="BM83" s="22"/>
       <c r="BN83" s="22"/>
     </row>
-    <row r="84" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="99" t="s">
+    <row r="84" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>71</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G84" s="24">
+        <v>404</v>
+      </c>
+      <c r="H84" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L84" s="10">
+        <v>2506</v>
+      </c>
+      <c r="M84" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N84" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O84" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="22"/>
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
+      <c r="AH84" s="22"/>
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
+      <c r="AL84" s="22"/>
+      <c r="AM84" s="22"/>
+      <c r="AN84" s="22"/>
+      <c r="AO84" s="22"/>
+      <c r="AP84" s="22"/>
+      <c r="AQ84" s="22"/>
+      <c r="AR84" s="22"/>
+      <c r="AS84" s="22"/>
+      <c r="AT84" s="22"/>
+      <c r="AU84" s="22"/>
+      <c r="AV84" s="22"/>
+      <c r="AW84" s="22"/>
+      <c r="AX84" s="22"/>
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
+      <c r="BB84" s="22"/>
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
+      <c r="BF84" s="22"/>
+      <c r="BG84" s="22"/>
+      <c r="BH84" s="22"/>
+      <c r="BI84" s="22"/>
+      <c r="BJ84" s="22"/>
+      <c r="BK84" s="22"/>
+      <c r="BL84" s="22"/>
+      <c r="BM84" s="22"/>
+      <c r="BN84" s="22"/>
+    </row>
+    <row r="85" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="99"/>
-      <c r="C84" s="99"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="99"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="99"/>
-      <c r="H84" s="99"/>
-      <c r="I84" s="99"/>
-      <c r="J84" s="99"/>
-      <c r="K84" s="99"/>
-      <c r="L84" s="99"/>
-      <c r="M84" s="99"/>
-      <c r="N84" s="99"/>
-      <c r="O84" s="99"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="21"/>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="21"/>
-      <c r="AA84" s="21"/>
-      <c r="AB84" s="21"/>
-      <c r="AC84" s="21"/>
-      <c r="AD84" s="21"/>
-      <c r="AE84" s="21"/>
-      <c r="AF84" s="21"/>
-      <c r="AG84" s="21"/>
-      <c r="AH84" s="21"/>
-      <c r="AI84" s="21"/>
-      <c r="AJ84" s="21"/>
-      <c r="AK84" s="21"/>
-      <c r="AL84" s="21"/>
-      <c r="AM84" s="21"/>
-      <c r="AN84" s="21"/>
-      <c r="AO84" s="21"/>
-      <c r="AP84" s="21"/>
-      <c r="AQ84" s="21"/>
-      <c r="AR84" s="21"/>
-      <c r="AS84" s="21"/>
-      <c r="AT84" s="21"/>
-      <c r="AU84" s="21"/>
-      <c r="AV84" s="21"/>
-      <c r="AW84" s="21"/>
-      <c r="AX84" s="21"/>
-      <c r="AY84" s="21"/>
-      <c r="AZ84" s="21"/>
-      <c r="BA84" s="21"/>
-      <c r="BB84" s="21"/>
-      <c r="BC84" s="21"/>
-      <c r="BD84" s="21"/>
-      <c r="BE84" s="21"/>
-      <c r="BF84" s="21"/>
-      <c r="BG84" s="21"/>
-      <c r="BH84" s="21"/>
-      <c r="BI84" s="21"/>
-      <c r="BJ84" s="21"/>
-      <c r="BK84" s="21"/>
-      <c r="BL84" s="21"/>
-      <c r="BM84" s="21"/>
-      <c r="BN84" s="21"/>
-    </row>
-    <row r="85" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="100"/>
-      <c r="C85" s="100"/>
-      <c r="D85" s="100"/>
-      <c r="E85" s="100"/>
-      <c r="F85" s="100"/>
-      <c r="G85" s="100"/>
-      <c r="H85" s="100"/>
-      <c r="I85" s="100"/>
-      <c r="J85" s="100"/>
-      <c r="K85" s="100"/>
-      <c r="L85" s="100"/>
-      <c r="M85" s="100"/>
-      <c r="N85" s="100"/>
-      <c r="O85" s="100"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
+      <c r="G85" s="99"/>
+      <c r="H85" s="99"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="99"/>
+      <c r="K85" s="99"/>
+      <c r="L85" s="99"/>
+      <c r="M85" s="99"/>
+      <c r="N85" s="99"/>
+      <c r="O85" s="99"/>
       <c r="P85" s="21"/>
       <c r="Q85" s="21"/>
       <c r="R85" s="21"/>
@@ -28663,52 +28706,24 @@
       <c r="BM85" s="21"/>
       <c r="BN85" s="21"/>
     </row>
-    <row r="86" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="94">
-        <v>146</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="D86" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="F86" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="G86" s="94">
-        <v>403</v>
-      </c>
-      <c r="H86" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I86" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J86" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K86" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="L86" s="94">
-        <v>1016</v>
-      </c>
-      <c r="M86" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="N86" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="O86" s="95" t="s">
-        <v>12</v>
-      </c>
+    <row r="86" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="100"/>
+      <c r="C86" s="100"/>
+      <c r="D86" s="100"/>
+      <c r="E86" s="100"/>
+      <c r="F86" s="100"/>
+      <c r="G86" s="100"/>
+      <c r="H86" s="100"/>
+      <c r="I86" s="100"/>
+      <c r="J86" s="100"/>
+      <c r="K86" s="100"/>
+      <c r="L86" s="100"/>
+      <c r="M86" s="100"/>
+      <c r="N86" s="100"/>
+      <c r="O86" s="100"/>
       <c r="P86" s="21"/>
       <c r="Q86" s="21"/>
       <c r="R86" s="21"/>
@@ -28761,50 +28776,50 @@
       <c r="BM86" s="21"/>
       <c r="BN86" s="21"/>
     </row>
-    <row r="87" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>72</v>
+    <row r="87" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="94">
+        <v>146</v>
       </c>
       <c r="B87" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C87" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="C87" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G87" s="24">
-        <v>401</v>
-      </c>
-      <c r="H87" s="59" t="s">
+      <c r="G87" s="94">
+        <v>403</v>
+      </c>
+      <c r="H87" s="94" t="s">
         <v>220</v>
       </c>
       <c r="I87" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J87" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L87" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M87" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N87" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O87" s="50" t="s">
+      <c r="L87" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M87" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N87" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="O87" s="95" t="s">
         <v>12</v>
       </c>
       <c r="P87" s="21"/>
@@ -28859,15 +28874,15 @@
       <c r="BM87" s="21"/>
       <c r="BN87" s="21"/>
     </row>
-    <row r="88" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:66" s="51" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
@@ -28894,15 +28909,15 @@
         <v>34</v>
       </c>
       <c r="L88" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N88" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O88" s="48" t="s">
+      <c r="O88" s="50" t="s">
         <v>12</v>
       </c>
       <c r="P88" s="21"/>
@@ -28957,15 +28972,15 @@
       <c r="BM88" s="21"/>
       <c r="BN88" s="21"/>
     </row>
-    <row r="89" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:66" s="51" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B89" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>88</v>
+      <c r="C89" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
@@ -28977,7 +28992,7 @@
         <v>144</v>
       </c>
       <c r="G89" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H89" s="59" t="s">
         <v>220</v>
@@ -28989,81 +29004,81 @@
         <v>7</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L89" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M89" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N89" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="O89" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="22"/>
-      <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-      <c r="X89" s="22"/>
-      <c r="Y89" s="22"/>
-      <c r="Z89" s="22"/>
-      <c r="AA89" s="22"/>
-      <c r="AB89" s="22"/>
-      <c r="AC89" s="22"/>
-      <c r="AD89" s="22"/>
-      <c r="AE89" s="22"/>
-      <c r="AF89" s="22"/>
-      <c r="AG89" s="22"/>
-      <c r="AH89" s="22"/>
-      <c r="AI89" s="22"/>
-      <c r="AJ89" s="22"/>
-      <c r="AK89" s="22"/>
-      <c r="AL89" s="22"/>
-      <c r="AM89" s="22"/>
-      <c r="AN89" s="22"/>
-      <c r="AO89" s="22"/>
-      <c r="AP89" s="22"/>
-      <c r="AQ89" s="22"/>
-      <c r="AR89" s="22"/>
-      <c r="AS89" s="22"/>
-      <c r="AT89" s="22"/>
-      <c r="AU89" s="22"/>
-      <c r="AV89" s="22"/>
-      <c r="AW89" s="22"/>
-      <c r="AX89" s="22"/>
-      <c r="AY89" s="22"/>
-      <c r="AZ89" s="22"/>
-      <c r="BA89" s="22"/>
-      <c r="BB89" s="22"/>
-      <c r="BC89" s="22"/>
-      <c r="BD89" s="22"/>
-      <c r="BE89" s="22"/>
-      <c r="BF89" s="22"/>
-      <c r="BG89" s="22"/>
-      <c r="BH89" s="22"/>
-      <c r="BI89" s="22"/>
-      <c r="BJ89" s="22"/>
-      <c r="BK89" s="22"/>
-      <c r="BL89" s="22"/>
-      <c r="BM89" s="22"/>
-      <c r="BN89" s="22"/>
-    </row>
-    <row r="90" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="L89" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M89" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N89" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O89" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="21"/>
+      <c r="AC89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
+      <c r="AF89" s="21"/>
+      <c r="AG89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="21"/>
+      <c r="AK89" s="21"/>
+      <c r="AL89" s="21"/>
+      <c r="AM89" s="21"/>
+      <c r="AN89" s="21"/>
+      <c r="AO89" s="21"/>
+      <c r="AP89" s="21"/>
+      <c r="AQ89" s="21"/>
+      <c r="AR89" s="21"/>
+      <c r="AS89" s="21"/>
+      <c r="AT89" s="21"/>
+      <c r="AU89" s="21"/>
+      <c r="AV89" s="21"/>
+      <c r="AW89" s="21"/>
+      <c r="AX89" s="21"/>
+      <c r="AY89" s="21"/>
+      <c r="AZ89" s="21"/>
+      <c r="BA89" s="21"/>
+      <c r="BB89" s="21"/>
+      <c r="BC89" s="21"/>
+      <c r="BD89" s="21"/>
+      <c r="BE89" s="21"/>
+      <c r="BF89" s="21"/>
+      <c r="BG89" s="21"/>
+      <c r="BH89" s="21"/>
+      <c r="BI89" s="21"/>
+      <c r="BJ89" s="21"/>
+      <c r="BK89" s="21"/>
+      <c r="BL89" s="21"/>
+      <c r="BM89" s="21"/>
+      <c r="BN89" s="21"/>
+    </row>
+    <row r="90" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>12</v>
@@ -29087,13 +29102,13 @@
         <v>7</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L90" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M90" s="31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N90" s="31" t="s">
         <v>135</v>
@@ -29153,15 +29168,15 @@
       <c r="BM90" s="22"/>
       <c r="BN90" s="22"/>
     </row>
-    <row r="91" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>12</v>
@@ -29185,13 +29200,13 @@
         <v>7</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L91" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M91" s="31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N91" s="31" t="s">
         <v>135</v>
@@ -29251,26 +29266,26 @@
       <c r="BM91" s="22"/>
       <c r="BN91" s="22"/>
     </row>
-    <row r="92" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B92" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C92" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D92" s="54" t="s">
+      <c r="C92" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="54" t="s">
+      <c r="E92" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F92" s="54" t="s">
+      <c r="F92" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G92" s="55">
+      <c r="G92" s="24">
         <v>400</v>
       </c>
       <c r="H92" s="59" t="s">
@@ -29279,46 +29294,97 @@
       <c r="I92" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J92" s="54" t="s">
+      <c r="J92" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K92" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="L92" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M92" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="N92" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="O92" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K92" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L92" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M92" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N92" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="O92" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22"/>
+      <c r="X92" s="22"/>
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="22"/>
+      <c r="AA92" s="22"/>
+      <c r="AB92" s="22"/>
+      <c r="AC92" s="22"/>
+      <c r="AD92" s="22"/>
+      <c r="AE92" s="22"/>
+      <c r="AF92" s="22"/>
+      <c r="AG92" s="22"/>
+      <c r="AH92" s="22"/>
+      <c r="AI92" s="22"/>
+      <c r="AJ92" s="22"/>
+      <c r="AK92" s="22"/>
+      <c r="AL92" s="22"/>
+      <c r="AM92" s="22"/>
+      <c r="AN92" s="22"/>
+      <c r="AO92" s="22"/>
+      <c r="AP92" s="22"/>
+      <c r="AQ92" s="22"/>
+      <c r="AR92" s="22"/>
+      <c r="AS92" s="22"/>
+      <c r="AT92" s="22"/>
+      <c r="AU92" s="22"/>
+      <c r="AV92" s="22"/>
+      <c r="AW92" s="22"/>
+      <c r="AX92" s="22"/>
+      <c r="AY92" s="22"/>
+      <c r="AZ92" s="22"/>
+      <c r="BA92" s="22"/>
+      <c r="BB92" s="22"/>
+      <c r="BC92" s="22"/>
+      <c r="BD92" s="22"/>
+      <c r="BE92" s="22"/>
+      <c r="BF92" s="22"/>
+      <c r="BG92" s="22"/>
+      <c r="BH92" s="22"/>
+      <c r="BI92" s="22"/>
+      <c r="BJ92" s="22"/>
+      <c r="BK92" s="22"/>
+      <c r="BL92" s="22"/>
+      <c r="BM92" s="22"/>
+      <c r="BN92" s="22"/>
+    </row>
+    <row r="93" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B93" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="C93" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G93" s="24">
-        <v>403</v>
+      <c r="G93" s="55">
+        <v>400</v>
       </c>
       <c r="H93" s="59" t="s">
         <v>220</v>
@@ -29326,85 +29392,34 @@
       <c r="I93" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="J93" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="K93" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L93" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M93" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N93" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="O93" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="22"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="22"/>
-      <c r="X93" s="22"/>
-      <c r="Y93" s="22"/>
-      <c r="Z93" s="22"/>
-      <c r="AA93" s="22"/>
-      <c r="AB93" s="22"/>
-      <c r="AC93" s="22"/>
-      <c r="AD93" s="22"/>
-      <c r="AE93" s="22"/>
-      <c r="AF93" s="22"/>
-      <c r="AG93" s="22"/>
-      <c r="AH93" s="22"/>
-      <c r="AI93" s="22"/>
-      <c r="AJ93" s="22"/>
-      <c r="AK93" s="22"/>
-      <c r="AL93" s="22"/>
-      <c r="AM93" s="22"/>
-      <c r="AN93" s="22"/>
-      <c r="AO93" s="22"/>
-      <c r="AP93" s="22"/>
-      <c r="AQ93" s="22"/>
-      <c r="AR93" s="22"/>
-      <c r="AS93" s="22"/>
-      <c r="AT93" s="22"/>
-      <c r="AU93" s="22"/>
-      <c r="AV93" s="22"/>
-      <c r="AW93" s="22"/>
-      <c r="AX93" s="22"/>
-      <c r="AY93" s="22"/>
-      <c r="AZ93" s="22"/>
-      <c r="BA93" s="22"/>
-      <c r="BB93" s="22"/>
-      <c r="BC93" s="22"/>
-      <c r="BD93" s="22"/>
-      <c r="BE93" s="22"/>
-      <c r="BF93" s="22"/>
-      <c r="BG93" s="22"/>
-      <c r="BH93" s="22"/>
-      <c r="BI93" s="22"/>
-      <c r="BJ93" s="22"/>
-      <c r="BK93" s="22"/>
-      <c r="BL93" s="22"/>
-      <c r="BM93" s="22"/>
-      <c r="BN93" s="22"/>
+      <c r="L93" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M93" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N93" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="O93" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="94" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
@@ -29428,13 +29443,13 @@
         <v>7</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L94" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M94" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N94" s="31" t="s">
         <v>135</v>
@@ -29494,15 +29509,15 @@
       <c r="BM94" s="22"/>
       <c r="BN94" s="22"/>
     </row>
-    <row r="95" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>12</v>
@@ -29529,10 +29544,10 @@
         <v>32</v>
       </c>
       <c r="L95" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M95" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N95" s="31" t="s">
         <v>135</v>
@@ -29594,15 +29609,15 @@
     </row>
     <row r="96" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D96" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -29624,19 +29639,19 @@
         <v>7</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L96" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M96" s="33" t="s">
-        <v>206</v>
+        <v>32</v>
+      </c>
+      <c r="L96" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M96" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="N96" s="31" t="s">
         <v>135</v>
       </c>
       <c r="O96" s="31" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P96" s="22"/>
       <c r="Q96" s="22"/>
@@ -29690,17 +29705,17 @@
       <c r="BM96" s="22"/>
       <c r="BN96" s="22"/>
     </row>
-    <row r="97" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D97" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="4" t="s">
@@ -29710,7 +29725,7 @@
         <v>144</v>
       </c>
       <c r="G97" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H97" s="59" t="s">
         <v>220</v>
@@ -29724,17 +29739,17 @@
       <c r="K97" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L97" s="10">
-        <v>3001</v>
-      </c>
-      <c r="M97" s="31" t="s">
-        <v>215</v>
+      <c r="L97" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M97" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="N97" s="31" t="s">
         <v>135</v>
       </c>
       <c r="O97" s="31" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="P97" s="22"/>
       <c r="Q97" s="22"/>
@@ -29788,15 +29803,15 @@
       <c r="BM97" s="22"/>
       <c r="BN97" s="22"/>
     </row>
-    <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
@@ -29820,19 +29835,19 @@
         <v>7</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L98" s="10">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="M98" s="31" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="N98" s="31" t="s">
         <v>135</v>
       </c>
       <c r="O98" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P98" s="22"/>
       <c r="Q98" s="22"/>
@@ -29887,14 +29902,14 @@
       <c r="BN98" s="22"/>
     </row>
     <row r="99" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A99" s="27">
-        <v>137</v>
+      <c r="A99" s="4">
+        <v>83</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="72" t="s">
-        <v>211</v>
+      <c r="C99" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>12</v>
@@ -29902,8 +29917,8 @@
       <c r="E99" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F99" s="27" t="s">
-        <v>145</v>
+      <c r="F99" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G99" s="24">
         <v>400</v>
@@ -29920,17 +29935,17 @@
       <c r="K99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L99" s="27">
-        <v>3009</v>
-      </c>
-      <c r="M99" s="72" t="s">
-        <v>211</v>
+      <c r="L99" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M99" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="N99" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="O99" s="34" t="s">
-        <v>216</v>
+      <c r="O99" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="P99" s="22"/>
       <c r="Q99" s="22"/>
@@ -29984,15 +29999,15 @@
       <c r="BM99" s="22"/>
       <c r="BN99" s="22"/>
     </row>
-    <row r="100" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="27">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C100" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>12</v>
@@ -30016,81 +30031,81 @@
         <v>7</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L100" s="27">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="M100" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N100" s="31" t="s">
         <v>135</v>
       </c>
       <c r="O100" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
-      <c r="Y100" s="21"/>
-      <c r="Z100" s="21"/>
-      <c r="AA100" s="21"/>
-      <c r="AB100" s="21"/>
-      <c r="AC100" s="21"/>
-      <c r="AD100" s="21"/>
-      <c r="AE100" s="21"/>
-      <c r="AF100" s="21"/>
-      <c r="AG100" s="21"/>
-      <c r="AH100" s="21"/>
-      <c r="AI100" s="21"/>
-      <c r="AJ100" s="21"/>
-      <c r="AK100" s="21"/>
-      <c r="AL100" s="21"/>
-      <c r="AM100" s="21"/>
-      <c r="AN100" s="21"/>
-      <c r="AO100" s="21"/>
-      <c r="AP100" s="21"/>
-      <c r="AQ100" s="21"/>
-      <c r="AR100" s="21"/>
-      <c r="AS100" s="21"/>
-      <c r="AT100" s="21"/>
-      <c r="AU100" s="21"/>
-      <c r="AV100" s="21"/>
-      <c r="AW100" s="21"/>
-      <c r="AX100" s="21"/>
-      <c r="AY100" s="21"/>
-      <c r="AZ100" s="21"/>
-      <c r="BA100" s="21"/>
-      <c r="BB100" s="21"/>
-      <c r="BC100" s="21"/>
-      <c r="BD100" s="21"/>
-      <c r="BE100" s="21"/>
-      <c r="BF100" s="21"/>
-      <c r="BG100" s="21"/>
-      <c r="BH100" s="21"/>
-      <c r="BI100" s="21"/>
-      <c r="BJ100" s="21"/>
-      <c r="BK100" s="21"/>
-      <c r="BL100" s="21"/>
-      <c r="BM100" s="21"/>
-      <c r="BN100" s="21"/>
-    </row>
-    <row r="101" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22"/>
+      <c r="AC100" s="22"/>
+      <c r="AD100" s="22"/>
+      <c r="AE100" s="22"/>
+      <c r="AF100" s="22"/>
+      <c r="AG100" s="22"/>
+      <c r="AH100" s="22"/>
+      <c r="AI100" s="22"/>
+      <c r="AJ100" s="22"/>
+      <c r="AK100" s="22"/>
+      <c r="AL100" s="22"/>
+      <c r="AM100" s="22"/>
+      <c r="AN100" s="22"/>
+      <c r="AO100" s="22"/>
+      <c r="AP100" s="22"/>
+      <c r="AQ100" s="22"/>
+      <c r="AR100" s="22"/>
+      <c r="AS100" s="22"/>
+      <c r="AT100" s="22"/>
+      <c r="AU100" s="22"/>
+      <c r="AV100" s="22"/>
+      <c r="AW100" s="22"/>
+      <c r="AX100" s="22"/>
+      <c r="AY100" s="22"/>
+      <c r="AZ100" s="22"/>
+      <c r="BA100" s="22"/>
+      <c r="BB100" s="22"/>
+      <c r="BC100" s="22"/>
+      <c r="BD100" s="22"/>
+      <c r="BE100" s="22"/>
+      <c r="BF100" s="22"/>
+      <c r="BG100" s="22"/>
+      <c r="BH100" s="22"/>
+      <c r="BI100" s="22"/>
+      <c r="BJ100" s="22"/>
+      <c r="BK100" s="22"/>
+      <c r="BL100" s="22"/>
+      <c r="BM100" s="22"/>
+      <c r="BN100" s="22"/>
+    </row>
+    <row r="101" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C101" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>12</v>
@@ -30117,10 +30132,10 @@
         <v>32</v>
       </c>
       <c r="L101" s="27">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="M101" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N101" s="31" t="s">
         <v>135</v>
@@ -30180,15 +30195,15 @@
       <c r="BM101" s="21"/>
       <c r="BN101" s="21"/>
     </row>
-    <row r="102" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="31" t="s">
         <v>134</v>
       </c>
       <c r="C102" s="72" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>12</v>
@@ -30200,7 +30215,7 @@
         <v>145</v>
       </c>
       <c r="G102" s="24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H102" s="59" t="s">
         <v>220</v>
@@ -30215,16 +30230,16 @@
         <v>32</v>
       </c>
       <c r="L102" s="27">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="M102" s="72" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="N102" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="O102" s="31" t="s">
-        <v>12</v>
+      <c r="O102" s="34" t="s">
+        <v>217</v>
       </c>
       <c r="P102" s="21"/>
       <c r="Q102" s="21"/>
@@ -30280,13 +30295,13 @@
     </row>
     <row r="103" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="27">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B103" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="85" t="s">
-        <v>233</v>
+      <c r="C103" s="72" t="s">
+        <v>225</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>12</v>
@@ -30298,7 +30313,7 @@
         <v>145</v>
       </c>
       <c r="G103" s="24">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H103" s="59" t="s">
         <v>220</v>
@@ -30313,16 +30328,16 @@
         <v>32</v>
       </c>
       <c r="L103" s="27">
-        <v>3013</v>
-      </c>
-      <c r="M103" s="85" t="s">
-        <v>234</v>
+        <v>3012</v>
+      </c>
+      <c r="M103" s="72" t="s">
+        <v>226</v>
       </c>
       <c r="N103" s="31" t="s">
         <v>135</v>
       </c>
       <c r="O103" s="31" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="P103" s="21"/>
       <c r="Q103" s="21"/>
@@ -30376,26 +30391,26 @@
       <c r="BM103" s="21"/>
       <c r="BN103" s="21"/>
     </row>
-    <row r="104" spans="1:66" s="51" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A104" s="59">
-        <v>84</v>
-      </c>
-      <c r="B104" s="60" t="s">
+    <row r="104" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A104" s="27">
+        <v>141</v>
+      </c>
+      <c r="B104" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C104" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D104" s="59" t="s">
+      <c r="C104" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="73" t="s">
+      <c r="E104" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F104" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="G104" s="59">
+      <c r="F104" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G104" s="24">
         <v>400</v>
       </c>
       <c r="H104" s="59" t="s">
@@ -30404,23 +30419,23 @@
       <c r="I104" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J104" s="59" t="s">
+      <c r="J104" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K104" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L104" s="59">
-        <v>1002</v>
-      </c>
-      <c r="M104" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="N104" s="60" t="s">
+      <c r="K104" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L104" s="27">
+        <v>3013</v>
+      </c>
+      <c r="M104" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="N104" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="O104" s="60" t="s">
-        <v>68</v>
+      <c r="O104" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="P104" s="21"/>
       <c r="Q104" s="21"/>
@@ -30474,24 +30489,52 @@
       <c r="BM104" s="21"/>
       <c r="BN104" s="21"/>
     </row>
-    <row r="105" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A105" s="100" t="s">
-        <v>149</v>
-      </c>
-      <c r="B105" s="100"/>
-      <c r="C105" s="100"/>
-      <c r="D105" s="100"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="100"/>
-      <c r="G105" s="100"/>
-      <c r="H105" s="100"/>
-      <c r="I105" s="100"/>
-      <c r="J105" s="100"/>
-      <c r="K105" s="100"/>
-      <c r="L105" s="100"/>
-      <c r="M105" s="100"/>
-      <c r="N105" s="100"/>
-      <c r="O105" s="100"/>
+    <row r="105" spans="1:66" s="51" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A105" s="59">
+        <v>84</v>
+      </c>
+      <c r="B105" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F105" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G105" s="59">
+        <v>400</v>
+      </c>
+      <c r="H105" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="I105" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J105" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K105" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" s="59">
+        <v>1002</v>
+      </c>
+      <c r="M105" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="N105" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="O105" s="60" t="s">
+        <v>68</v>
+      </c>
       <c r="P105" s="21"/>
       <c r="Q105" s="21"/>
       <c r="R105" s="21"/>
@@ -30544,220 +30587,220 @@
       <c r="BM105" s="21"/>
       <c r="BN105" s="21"/>
     </row>
-    <row r="106" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A106" s="39">
+    <row r="106" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A106" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="100"/>
+      <c r="C106" s="100"/>
+      <c r="D106" s="100"/>
+      <c r="E106" s="100"/>
+      <c r="F106" s="100"/>
+      <c r="G106" s="100"/>
+      <c r="H106" s="100"/>
+      <c r="I106" s="100"/>
+      <c r="J106" s="100"/>
+      <c r="K106" s="100"/>
+      <c r="L106" s="100"/>
+      <c r="M106" s="100"/>
+      <c r="N106" s="100"/>
+      <c r="O106" s="100"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="21"/>
+      <c r="X106" s="21"/>
+      <c r="Y106" s="21"/>
+      <c r="Z106" s="21"/>
+      <c r="AA106" s="21"/>
+      <c r="AB106" s="21"/>
+      <c r="AC106" s="21"/>
+      <c r="AD106" s="21"/>
+      <c r="AE106" s="21"/>
+      <c r="AF106" s="21"/>
+      <c r="AG106" s="21"/>
+      <c r="AH106" s="21"/>
+      <c r="AI106" s="21"/>
+      <c r="AJ106" s="21"/>
+      <c r="AK106" s="21"/>
+      <c r="AL106" s="21"/>
+      <c r="AM106" s="21"/>
+      <c r="AN106" s="21"/>
+      <c r="AO106" s="21"/>
+      <c r="AP106" s="21"/>
+      <c r="AQ106" s="21"/>
+      <c r="AR106" s="21"/>
+      <c r="AS106" s="21"/>
+      <c r="AT106" s="21"/>
+      <c r="AU106" s="21"/>
+      <c r="AV106" s="21"/>
+      <c r="AW106" s="21"/>
+      <c r="AX106" s="21"/>
+      <c r="AY106" s="21"/>
+      <c r="AZ106" s="21"/>
+      <c r="BA106" s="21"/>
+      <c r="BB106" s="21"/>
+      <c r="BC106" s="21"/>
+      <c r="BD106" s="21"/>
+      <c r="BE106" s="21"/>
+      <c r="BF106" s="21"/>
+      <c r="BG106" s="21"/>
+      <c r="BH106" s="21"/>
+      <c r="BI106" s="21"/>
+      <c r="BJ106" s="21"/>
+      <c r="BK106" s="21"/>
+      <c r="BL106" s="21"/>
+      <c r="BM106" s="21"/>
+      <c r="BN106" s="21"/>
+    </row>
+    <row r="107" spans="1:66" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A107" s="39">
         <v>145</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C106" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="D106" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F106" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G106" s="24">
-        <v>400</v>
-      </c>
-      <c r="H106" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="I106" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J106" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="K106" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="L106" s="87">
-        <v>3008</v>
-      </c>
-      <c r="M106" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="N106" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="O106" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="P106" s="36"/>
-      <c r="Q106" s="36"/>
-      <c r="R106" s="36"/>
-      <c r="S106" s="36"/>
-      <c r="T106" s="36"/>
-      <c r="U106" s="36"/>
-      <c r="V106" s="36"/>
-      <c r="W106" s="36"/>
-      <c r="X106" s="36"/>
-      <c r="Y106" s="36"/>
-      <c r="Z106" s="36"/>
-      <c r="AA106" s="36"/>
-      <c r="AB106" s="36"/>
-      <c r="AC106" s="36"/>
-      <c r="AD106" s="36"/>
-      <c r="AE106" s="36"/>
-      <c r="AF106" s="36"/>
-      <c r="AG106" s="36"/>
-      <c r="AH106" s="36"/>
-      <c r="AI106" s="36"/>
-      <c r="AJ106" s="36"/>
-      <c r="AK106" s="36"/>
-      <c r="AL106" s="36"/>
-      <c r="AM106" s="36"/>
-      <c r="AN106" s="36"/>
-      <c r="AO106" s="36"/>
-      <c r="AP106" s="36"/>
-      <c r="AQ106" s="36"/>
-      <c r="AR106" s="36"/>
-      <c r="AS106" s="36"/>
-      <c r="AT106" s="36"/>
-      <c r="AU106" s="36"/>
-      <c r="AV106" s="36"/>
-      <c r="AW106" s="36"/>
-      <c r="AX106" s="36"/>
-      <c r="AY106" s="36"/>
-      <c r="AZ106" s="36"/>
-      <c r="BA106" s="36"/>
-      <c r="BB106" s="36"/>
-      <c r="BC106" s="36"/>
-      <c r="BD106" s="36"/>
-      <c r="BE106" s="36"/>
-      <c r="BF106" s="36"/>
-      <c r="BG106" s="36"/>
-      <c r="BH106" s="36"/>
-      <c r="BI106" s="36"/>
-      <c r="BJ106" s="36"/>
-      <c r="BK106" s="36"/>
-      <c r="BL106" s="36"/>
-      <c r="BM106" s="36"/>
-      <c r="BN106" s="36"/>
-    </row>
-    <row r="107" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
-        <v>85</v>
       </c>
       <c r="B107" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D107" s="4">
-        <v>8</v>
+      <c r="C107" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D107" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>144</v>
       </c>
       <c r="F107" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G107" s="24">
+        <v>400</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="I107" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J107" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K107" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107" s="87">
+        <v>3008</v>
+      </c>
+      <c r="M107" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="N107" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O107" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="P107" s="36"/>
+      <c r="Q107" s="36"/>
+      <c r="R107" s="36"/>
+      <c r="S107" s="36"/>
+      <c r="T107" s="36"/>
+      <c r="U107" s="36"/>
+      <c r="V107" s="36"/>
+      <c r="W107" s="36"/>
+      <c r="X107" s="36"/>
+      <c r="Y107" s="36"/>
+      <c r="Z107" s="36"/>
+      <c r="AA107" s="36"/>
+      <c r="AB107" s="36"/>
+      <c r="AC107" s="36"/>
+      <c r="AD107" s="36"/>
+      <c r="AE107" s="36"/>
+      <c r="AF107" s="36"/>
+      <c r="AG107" s="36"/>
+      <c r="AH107" s="36"/>
+      <c r="AI107" s="36"/>
+      <c r="AJ107" s="36"/>
+      <c r="AK107" s="36"/>
+      <c r="AL107" s="36"/>
+      <c r="AM107" s="36"/>
+      <c r="AN107" s="36"/>
+      <c r="AO107" s="36"/>
+      <c r="AP107" s="36"/>
+      <c r="AQ107" s="36"/>
+      <c r="AR107" s="36"/>
+      <c r="AS107" s="36"/>
+      <c r="AT107" s="36"/>
+      <c r="AU107" s="36"/>
+      <c r="AV107" s="36"/>
+      <c r="AW107" s="36"/>
+      <c r="AX107" s="36"/>
+      <c r="AY107" s="36"/>
+      <c r="AZ107" s="36"/>
+      <c r="BA107" s="36"/>
+      <c r="BB107" s="36"/>
+      <c r="BC107" s="36"/>
+      <c r="BD107" s="36"/>
+      <c r="BE107" s="36"/>
+      <c r="BF107" s="36"/>
+      <c r="BG107" s="36"/>
+      <c r="BH107" s="36"/>
+      <c r="BI107" s="36"/>
+      <c r="BJ107" s="36"/>
+      <c r="BK107" s="36"/>
+      <c r="BL107" s="36"/>
+      <c r="BM107" s="36"/>
+      <c r="BN107" s="36"/>
+    </row>
+    <row r="108" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>85</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" s="4">
+        <v>8</v>
+      </c>
+      <c r="E108" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G107" s="45">
+      <c r="F108" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G108" s="45">
         <v>200</v>
       </c>
-      <c r="H107" s="24" t="s">
+      <c r="H108" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="I107" s="24" t="s">
+      <c r="I108" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J107" s="4" t="s">
+      <c r="J108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K107" s="4" t="s">
+      <c r="K108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L107" s="4">
+      <c r="L108" s="4">
         <v>1010</v>
       </c>
-      <c r="M107" s="31" t="s">
+      <c r="M108" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N107" s="31" t="s">
+      <c r="N108" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="O107" s="31" t="s">
+      <c r="O108" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
-      <c r="T107" s="22"/>
-      <c r="U107" s="22"/>
-      <c r="V107" s="22"/>
-      <c r="W107" s="22"/>
-      <c r="X107" s="22"/>
-      <c r="Y107" s="22"/>
-      <c r="Z107" s="22"/>
-      <c r="AA107" s="22"/>
-      <c r="AB107" s="22"/>
-      <c r="AC107" s="22"/>
-      <c r="AD107" s="22"/>
-      <c r="AE107" s="22"/>
-      <c r="AF107" s="22"/>
-      <c r="AG107" s="22"/>
-      <c r="AH107" s="22"/>
-      <c r="AI107" s="22"/>
-      <c r="AJ107" s="22"/>
-      <c r="AK107" s="22"/>
-      <c r="AL107" s="22"/>
-      <c r="AM107" s="22"/>
-      <c r="AN107" s="22"/>
-      <c r="AO107" s="22"/>
-      <c r="AP107" s="22"/>
-      <c r="AQ107" s="22"/>
-      <c r="AR107" s="22"/>
-      <c r="AS107" s="22"/>
-      <c r="AT107" s="22"/>
-      <c r="AU107" s="22"/>
-      <c r="AV107" s="22"/>
-      <c r="AW107" s="22"/>
-      <c r="AX107" s="22"/>
-      <c r="AY107" s="22"/>
-      <c r="AZ107" s="22"/>
-      <c r="BA107" s="22"/>
-      <c r="BB107" s="22"/>
-      <c r="BC107" s="22"/>
-      <c r="BD107" s="22"/>
-      <c r="BE107" s="22"/>
-      <c r="BF107" s="22"/>
-      <c r="BG107" s="22"/>
-      <c r="BH107" s="22"/>
-      <c r="BI107" s="22"/>
-      <c r="BJ107" s="22"/>
-      <c r="BK107" s="22"/>
-      <c r="BL107" s="22"/>
-      <c r="BM107" s="22"/>
-      <c r="BN107" s="22"/>
-    </row>
-    <row r="108" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A108" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="B108" s="99"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="99"/>
-      <c r="E108" s="99"/>
-      <c r="F108" s="99"/>
-      <c r="G108" s="99"/>
-      <c r="H108" s="99"/>
-      <c r="I108" s="99"/>
-      <c r="J108" s="99"/>
-      <c r="K108" s="99"/>
-      <c r="L108" s="99"/>
-      <c r="M108" s="99"/>
-      <c r="N108" s="99"/>
-      <c r="O108" s="99"/>
       <c r="P108" s="22"/>
       <c r="Q108" s="22"/>
       <c r="R108" s="22"/>
@@ -30810,24 +30853,24 @@
       <c r="BM108" s="22"/>
       <c r="BN108" s="22"/>
     </row>
-    <row r="109" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A109" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="B109" s="100"/>
-      <c r="C109" s="100"/>
-      <c r="D109" s="100"/>
-      <c r="E109" s="100"/>
-      <c r="F109" s="100"/>
-      <c r="G109" s="100"/>
-      <c r="H109" s="100"/>
-      <c r="I109" s="100"/>
-      <c r="J109" s="100"/>
-      <c r="K109" s="100"/>
-      <c r="L109" s="100"/>
-      <c r="M109" s="100"/>
-      <c r="N109" s="100"/>
-      <c r="O109" s="100"/>
+    <row r="109" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A109" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="99"/>
+      <c r="C109" s="99"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="99"/>
+      <c r="H109" s="99"/>
+      <c r="I109" s="99"/>
+      <c r="J109" s="99"/>
+      <c r="K109" s="99"/>
+      <c r="L109" s="99"/>
+      <c r="M109" s="99"/>
+      <c r="N109" s="99"/>
+      <c r="O109" s="99"/>
       <c r="P109" s="22"/>
       <c r="Q109" s="22"/>
       <c r="R109" s="22"/>
@@ -30880,160 +30923,183 @@
       <c r="BM109" s="22"/>
       <c r="BN109" s="22"/>
     </row>
-    <row r="110" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="94">
+    <row r="110" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A110" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="100"/>
+      <c r="C110" s="100"/>
+      <c r="D110" s="100"/>
+      <c r="E110" s="100"/>
+      <c r="F110" s="100"/>
+      <c r="G110" s="100"/>
+      <c r="H110" s="100"/>
+      <c r="I110" s="100"/>
+      <c r="J110" s="100"/>
+      <c r="K110" s="100"/>
+      <c r="L110" s="100"/>
+      <c r="M110" s="100"/>
+      <c r="N110" s="100"/>
+      <c r="O110" s="100"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
+      <c r="X110" s="22"/>
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="22"/>
+      <c r="AA110" s="22"/>
+      <c r="AB110" s="22"/>
+      <c r="AC110" s="22"/>
+      <c r="AD110" s="22"/>
+      <c r="AE110" s="22"/>
+      <c r="AF110" s="22"/>
+      <c r="AG110" s="22"/>
+      <c r="AH110" s="22"/>
+      <c r="AI110" s="22"/>
+      <c r="AJ110" s="22"/>
+      <c r="AK110" s="22"/>
+      <c r="AL110" s="22"/>
+      <c r="AM110" s="22"/>
+      <c r="AN110" s="22"/>
+      <c r="AO110" s="22"/>
+      <c r="AP110" s="22"/>
+      <c r="AQ110" s="22"/>
+      <c r="AR110" s="22"/>
+      <c r="AS110" s="22"/>
+      <c r="AT110" s="22"/>
+      <c r="AU110" s="22"/>
+      <c r="AV110" s="22"/>
+      <c r="AW110" s="22"/>
+      <c r="AX110" s="22"/>
+      <c r="AY110" s="22"/>
+      <c r="AZ110" s="22"/>
+      <c r="BA110" s="22"/>
+      <c r="BB110" s="22"/>
+      <c r="BC110" s="22"/>
+      <c r="BD110" s="22"/>
+      <c r="BE110" s="22"/>
+      <c r="BF110" s="22"/>
+      <c r="BG110" s="22"/>
+      <c r="BH110" s="22"/>
+      <c r="BI110" s="22"/>
+      <c r="BJ110" s="22"/>
+      <c r="BK110" s="22"/>
+      <c r="BL110" s="22"/>
+      <c r="BM110" s="22"/>
+      <c r="BN110" s="22"/>
+    </row>
+    <row r="111" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="94">
         <v>146</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C110" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="D110" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="F110" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="G110" s="94">
-        <v>403</v>
-      </c>
-      <c r="H110" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I110" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J110" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K110" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="L110" s="94">
-        <v>1016</v>
-      </c>
-      <c r="M110" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="N110" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="O110" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="P110" s="21"/>
-      <c r="Q110" s="21"/>
-      <c r="R110" s="21"/>
-      <c r="S110" s="21"/>
-      <c r="T110" s="21"/>
-      <c r="U110" s="21"/>
-      <c r="V110" s="21"/>
-      <c r="W110" s="21"/>
-      <c r="X110" s="21"/>
-      <c r="Y110" s="21"/>
-      <c r="Z110" s="21"/>
-      <c r="AA110" s="21"/>
-      <c r="AB110" s="21"/>
-      <c r="AC110" s="21"/>
-      <c r="AD110" s="21"/>
-      <c r="AE110" s="21"/>
-      <c r="AF110" s="21"/>
-      <c r="AG110" s="21"/>
-      <c r="AH110" s="21"/>
-      <c r="AI110" s="21"/>
-      <c r="AJ110" s="21"/>
-      <c r="AK110" s="21"/>
-      <c r="AL110" s="21"/>
-      <c r="AM110" s="21"/>
-      <c r="AN110" s="21"/>
-      <c r="AO110" s="21"/>
-      <c r="AP110" s="21"/>
-      <c r="AQ110" s="21"/>
-      <c r="AR110" s="21"/>
-      <c r="AS110" s="21"/>
-      <c r="AT110" s="21"/>
-      <c r="AU110" s="21"/>
-      <c r="AV110" s="21"/>
-      <c r="AW110" s="21"/>
-      <c r="AX110" s="21"/>
-      <c r="AY110" s="21"/>
-      <c r="AZ110" s="21"/>
-      <c r="BA110" s="21"/>
-      <c r="BB110" s="21"/>
-      <c r="BC110" s="21"/>
-      <c r="BD110" s="21"/>
-      <c r="BE110" s="21"/>
-      <c r="BF110" s="21"/>
-      <c r="BG110" s="21"/>
-      <c r="BH110" s="21"/>
-      <c r="BI110" s="21"/>
-      <c r="BJ110" s="21"/>
-      <c r="BK110" s="21"/>
-      <c r="BL110" s="21"/>
-      <c r="BM110" s="21"/>
-      <c r="BN110" s="21"/>
-    </row>
-    <row r="111" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
-        <v>86</v>
       </c>
       <c r="B111" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C111" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D111" s="4" t="s">
+      <c r="C111" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D111" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G111" s="24">
-        <v>401</v>
-      </c>
-      <c r="H111" s="59" t="s">
+      <c r="G111" s="94">
+        <v>403</v>
+      </c>
+      <c r="H111" s="94" t="s">
         <v>220</v>
       </c>
       <c r="I111" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J111" s="4" t="s">
+      <c r="J111" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K111" s="4" t="s">
+      <c r="K111" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L111" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M111" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N111" s="33" t="s">
+      <c r="L111" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M111" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N111" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="O111" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="O111" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
+      <c r="V111" s="21"/>
+      <c r="W111" s="21"/>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="21"/>
+      <c r="Z111" s="21"/>
+      <c r="AA111" s="21"/>
+      <c r="AB111" s="21"/>
+      <c r="AC111" s="21"/>
+      <c r="AD111" s="21"/>
+      <c r="AE111" s="21"/>
+      <c r="AF111" s="21"/>
+      <c r="AG111" s="21"/>
+      <c r="AH111" s="21"/>
+      <c r="AI111" s="21"/>
+      <c r="AJ111" s="21"/>
+      <c r="AK111" s="21"/>
+      <c r="AL111" s="21"/>
+      <c r="AM111" s="21"/>
+      <c r="AN111" s="21"/>
+      <c r="AO111" s="21"/>
+      <c r="AP111" s="21"/>
+      <c r="AQ111" s="21"/>
+      <c r="AR111" s="21"/>
+      <c r="AS111" s="21"/>
+      <c r="AT111" s="21"/>
+      <c r="AU111" s="21"/>
+      <c r="AV111" s="21"/>
+      <c r="AW111" s="21"/>
+      <c r="AX111" s="21"/>
+      <c r="AY111" s="21"/>
+      <c r="AZ111" s="21"/>
+      <c r="BA111" s="21"/>
+      <c r="BB111" s="21"/>
+      <c r="BC111" s="21"/>
+      <c r="BD111" s="21"/>
+      <c r="BE111" s="21"/>
+      <c r="BF111" s="21"/>
+      <c r="BG111" s="21"/>
+      <c r="BH111" s="21"/>
+      <c r="BI111" s="21"/>
+      <c r="BJ111" s="21"/>
+      <c r="BK111" s="21"/>
+      <c r="BL111" s="21"/>
+      <c r="BM111" s="21"/>
+      <c r="BN111" s="21"/>
+    </row>
+    <row r="112" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="23" t="s">
-        <v>151</v>
+      <c r="C112" s="52" t="s">
+        <v>158</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>12</v>
@@ -31060,78 +31126,27 @@
         <v>34</v>
       </c>
       <c r="L112" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M112" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N112" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O112" s="48" t="s">
+      <c r="O112" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="22"/>
-      <c r="S112" s="22"/>
-      <c r="T112" s="22"/>
-      <c r="U112" s="22"/>
-      <c r="V112" s="22"/>
-      <c r="W112" s="22"/>
-      <c r="X112" s="22"/>
-      <c r="Y112" s="22"/>
-      <c r="Z112" s="22"/>
-      <c r="AA112" s="22"/>
-      <c r="AB112" s="22"/>
-      <c r="AC112" s="22"/>
-      <c r="AD112" s="22"/>
-      <c r="AE112" s="22"/>
-      <c r="AF112" s="22"/>
-      <c r="AG112" s="22"/>
-      <c r="AH112" s="22"/>
-      <c r="AI112" s="22"/>
-      <c r="AJ112" s="22"/>
-      <c r="AK112" s="22"/>
-      <c r="AL112" s="22"/>
-      <c r="AM112" s="22"/>
-      <c r="AN112" s="22"/>
-      <c r="AO112" s="22"/>
-      <c r="AP112" s="22"/>
-      <c r="AQ112" s="22"/>
-      <c r="AR112" s="22"/>
-      <c r="AS112" s="22"/>
-      <c r="AT112" s="22"/>
-      <c r="AU112" s="22"/>
-      <c r="AV112" s="22"/>
-      <c r="AW112" s="22"/>
-      <c r="AX112" s="22"/>
-      <c r="AY112" s="22"/>
-      <c r="AZ112" s="22"/>
-      <c r="BA112" s="22"/>
-      <c r="BB112" s="22"/>
-      <c r="BC112" s="22"/>
-      <c r="BD112" s="22"/>
-      <c r="BE112" s="22"/>
-      <c r="BF112" s="22"/>
-      <c r="BG112" s="22"/>
-      <c r="BH112" s="22"/>
-      <c r="BI112" s="22"/>
-      <c r="BJ112" s="22"/>
-      <c r="BK112" s="22"/>
-      <c r="BL112" s="22"/>
-      <c r="BM112" s="22"/>
-      <c r="BN112" s="22"/>
     </row>
     <row r="113" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>88</v>
+      <c r="C113" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>12</v>
@@ -31143,7 +31158,7 @@
         <v>144</v>
       </c>
       <c r="G113" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H113" s="59" t="s">
         <v>220</v>
@@ -31155,19 +31170,19 @@
         <v>7</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L113" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M113" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N113" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="O113" s="31" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="L113" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M113" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N113" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O113" s="48" t="s">
+        <v>12</v>
       </c>
       <c r="P113" s="22"/>
       <c r="Q113" s="22"/>
@@ -31221,15 +31236,15 @@
       <c r="BM113" s="22"/>
       <c r="BN113" s="22"/>
     </row>
-    <row r="114" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>12</v>
@@ -31253,13 +31268,13 @@
         <v>7</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L114" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M114" s="31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N114" s="31" t="s">
         <v>138</v>
@@ -31319,15 +31334,15 @@
       <c r="BM114" s="22"/>
       <c r="BN114" s="22"/>
     </row>
-    <row r="115" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B115" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>12</v>
@@ -31351,13 +31366,13 @@
         <v>7</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L115" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M115" s="31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N115" s="31" t="s">
         <v>138</v>
@@ -31417,26 +31432,26 @@
       <c r="BM115" s="22"/>
       <c r="BN115" s="22"/>
     </row>
-    <row r="116" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C116" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D116" s="54" t="s">
+      <c r="C116" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="54" t="s">
+      <c r="E116" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F116" s="54" t="s">
+      <c r="F116" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G116" s="55">
+      <c r="G116" s="24">
         <v>400</v>
       </c>
       <c r="H116" s="59" t="s">
@@ -31445,23 +31460,23 @@
       <c r="I116" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J116" s="54" t="s">
+      <c r="J116" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K116" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="L116" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M116" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="N116" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="O116" s="64" t="s">
-        <v>12</v>
+      <c r="K116" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L116" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M116" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N116" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O116" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="P116" s="22"/>
       <c r="Q116" s="22"/>
@@ -31515,27 +31530,27 @@
       <c r="BM116" s="22"/>
       <c r="BN116" s="22"/>
     </row>
-    <row r="117" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D117" s="4" t="s">
+      <c r="C117" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D117" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G117" s="24">
-        <v>404</v>
+      <c r="G117" s="55">
+        <v>400</v>
       </c>
       <c r="H117" s="59" t="s">
         <v>220</v>
@@ -31543,85 +31558,85 @@
       <c r="I117" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J117" s="4" t="s">
+      <c r="J117" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K117" s="4" t="s">
+      <c r="K117" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L117" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M117" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N117" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="O117" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P117" s="21"/>
-      <c r="Q117" s="21"/>
-      <c r="R117" s="21"/>
-      <c r="S117" s="21"/>
-      <c r="T117" s="21"/>
-      <c r="U117" s="21"/>
-      <c r="V117" s="21"/>
-      <c r="W117" s="21"/>
-      <c r="X117" s="21"/>
-      <c r="Y117" s="21"/>
-      <c r="Z117" s="21"/>
-      <c r="AA117" s="21"/>
-      <c r="AB117" s="21"/>
-      <c r="AC117" s="21"/>
-      <c r="AD117" s="21"/>
-      <c r="AE117" s="21"/>
-      <c r="AF117" s="21"/>
-      <c r="AG117" s="21"/>
-      <c r="AH117" s="21"/>
-      <c r="AI117" s="21"/>
-      <c r="AJ117" s="21"/>
-      <c r="AK117" s="21"/>
-      <c r="AL117" s="21"/>
-      <c r="AM117" s="21"/>
-      <c r="AN117" s="21"/>
-      <c r="AO117" s="21"/>
-      <c r="AP117" s="21"/>
-      <c r="AQ117" s="21"/>
-      <c r="AR117" s="21"/>
-      <c r="AS117" s="21"/>
-      <c r="AT117" s="21"/>
-      <c r="AU117" s="21"/>
-      <c r="AV117" s="21"/>
-      <c r="AW117" s="21"/>
-      <c r="AX117" s="21"/>
-      <c r="AY117" s="21"/>
-      <c r="AZ117" s="21"/>
-      <c r="BA117" s="21"/>
-      <c r="BB117" s="21"/>
-      <c r="BC117" s="21"/>
-      <c r="BD117" s="21"/>
-      <c r="BE117" s="21"/>
-      <c r="BF117" s="21"/>
-      <c r="BG117" s="21"/>
-      <c r="BH117" s="21"/>
-      <c r="BI117" s="21"/>
-      <c r="BJ117" s="21"/>
-      <c r="BK117" s="21"/>
-      <c r="BL117" s="21"/>
-      <c r="BM117" s="21"/>
-      <c r="BN117" s="21"/>
-    </row>
-    <row r="118" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L117" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M117" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N117" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="O117" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="P117" s="22"/>
+      <c r="Q117" s="22"/>
+      <c r="R117" s="22"/>
+      <c r="S117" s="22"/>
+      <c r="T117" s="22"/>
+      <c r="U117" s="22"/>
+      <c r="V117" s="22"/>
+      <c r="W117" s="22"/>
+      <c r="X117" s="22"/>
+      <c r="Y117" s="22"/>
+      <c r="Z117" s="22"/>
+      <c r="AA117" s="22"/>
+      <c r="AB117" s="22"/>
+      <c r="AC117" s="22"/>
+      <c r="AD117" s="22"/>
+      <c r="AE117" s="22"/>
+      <c r="AF117" s="22"/>
+      <c r="AG117" s="22"/>
+      <c r="AH117" s="22"/>
+      <c r="AI117" s="22"/>
+      <c r="AJ117" s="22"/>
+      <c r="AK117" s="22"/>
+      <c r="AL117" s="22"/>
+      <c r="AM117" s="22"/>
+      <c r="AN117" s="22"/>
+      <c r="AO117" s="22"/>
+      <c r="AP117" s="22"/>
+      <c r="AQ117" s="22"/>
+      <c r="AR117" s="22"/>
+      <c r="AS117" s="22"/>
+      <c r="AT117" s="22"/>
+      <c r="AU117" s="22"/>
+      <c r="AV117" s="22"/>
+      <c r="AW117" s="22"/>
+      <c r="AX117" s="22"/>
+      <c r="AY117" s="22"/>
+      <c r="AZ117" s="22"/>
+      <c r="BA117" s="22"/>
+      <c r="BB117" s="22"/>
+      <c r="BC117" s="22"/>
+      <c r="BD117" s="22"/>
+      <c r="BE117" s="22"/>
+      <c r="BF117" s="22"/>
+      <c r="BG117" s="22"/>
+      <c r="BH117" s="22"/>
+      <c r="BI117" s="22"/>
+      <c r="BJ117" s="22"/>
+      <c r="BK117" s="22"/>
+      <c r="BL117" s="22"/>
+      <c r="BM117" s="22"/>
+      <c r="BN117" s="22"/>
+    </row>
+    <row r="118" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>12</v>
@@ -31645,13 +31660,13 @@
         <v>7</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L118" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M118" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N118" s="31" t="s">
         <v>138</v>
@@ -31659,16 +31674,67 @@
       <c r="O118" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="119" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
+      <c r="V118" s="21"/>
+      <c r="W118" s="21"/>
+      <c r="X118" s="21"/>
+      <c r="Y118" s="21"/>
+      <c r="Z118" s="21"/>
+      <c r="AA118" s="21"/>
+      <c r="AB118" s="21"/>
+      <c r="AC118" s="21"/>
+      <c r="AD118" s="21"/>
+      <c r="AE118" s="21"/>
+      <c r="AF118" s="21"/>
+      <c r="AG118" s="21"/>
+      <c r="AH118" s="21"/>
+      <c r="AI118" s="21"/>
+      <c r="AJ118" s="21"/>
+      <c r="AK118" s="21"/>
+      <c r="AL118" s="21"/>
+      <c r="AM118" s="21"/>
+      <c r="AN118" s="21"/>
+      <c r="AO118" s="21"/>
+      <c r="AP118" s="21"/>
+      <c r="AQ118" s="21"/>
+      <c r="AR118" s="21"/>
+      <c r="AS118" s="21"/>
+      <c r="AT118" s="21"/>
+      <c r="AU118" s="21"/>
+      <c r="AV118" s="21"/>
+      <c r="AW118" s="21"/>
+      <c r="AX118" s="21"/>
+      <c r="AY118" s="21"/>
+      <c r="AZ118" s="21"/>
+      <c r="BA118" s="21"/>
+      <c r="BB118" s="21"/>
+      <c r="BC118" s="21"/>
+      <c r="BD118" s="21"/>
+      <c r="BE118" s="21"/>
+      <c r="BF118" s="21"/>
+      <c r="BG118" s="21"/>
+      <c r="BH118" s="21"/>
+      <c r="BI118" s="21"/>
+      <c r="BJ118" s="21"/>
+      <c r="BK118" s="21"/>
+      <c r="BL118" s="21"/>
+      <c r="BM118" s="21"/>
+      <c r="BN118" s="21"/>
+    </row>
+    <row r="119" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B119" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>12</v>
@@ -31680,7 +31746,7 @@
         <v>144</v>
       </c>
       <c r="G119" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H119" s="59" t="s">
         <v>220</v>
@@ -31695,10 +31761,10 @@
         <v>32</v>
       </c>
       <c r="L119" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M119" s="31" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N119" s="31" t="s">
         <v>138</v>
@@ -31707,15 +31773,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A120" s="27">
-        <v>141</v>
+    <row r="120" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>94</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C120" s="85" t="s">
-        <v>233</v>
+      <c r="C120" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>12</v>
@@ -31723,11 +31789,11 @@
       <c r="E120" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="27" t="s">
-        <v>145</v>
+      <c r="F120" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G120" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H120" s="59" t="s">
         <v>220</v>
@@ -31741,91 +31807,40 @@
       <c r="K120" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L120" s="27">
-        <v>3013</v>
-      </c>
-      <c r="M120" s="85" t="s">
-        <v>234</v>
+      <c r="L120" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M120" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="N120" s="31" t="s">
         <v>138</v>
       </c>
       <c r="O120" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="P120" s="21"/>
-      <c r="Q120" s="21"/>
-      <c r="R120" s="21"/>
-      <c r="S120" s="21"/>
-      <c r="T120" s="21"/>
-      <c r="U120" s="21"/>
-      <c r="V120" s="21"/>
-      <c r="W120" s="21"/>
-      <c r="X120" s="21"/>
-      <c r="Y120" s="21"/>
-      <c r="Z120" s="21"/>
-      <c r="AA120" s="21"/>
-      <c r="AB120" s="21"/>
-      <c r="AC120" s="21"/>
-      <c r="AD120" s="21"/>
-      <c r="AE120" s="21"/>
-      <c r="AF120" s="21"/>
-      <c r="AG120" s="21"/>
-      <c r="AH120" s="21"/>
-      <c r="AI120" s="21"/>
-      <c r="AJ120" s="21"/>
-      <c r="AK120" s="21"/>
-      <c r="AL120" s="21"/>
-      <c r="AM120" s="21"/>
-      <c r="AN120" s="21"/>
-      <c r="AO120" s="21"/>
-      <c r="AP120" s="21"/>
-      <c r="AQ120" s="21"/>
-      <c r="AR120" s="21"/>
-      <c r="AS120" s="21"/>
-      <c r="AT120" s="21"/>
-      <c r="AU120" s="21"/>
-      <c r="AV120" s="21"/>
-      <c r="AW120" s="21"/>
-      <c r="AX120" s="21"/>
-      <c r="AY120" s="21"/>
-      <c r="AZ120" s="21"/>
-      <c r="BA120" s="21"/>
-      <c r="BB120" s="21"/>
-      <c r="BC120" s="21"/>
-      <c r="BD120" s="21"/>
-      <c r="BE120" s="21"/>
-      <c r="BF120" s="21"/>
-      <c r="BG120" s="21"/>
-      <c r="BH120" s="21"/>
-      <c r="BI120" s="21"/>
-      <c r="BJ120" s="21"/>
-      <c r="BK120" s="21"/>
-      <c r="BL120" s="21"/>
-      <c r="BM120" s="21"/>
-      <c r="BN120" s="21"/>
-    </row>
-    <row r="121" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
-        <v>95</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:66" s="51" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A121" s="27">
+        <v>141</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D121" s="24" t="s">
+      <c r="C121" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>144</v>
+      <c r="F121" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="G121" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H121" s="59" t="s">
         <v>220</v>
@@ -31837,32 +31852,83 @@
         <v>7</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L121" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M121" s="33" t="s">
-        <v>206</v>
+        <v>32</v>
+      </c>
+      <c r="L121" s="27">
+        <v>3013</v>
+      </c>
+      <c r="M121" s="85" t="s">
+        <v>234</v>
       </c>
       <c r="N121" s="31" t="s">
         <v>138</v>
       </c>
       <c r="O121" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="P121" s="21"/>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="21"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+      <c r="Y121" s="21"/>
+      <c r="Z121" s="21"/>
+      <c r="AA121" s="21"/>
+      <c r="AB121" s="21"/>
+      <c r="AC121" s="21"/>
+      <c r="AD121" s="21"/>
+      <c r="AE121" s="21"/>
+      <c r="AF121" s="21"/>
+      <c r="AG121" s="21"/>
+      <c r="AH121" s="21"/>
+      <c r="AI121" s="21"/>
+      <c r="AJ121" s="21"/>
+      <c r="AK121" s="21"/>
+      <c r="AL121" s="21"/>
+      <c r="AM121" s="21"/>
+      <c r="AN121" s="21"/>
+      <c r="AO121" s="21"/>
+      <c r="AP121" s="21"/>
+      <c r="AQ121" s="21"/>
+      <c r="AR121" s="21"/>
+      <c r="AS121" s="21"/>
+      <c r="AT121" s="21"/>
+      <c r="AU121" s="21"/>
+      <c r="AV121" s="21"/>
+      <c r="AW121" s="21"/>
+      <c r="AX121" s="21"/>
+      <c r="AY121" s="21"/>
+      <c r="AZ121" s="21"/>
+      <c r="BA121" s="21"/>
+      <c r="BB121" s="21"/>
+      <c r="BC121" s="21"/>
+      <c r="BD121" s="21"/>
+      <c r="BE121" s="21"/>
+      <c r="BF121" s="21"/>
+      <c r="BG121" s="21"/>
+      <c r="BH121" s="21"/>
+      <c r="BI121" s="21"/>
+      <c r="BJ121" s="21"/>
+      <c r="BK121" s="21"/>
+      <c r="BL121" s="21"/>
+      <c r="BM121" s="21"/>
+      <c r="BN121" s="21"/>
+    </row>
+    <row r="122" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D122" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D122" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E122" s="4" t="s">
@@ -31872,7 +31938,7 @@
         <v>144</v>
       </c>
       <c r="G122" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H122" s="59" t="s">
         <v>220</v>
@@ -31886,178 +31952,178 @@
       <c r="K122" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L122" s="10">
-        <v>4001</v>
-      </c>
-      <c r="M122" s="31" t="s">
-        <v>19</v>
+      <c r="L122" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M122" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="N122" s="31" t="s">
         <v>138</v>
       </c>
       <c r="O122" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="22"/>
-      <c r="S122" s="22"/>
-      <c r="T122" s="22"/>
-      <c r="U122" s="22"/>
-      <c r="V122" s="22"/>
-      <c r="W122" s="22"/>
-      <c r="X122" s="22"/>
-      <c r="Y122" s="22"/>
-      <c r="Z122" s="22"/>
-      <c r="AA122" s="22"/>
-      <c r="AB122" s="22"/>
-      <c r="AC122" s="22"/>
-      <c r="AD122" s="22"/>
-      <c r="AE122" s="22"/>
-      <c r="AF122" s="22"/>
-      <c r="AG122" s="22"/>
-      <c r="AH122" s="22"/>
-      <c r="AI122" s="22"/>
-      <c r="AJ122" s="22"/>
-      <c r="AK122" s="22"/>
-      <c r="AL122" s="22"/>
-      <c r="AM122" s="22"/>
-      <c r="AN122" s="22"/>
-      <c r="AO122" s="22"/>
-      <c r="AP122" s="22"/>
-      <c r="AQ122" s="22"/>
-      <c r="AR122" s="22"/>
-      <c r="AS122" s="22"/>
-      <c r="AT122" s="22"/>
-      <c r="AU122" s="22"/>
-      <c r="AV122" s="22"/>
-      <c r="AW122" s="22"/>
-      <c r="AX122" s="22"/>
-      <c r="AY122" s="22"/>
-      <c r="AZ122" s="22"/>
-      <c r="BA122" s="22"/>
-      <c r="BB122" s="22"/>
-      <c r="BC122" s="22"/>
-      <c r="BD122" s="22"/>
-      <c r="BE122" s="22"/>
-      <c r="BF122" s="22"/>
-      <c r="BG122" s="22"/>
-      <c r="BH122" s="22"/>
-      <c r="BI122" s="22"/>
-      <c r="BJ122" s="22"/>
-      <c r="BK122" s="22"/>
-      <c r="BL122" s="22"/>
-      <c r="BM122" s="22"/>
-      <c r="BN122" s="22"/>
-    </row>
-    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A123" s="27">
-        <v>142</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>96</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C123" s="85" t="s">
+      <c r="C123" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G123" s="24">
+        <v>400</v>
+      </c>
+      <c r="H123" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="I123" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L123" s="10">
+        <v>4001</v>
+      </c>
+      <c r="M123" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N123" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O123" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P123" s="22"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="22"/>
+      <c r="S123" s="22"/>
+      <c r="T123" s="22"/>
+      <c r="U123" s="22"/>
+      <c r="V123" s="22"/>
+      <c r="W123" s="22"/>
+      <c r="X123" s="22"/>
+      <c r="Y123" s="22"/>
+      <c r="Z123" s="22"/>
+      <c r="AA123" s="22"/>
+      <c r="AB123" s="22"/>
+      <c r="AC123" s="22"/>
+      <c r="AD123" s="22"/>
+      <c r="AE123" s="22"/>
+      <c r="AF123" s="22"/>
+      <c r="AG123" s="22"/>
+      <c r="AH123" s="22"/>
+      <c r="AI123" s="22"/>
+      <c r="AJ123" s="22"/>
+      <c r="AK123" s="22"/>
+      <c r="AL123" s="22"/>
+      <c r="AM123" s="22"/>
+      <c r="AN123" s="22"/>
+      <c r="AO123" s="22"/>
+      <c r="AP123" s="22"/>
+      <c r="AQ123" s="22"/>
+      <c r="AR123" s="22"/>
+      <c r="AS123" s="22"/>
+      <c r="AT123" s="22"/>
+      <c r="AU123" s="22"/>
+      <c r="AV123" s="22"/>
+      <c r="AW123" s="22"/>
+      <c r="AX123" s="22"/>
+      <c r="AY123" s="22"/>
+      <c r="AZ123" s="22"/>
+      <c r="BA123" s="22"/>
+      <c r="BB123" s="22"/>
+      <c r="BC123" s="22"/>
+      <c r="BD123" s="22"/>
+      <c r="BE123" s="22"/>
+      <c r="BF123" s="22"/>
+      <c r="BG123" s="22"/>
+      <c r="BH123" s="22"/>
+      <c r="BI123" s="22"/>
+      <c r="BJ123" s="22"/>
+      <c r="BK123" s="22"/>
+      <c r="BL123" s="22"/>
+      <c r="BM123" s="22"/>
+      <c r="BN123" s="22"/>
+    </row>
+    <row r="124" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A124" s="27">
+        <v>142</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="66">
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="66">
         <v>413</v>
       </c>
-      <c r="H123" s="66" t="s">
+      <c r="H124" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="I123" s="66"/>
-      <c r="J123" s="59" t="s">
+      <c r="I124" s="66"/>
+      <c r="J124" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="85" t="s">
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="N123" s="34"/>
-      <c r="O123" s="34"/>
-    </row>
-    <row r="124" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A124" s="100" t="s">
+      <c r="N124" s="34"/>
+      <c r="O124" s="34"/>
+    </row>
+    <row r="125" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A125" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="100"/>
-      <c r="C124" s="100"/>
-      <c r="D124" s="100"/>
-      <c r="E124" s="100"/>
-      <c r="F124" s="100"/>
-      <c r="G124" s="100"/>
-      <c r="H124" s="100"/>
-      <c r="I124" s="100"/>
-      <c r="J124" s="100"/>
-      <c r="K124" s="100"/>
-      <c r="L124" s="100"/>
-      <c r="M124" s="100"/>
-      <c r="N124" s="100"/>
-      <c r="O124" s="100"/>
-    </row>
-    <row r="125" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
-        <v>97</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G125" s="39">
-        <v>200</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="I125" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K125" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L125" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M125" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="N125" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="O125" s="32" t="s">
-        <v>64</v>
-      </c>
+      <c r="B125" s="100"/>
+      <c r="C125" s="100"/>
+      <c r="D125" s="100"/>
+      <c r="E125" s="100"/>
+      <c r="F125" s="100"/>
+      <c r="G125" s="100"/>
+      <c r="H125" s="100"/>
+      <c r="I125" s="100"/>
+      <c r="J125" s="100"/>
+      <c r="K125" s="100"/>
+      <c r="L125" s="100"/>
+      <c r="M125" s="100"/>
+      <c r="N125" s="100"/>
+      <c r="O125" s="100"/>
     </row>
     <row r="126" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B126" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C126" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D126" s="27" t="s">
+      <c r="C126" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E126" s="5" t="s">
@@ -32078,31 +32144,31 @@
       <c r="J126" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K126" s="27" t="s">
+      <c r="K126" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L126" s="27">
-        <v>4003</v>
+      <c r="L126" s="8">
+        <v>4002</v>
       </c>
       <c r="M126" s="33" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="N126" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="O126" s="34" t="s">
-        <v>1</v>
+      <c r="O126" s="32" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B127" s="32" t="s">
         <v>137</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="D127" s="27" t="s">
         <v>12</v>
@@ -32129,35 +32195,35 @@
         <v>32</v>
       </c>
       <c r="L127" s="27">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="M127" s="33" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="N127" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="O127" s="32" t="s">
-        <v>188</v>
+      <c r="O127" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D128" s="4">
-        <v>8</v>
-      </c>
-      <c r="E128" s="24" t="s">
+      <c r="C128" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F128" s="24" t="s">
+      <c r="F128" s="5" t="s">
         <v>144</v>
       </c>
       <c r="G128" s="39">
@@ -32169,119 +32235,119 @@
       <c r="I128" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="J128" s="4" t="s">
+      <c r="J128" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="K128" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L128" s="27">
+        <v>4004</v>
+      </c>
+      <c r="M128" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="N128" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="O128" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>99</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129" s="4">
+        <v>8</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G129" s="39">
+        <v>200</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L128" s="4">
+      <c r="L129" s="4">
         <v>1010</v>
       </c>
-      <c r="M128" s="31" t="s">
+      <c r="M129" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N128" s="31" t="s">
+      <c r="N129" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="O128" s="31" t="s">
+      <c r="O129" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="99" t="s">
+    <row r="130" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="B129" s="99"/>
-      <c r="C129" s="99"/>
-      <c r="D129" s="99"/>
-      <c r="E129" s="99"/>
-      <c r="F129" s="99"/>
-      <c r="G129" s="99"/>
-      <c r="H129" s="99"/>
-      <c r="I129" s="99"/>
-      <c r="J129" s="99"/>
-      <c r="K129" s="99"/>
-      <c r="L129" s="99"/>
-      <c r="M129" s="99"/>
-      <c r="N129" s="99"/>
-      <c r="O129" s="99"/>
-    </row>
-    <row r="130" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A130" s="100" t="s">
+      <c r="B130" s="99"/>
+      <c r="C130" s="99"/>
+      <c r="D130" s="99"/>
+      <c r="E130" s="99"/>
+      <c r="F130" s="99"/>
+      <c r="G130" s="99"/>
+      <c r="H130" s="99"/>
+      <c r="I130" s="99"/>
+      <c r="J130" s="99"/>
+      <c r="K130" s="99"/>
+      <c r="L130" s="99"/>
+      <c r="M130" s="99"/>
+      <c r="N130" s="99"/>
+      <c r="O130" s="99"/>
+    </row>
+    <row r="131" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A131" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="B130" s="100"/>
-      <c r="C130" s="100"/>
-      <c r="D130" s="100"/>
-      <c r="E130" s="100"/>
-      <c r="F130" s="100"/>
-      <c r="G130" s="100"/>
-      <c r="H130" s="100"/>
-      <c r="I130" s="100"/>
-      <c r="J130" s="100"/>
-      <c r="K130" s="100"/>
-      <c r="L130" s="100"/>
-      <c r="M130" s="100"/>
-      <c r="N130" s="100"/>
-      <c r="O130" s="100"/>
-    </row>
-    <row r="131" spans="1:66" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A131" s="94">
+      <c r="B131" s="100"/>
+      <c r="C131" s="100"/>
+      <c r="D131" s="100"/>
+      <c r="E131" s="100"/>
+      <c r="F131" s="100"/>
+      <c r="G131" s="100"/>
+      <c r="H131" s="100"/>
+      <c r="I131" s="100"/>
+      <c r="J131" s="100"/>
+      <c r="K131" s="100"/>
+      <c r="L131" s="100"/>
+      <c r="M131" s="100"/>
+      <c r="N131" s="100"/>
+      <c r="O131" s="100"/>
+    </row>
+    <row r="132" spans="1:66" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A132" s="94">
         <v>147</v>
-      </c>
-      <c r="B131" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C131" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="D131" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="F131" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="G131" s="94">
-        <v>400</v>
-      </c>
-      <c r="H131" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="I131" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="J131" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K131" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="L131" s="94">
-        <v>3015</v>
-      </c>
-      <c r="M131" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="N131" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="O131" s="95" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="132" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="94">
-        <v>146</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C132" s="95" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D132" s="94" t="s">
         <v>12</v>
@@ -32293,7 +32359,7 @@
         <v>144</v>
       </c>
       <c r="G132" s="94">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H132" s="94" t="s">
         <v>220</v>
@@ -32305,128 +32371,128 @@
         <v>7</v>
       </c>
       <c r="K132" s="94" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L132" s="94">
-        <v>1016</v>
+        <v>3015</v>
       </c>
       <c r="M132" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="N132" s="95" t="s">
-        <v>57</v>
+        <v>255</v>
+      </c>
+      <c r="N132" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="O132" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="P132" s="21"/>
-      <c r="Q132" s="21"/>
-      <c r="R132" s="21"/>
-      <c r="S132" s="21"/>
-      <c r="T132" s="21"/>
-      <c r="U132" s="21"/>
-      <c r="V132" s="21"/>
-      <c r="W132" s="21"/>
-      <c r="X132" s="21"/>
-      <c r="Y132" s="21"/>
-      <c r="Z132" s="21"/>
-      <c r="AA132" s="21"/>
-      <c r="AB132" s="21"/>
-      <c r="AC132" s="21"/>
-      <c r="AD132" s="21"/>
-      <c r="AE132" s="21"/>
-      <c r="AF132" s="21"/>
-      <c r="AG132" s="21"/>
-      <c r="AH132" s="21"/>
-      <c r="AI132" s="21"/>
-      <c r="AJ132" s="21"/>
-      <c r="AK132" s="21"/>
-      <c r="AL132" s="21"/>
-      <c r="AM132" s="21"/>
-      <c r="AN132" s="21"/>
-      <c r="AO132" s="21"/>
-      <c r="AP132" s="21"/>
-      <c r="AQ132" s="21"/>
-      <c r="AR132" s="21"/>
-      <c r="AS132" s="21"/>
-      <c r="AT132" s="21"/>
-      <c r="AU132" s="21"/>
-      <c r="AV132" s="21"/>
-      <c r="AW132" s="21"/>
-      <c r="AX132" s="21"/>
-      <c r="AY132" s="21"/>
-      <c r="AZ132" s="21"/>
-      <c r="BA132" s="21"/>
-      <c r="BB132" s="21"/>
-      <c r="BC132" s="21"/>
-      <c r="BD132" s="21"/>
-      <c r="BE132" s="21"/>
-      <c r="BF132" s="21"/>
-      <c r="BG132" s="21"/>
-      <c r="BH132" s="21"/>
-      <c r="BI132" s="21"/>
-      <c r="BJ132" s="21"/>
-      <c r="BK132" s="21"/>
-      <c r="BL132" s="21"/>
-      <c r="BM132" s="21"/>
-      <c r="BN132" s="21"/>
-    </row>
-    <row r="133" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
-        <v>102</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="94">
+        <v>146</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C133" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D133" s="4" t="s">
+      <c r="C133" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D133" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G133" s="24">
-        <v>401</v>
-      </c>
-      <c r="H133" s="66" t="s">
+      <c r="G133" s="94">
+        <v>403</v>
+      </c>
+      <c r="H133" s="94" t="s">
         <v>220</v>
       </c>
       <c r="I133" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J133" s="4" t="s">
+      <c r="J133" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K133" s="4" t="s">
+      <c r="K133" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="L133" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M133" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N133" s="33" t="s">
+      <c r="L133" s="94">
+        <v>1016</v>
+      </c>
+      <c r="M133" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="N133" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="O133" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="O133" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P133" s="21"/>
+      <c r="Q133" s="21"/>
+      <c r="R133" s="21"/>
+      <c r="S133" s="21"/>
+      <c r="T133" s="21"/>
+      <c r="U133" s="21"/>
+      <c r="V133" s="21"/>
+      <c r="W133" s="21"/>
+      <c r="X133" s="21"/>
+      <c r="Y133" s="21"/>
+      <c r="Z133" s="21"/>
+      <c r="AA133" s="21"/>
+      <c r="AB133" s="21"/>
+      <c r="AC133" s="21"/>
+      <c r="AD133" s="21"/>
+      <c r="AE133" s="21"/>
+      <c r="AF133" s="21"/>
+      <c r="AG133" s="21"/>
+      <c r="AH133" s="21"/>
+      <c r="AI133" s="21"/>
+      <c r="AJ133" s="21"/>
+      <c r="AK133" s="21"/>
+      <c r="AL133" s="21"/>
+      <c r="AM133" s="21"/>
+      <c r="AN133" s="21"/>
+      <c r="AO133" s="21"/>
+      <c r="AP133" s="21"/>
+      <c r="AQ133" s="21"/>
+      <c r="AR133" s="21"/>
+      <c r="AS133" s="21"/>
+      <c r="AT133" s="21"/>
+      <c r="AU133" s="21"/>
+      <c r="AV133" s="21"/>
+      <c r="AW133" s="21"/>
+      <c r="AX133" s="21"/>
+      <c r="AY133" s="21"/>
+      <c r="AZ133" s="21"/>
+      <c r="BA133" s="21"/>
+      <c r="BB133" s="21"/>
+      <c r="BC133" s="21"/>
+      <c r="BD133" s="21"/>
+      <c r="BE133" s="21"/>
+      <c r="BF133" s="21"/>
+      <c r="BG133" s="21"/>
+      <c r="BH133" s="21"/>
+      <c r="BI133" s="21"/>
+      <c r="BJ133" s="21"/>
+      <c r="BK133" s="21"/>
+      <c r="BL133" s="21"/>
+      <c r="BM133" s="21"/>
+      <c r="BN133" s="21"/>
+    </row>
+    <row r="134" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C134" s="23" t="s">
-        <v>151</v>
+      <c r="C134" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>12</v>
@@ -32453,39 +32519,39 @@
         <v>34</v>
       </c>
       <c r="L134" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M134" s="23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N134" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O134" s="48" t="s">
+      <c r="O134" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D135" s="24">
-        <v>201</v>
-      </c>
-      <c r="E135" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F135" s="24" t="s">
+      <c r="F135" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G135" s="45">
-        <v>400</v>
+      <c r="G135" s="24">
+        <v>401</v>
       </c>
       <c r="H135" s="66" t="s">
         <v>220</v>
@@ -32493,34 +32559,34 @@
       <c r="I135" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J135" s="24" t="s">
+      <c r="J135" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L135" s="41">
-        <v>1003</v>
-      </c>
-      <c r="M135" s="33" t="s">
-        <v>14</v>
+      <c r="K135" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L135" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M135" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="N135" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="O135" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="136" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O135" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D136" s="24">
         <v>201</v>
@@ -32544,13 +32610,13 @@
         <v>7</v>
       </c>
       <c r="K136" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L136" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L136" s="41">
+        <v>1003</v>
       </c>
       <c r="M136" s="33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N136" s="33" t="s">
         <v>57</v>
@@ -32559,26 +32625,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C137" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D137" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" s="54" t="s">
+      <c r="C137" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D137" s="24">
+        <v>201</v>
+      </c>
+      <c r="E137" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F137" s="54" t="s">
+      <c r="F137" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G137" s="55">
+      <c r="G137" s="45">
         <v>400</v>
       </c>
       <c r="H137" s="66" t="s">
@@ -32587,46 +32653,46 @@
       <c r="I137" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J137" s="54" t="s">
+      <c r="J137" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K137" s="55" t="s">
+      <c r="K137" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L137" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M137" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="N137" s="53" t="s">
+      <c r="L137" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M137" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N137" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="O137" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="O137" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C138" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D138" s="24">
-        <v>202</v>
-      </c>
-      <c r="E138" s="24" t="s">
+      <c r="C138" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D138" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F138" s="24" t="s">
+      <c r="F138" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G138" s="45">
-        <v>403</v>
+      <c r="G138" s="55">
+        <v>400</v>
       </c>
       <c r="H138" s="66" t="s">
         <v>220</v>
@@ -32634,34 +32700,34 @@
       <c r="I138" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J138" s="24" t="s">
+      <c r="J138" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K138" s="24" t="s">
+      <c r="K138" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L138" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M138" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N138" s="33" t="s">
+      <c r="L138" s="54">
+        <v>1015</v>
+      </c>
+      <c r="M138" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N138" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="O138" s="31" t="s">
-        <v>61</v>
+      <c r="O138" s="64" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B139" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D139" s="24">
         <v>202</v>
@@ -32685,13 +32751,13 @@
         <v>7</v>
       </c>
       <c r="K139" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L139" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M139" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N139" s="33" t="s">
         <v>57</v>
@@ -32700,15 +32766,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D140" s="24">
         <v>202</v>
@@ -32719,7 +32785,7 @@
       <c r="F140" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G140" s="24">
+      <c r="G140" s="45">
         <v>403</v>
       </c>
       <c r="H140" s="66" t="s">
@@ -32735,10 +32801,10 @@
         <v>32</v>
       </c>
       <c r="L140" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M140" s="33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N140" s="33" t="s">
         <v>57</v>
@@ -32749,13 +32815,13 @@
     </row>
     <row r="141" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B141" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="D141" s="24">
         <v>202</v>
@@ -32781,11 +32847,11 @@
       <c r="K141" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L141" s="66">
-        <v>5001</v>
+      <c r="L141" s="25">
+        <v>1008</v>
       </c>
       <c r="M141" s="33" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="N141" s="33" t="s">
         <v>57</v>
@@ -32794,15 +32860,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D142" s="24">
         <v>202</v>
@@ -32813,7 +32879,7 @@
       <c r="F142" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G142" s="45">
+      <c r="G142" s="24">
         <v>403</v>
       </c>
       <c r="H142" s="66" t="s">
@@ -32826,42 +32892,42 @@
         <v>7</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L142" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L142" s="66">
+        <v>5001</v>
       </c>
       <c r="M142" s="33" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="N142" s="33" t="s">
         <v>57</v>
       </c>
       <c r="O142" s="31" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D143" s="4">
-        <v>203</v>
-      </c>
-      <c r="E143" s="4" t="s">
+      <c r="C143" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D143" s="24">
+        <v>202</v>
+      </c>
+      <c r="E143" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G143" s="24">
-        <v>400</v>
+      <c r="G143" s="45">
+        <v>403</v>
       </c>
       <c r="H143" s="66" t="s">
         <v>220</v>
@@ -32869,34 +32935,34 @@
       <c r="I143" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J143" s="4" t="s">
+      <c r="J143" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K143" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L143" s="10">
-        <v>3002</v>
-      </c>
-      <c r="M143" s="31" t="s">
-        <v>182</v>
+      <c r="K143" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L143" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M143" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="N143" s="33" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="O143" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="144" spans="1:66" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="27">
-        <v>132</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>112</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C144" s="58" t="s">
-        <v>199</v>
+      <c r="C144" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="D144" s="4">
         <v>203</v>
@@ -32916,19 +32982,19 @@
       <c r="I144" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="J144" s="59" t="s">
+      <c r="J144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L144" s="27">
-        <v>3003</v>
-      </c>
-      <c r="M144" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="N144" s="34" t="s">
+      <c r="L144" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M144" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="N144" s="33" t="s">
         <v>218</v>
       </c>
       <c r="O144" s="31" t="s">
@@ -32937,16 +33003,16 @@
     </row>
     <row r="145" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A145" s="27">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C145" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D145" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>144</v>
@@ -32970,30 +33036,30 @@
         <v>11</v>
       </c>
       <c r="L145" s="27">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="M145" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N145" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="O145" s="57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="8">
-        <v>130</v>
+      <c r="O145" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="27">
+        <v>131</v>
       </c>
       <c r="B146" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C146" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="D146" s="4">
+        <v>204</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>144</v>
@@ -33017,30 +33083,30 @@
         <v>11</v>
       </c>
       <c r="L146" s="27">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="M146" s="58" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N146" s="34" t="s">
         <v>218</v>
       </c>
       <c r="O146" s="57" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C147" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="D147" s="4">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>144</v>
@@ -33064,30 +33130,30 @@
         <v>11</v>
       </c>
       <c r="L147" s="27">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="M147" s="58" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N147" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="O147" s="58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" s="27">
-        <v>129</v>
+      <c r="O147" s="57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="8">
+        <v>128</v>
       </c>
       <c r="B148" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C148" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>12</v>
+      <c r="C148" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" s="4">
+        <v>203</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>144</v>
@@ -33095,8 +33161,8 @@
       <c r="F148" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G148" s="66">
-        <v>404</v>
+      <c r="G148" s="24">
+        <v>400</v>
       </c>
       <c r="H148" s="66" t="s">
         <v>220</v>
@@ -33110,11 +33176,11 @@
       <c r="K148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L148" s="67">
-        <v>3007</v>
-      </c>
-      <c r="M148" s="68" t="s">
-        <v>209</v>
+      <c r="L148" s="27">
+        <v>3006</v>
+      </c>
+      <c r="M148" s="58" t="s">
+        <v>202</v>
       </c>
       <c r="N148" s="34" t="s">
         <v>218</v>
@@ -33124,21 +33190,51 @@
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="46"/>
-      <c r="I149" s="46"/>
-      <c r="J149" s="20"/>
-      <c r="K149" s="20"/>
-      <c r="L149" s="20"/>
-      <c r="M149" s="35"/>
-      <c r="N149" s="21"/>
-      <c r="O149" s="21"/>
+      <c r="A149" s="27">
+        <v>129</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C149" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G149" s="66">
+        <v>404</v>
+      </c>
+      <c r="H149" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="I149" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J149" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L149" s="67">
+        <v>3007</v>
+      </c>
+      <c r="M149" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="N149" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="O149" s="58" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="20"/>
@@ -33441,6 +33537,7 @@
       <c r="I167" s="46"/>
       <c r="J167" s="20"/>
       <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
       <c r="M167" s="35"/>
       <c r="N167" s="21"/>
       <c r="O167" s="21"/>
@@ -33457,7 +33554,6 @@
       <c r="I168" s="46"/>
       <c r="J168" s="20"/>
       <c r="K168" s="20"/>
-      <c r="L168" s="20"/>
       <c r="M168" s="35"/>
       <c r="N168" s="21"/>
       <c r="O168" s="21"/>
@@ -38341,34 +38437,51 @@
       <c r="N455" s="21"/>
       <c r="O455" s="21"/>
     </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A456" s="20"/>
+      <c r="B456" s="21"/>
+      <c r="C456" s="22"/>
+      <c r="D456" s="20"/>
+      <c r="E456" s="20"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="46"/>
+      <c r="H456" s="46"/>
+      <c r="I456" s="46"/>
+      <c r="J456" s="20"/>
+      <c r="K456" s="20"/>
+      <c r="L456" s="20"/>
+      <c r="M456" s="35"/>
+      <c r="N456" s="21"/>
+      <c r="O456" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G455"/>
+  <autoFilter ref="G1:G456"/>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A129:O129"/>
-    <mergeCell ref="A130:O130"/>
-    <mergeCell ref="A124:O124"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A109:O109"/>
-    <mergeCell ref="A85:O85"/>
-    <mergeCell ref="A84:O84"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="A71:O71"/>
-    <mergeCell ref="A57:O57"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A56:O56"/>
-    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="A86:O86"/>
+    <mergeCell ref="A85:O85"/>
+    <mergeCell ref="A109:O109"/>
+    <mergeCell ref="A72:O72"/>
+    <mergeCell ref="A58:O58"/>
+    <mergeCell ref="A130:O130"/>
+    <mergeCell ref="A131:O131"/>
+    <mergeCell ref="A125:O125"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A110:O110"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J48:J54 J93:J104 J79:J83 J7:J8 J62:J63 J76:J77 J89:J91 J113:J115 J135:J136 J10:J16 J138:J148 J20:J22 J117:J123 J106:J107 J125:J128 J25:J46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J66:J70 J49:J55 J94:J105 J80:J84 J7:J8 J63:J64 J77:J78 J90:J92 J114:J116 J136:J137 J10:J16 J139:J149 J20:J22 J118:J124 J107:J108 J126:J129 J26:J47">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K48:K54 K65:K69 K79:K83 K128 K7:K8 K62:K63 K76:K77 K89:K91 K113:K115 K135:K136 K10:K16 K93:K104 K138:K148 K20:K22 K117:K123 K106:K107 K125 K24:K46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K49:K55 K66:K70 K80:K84 K129 K7:K8 K63:K64 K77:K78 K90:K92 K114:K116 K136:K137 K10:K16 K94:K105 K139:K149 K20:K22 K118:K124 K107:K108 K126 K24:K47">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L65:L69 L10:L14 L79:L83 L107 L128 L48:L52 L142:L143 L138:L140 L7:L8 L62:L63 L76:L77 L89:L91 L113:L115 L135:L136 L16 L36:L45 L93:L98 L117:L119 L20:L22 L121:L123 L125 L25 L27:L34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L66:L70 L10:L14 L80:L84 L108 L129 L49:L53 L143:L144 L139:L141 L7:L8 L63:L64 L77:L78 L90:L92 L114:L116 L136:L137 L16 L37:L46 L94:L99 L118:L120 L20:L22 L122:L124 L126 L26 L28:L35">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -38380,8 +38493,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="22" max="16383" man="1"/>
-    <brk id="55" max="16383" man="1"/>
-    <brk id="83" max="9" man="1"/>
+    <brk id="56" max="16383" man="1"/>
+    <brk id="84" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -11,9 +11,9 @@
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$456</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$457</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$126</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$127</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="273">
   <si>
     <t>Payslip</t>
   </si>
@@ -891,6 +891,12 @@
   <si>
     <t>Updated Description</t>
   </si>
+  <si>
+    <t>EmployeeDetail.EmploymentStartDate</t>
+  </si>
+  <si>
+    <t>Employment Start Date cannot be before 01/01/1900</t>
+  </si>
 </sst>
 </file>
 
@@ -1142,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1413,22 +1419,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -1454,8 +1453,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -22119,10 +22118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M58"/>
+  <dimension ref="B8:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22708,6 +22707,15 @@
         <v>270</v>
       </c>
     </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="79"/>
+      <c r="C59" s="79">
+        <v>151</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:E9"/>
@@ -22723,11 +22731,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN456"/>
+  <dimension ref="A1:BN457"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -32205,14 +32213,14 @@
       <c r="O125" s="99"/>
     </row>
     <row r="126" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>97</v>
+      <c r="A126" s="8">
+        <v>151</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="23" t="s">
-        <v>87</v>
+      <c r="C126" s="100" t="s">
+        <v>272</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>12</v>
@@ -32235,33 +32243,31 @@
       <c r="J126" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K126" s="5" t="s">
-        <v>32</v>
+      <c r="K126" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="L126" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M126" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N126" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="O126" s="31" t="s">
-        <v>64</v>
+        <v>4005</v>
+      </c>
+      <c r="M126" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="N126" s="71"/>
+      <c r="O126" s="100" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D127" s="26" t="s">
+      <c r="C127" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E127" s="5" t="s">
@@ -32282,31 +32288,31 @@
       <c r="J127" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K127" s="26" t="s">
+      <c r="K127" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L127" s="26">
-        <v>4003</v>
+      <c r="L127" s="8">
+        <v>4002</v>
       </c>
       <c r="M127" s="32" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="N127" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O127" s="33" t="s">
-        <v>1</v>
+      <c r="O127" s="31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B128" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="D128" s="26" t="s">
         <v>12</v>
@@ -32333,35 +32339,35 @@
         <v>32</v>
       </c>
       <c r="L128" s="26">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="M128" s="32" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="N128" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O128" s="31" t="s">
-        <v>186</v>
+      <c r="O128" s="33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B129" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D129" s="4">
-        <v>8</v>
-      </c>
-      <c r="E129" s="24" t="s">
+      <c r="C129" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F129" s="24" t="s">
+      <c r="F129" s="5" t="s">
         <v>142</v>
       </c>
       <c r="G129" s="38">
@@ -32373,119 +32379,119 @@
       <c r="I129" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J129" s="4" t="s">
+      <c r="J129" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K129" s="4" t="s">
+      <c r="K129" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L129" s="26">
+        <v>4004</v>
+      </c>
+      <c r="M129" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="N129" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="O129" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>99</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D130" s="4">
+        <v>8</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G130" s="38">
+        <v>200</v>
+      </c>
+      <c r="H130" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L129" s="4">
+      <c r="L130" s="4">
         <v>1010</v>
       </c>
-      <c r="M129" s="30" t="s">
+      <c r="M130" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N129" s="30" t="s">
+      <c r="N130" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O129" s="30" t="s">
+      <c r="O130" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="98" t="s">
+    <row r="131" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="B130" s="98"/>
-      <c r="C130" s="98"/>
-      <c r="D130" s="98"/>
-      <c r="E130" s="98"/>
-      <c r="F130" s="98"/>
-      <c r="G130" s="98"/>
-      <c r="H130" s="98"/>
-      <c r="I130" s="98"/>
-      <c r="J130" s="98"/>
-      <c r="K130" s="98"/>
-      <c r="L130" s="98"/>
-      <c r="M130" s="98"/>
-      <c r="N130" s="98"/>
-      <c r="O130" s="98"/>
-    </row>
-    <row r="131" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A131" s="99" t="s">
+      <c r="B131" s="98"/>
+      <c r="C131" s="98"/>
+      <c r="D131" s="98"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="98"/>
+      <c r="G131" s="98"/>
+      <c r="H131" s="98"/>
+      <c r="I131" s="98"/>
+      <c r="J131" s="98"/>
+      <c r="K131" s="98"/>
+      <c r="L131" s="98"/>
+      <c r="M131" s="98"/>
+      <c r="N131" s="98"/>
+      <c r="O131" s="98"/>
+    </row>
+    <row r="132" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A132" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="B131" s="99"/>
-      <c r="C131" s="99"/>
-      <c r="D131" s="99"/>
-      <c r="E131" s="99"/>
-      <c r="F131" s="99"/>
-      <c r="G131" s="99"/>
-      <c r="H131" s="99"/>
-      <c r="I131" s="99"/>
-      <c r="J131" s="99"/>
-      <c r="K131" s="99"/>
-      <c r="L131" s="99"/>
-      <c r="M131" s="99"/>
-      <c r="N131" s="99"/>
-      <c r="O131" s="99"/>
-    </row>
-    <row r="132" spans="1:66" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A132" s="93">
+      <c r="B132" s="99"/>
+      <c r="C132" s="99"/>
+      <c r="D132" s="99"/>
+      <c r="E132" s="99"/>
+      <c r="F132" s="99"/>
+      <c r="G132" s="99"/>
+      <c r="H132" s="99"/>
+      <c r="I132" s="99"/>
+      <c r="J132" s="99"/>
+      <c r="K132" s="99"/>
+      <c r="L132" s="99"/>
+      <c r="M132" s="99"/>
+      <c r="N132" s="99"/>
+      <c r="O132" s="99"/>
+    </row>
+    <row r="133" spans="1:66" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A133" s="93">
         <v>147</v>
-      </c>
-      <c r="B132" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C132" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="D132" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="F132" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G132" s="93">
-        <v>400</v>
-      </c>
-      <c r="H132" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="I132" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J132" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="K132" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="L132" s="93">
-        <v>3015</v>
-      </c>
-      <c r="M132" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="N132" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="O132" s="94" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="133" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="93">
-        <v>146</v>
       </c>
       <c r="B133" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C133" s="94" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D133" s="93" t="s">
         <v>12</v>
@@ -32497,7 +32503,7 @@
         <v>142</v>
       </c>
       <c r="G133" s="93">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H133" s="93" t="s">
         <v>218</v>
@@ -32509,128 +32515,128 @@
         <v>7</v>
       </c>
       <c r="K133" s="93" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L133" s="93">
-        <v>1016</v>
+        <v>3015</v>
       </c>
       <c r="M133" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="N133" s="94" t="s">
-        <v>57</v>
+        <v>253</v>
+      </c>
+      <c r="N133" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="O133" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="P133" s="21"/>
-      <c r="Q133" s="21"/>
-      <c r="R133" s="21"/>
-      <c r="S133" s="21"/>
-      <c r="T133" s="21"/>
-      <c r="U133" s="21"/>
-      <c r="V133" s="21"/>
-      <c r="W133" s="21"/>
-      <c r="X133" s="21"/>
-      <c r="Y133" s="21"/>
-      <c r="Z133" s="21"/>
-      <c r="AA133" s="21"/>
-      <c r="AB133" s="21"/>
-      <c r="AC133" s="21"/>
-      <c r="AD133" s="21"/>
-      <c r="AE133" s="21"/>
-      <c r="AF133" s="21"/>
-      <c r="AG133" s="21"/>
-      <c r="AH133" s="21"/>
-      <c r="AI133" s="21"/>
-      <c r="AJ133" s="21"/>
-      <c r="AK133" s="21"/>
-      <c r="AL133" s="21"/>
-      <c r="AM133" s="21"/>
-      <c r="AN133" s="21"/>
-      <c r="AO133" s="21"/>
-      <c r="AP133" s="21"/>
-      <c r="AQ133" s="21"/>
-      <c r="AR133" s="21"/>
-      <c r="AS133" s="21"/>
-      <c r="AT133" s="21"/>
-      <c r="AU133" s="21"/>
-      <c r="AV133" s="21"/>
-      <c r="AW133" s="21"/>
-      <c r="AX133" s="21"/>
-      <c r="AY133" s="21"/>
-      <c r="AZ133" s="21"/>
-      <c r="BA133" s="21"/>
-      <c r="BB133" s="21"/>
-      <c r="BC133" s="21"/>
-      <c r="BD133" s="21"/>
-      <c r="BE133" s="21"/>
-      <c r="BF133" s="21"/>
-      <c r="BG133" s="21"/>
-      <c r="BH133" s="21"/>
-      <c r="BI133" s="21"/>
-      <c r="BJ133" s="21"/>
-      <c r="BK133" s="21"/>
-      <c r="BL133" s="21"/>
-      <c r="BM133" s="21"/>
-      <c r="BN133" s="21"/>
-    </row>
-    <row r="134" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
-        <v>102</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="93">
+        <v>146</v>
       </c>
       <c r="B134" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C134" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D134" s="4" t="s">
+      <c r="C134" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="D134" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="G134" s="24">
-        <v>401</v>
-      </c>
-      <c r="H134" s="65" t="s">
+      <c r="G134" s="93">
+        <v>403</v>
+      </c>
+      <c r="H134" s="93" t="s">
         <v>218</v>
       </c>
       <c r="I134" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J134" s="4" t="s">
+      <c r="J134" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="K134" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="L134" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M134" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N134" s="32" t="s">
+      <c r="L134" s="93">
+        <v>1016</v>
+      </c>
+      <c r="M134" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="N134" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="O134" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="O134" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P134" s="21"/>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="21"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="21"/>
+      <c r="V134" s="21"/>
+      <c r="W134" s="21"/>
+      <c r="X134" s="21"/>
+      <c r="Y134" s="21"/>
+      <c r="Z134" s="21"/>
+      <c r="AA134" s="21"/>
+      <c r="AB134" s="21"/>
+      <c r="AC134" s="21"/>
+      <c r="AD134" s="21"/>
+      <c r="AE134" s="21"/>
+      <c r="AF134" s="21"/>
+      <c r="AG134" s="21"/>
+      <c r="AH134" s="21"/>
+      <c r="AI134" s="21"/>
+      <c r="AJ134" s="21"/>
+      <c r="AK134" s="21"/>
+      <c r="AL134" s="21"/>
+      <c r="AM134" s="21"/>
+      <c r="AN134" s="21"/>
+      <c r="AO134" s="21"/>
+      <c r="AP134" s="21"/>
+      <c r="AQ134" s="21"/>
+      <c r="AR134" s="21"/>
+      <c r="AS134" s="21"/>
+      <c r="AT134" s="21"/>
+      <c r="AU134" s="21"/>
+      <c r="AV134" s="21"/>
+      <c r="AW134" s="21"/>
+      <c r="AX134" s="21"/>
+      <c r="AY134" s="21"/>
+      <c r="AZ134" s="21"/>
+      <c r="BA134" s="21"/>
+      <c r="BB134" s="21"/>
+      <c r="BC134" s="21"/>
+      <c r="BD134" s="21"/>
+      <c r="BE134" s="21"/>
+      <c r="BF134" s="21"/>
+      <c r="BG134" s="21"/>
+      <c r="BH134" s="21"/>
+      <c r="BI134" s="21"/>
+      <c r="BJ134" s="21"/>
+      <c r="BK134" s="21"/>
+      <c r="BL134" s="21"/>
+      <c r="BM134" s="21"/>
+      <c r="BN134" s="21"/>
+    </row>
+    <row r="135" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B135" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C135" s="23" t="s">
-        <v>149</v>
+      <c r="C135" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>12</v>
@@ -32657,39 +32663,39 @@
         <v>34</v>
       </c>
       <c r="L135" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M135" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N135" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O135" s="47" t="s">
+      <c r="O135" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B136" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="D136" s="24">
-        <v>201</v>
-      </c>
-      <c r="E136" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F136" s="24" t="s">
+      <c r="F136" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G136" s="44">
-        <v>400</v>
+      <c r="G136" s="24">
+        <v>401</v>
       </c>
       <c r="H136" s="65" t="s">
         <v>218</v>
@@ -32697,34 +32703,34 @@
       <c r="I136" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J136" s="24" t="s">
+      <c r="J136" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K136" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L136" s="40">
-        <v>1003</v>
-      </c>
-      <c r="M136" s="32" t="s">
-        <v>14</v>
+      <c r="K136" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L136" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M136" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="N136" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="O136" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="137" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O136" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B137" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="D137" s="24">
         <v>201</v>
@@ -32735,7 +32741,7 @@
       <c r="F137" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G137" s="24">
+      <c r="G137" s="44">
         <v>400</v>
       </c>
       <c r="H137" s="65" t="s">
@@ -32748,13 +32754,13 @@
         <v>7</v>
       </c>
       <c r="K137" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L137" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L137" s="40">
+        <v>1003</v>
       </c>
       <c r="M137" s="32" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N137" s="32" t="s">
         <v>57</v>
@@ -32763,26 +32769,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B138" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C138" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D138" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="53" t="s">
+      <c r="C138" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D138" s="24">
+        <v>201</v>
+      </c>
+      <c r="E138" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F138" s="53" t="s">
+      <c r="F138" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G138" s="54">
+      <c r="G138" s="24">
         <v>400</v>
       </c>
       <c r="H138" s="65" t="s">
@@ -32791,46 +32797,46 @@
       <c r="I138" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J138" s="53" t="s">
+      <c r="J138" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K138" s="54" t="s">
+      <c r="K138" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L138" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M138" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N138" s="52" t="s">
+      <c r="L138" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M138" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N138" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O138" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="O138" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B139" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C139" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D139" s="24">
-        <v>202</v>
-      </c>
-      <c r="E139" s="24" t="s">
+      <c r="C139" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D139" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F139" s="24" t="s">
+      <c r="F139" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G139" s="44">
-        <v>403</v>
+      <c r="G139" s="54">
+        <v>400</v>
       </c>
       <c r="H139" s="65" t="s">
         <v>218</v>
@@ -32838,34 +32844,34 @@
       <c r="I139" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J139" s="24" t="s">
+      <c r="J139" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K139" s="24" t="s">
+      <c r="K139" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L139" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M139" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N139" s="32" t="s">
+      <c r="L139" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M139" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N139" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="O139" s="30" t="s">
-        <v>61</v>
+      <c r="O139" s="63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D140" s="24">
         <v>202</v>
@@ -32889,13 +32895,13 @@
         <v>7</v>
       </c>
       <c r="K140" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L140" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M140" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N140" s="32" t="s">
         <v>57</v>
@@ -32904,15 +32910,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D141" s="24">
         <v>202</v>
@@ -32923,7 +32929,7 @@
       <c r="F141" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G141" s="24">
+      <c r="G141" s="44">
         <v>403</v>
       </c>
       <c r="H141" s="65" t="s">
@@ -32939,10 +32945,10 @@
         <v>32</v>
       </c>
       <c r="L141" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M141" s="32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N141" s="32" t="s">
         <v>57</v>
@@ -32953,13 +32959,13 @@
     </row>
     <row r="142" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B142" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="D142" s="24">
         <v>202</v>
@@ -32985,11 +32991,11 @@
       <c r="K142" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L142" s="65">
-        <v>5001</v>
+      <c r="L142" s="25">
+        <v>1008</v>
       </c>
       <c r="M142" s="32" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="N142" s="32" t="s">
         <v>57</v>
@@ -32998,15 +33004,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="143" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B143" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D143" s="24">
         <v>202</v>
@@ -33017,7 +33023,7 @@
       <c r="F143" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G143" s="44">
+      <c r="G143" s="24">
         <v>403</v>
       </c>
       <c r="H143" s="65" t="s">
@@ -33030,42 +33036,42 @@
         <v>7</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L143" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L143" s="65">
+        <v>5001</v>
       </c>
       <c r="M143" s="32" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="N143" s="32" t="s">
         <v>57</v>
       </c>
       <c r="O143" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D144" s="4">
-        <v>203</v>
-      </c>
-      <c r="E144" s="4" t="s">
+      <c r="C144" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D144" s="24">
+        <v>202</v>
+      </c>
+      <c r="E144" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G144" s="24">
-        <v>400</v>
+      <c r="G144" s="44">
+        <v>403</v>
       </c>
       <c r="H144" s="65" t="s">
         <v>218</v>
@@ -33073,34 +33079,34 @@
       <c r="I144" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J144" s="4" t="s">
+      <c r="J144" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L144" s="10">
-        <v>3002</v>
-      </c>
-      <c r="M144" s="30" t="s">
-        <v>180</v>
+      <c r="K144" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L144" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M144" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N144" s="32" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="O144" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="26">
-        <v>132</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>112</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C145" s="57" t="s">
-        <v>197</v>
+      <c r="C145" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D145" s="4">
         <v>203</v>
@@ -33120,19 +33126,19 @@
       <c r="I145" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J145" s="58" t="s">
+      <c r="J145" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L145" s="26">
-        <v>3003</v>
-      </c>
-      <c r="M145" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="N145" s="33" t="s">
+      <c r="L145" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M145" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="N145" s="32" t="s">
         <v>216</v>
       </c>
       <c r="O145" s="30" t="s">
@@ -33141,16 +33147,16 @@
     </row>
     <row r="146" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A146" s="26">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C146" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D146" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>142</v>
@@ -33174,30 +33180,30 @@
         <v>11</v>
       </c>
       <c r="L146" s="26">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="M146" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N146" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O146" s="56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="8">
-        <v>130</v>
+      <c r="O146" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="26">
+        <v>131</v>
       </c>
       <c r="B147" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C147" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>12</v>
+        <v>198</v>
+      </c>
+      <c r="D147" s="4">
+        <v>204</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>142</v>
@@ -33221,30 +33227,30 @@
         <v>11</v>
       </c>
       <c r="L147" s="26">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="M147" s="57" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N147" s="33" t="s">
         <v>216</v>
       </c>
       <c r="O147" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C148" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="D148" s="4">
         <v>203</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>142</v>
@@ -33268,30 +33274,30 @@
         <v>11</v>
       </c>
       <c r="L148" s="26">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="M148" s="57" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N148" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O148" s="57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="26">
-        <v>129</v>
+      <c r="O148" s="56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="8">
+        <v>128</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C149" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>12</v>
+      <c r="C149" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D149" s="4">
+        <v>203</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>142</v>
@@ -33299,8 +33305,8 @@
       <c r="F149" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G149" s="65">
-        <v>404</v>
+      <c r="G149" s="24">
+        <v>400</v>
       </c>
       <c r="H149" s="65" t="s">
         <v>218</v>
@@ -33314,11 +33320,11 @@
       <c r="K149" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L149" s="66">
-        <v>3007</v>
-      </c>
-      <c r="M149" s="67" t="s">
-        <v>207</v>
+      <c r="L149" s="26">
+        <v>3006</v>
+      </c>
+      <c r="M149" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="N149" s="33" t="s">
         <v>216</v>
@@ -33328,21 +33334,51 @@
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
-      <c r="B150" s="21"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="45"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="34"/>
-      <c r="N150" s="21"/>
-      <c r="O150" s="21"/>
+      <c r="A150" s="26">
+        <v>129</v>
+      </c>
+      <c r="B150" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G150" s="65">
+        <v>404</v>
+      </c>
+      <c r="H150" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="I150" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J150" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L150" s="66">
+        <v>3007</v>
+      </c>
+      <c r="M150" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N150" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="O150" s="57" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
@@ -33645,6 +33681,7 @@
       <c r="I168" s="45"/>
       <c r="J168" s="20"/>
       <c r="K168" s="20"/>
+      <c r="L168" s="20"/>
       <c r="M168" s="34"/>
       <c r="N168" s="21"/>
       <c r="O168" s="21"/>
@@ -33661,7 +33698,6 @@
       <c r="I169" s="45"/>
       <c r="J169" s="20"/>
       <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
       <c r="M169" s="34"/>
       <c r="N169" s="21"/>
       <c r="O169" s="21"/>
@@ -38545,34 +38581,51 @@
       <c r="N456" s="21"/>
       <c r="O456" s="21"/>
     </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A457" s="20"/>
+      <c r="B457" s="21"/>
+      <c r="C457" s="22"/>
+      <c r="D457" s="20"/>
+      <c r="E457" s="20"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="45"/>
+      <c r="H457" s="45"/>
+      <c r="I457" s="45"/>
+      <c r="J457" s="20"/>
+      <c r="K457" s="20"/>
+      <c r="L457" s="20"/>
+      <c r="M457" s="34"/>
+      <c r="N457" s="21"/>
+      <c r="O457" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G456"/>
+  <autoFilter ref="G1:G457"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A131:O131"/>
+    <mergeCell ref="A132:O132"/>
+    <mergeCell ref="A125:O125"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A110:O110"/>
+    <mergeCell ref="A86:O86"/>
+    <mergeCell ref="A85:O85"/>
+    <mergeCell ref="A109:O109"/>
+    <mergeCell ref="A72:O72"/>
+    <mergeCell ref="A58:O58"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
     <mergeCell ref="A57:O57"/>
     <mergeCell ref="A71:O71"/>
-    <mergeCell ref="A86:O86"/>
-    <mergeCell ref="A85:O85"/>
-    <mergeCell ref="A109:O109"/>
-    <mergeCell ref="A72:O72"/>
-    <mergeCell ref="A58:O58"/>
-    <mergeCell ref="A130:O130"/>
-    <mergeCell ref="A131:O131"/>
-    <mergeCell ref="A125:O125"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A110:O110"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J66:J70 J49:J55 J94:J105 J80:J84 J7:J8 J63:J64 J77:J78 J90:J92 J114:J116 J136:J137 J10:J16 J139:J149 J118:J124 J107:J108 J126:J129 J26:J47 J23 J19:J20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J66:J70 J49:J55 J94:J105 J80:J84 J7:J8 J63:J64 J77:J78 J90:J92 J114:J116 J137:J138 J10:J16 J140:J150 J118:J124 J107:J108 J26:J47 J23 J19:J20 J126:J130">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K49:K55 K66:K70 K80:K84 K129 K7:K8 K63:K64 K77:K78 K90:K92 K114:K116 K136:K137 K10:K16 K94:K105 K139:K149 K118:K124 K107:K108 K126 K23:K47 K19:K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K49:K55 K66:K70 K80:K84 K130 K7:K8 K63:K64 K77:K78 K90:K92 K114:K116 K137:K138 K10:K16 K94:K105 K140:K150 K118:K124 K107:K108 K23:K47 K19:K20 K126:K127">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L66:L70 L10:L14 L80:L84 L108 L129 L49:L53 L143:L144 L139:L141 L7:L8 L63:L64 L77:L78 L90:L92 L114:L116 L136:L137 L16 L37:L46 L94:L99 L118:L120 L122:L124 L126 L26 L28:L35 L23 L19:L20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L66:L70 L10:L14 L80:L84 L108 L130 L49:L53 L144:L145 L140:L142 L7:L8 L63:L64 L77:L78 L90:L92 L114:L116 L137:L138 L16 L37:L46 L94:L99 L118:L120 L122:L124 L26 L28:L35 L23 L19:L20 L127">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -11,9 +11,9 @@
     <sheet name="ValidationRules" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$458</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ValidationRules!$G$1:$G$460</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Document Control'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$129</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ValidationRules!$A$1:$M$131</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ValidationRules!$1:$1</definedName>
     <definedName name="ValidationCodes">#REF!</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="281">
   <si>
     <t>Payslip</t>
   </si>
@@ -909,6 +909,18 @@
   <si>
     <t>Unable to delete line item because it has already been deleted.</t>
   </si>
+  <si>
+    <t>Employment Start Date cannot be more than 90 days in future.</t>
+  </si>
+  <si>
+    <t>EmployeeDetail[&lt;index number&gt;].EmployeeDetail</t>
+  </si>
+  <si>
+    <t>Warning: Leave date provided is before the start date on record. This line item has been processed.</t>
+  </si>
+  <si>
+    <t>leaveDate</t>
+  </si>
 </sst>
 </file>
 
@@ -1160,7 +1172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,9 +1412,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -22130,10 +22139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M61"/>
+  <dimension ref="B8:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A40" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22150,18 +22159,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
     </row>
     <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
@@ -22568,7 +22577,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="79"/>
-      <c r="C42" s="92">
+      <c r="C42" s="91">
         <v>143144145</v>
       </c>
       <c r="D42" s="80" t="s">
@@ -22595,7 +22604,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="79"/>
-      <c r="C45" s="95" t="s">
+      <c r="C45" s="94" t="s">
         <v>249</v>
       </c>
       <c r="D45" s="80" t="s">
@@ -22621,8 +22630,8 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="96"/>
-      <c r="C48" s="96">
+      <c r="B48" s="95"/>
+      <c r="C48" s="95">
         <v>10</v>
       </c>
       <c r="D48" s="78" t="s">
@@ -22744,6 +22753,24 @@
       </c>
       <c r="D61" s="80" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="79"/>
+      <c r="C62" s="79">
+        <v>154</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="79"/>
+      <c r="C63" s="79">
+        <v>155</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -22761,11 +22788,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN458"/>
+  <dimension ref="A1:BN460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -22884,23 +22911,23 @@
       <c r="BN1" s="20"/>
     </row>
     <row r="2" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -22954,23 +22981,23 @@
       <c r="BN2" s="21"/>
     </row>
     <row r="3" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -23024,49 +23051,49 @@
       <c r="BN3" s="21"/>
     </row>
     <row r="4" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93">
+      <c r="A4" s="92">
         <v>146</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="93">
+      <c r="G4" s="92">
         <v>403</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="93">
+      <c r="L4" s="92">
         <v>1016</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="21"/>
@@ -23960,23 +23987,23 @@
       <c r="O20" s="33"/>
     </row>
     <row r="21" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
@@ -24320,25 +24347,25 @@
       </c>
     </row>
     <row r="26" spans="1:66" s="11" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93">
+      <c r="A26" s="92">
         <v>150</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="93" t="s">
+      <c r="E26" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="93">
+      <c r="G26" s="92">
         <v>200</v>
       </c>
       <c r="H26" s="24" t="s">
@@ -24347,16 +24374,16 @@
       <c r="I26" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="J26" s="93" t="s">
+      <c r="J26" s="92" t="s">
         <v>7</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="93">
+      <c r="L26" s="92">
         <v>2021</v>
       </c>
-      <c r="M26" s="94" t="s">
+      <c r="M26" s="93" t="s">
         <v>257</v>
       </c>
       <c r="N26" s="52" t="s">
@@ -24418,25 +24445,25 @@
       <c r="BN26" s="21"/>
     </row>
     <row r="27" spans="1:66" s="11" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93">
+      <c r="A27" s="92">
         <v>149</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="93" t="s">
+      <c r="F27" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="93">
+      <c r="G27" s="92">
         <v>200</v>
       </c>
       <c r="H27" s="24" t="s">
@@ -24445,16 +24472,16 @@
       <c r="I27" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="J27" s="93" t="s">
+      <c r="J27" s="92" t="s">
         <v>7</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="93">
+      <c r="L27" s="92">
         <v>2024</v>
       </c>
-      <c r="M27" s="94" t="s">
+      <c r="M27" s="93" t="s">
         <v>262</v>
       </c>
       <c r="N27" s="52" t="s">
@@ -26144,7 +26171,7 @@
       <c r="B56" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D56" s="4">
@@ -26242,7 +26269,7 @@
       <c r="B57" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="90" t="s">
+      <c r="C57" s="87" t="s">
         <v>240</v>
       </c>
       <c r="D57" s="4">
@@ -26272,7 +26299,7 @@
       <c r="L57" s="10">
         <v>2045</v>
       </c>
-      <c r="M57" s="91" t="s">
+      <c r="M57" s="90" t="s">
         <v>240</v>
       </c>
       <c r="N57" s="30" t="s">
@@ -26333,51 +26360,51 @@
       <c r="BM57" s="22"/>
       <c r="BN57" s="22"/>
     </row>
-    <row r="58" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>122</v>
-      </c>
-      <c r="B58" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="54" t="s">
+      <c r="C58" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="4">
+        <v>16</v>
+      </c>
+      <c r="E58" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G58" s="54">
+      <c r="G58" s="24">
         <v>200</v>
       </c>
       <c r="H58" s="24" t="s">
         <v>219</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="J58" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="53">
-        <v>2047</v>
-      </c>
-      <c r="M58" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="N58" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="10">
+        <v>2052</v>
+      </c>
+      <c r="M58" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="N58" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="O58" s="63" t="s">
-        <v>0</v>
+      <c r="O58" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="P58" s="22"/>
       <c r="Q58" s="22"/>
@@ -26431,94 +26458,122 @@
       <c r="BM58" s="22"/>
       <c r="BN58" s="22"/>
     </row>
-    <row r="59" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="99" t="s">
+    <row r="59" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>122</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="G59" s="54">
+        <v>200</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J59" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="53">
+        <v>2047</v>
+      </c>
+      <c r="M59" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="N59" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="22"/>
+      <c r="AI59" s="22"/>
+      <c r="AJ59" s="22"/>
+      <c r="AK59" s="22"/>
+      <c r="AL59" s="22"/>
+      <c r="AM59" s="22"/>
+      <c r="AN59" s="22"/>
+      <c r="AO59" s="22"/>
+      <c r="AP59" s="22"/>
+      <c r="AQ59" s="22"/>
+      <c r="AR59" s="22"/>
+      <c r="AS59" s="22"/>
+      <c r="AT59" s="22"/>
+      <c r="AU59" s="22"/>
+      <c r="AV59" s="22"/>
+      <c r="AW59" s="22"/>
+      <c r="AX59" s="22"/>
+      <c r="AY59" s="22"/>
+      <c r="AZ59" s="22"/>
+      <c r="BA59" s="22"/>
+      <c r="BB59" s="22"/>
+      <c r="BC59" s="22"/>
+      <c r="BD59" s="22"/>
+      <c r="BE59" s="22"/>
+      <c r="BF59" s="22"/>
+      <c r="BG59" s="22"/>
+      <c r="BH59" s="22"/>
+      <c r="BI59" s="22"/>
+      <c r="BJ59" s="22"/>
+      <c r="BK59" s="22"/>
+      <c r="BL59" s="22"/>
+      <c r="BM59" s="22"/>
+      <c r="BN59" s="22"/>
+    </row>
+    <row r="60" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="99"/>
-      <c r="J59" s="99"/>
-      <c r="K59" s="99"/>
-      <c r="L59" s="99"/>
-      <c r="M59" s="99"/>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
-      <c r="AA59" s="21"/>
-      <c r="AB59" s="21"/>
-      <c r="AC59" s="21"/>
-      <c r="AD59" s="21"/>
-      <c r="AE59" s="21"/>
-      <c r="AF59" s="21"/>
-      <c r="AG59" s="21"/>
-      <c r="AH59" s="21"/>
-      <c r="AI59" s="21"/>
-      <c r="AJ59" s="21"/>
-      <c r="AK59" s="21"/>
-      <c r="AL59" s="21"/>
-      <c r="AM59" s="21"/>
-      <c r="AN59" s="21"/>
-      <c r="AO59" s="21"/>
-      <c r="AP59" s="21"/>
-      <c r="AQ59" s="21"/>
-      <c r="AR59" s="21"/>
-      <c r="AS59" s="21"/>
-      <c r="AT59" s="21"/>
-      <c r="AU59" s="21"/>
-      <c r="AV59" s="21"/>
-      <c r="AW59" s="21"/>
-      <c r="AX59" s="21"/>
-      <c r="AY59" s="21"/>
-      <c r="AZ59" s="21"/>
-      <c r="BA59" s="21"/>
-      <c r="BB59" s="21"/>
-      <c r="BC59" s="21"/>
-      <c r="BD59" s="21"/>
-      <c r="BE59" s="21"/>
-      <c r="BF59" s="21"/>
-      <c r="BG59" s="21"/>
-      <c r="BH59" s="21"/>
-      <c r="BI59" s="21"/>
-      <c r="BJ59" s="21"/>
-      <c r="BK59" s="21"/>
-      <c r="BL59" s="21"/>
-      <c r="BM59" s="21"/>
-      <c r="BN59" s="21"/>
-    </row>
-    <row r="60" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
-      <c r="L60" s="100"/>
-      <c r="M60" s="100"/>
-      <c r="N60" s="100"/>
-      <c r="O60" s="100"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="98"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="98"/>
+      <c r="K60" s="98"/>
+      <c r="L60" s="98"/>
+      <c r="M60" s="98"/>
+      <c r="N60" s="98"/>
+      <c r="O60" s="98"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
@@ -26571,52 +26626,24 @@
       <c r="BM60" s="21"/>
       <c r="BN60" s="21"/>
     </row>
-    <row r="61" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="93">
+    <row r="61" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="B61" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G61" s="93">
-        <v>403</v>
-      </c>
-      <c r="H61" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="I61" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J61" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="K61" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="L61" s="93">
-        <v>1111</v>
-      </c>
-      <c r="M61" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="N61" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O61" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="99"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="99"/>
+      <c r="O61" s="99"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
@@ -26669,51 +26696,51 @@
       <c r="BM61" s="21"/>
       <c r="BN61" s="21"/>
     </row>
-    <row r="62" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="93">
-        <v>146</v>
+    <row r="62" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="92">
+        <v>148</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" s="93" t="s">
+      <c r="C62" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="93" t="s">
+      <c r="E62" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F62" s="93" t="s">
+      <c r="F62" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G62" s="93">
+      <c r="G62" s="92">
         <v>403</v>
       </c>
-      <c r="H62" s="93" t="s">
+      <c r="H62" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I62" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J62" s="93" t="s">
+      <c r="J62" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K62" s="93" t="s">
+      <c r="K62" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L62" s="93">
-        <v>1016</v>
-      </c>
-      <c r="M62" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="N62" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="O62" s="94" t="s">
-        <v>12</v>
+      <c r="L62" s="92">
+        <v>1111</v>
+      </c>
+      <c r="M62" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="N62" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O62" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
@@ -26767,50 +26794,50 @@
       <c r="BM62" s="21"/>
       <c r="BN62" s="21"/>
     </row>
-    <row r="63" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>52</v>
+    <row r="63" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="92">
+        <v>146</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G63" s="24">
-        <v>401</v>
-      </c>
-      <c r="H63" s="58" t="s">
+      <c r="G63" s="92">
+        <v>403</v>
+      </c>
+      <c r="H63" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I63" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J63" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L63" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M63" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N63" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O63" s="49" t="s">
+      <c r="L63" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M63" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N63" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O63" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P63" s="21"/>
@@ -26865,15 +26892,15 @@
       <c r="BM63" s="21"/>
       <c r="BN63" s="21"/>
     </row>
-    <row r="64" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>149</v>
+      <c r="C64" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>12</v>
@@ -26900,15 +26927,15 @@
         <v>34</v>
       </c>
       <c r="L64" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N64" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O64" s="47" t="s">
+      <c r="O64" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P64" s="21"/>
@@ -26963,15 +26990,15 @@
       <c r="BM64" s="21"/>
       <c r="BN64" s="21"/>
     </row>
-    <row r="65" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
@@ -26983,7 +27010,7 @@
         <v>142</v>
       </c>
       <c r="G65" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H65" s="58" t="s">
         <v>218</v>
@@ -26991,85 +27018,85 @@
       <c r="I65" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="J65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" s="24">
-        <v>1003</v>
-      </c>
-      <c r="M65" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="N65" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O65" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="22"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="22"/>
-      <c r="AB65" s="22"/>
-      <c r="AC65" s="22"/>
-      <c r="AD65" s="22"/>
-      <c r="AE65" s="22"/>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="22"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="22"/>
-      <c r="AJ65" s="22"/>
-      <c r="AK65" s="22"/>
-      <c r="AL65" s="22"/>
-      <c r="AM65" s="22"/>
-      <c r="AN65" s="22"/>
-      <c r="AO65" s="22"/>
-      <c r="AP65" s="22"/>
-      <c r="AQ65" s="22"/>
-      <c r="AR65" s="22"/>
-      <c r="AS65" s="22"/>
-      <c r="AT65" s="22"/>
-      <c r="AU65" s="22"/>
-      <c r="AV65" s="22"/>
-      <c r="AW65" s="22"/>
-      <c r="AX65" s="22"/>
-      <c r="AY65" s="22"/>
-      <c r="AZ65" s="22"/>
-      <c r="BA65" s="22"/>
-      <c r="BB65" s="22"/>
-      <c r="BC65" s="22"/>
-      <c r="BD65" s="22"/>
-      <c r="BE65" s="22"/>
-      <c r="BF65" s="22"/>
-      <c r="BG65" s="22"/>
-      <c r="BH65" s="22"/>
-      <c r="BI65" s="22"/>
-      <c r="BJ65" s="22"/>
-      <c r="BK65" s="22"/>
-      <c r="BL65" s="22"/>
-      <c r="BM65" s="22"/>
-      <c r="BN65" s="22"/>
-    </row>
-    <row r="66" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L65" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M65" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N65" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O65" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="21"/>
+      <c r="AL65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AN65" s="21"/>
+      <c r="AO65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AQ65" s="21"/>
+      <c r="AR65" s="21"/>
+      <c r="AS65" s="21"/>
+      <c r="AT65" s="21"/>
+      <c r="AU65" s="21"/>
+      <c r="AV65" s="21"/>
+      <c r="AW65" s="21"/>
+      <c r="AX65" s="21"/>
+      <c r="AY65" s="21"/>
+      <c r="AZ65" s="21"/>
+      <c r="BA65" s="21"/>
+      <c r="BB65" s="21"/>
+      <c r="BC65" s="21"/>
+      <c r="BD65" s="21"/>
+      <c r="BE65" s="21"/>
+      <c r="BF65" s="21"/>
+      <c r="BG65" s="21"/>
+      <c r="BH65" s="21"/>
+      <c r="BI65" s="21"/>
+      <c r="BJ65" s="21"/>
+      <c r="BK65" s="21"/>
+      <c r="BL65" s="21"/>
+      <c r="BM65" s="21"/>
+      <c r="BN65" s="21"/>
+    </row>
+    <row r="66" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>12</v>
@@ -27093,13 +27120,13 @@
         <v>7</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L66" s="25">
-        <v>1004</v>
+        <v>32</v>
+      </c>
+      <c r="L66" s="24">
+        <v>1003</v>
       </c>
       <c r="M66" s="32" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N66" s="30" t="s">
         <v>62</v>
@@ -27159,26 +27186,26 @@
       <c r="BM66" s="22"/>
       <c r="BN66" s="22"/>
     </row>
-    <row r="67" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="53" t="s">
+      <c r="C67" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="53" t="s">
+      <c r="E67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F67" s="53" t="s">
+      <c r="F67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G67" s="54">
+      <c r="G67" s="24">
         <v>400</v>
       </c>
       <c r="H67" s="58" t="s">
@@ -27187,46 +27214,97 @@
       <c r="I67" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J67" s="53" t="s">
+      <c r="J67" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K67" s="54" t="s">
+      <c r="K67" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M67" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N67" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O67" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L67" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M67" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O67" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="22"/>
+      <c r="AE67" s="22"/>
+      <c r="AF67" s="22"/>
+      <c r="AG67" s="22"/>
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="22"/>
+      <c r="AJ67" s="22"/>
+      <c r="AK67" s="22"/>
+      <c r="AL67" s="22"/>
+      <c r="AM67" s="22"/>
+      <c r="AN67" s="22"/>
+      <c r="AO67" s="22"/>
+      <c r="AP67" s="22"/>
+      <c r="AQ67" s="22"/>
+      <c r="AR67" s="22"/>
+      <c r="AS67" s="22"/>
+      <c r="AT67" s="22"/>
+      <c r="AU67" s="22"/>
+      <c r="AV67" s="22"/>
+      <c r="AW67" s="22"/>
+      <c r="AX67" s="22"/>
+      <c r="AY67" s="22"/>
+      <c r="AZ67" s="22"/>
+      <c r="BA67" s="22"/>
+      <c r="BB67" s="22"/>
+      <c r="BC67" s="22"/>
+      <c r="BD67" s="22"/>
+      <c r="BE67" s="22"/>
+      <c r="BF67" s="22"/>
+      <c r="BG67" s="22"/>
+      <c r="BH67" s="22"/>
+      <c r="BI67" s="22"/>
+      <c r="BJ67" s="22"/>
+      <c r="BK67" s="22"/>
+      <c r="BL67" s="22"/>
+      <c r="BM67" s="22"/>
+      <c r="BN67" s="22"/>
+    </row>
+    <row r="68" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="C68" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G68" s="24">
-        <v>403</v>
+      <c r="G68" s="54">
+        <v>400</v>
       </c>
       <c r="H68" s="58" t="s">
         <v>218</v>
@@ -27234,85 +27312,34 @@
       <c r="I68" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J68" s="24" t="s">
+      <c r="J68" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="24" t="s">
+      <c r="K68" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L68" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M68" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N68" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O68" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="22"/>
-      <c r="AJ68" s="22"/>
-      <c r="AK68" s="22"/>
-      <c r="AL68" s="22"/>
-      <c r="AM68" s="22"/>
-      <c r="AN68" s="22"/>
-      <c r="AO68" s="22"/>
-      <c r="AP68" s="22"/>
-      <c r="AQ68" s="22"/>
-      <c r="AR68" s="22"/>
-      <c r="AS68" s="22"/>
-      <c r="AT68" s="22"/>
-      <c r="AU68" s="22"/>
-      <c r="AV68" s="22"/>
-      <c r="AW68" s="22"/>
-      <c r="AX68" s="22"/>
-      <c r="AY68" s="22"/>
-      <c r="AZ68" s="22"/>
-      <c r="BA68" s="22"/>
-      <c r="BB68" s="22"/>
-      <c r="BC68" s="22"/>
-      <c r="BD68" s="22"/>
-      <c r="BE68" s="22"/>
-      <c r="BF68" s="22"/>
-      <c r="BG68" s="22"/>
-      <c r="BH68" s="22"/>
-      <c r="BI68" s="22"/>
-      <c r="BJ68" s="22"/>
-      <c r="BK68" s="22"/>
-      <c r="BL68" s="22"/>
-      <c r="BM68" s="22"/>
-      <c r="BN68" s="22"/>
+      <c r="L68" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M68" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N68" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O68" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="69" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>12</v>
@@ -27336,13 +27363,13 @@
         <v>7</v>
       </c>
       <c r="K69" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L69" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M69" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N69" s="30" t="s">
         <v>62</v>
@@ -27404,13 +27431,13 @@
     </row>
     <row r="70" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>12</v>
@@ -27437,10 +27464,10 @@
         <v>32</v>
       </c>
       <c r="L70" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M70" s="32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N70" s="30" t="s">
         <v>62</v>
@@ -27502,15 +27529,15 @@
     </row>
     <row r="71" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D71" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -27532,19 +27559,19 @@
         <v>7</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L71" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L71" s="25">
+        <v>1008</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="N71" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O71" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P71" s="22"/>
       <c r="Q71" s="22"/>
@@ -27600,15 +27627,15 @@
     </row>
     <row r="72" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D72" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -27618,7 +27645,7 @@
         <v>142</v>
       </c>
       <c r="G72" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H72" s="58" t="s">
         <v>218</v>
@@ -27626,23 +27653,23 @@
       <c r="I72" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="J72" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L72" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M72" s="30" t="s">
-        <v>42</v>
+      <c r="L72" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M72" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N72" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O72" s="30" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
@@ -27696,94 +27723,122 @@
       <c r="BM72" s="22"/>
       <c r="BN72" s="22"/>
     </row>
-    <row r="73" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="99" t="s">
+    <row r="73" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>61</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" s="24">
+        <v>404</v>
+      </c>
+      <c r="H73" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L73" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M73" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N73" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O73" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="22"/>
+      <c r="W73" s="22"/>
+      <c r="X73" s="22"/>
+      <c r="Y73" s="22"/>
+      <c r="Z73" s="22"/>
+      <c r="AA73" s="22"/>
+      <c r="AB73" s="22"/>
+      <c r="AC73" s="22"/>
+      <c r="AD73" s="22"/>
+      <c r="AE73" s="22"/>
+      <c r="AF73" s="22"/>
+      <c r="AG73" s="22"/>
+      <c r="AH73" s="22"/>
+      <c r="AI73" s="22"/>
+      <c r="AJ73" s="22"/>
+      <c r="AK73" s="22"/>
+      <c r="AL73" s="22"/>
+      <c r="AM73" s="22"/>
+      <c r="AN73" s="22"/>
+      <c r="AO73" s="22"/>
+      <c r="AP73" s="22"/>
+      <c r="AQ73" s="22"/>
+      <c r="AR73" s="22"/>
+      <c r="AS73" s="22"/>
+      <c r="AT73" s="22"/>
+      <c r="AU73" s="22"/>
+      <c r="AV73" s="22"/>
+      <c r="AW73" s="22"/>
+      <c r="AX73" s="22"/>
+      <c r="AY73" s="22"/>
+      <c r="AZ73" s="22"/>
+      <c r="BA73" s="22"/>
+      <c r="BB73" s="22"/>
+      <c r="BC73" s="22"/>
+      <c r="BD73" s="22"/>
+      <c r="BE73" s="22"/>
+      <c r="BF73" s="22"/>
+      <c r="BG73" s="22"/>
+      <c r="BH73" s="22"/>
+      <c r="BI73" s="22"/>
+      <c r="BJ73" s="22"/>
+      <c r="BK73" s="22"/>
+      <c r="BL73" s="22"/>
+      <c r="BM73" s="22"/>
+      <c r="BN73" s="22"/>
+    </row>
+    <row r="74" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="99"/>
-      <c r="J73" s="99"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="99"/>
-      <c r="N73" s="99"/>
-      <c r="O73" s="99"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="21"/>
-      <c r="Y73" s="21"/>
-      <c r="Z73" s="21"/>
-      <c r="AA73" s="21"/>
-      <c r="AB73" s="21"/>
-      <c r="AC73" s="21"/>
-      <c r="AD73" s="21"/>
-      <c r="AE73" s="21"/>
-      <c r="AF73" s="21"/>
-      <c r="AG73" s="21"/>
-      <c r="AH73" s="21"/>
-      <c r="AI73" s="21"/>
-      <c r="AJ73" s="21"/>
-      <c r="AK73" s="21"/>
-      <c r="AL73" s="21"/>
-      <c r="AM73" s="21"/>
-      <c r="AN73" s="21"/>
-      <c r="AO73" s="21"/>
-      <c r="AP73" s="21"/>
-      <c r="AQ73" s="21"/>
-      <c r="AR73" s="21"/>
-      <c r="AS73" s="21"/>
-      <c r="AT73" s="21"/>
-      <c r="AU73" s="21"/>
-      <c r="AV73" s="21"/>
-      <c r="AW73" s="21"/>
-      <c r="AX73" s="21"/>
-      <c r="AY73" s="21"/>
-      <c r="AZ73" s="21"/>
-      <c r="BA73" s="21"/>
-      <c r="BB73" s="21"/>
-      <c r="BC73" s="21"/>
-      <c r="BD73" s="21"/>
-      <c r="BE73" s="21"/>
-      <c r="BF73" s="21"/>
-      <c r="BG73" s="21"/>
-      <c r="BH73" s="21"/>
-      <c r="BI73" s="21"/>
-      <c r="BJ73" s="21"/>
-      <c r="BK73" s="21"/>
-      <c r="BL73" s="21"/>
-      <c r="BM73" s="21"/>
-      <c r="BN73" s="21"/>
-    </row>
-    <row r="74" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="100"/>
-      <c r="K74" s="100"/>
-      <c r="L74" s="100"/>
-      <c r="M74" s="100"/>
-      <c r="N74" s="100"/>
-      <c r="O74" s="100"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="98"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="98"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="98"/>
+      <c r="K74" s="98"/>
+      <c r="L74" s="98"/>
+      <c r="M74" s="98"/>
+      <c r="N74" s="98"/>
+      <c r="O74" s="98"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
       <c r="R74" s="21"/>
@@ -27836,52 +27891,24 @@
       <c r="BM74" s="21"/>
       <c r="BN74" s="21"/>
     </row>
-    <row r="75" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="93">
+    <row r="75" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="D75" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G75" s="93">
-        <v>403</v>
-      </c>
-      <c r="H75" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J75" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="K75" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="L75" s="93">
-        <v>1111</v>
-      </c>
-      <c r="M75" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="N75" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O75" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="99"/>
+      <c r="O75" s="99"/>
       <c r="P75" s="21"/>
       <c r="Q75" s="21"/>
       <c r="R75" s="21"/>
@@ -27934,51 +27961,51 @@
       <c r="BM75" s="21"/>
       <c r="BN75" s="21"/>
     </row>
-    <row r="76" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="93">
-        <v>146</v>
+    <row r="76" spans="1:66" s="11" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="92">
+        <v>148</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="D76" s="93" t="s">
+      <c r="C76" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="93" t="s">
+      <c r="E76" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F76" s="93" t="s">
+      <c r="F76" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G76" s="93">
+      <c r="G76" s="92">
         <v>403</v>
       </c>
-      <c r="H76" s="93" t="s">
+      <c r="H76" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I76" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J76" s="93" t="s">
+      <c r="J76" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="93" t="s">
+      <c r="K76" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L76" s="93">
-        <v>1016</v>
-      </c>
-      <c r="M76" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="N76" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="O76" s="94" t="s">
-        <v>12</v>
+      <c r="L76" s="92">
+        <v>1111</v>
+      </c>
+      <c r="M76" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="N76" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O76" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="P76" s="21"/>
       <c r="Q76" s="21"/>
@@ -28032,50 +28059,50 @@
       <c r="BM76" s="21"/>
       <c r="BN76" s="21"/>
     </row>
-    <row r="77" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>62</v>
+    <row r="77" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="92">
+        <v>146</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D77" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G77" s="24">
-        <v>401</v>
-      </c>
-      <c r="H77" s="58" t="s">
+      <c r="G77" s="92">
+        <v>403</v>
+      </c>
+      <c r="H77" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I77" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K77" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L77" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M77" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N77" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O77" s="49" t="s">
+      <c r="L77" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M77" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N77" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O77" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P77" s="21"/>
@@ -28130,15 +28157,15 @@
       <c r="BM77" s="21"/>
       <c r="BN77" s="21"/>
     </row>
-    <row r="78" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>12</v>
@@ -28165,15 +28192,15 @@
         <v>34</v>
       </c>
       <c r="L78" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N78" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O78" s="47" t="s">
+      <c r="O78" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P78" s="21"/>
@@ -28228,15 +28255,15 @@
       <c r="BM78" s="21"/>
       <c r="BN78" s="21"/>
     </row>
-    <row r="79" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
@@ -28248,7 +28275,7 @@
         <v>142</v>
       </c>
       <c r="G79" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H79" s="58" t="s">
         <v>218</v>
@@ -28256,85 +28283,85 @@
       <c r="I79" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J79" s="25" t="s">
+      <c r="J79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K79" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="25">
-        <v>1003</v>
-      </c>
-      <c r="M79" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="N79" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="22"/>
-      <c r="T79" s="22"/>
-      <c r="U79" s="22"/>
-      <c r="V79" s="22"/>
-      <c r="W79" s="22"/>
-      <c r="X79" s="22"/>
-      <c r="Y79" s="22"/>
-      <c r="Z79" s="22"/>
-      <c r="AA79" s="22"/>
-      <c r="AB79" s="22"/>
-      <c r="AC79" s="22"/>
-      <c r="AD79" s="22"/>
-      <c r="AE79" s="22"/>
-      <c r="AF79" s="22"/>
-      <c r="AG79" s="22"/>
-      <c r="AH79" s="22"/>
-      <c r="AI79" s="22"/>
-      <c r="AJ79" s="22"/>
-      <c r="AK79" s="22"/>
-      <c r="AL79" s="22"/>
-      <c r="AM79" s="22"/>
-      <c r="AN79" s="22"/>
-      <c r="AO79" s="22"/>
-      <c r="AP79" s="22"/>
-      <c r="AQ79" s="22"/>
-      <c r="AR79" s="22"/>
-      <c r="AS79" s="22"/>
-      <c r="AT79" s="22"/>
-      <c r="AU79" s="22"/>
-      <c r="AV79" s="22"/>
-      <c r="AW79" s="22"/>
-      <c r="AX79" s="22"/>
-      <c r="AY79" s="22"/>
-      <c r="AZ79" s="22"/>
-      <c r="BA79" s="22"/>
-      <c r="BB79" s="22"/>
-      <c r="BC79" s="22"/>
-      <c r="BD79" s="22"/>
-      <c r="BE79" s="22"/>
-      <c r="BF79" s="22"/>
-      <c r="BG79" s="22"/>
-      <c r="BH79" s="22"/>
-      <c r="BI79" s="22"/>
-      <c r="BJ79" s="22"/>
-      <c r="BK79" s="22"/>
-      <c r="BL79" s="22"/>
-      <c r="BM79" s="22"/>
-      <c r="BN79" s="22"/>
-    </row>
-    <row r="80" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M79" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N79" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O79" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
+      <c r="U79" s="21"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="21"/>
+      <c r="X79" s="21"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="21"/>
+      <c r="AB79" s="21"/>
+      <c r="AC79" s="21"/>
+      <c r="AD79" s="21"/>
+      <c r="AE79" s="21"/>
+      <c r="AF79" s="21"/>
+      <c r="AG79" s="21"/>
+      <c r="AH79" s="21"/>
+      <c r="AI79" s="21"/>
+      <c r="AJ79" s="21"/>
+      <c r="AK79" s="21"/>
+      <c r="AL79" s="21"/>
+      <c r="AM79" s="21"/>
+      <c r="AN79" s="21"/>
+      <c r="AO79" s="21"/>
+      <c r="AP79" s="21"/>
+      <c r="AQ79" s="21"/>
+      <c r="AR79" s="21"/>
+      <c r="AS79" s="21"/>
+      <c r="AT79" s="21"/>
+      <c r="AU79" s="21"/>
+      <c r="AV79" s="21"/>
+      <c r="AW79" s="21"/>
+      <c r="AX79" s="21"/>
+      <c r="AY79" s="21"/>
+      <c r="AZ79" s="21"/>
+      <c r="BA79" s="21"/>
+      <c r="BB79" s="21"/>
+      <c r="BC79" s="21"/>
+      <c r="BD79" s="21"/>
+      <c r="BE79" s="21"/>
+      <c r="BF79" s="21"/>
+      <c r="BG79" s="21"/>
+      <c r="BH79" s="21"/>
+      <c r="BI79" s="21"/>
+      <c r="BJ79" s="21"/>
+      <c r="BK79" s="21"/>
+      <c r="BL79" s="21"/>
+      <c r="BM79" s="21"/>
+      <c r="BN79" s="21"/>
+    </row>
+    <row r="80" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>12</v>
@@ -28354,22 +28381,22 @@
       <c r="I80" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J80" s="24" t="s">
+      <c r="J80" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L80" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M80" s="30" t="s">
-        <v>25</v>
+        <v>1003</v>
+      </c>
+      <c r="M80" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="N80" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="O80" s="30" t="s">
+      <c r="O80" s="4" t="s">
         <v>45</v>
       </c>
       <c r="P80" s="22"/>
@@ -28424,26 +28451,26 @@
       <c r="BM80" s="22"/>
       <c r="BN80" s="22"/>
     </row>
-    <row r="81" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D81" s="53" t="s">
+      <c r="C81" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="53" t="s">
+      <c r="E81" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F81" s="53" t="s">
+      <c r="F81" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G81" s="54">
+      <c r="G81" s="24">
         <v>400</v>
       </c>
       <c r="H81" s="58" t="s">
@@ -28452,46 +28479,97 @@
       <c r="I81" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J81" s="53" t="s">
+      <c r="J81" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K81" s="54" t="s">
+      <c r="K81" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L81" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M81" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N81" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O81" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L81" s="25">
+        <v>1004</v>
+      </c>
+      <c r="M81" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O81" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="22"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
+      <c r="Y81" s="22"/>
+      <c r="Z81" s="22"/>
+      <c r="AA81" s="22"/>
+      <c r="AB81" s="22"/>
+      <c r="AC81" s="22"/>
+      <c r="AD81" s="22"/>
+      <c r="AE81" s="22"/>
+      <c r="AF81" s="22"/>
+      <c r="AG81" s="22"/>
+      <c r="AH81" s="22"/>
+      <c r="AI81" s="22"/>
+      <c r="AJ81" s="22"/>
+      <c r="AK81" s="22"/>
+      <c r="AL81" s="22"/>
+      <c r="AM81" s="22"/>
+      <c r="AN81" s="22"/>
+      <c r="AO81" s="22"/>
+      <c r="AP81" s="22"/>
+      <c r="AQ81" s="22"/>
+      <c r="AR81" s="22"/>
+      <c r="AS81" s="22"/>
+      <c r="AT81" s="22"/>
+      <c r="AU81" s="22"/>
+      <c r="AV81" s="22"/>
+      <c r="AW81" s="22"/>
+      <c r="AX81" s="22"/>
+      <c r="AY81" s="22"/>
+      <c r="AZ81" s="22"/>
+      <c r="BA81" s="22"/>
+      <c r="BB81" s="22"/>
+      <c r="BC81" s="22"/>
+      <c r="BD81" s="22"/>
+      <c r="BE81" s="22"/>
+      <c r="BF81" s="22"/>
+      <c r="BG81" s="22"/>
+      <c r="BH81" s="22"/>
+      <c r="BI81" s="22"/>
+      <c r="BJ81" s="22"/>
+      <c r="BK81" s="22"/>
+      <c r="BL81" s="22"/>
+      <c r="BM81" s="22"/>
+      <c r="BN81" s="22"/>
+    </row>
+    <row r="82" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="C82" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G82" s="24">
-        <v>403</v>
+      <c r="G82" s="54">
+        <v>400</v>
       </c>
       <c r="H82" s="58" t="s">
         <v>218</v>
@@ -28499,85 +28577,34 @@
       <c r="I82" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J82" s="24" t="s">
+      <c r="J82" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="24" t="s">
+      <c r="K82" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L82" s="25">
-        <v>1006</v>
-      </c>
-      <c r="M82" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N82" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O82" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="22"/>
-      <c r="Z82" s="22"/>
-      <c r="AA82" s="22"/>
-      <c r="AB82" s="22"/>
-      <c r="AC82" s="22"/>
-      <c r="AD82" s="22"/>
-      <c r="AE82" s="22"/>
-      <c r="AF82" s="22"/>
-      <c r="AG82" s="22"/>
-      <c r="AH82" s="22"/>
-      <c r="AI82" s="22"/>
-      <c r="AJ82" s="22"/>
-      <c r="AK82" s="22"/>
-      <c r="AL82" s="22"/>
-      <c r="AM82" s="22"/>
-      <c r="AN82" s="22"/>
-      <c r="AO82" s="22"/>
-      <c r="AP82" s="22"/>
-      <c r="AQ82" s="22"/>
-      <c r="AR82" s="22"/>
-      <c r="AS82" s="22"/>
-      <c r="AT82" s="22"/>
-      <c r="AU82" s="22"/>
-      <c r="AV82" s="22"/>
-      <c r="AW82" s="22"/>
-      <c r="AX82" s="22"/>
-      <c r="AY82" s="22"/>
-      <c r="AZ82" s="22"/>
-      <c r="BA82" s="22"/>
-      <c r="BB82" s="22"/>
-      <c r="BC82" s="22"/>
-      <c r="BD82" s="22"/>
-      <c r="BE82" s="22"/>
-      <c r="BF82" s="22"/>
-      <c r="BG82" s="22"/>
-      <c r="BH82" s="22"/>
-      <c r="BI82" s="22"/>
-      <c r="BJ82" s="22"/>
-      <c r="BK82" s="22"/>
-      <c r="BL82" s="22"/>
-      <c r="BM82" s="22"/>
-      <c r="BN82" s="22"/>
+      <c r="L82" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M82" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N82" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O82" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>12</v>
@@ -28601,13 +28628,13 @@
         <v>7</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L83" s="25">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M83" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N83" s="30" t="s">
         <v>62</v>
@@ -28669,13 +28696,13 @@
     </row>
     <row r="84" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>12</v>
@@ -28702,10 +28729,10 @@
         <v>32</v>
       </c>
       <c r="L84" s="25">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M84" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N84" s="30" t="s">
         <v>62</v>
@@ -28767,15 +28794,15 @@
     </row>
     <row r="85" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D85" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -28797,19 +28824,19 @@
         <v>7</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L85" s="24">
-        <v>1011</v>
-      </c>
-      <c r="M85" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L85" s="25">
+        <v>1008</v>
+      </c>
+      <c r="M85" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N85" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O85" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P85" s="22"/>
       <c r="Q85" s="22"/>
@@ -28865,15 +28892,15 @@
     </row>
     <row r="86" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -28883,7 +28910,7 @@
         <v>142</v>
       </c>
       <c r="G86" s="24">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H86" s="58" t="s">
         <v>218</v>
@@ -28891,23 +28918,23 @@
       <c r="I86" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="J86" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K86" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L86" s="10">
-        <v>2506</v>
-      </c>
-      <c r="M86" s="30" t="s">
-        <v>41</v>
+      <c r="K86" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L86" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M86" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N86" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O86" s="30" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="P86" s="22"/>
       <c r="Q86" s="22"/>
@@ -28961,94 +28988,122 @@
       <c r="BM86" s="22"/>
       <c r="BN86" s="22"/>
     </row>
-    <row r="87" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="99" t="s">
+    <row r="87" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>71</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" s="24">
+        <v>404</v>
+      </c>
+      <c r="H87" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L87" s="10">
+        <v>2506</v>
+      </c>
+      <c r="M87" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N87" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O87" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="22"/>
+      <c r="U87" s="22"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22"/>
+      <c r="X87" s="22"/>
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="22"/>
+      <c r="AA87" s="22"/>
+      <c r="AB87" s="22"/>
+      <c r="AC87" s="22"/>
+      <c r="AD87" s="22"/>
+      <c r="AE87" s="22"/>
+      <c r="AF87" s="22"/>
+      <c r="AG87" s="22"/>
+      <c r="AH87" s="22"/>
+      <c r="AI87" s="22"/>
+      <c r="AJ87" s="22"/>
+      <c r="AK87" s="22"/>
+      <c r="AL87" s="22"/>
+      <c r="AM87" s="22"/>
+      <c r="AN87" s="22"/>
+      <c r="AO87" s="22"/>
+      <c r="AP87" s="22"/>
+      <c r="AQ87" s="22"/>
+      <c r="AR87" s="22"/>
+      <c r="AS87" s="22"/>
+      <c r="AT87" s="22"/>
+      <c r="AU87" s="22"/>
+      <c r="AV87" s="22"/>
+      <c r="AW87" s="22"/>
+      <c r="AX87" s="22"/>
+      <c r="AY87" s="22"/>
+      <c r="AZ87" s="22"/>
+      <c r="BA87" s="22"/>
+      <c r="BB87" s="22"/>
+      <c r="BC87" s="22"/>
+      <c r="BD87" s="22"/>
+      <c r="BE87" s="22"/>
+      <c r="BF87" s="22"/>
+      <c r="BG87" s="22"/>
+      <c r="BH87" s="22"/>
+      <c r="BI87" s="22"/>
+      <c r="BJ87" s="22"/>
+      <c r="BK87" s="22"/>
+      <c r="BL87" s="22"/>
+      <c r="BM87" s="22"/>
+      <c r="BN87" s="22"/>
+    </row>
+    <row r="88" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="99"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="99"/>
-      <c r="E87" s="99"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="99"/>
-      <c r="H87" s="99"/>
-      <c r="I87" s="99"/>
-      <c r="J87" s="99"/>
-      <c r="K87" s="99"/>
-      <c r="L87" s="99"/>
-      <c r="M87" s="99"/>
-      <c r="N87" s="99"/>
-      <c r="O87" s="99"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
-      <c r="U87" s="21"/>
-      <c r="V87" s="21"/>
-      <c r="W87" s="21"/>
-      <c r="X87" s="21"/>
-      <c r="Y87" s="21"/>
-      <c r="Z87" s="21"/>
-      <c r="AA87" s="21"/>
-      <c r="AB87" s="21"/>
-      <c r="AC87" s="21"/>
-      <c r="AD87" s="21"/>
-      <c r="AE87" s="21"/>
-      <c r="AF87" s="21"/>
-      <c r="AG87" s="21"/>
-      <c r="AH87" s="21"/>
-      <c r="AI87" s="21"/>
-      <c r="AJ87" s="21"/>
-      <c r="AK87" s="21"/>
-      <c r="AL87" s="21"/>
-      <c r="AM87" s="21"/>
-      <c r="AN87" s="21"/>
-      <c r="AO87" s="21"/>
-      <c r="AP87" s="21"/>
-      <c r="AQ87" s="21"/>
-      <c r="AR87" s="21"/>
-      <c r="AS87" s="21"/>
-      <c r="AT87" s="21"/>
-      <c r="AU87" s="21"/>
-      <c r="AV87" s="21"/>
-      <c r="AW87" s="21"/>
-      <c r="AX87" s="21"/>
-      <c r="AY87" s="21"/>
-      <c r="AZ87" s="21"/>
-      <c r="BA87" s="21"/>
-      <c r="BB87" s="21"/>
-      <c r="BC87" s="21"/>
-      <c r="BD87" s="21"/>
-      <c r="BE87" s="21"/>
-      <c r="BF87" s="21"/>
-      <c r="BG87" s="21"/>
-      <c r="BH87" s="21"/>
-      <c r="BI87" s="21"/>
-      <c r="BJ87" s="21"/>
-      <c r="BK87" s="21"/>
-      <c r="BL87" s="21"/>
-      <c r="BM87" s="21"/>
-      <c r="BN87" s="21"/>
-    </row>
-    <row r="88" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B88" s="100"/>
-      <c r="C88" s="100"/>
-      <c r="D88" s="100"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="100"/>
-      <c r="G88" s="100"/>
-      <c r="H88" s="100"/>
-      <c r="I88" s="100"/>
-      <c r="J88" s="100"/>
-      <c r="K88" s="100"/>
-      <c r="L88" s="100"/>
-      <c r="M88" s="100"/>
-      <c r="N88" s="100"/>
-      <c r="O88" s="100"/>
+      <c r="B88" s="98"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="98"/>
+      <c r="E88" s="98"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="98"/>
+      <c r="H88" s="98"/>
+      <c r="I88" s="98"/>
+      <c r="J88" s="98"/>
+      <c r="K88" s="98"/>
+      <c r="L88" s="98"/>
+      <c r="M88" s="98"/>
+      <c r="N88" s="98"/>
+      <c r="O88" s="98"/>
       <c r="P88" s="21"/>
       <c r="Q88" s="21"/>
       <c r="R88" s="21"/>
@@ -29101,52 +29156,24 @@
       <c r="BM88" s="21"/>
       <c r="BN88" s="21"/>
     </row>
-    <row r="89" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="93">
-        <v>146</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C89" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="D89" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="F89" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G89" s="93">
-        <v>403</v>
-      </c>
-      <c r="H89" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="I89" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J89" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="K89" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="L89" s="93">
-        <v>1016</v>
-      </c>
-      <c r="M89" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="N89" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="O89" s="94" t="s">
-        <v>12</v>
-      </c>
+    <row r="89" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="99"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="99"/>
+      <c r="I89" s="99"/>
+      <c r="J89" s="99"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="99"/>
+      <c r="M89" s="99"/>
+      <c r="N89" s="99"/>
+      <c r="O89" s="99"/>
       <c r="P89" s="21"/>
       <c r="Q89" s="21"/>
       <c r="R89" s="21"/>
@@ -29199,50 +29226,50 @@
       <c r="BM89" s="21"/>
       <c r="BN89" s="21"/>
     </row>
-    <row r="90" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>72</v>
+    <row r="90" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="92">
+        <v>146</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D90" s="4" t="s">
+      <c r="C90" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D90" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G90" s="24">
-        <v>401</v>
-      </c>
-      <c r="H90" s="58" t="s">
+      <c r="G90" s="92">
+        <v>403</v>
+      </c>
+      <c r="H90" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I90" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="J90" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="K90" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L90" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M90" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N90" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O90" s="49" t="s">
+      <c r="L90" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M90" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N90" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O90" s="93" t="s">
         <v>12</v>
       </c>
       <c r="P90" s="21"/>
@@ -29297,15 +29324,15 @@
       <c r="BM90" s="21"/>
       <c r="BN90" s="21"/>
     </row>
-    <row r="91" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:66" s="50" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>12</v>
@@ -29332,15 +29359,15 @@
         <v>34</v>
       </c>
       <c r="L91" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N91" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O91" s="47" t="s">
+      <c r="O91" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P91" s="21"/>
@@ -29395,15 +29422,15 @@
       <c r="BM91" s="21"/>
       <c r="BN91" s="21"/>
     </row>
-    <row r="92" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" s="50" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>12</v>
@@ -29415,7 +29442,7 @@
         <v>142</v>
       </c>
       <c r="G92" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H92" s="58" t="s">
         <v>218</v>
@@ -29427,81 +29454,81 @@
         <v>7</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L92" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M92" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N92" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O92" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="22"/>
-      <c r="V92" s="22"/>
-      <c r="W92" s="22"/>
-      <c r="X92" s="22"/>
-      <c r="Y92" s="22"/>
-      <c r="Z92" s="22"/>
-      <c r="AA92" s="22"/>
-      <c r="AB92" s="22"/>
-      <c r="AC92" s="22"/>
-      <c r="AD92" s="22"/>
-      <c r="AE92" s="22"/>
-      <c r="AF92" s="22"/>
-      <c r="AG92" s="22"/>
-      <c r="AH92" s="22"/>
-      <c r="AI92" s="22"/>
-      <c r="AJ92" s="22"/>
-      <c r="AK92" s="22"/>
-      <c r="AL92" s="22"/>
-      <c r="AM92" s="22"/>
-      <c r="AN92" s="22"/>
-      <c r="AO92" s="22"/>
-      <c r="AP92" s="22"/>
-      <c r="AQ92" s="22"/>
-      <c r="AR92" s="22"/>
-      <c r="AS92" s="22"/>
-      <c r="AT92" s="22"/>
-      <c r="AU92" s="22"/>
-      <c r="AV92" s="22"/>
-      <c r="AW92" s="22"/>
-      <c r="AX92" s="22"/>
-      <c r="AY92" s="22"/>
-      <c r="AZ92" s="22"/>
-      <c r="BA92" s="22"/>
-      <c r="BB92" s="22"/>
-      <c r="BC92" s="22"/>
-      <c r="BD92" s="22"/>
-      <c r="BE92" s="22"/>
-      <c r="BF92" s="22"/>
-      <c r="BG92" s="22"/>
-      <c r="BH92" s="22"/>
-      <c r="BI92" s="22"/>
-      <c r="BJ92" s="22"/>
-      <c r="BK92" s="22"/>
-      <c r="BL92" s="22"/>
-      <c r="BM92" s="22"/>
-      <c r="BN92" s="22"/>
-    </row>
-    <row r="93" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="L92" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M92" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N92" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O92" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="Z92" s="21"/>
+      <c r="AA92" s="21"/>
+      <c r="AB92" s="21"/>
+      <c r="AC92" s="21"/>
+      <c r="AD92" s="21"/>
+      <c r="AE92" s="21"/>
+      <c r="AF92" s="21"/>
+      <c r="AG92" s="21"/>
+      <c r="AH92" s="21"/>
+      <c r="AI92" s="21"/>
+      <c r="AJ92" s="21"/>
+      <c r="AK92" s="21"/>
+      <c r="AL92" s="21"/>
+      <c r="AM92" s="21"/>
+      <c r="AN92" s="21"/>
+      <c r="AO92" s="21"/>
+      <c r="AP92" s="21"/>
+      <c r="AQ92" s="21"/>
+      <c r="AR92" s="21"/>
+      <c r="AS92" s="21"/>
+      <c r="AT92" s="21"/>
+      <c r="AU92" s="21"/>
+      <c r="AV92" s="21"/>
+      <c r="AW92" s="21"/>
+      <c r="AX92" s="21"/>
+      <c r="AY92" s="21"/>
+      <c r="AZ92" s="21"/>
+      <c r="BA92" s="21"/>
+      <c r="BB92" s="21"/>
+      <c r="BC92" s="21"/>
+      <c r="BD92" s="21"/>
+      <c r="BE92" s="21"/>
+      <c r="BF92" s="21"/>
+      <c r="BG92" s="21"/>
+      <c r="BH92" s="21"/>
+      <c r="BI92" s="21"/>
+      <c r="BJ92" s="21"/>
+      <c r="BK92" s="21"/>
+      <c r="BL92" s="21"/>
+      <c r="BM92" s="21"/>
+      <c r="BN92" s="21"/>
+    </row>
+    <row r="93" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>150</v>
+      <c r="C93" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>12</v>
@@ -29525,13 +29552,13 @@
         <v>7</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L93" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M93" s="30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N93" s="30" t="s">
         <v>133</v>
@@ -29591,15 +29618,15 @@
       <c r="BM93" s="22"/>
       <c r="BN93" s="22"/>
     </row>
-    <row r="94" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>12</v>
@@ -29623,13 +29650,13 @@
         <v>7</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L94" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M94" s="30" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N94" s="30" t="s">
         <v>133</v>
@@ -29689,26 +29716,26 @@
       <c r="BM94" s="22"/>
       <c r="BN94" s="22"/>
     </row>
-    <row r="95" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="53" t="s">
+      <c r="C95" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="53" t="s">
+      <c r="E95" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F95" s="53" t="s">
+      <c r="F95" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G95" s="54">
+      <c r="G95" s="24">
         <v>400</v>
       </c>
       <c r="H95" s="58" t="s">
@@ -29717,46 +29744,97 @@
       <c r="I95" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J95" s="53" t="s">
+      <c r="J95" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K95" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L95" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M95" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N95" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O95" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="K95" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L95" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M95" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N95" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O95" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P95" s="22"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="22"/>
+      <c r="S95" s="22"/>
+      <c r="T95" s="22"/>
+      <c r="U95" s="22"/>
+      <c r="V95" s="22"/>
+      <c r="W95" s="22"/>
+      <c r="X95" s="22"/>
+      <c r="Y95" s="22"/>
+      <c r="Z95" s="22"/>
+      <c r="AA95" s="22"/>
+      <c r="AB95" s="22"/>
+      <c r="AC95" s="22"/>
+      <c r="AD95" s="22"/>
+      <c r="AE95" s="22"/>
+      <c r="AF95" s="22"/>
+      <c r="AG95" s="22"/>
+      <c r="AH95" s="22"/>
+      <c r="AI95" s="22"/>
+      <c r="AJ95" s="22"/>
+      <c r="AK95" s="22"/>
+      <c r="AL95" s="22"/>
+      <c r="AM95" s="22"/>
+      <c r="AN95" s="22"/>
+      <c r="AO95" s="22"/>
+      <c r="AP95" s="22"/>
+      <c r="AQ95" s="22"/>
+      <c r="AR95" s="22"/>
+      <c r="AS95" s="22"/>
+      <c r="AT95" s="22"/>
+      <c r="AU95" s="22"/>
+      <c r="AV95" s="22"/>
+      <c r="AW95" s="22"/>
+      <c r="AX95" s="22"/>
+      <c r="AY95" s="22"/>
+      <c r="AZ95" s="22"/>
+      <c r="BA95" s="22"/>
+      <c r="BB95" s="22"/>
+      <c r="BC95" s="22"/>
+      <c r="BD95" s="22"/>
+      <c r="BE95" s="22"/>
+      <c r="BF95" s="22"/>
+      <c r="BG95" s="22"/>
+      <c r="BH95" s="22"/>
+      <c r="BI95" s="22"/>
+      <c r="BJ95" s="22"/>
+      <c r="BK95" s="22"/>
+      <c r="BL95" s="22"/>
+      <c r="BM95" s="22"/>
+      <c r="BN95" s="22"/>
+    </row>
+    <row r="96" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="C96" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G96" s="24">
-        <v>403</v>
+      <c r="G96" s="54">
+        <v>400</v>
       </c>
       <c r="H96" s="58" t="s">
         <v>218</v>
@@ -29764,85 +29842,34 @@
       <c r="I96" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L96" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M96" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N96" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O96" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
-      <c r="S96" s="22"/>
-      <c r="T96" s="22"/>
-      <c r="U96" s="22"/>
-      <c r="V96" s="22"/>
-      <c r="W96" s="22"/>
-      <c r="X96" s="22"/>
-      <c r="Y96" s="22"/>
-      <c r="Z96" s="22"/>
-      <c r="AA96" s="22"/>
-      <c r="AB96" s="22"/>
-      <c r="AC96" s="22"/>
-      <c r="AD96" s="22"/>
-      <c r="AE96" s="22"/>
-      <c r="AF96" s="22"/>
-      <c r="AG96" s="22"/>
-      <c r="AH96" s="22"/>
-      <c r="AI96" s="22"/>
-      <c r="AJ96" s="22"/>
-      <c r="AK96" s="22"/>
-      <c r="AL96" s="22"/>
-      <c r="AM96" s="22"/>
-      <c r="AN96" s="22"/>
-      <c r="AO96" s="22"/>
-      <c r="AP96" s="22"/>
-      <c r="AQ96" s="22"/>
-      <c r="AR96" s="22"/>
-      <c r="AS96" s="22"/>
-      <c r="AT96" s="22"/>
-      <c r="AU96" s="22"/>
-      <c r="AV96" s="22"/>
-      <c r="AW96" s="22"/>
-      <c r="AX96" s="22"/>
-      <c r="AY96" s="22"/>
-      <c r="AZ96" s="22"/>
-      <c r="BA96" s="22"/>
-      <c r="BB96" s="22"/>
-      <c r="BC96" s="22"/>
-      <c r="BD96" s="22"/>
-      <c r="BE96" s="22"/>
-      <c r="BF96" s="22"/>
-      <c r="BG96" s="22"/>
-      <c r="BH96" s="22"/>
-      <c r="BI96" s="22"/>
-      <c r="BJ96" s="22"/>
-      <c r="BK96" s="22"/>
-      <c r="BL96" s="22"/>
-      <c r="BM96" s="22"/>
-      <c r="BN96" s="22"/>
+      <c r="L96" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M96" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N96" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O96" s="63" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="97" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>12</v>
@@ -29866,13 +29893,13 @@
         <v>7</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L97" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M97" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N97" s="30" t="s">
         <v>133</v>
@@ -29932,15 +29959,15 @@
       <c r="BM97" s="22"/>
       <c r="BN97" s="22"/>
     </row>
-    <row r="98" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>12</v>
@@ -29967,10 +29994,10 @@
         <v>32</v>
       </c>
       <c r="L98" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M98" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N98" s="30" t="s">
         <v>133</v>
@@ -30032,15 +30059,15 @@
     </row>
     <row r="99" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D99" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -30062,19 +30089,19 @@
         <v>7</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L99" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M99" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L99" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M99" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N99" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O99" s="30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="P99" s="22"/>
       <c r="Q99" s="22"/>
@@ -30128,27 +30155,27 @@
       <c r="BM99" s="22"/>
       <c r="BN99" s="22"/>
     </row>
-    <row r="100" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G100" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H100" s="58" t="s">
         <v>218</v>
@@ -30162,17 +30189,17 @@
       <c r="K100" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L100" s="10">
-        <v>3001</v>
-      </c>
-      <c r="M100" s="30" t="s">
-        <v>213</v>
+      <c r="L100" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M100" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N100" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O100" s="30" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="P100" s="22"/>
       <c r="Q100" s="22"/>
@@ -30226,15 +30253,15 @@
       <c r="BM100" s="22"/>
       <c r="BN100" s="22"/>
     </row>
-    <row r="101" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>12</v>
@@ -30243,7 +30270,7 @@
         <v>142</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G101" s="24">
         <v>400</v>
@@ -30258,19 +30285,19 @@
         <v>7</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L101" s="10">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="M101" s="30" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="N101" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O101" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P101" s="22"/>
       <c r="Q101" s="22"/>
@@ -30325,14 +30352,14 @@
       <c r="BN101" s="22"/>
     </row>
     <row r="102" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A102" s="26">
-        <v>137</v>
+      <c r="A102" s="4">
+        <v>83</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="71" t="s">
-        <v>209</v>
+      <c r="C102" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>12</v>
@@ -30340,8 +30367,8 @@
       <c r="E102" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F102" s="26" t="s">
-        <v>143</v>
+      <c r="F102" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G102" s="24">
         <v>400</v>
@@ -30358,17 +30385,17 @@
       <c r="K102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L102" s="26">
-        <v>3009</v>
-      </c>
-      <c r="M102" s="71" t="s">
-        <v>209</v>
+      <c r="L102" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M102" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="N102" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O102" s="33" t="s">
-        <v>214</v>
+      <c r="O102" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="P102" s="22"/>
       <c r="Q102" s="22"/>
@@ -30422,15 +30449,15 @@
       <c r="BM102" s="22"/>
       <c r="BN102" s="22"/>
     </row>
-    <row r="103" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="26">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C103" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>12</v>
@@ -30454,81 +30481,81 @@
         <v>7</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L103" s="26">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="M103" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N103" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O103" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="21"/>
-      <c r="S103" s="21"/>
-      <c r="T103" s="21"/>
-      <c r="U103" s="21"/>
-      <c r="V103" s="21"/>
-      <c r="W103" s="21"/>
-      <c r="X103" s="21"/>
-      <c r="Y103" s="21"/>
-      <c r="Z103" s="21"/>
-      <c r="AA103" s="21"/>
-      <c r="AB103" s="21"/>
-      <c r="AC103" s="21"/>
-      <c r="AD103" s="21"/>
-      <c r="AE103" s="21"/>
-      <c r="AF103" s="21"/>
-      <c r="AG103" s="21"/>
-      <c r="AH103" s="21"/>
-      <c r="AI103" s="21"/>
-      <c r="AJ103" s="21"/>
-      <c r="AK103" s="21"/>
-      <c r="AL103" s="21"/>
-      <c r="AM103" s="21"/>
-      <c r="AN103" s="21"/>
-      <c r="AO103" s="21"/>
-      <c r="AP103" s="21"/>
-      <c r="AQ103" s="21"/>
-      <c r="AR103" s="21"/>
-      <c r="AS103" s="21"/>
-      <c r="AT103" s="21"/>
-      <c r="AU103" s="21"/>
-      <c r="AV103" s="21"/>
-      <c r="AW103" s="21"/>
-      <c r="AX103" s="21"/>
-      <c r="AY103" s="21"/>
-      <c r="AZ103" s="21"/>
-      <c r="BA103" s="21"/>
-      <c r="BB103" s="21"/>
-      <c r="BC103" s="21"/>
-      <c r="BD103" s="21"/>
-      <c r="BE103" s="21"/>
-      <c r="BF103" s="21"/>
-      <c r="BG103" s="21"/>
-      <c r="BH103" s="21"/>
-      <c r="BI103" s="21"/>
-      <c r="BJ103" s="21"/>
-      <c r="BK103" s="21"/>
-      <c r="BL103" s="21"/>
-      <c r="BM103" s="21"/>
-      <c r="BN103" s="21"/>
-    </row>
-    <row r="104" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="22"/>
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="22"/>
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="22"/>
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="22"/>
+      <c r="AD103" s="22"/>
+      <c r="AE103" s="22"/>
+      <c r="AF103" s="22"/>
+      <c r="AG103" s="22"/>
+      <c r="AH103" s="22"/>
+      <c r="AI103" s="22"/>
+      <c r="AJ103" s="22"/>
+      <c r="AK103" s="22"/>
+      <c r="AL103" s="22"/>
+      <c r="AM103" s="22"/>
+      <c r="AN103" s="22"/>
+      <c r="AO103" s="22"/>
+      <c r="AP103" s="22"/>
+      <c r="AQ103" s="22"/>
+      <c r="AR103" s="22"/>
+      <c r="AS103" s="22"/>
+      <c r="AT103" s="22"/>
+      <c r="AU103" s="22"/>
+      <c r="AV103" s="22"/>
+      <c r="AW103" s="22"/>
+      <c r="AX103" s="22"/>
+      <c r="AY103" s="22"/>
+      <c r="AZ103" s="22"/>
+      <c r="BA103" s="22"/>
+      <c r="BB103" s="22"/>
+      <c r="BC103" s="22"/>
+      <c r="BD103" s="22"/>
+      <c r="BE103" s="22"/>
+      <c r="BF103" s="22"/>
+      <c r="BG103" s="22"/>
+      <c r="BH103" s="22"/>
+      <c r="BI103" s="22"/>
+      <c r="BJ103" s="22"/>
+      <c r="BK103" s="22"/>
+      <c r="BL103" s="22"/>
+      <c r="BM103" s="22"/>
+      <c r="BN103" s="22"/>
+    </row>
+    <row r="104" spans="1:66" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C104" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>12</v>
@@ -30555,10 +30582,10 @@
         <v>32</v>
       </c>
       <c r="L104" s="26">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="M104" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N104" s="30" t="s">
         <v>133</v>
@@ -30618,15 +30645,15 @@
       <c r="BM104" s="21"/>
       <c r="BN104" s="21"/>
     </row>
-    <row r="105" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>12</v>
@@ -30638,7 +30665,7 @@
         <v>143</v>
       </c>
       <c r="G105" s="24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H105" s="58" t="s">
         <v>218</v>
@@ -30653,16 +30680,16 @@
         <v>32</v>
       </c>
       <c r="L105" s="26">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="M105" s="71" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="N105" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O105" s="30" t="s">
-        <v>12</v>
+      <c r="O105" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="P105" s="21"/>
       <c r="Q105" s="21"/>
@@ -30718,13 +30745,13 @@
     </row>
     <row r="106" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="26">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="84" t="s">
-        <v>231</v>
+      <c r="C106" s="71" t="s">
+        <v>223</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>12</v>
@@ -30732,11 +30759,11 @@
       <c r="E106" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>142</v>
+      <c r="F106" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="G106" s="24">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H106" s="58" t="s">
         <v>218</v>
@@ -30751,16 +30778,16 @@
         <v>32</v>
       </c>
       <c r="L106" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M106" s="84" t="s">
-        <v>232</v>
+        <v>3012</v>
+      </c>
+      <c r="M106" s="71" t="s">
+        <v>224</v>
       </c>
       <c r="N106" s="30" t="s">
         <v>133</v>
       </c>
       <c r="O106" s="30" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="P106" s="21"/>
       <c r="Q106" s="21"/>
@@ -30814,26 +30841,26 @@
       <c r="BM106" s="21"/>
       <c r="BN106" s="21"/>
     </row>
-    <row r="107" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A107" s="58">
-        <v>84</v>
-      </c>
-      <c r="B107" s="59" t="s">
+    <row r="107" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A107" s="26">
+        <v>141</v>
+      </c>
+      <c r="B107" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D107" s="58" t="s">
+      <c r="C107" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="72" t="s">
+      <c r="E107" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F107" s="72" t="s">
+      <c r="F107" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G107" s="58">
+      <c r="G107" s="24">
         <v>400</v>
       </c>
       <c r="H107" s="58" t="s">
@@ -30842,23 +30869,23 @@
       <c r="I107" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J107" s="58" t="s">
+      <c r="J107" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K107" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="L107" s="58">
-        <v>1002</v>
-      </c>
-      <c r="M107" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="N107" s="59" t="s">
+      <c r="K107" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L107" s="26">
+        <v>3013</v>
+      </c>
+      <c r="M107" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="N107" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O107" s="59" t="s">
-        <v>68</v>
+      <c r="O107" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="P107" s="21"/>
       <c r="Q107" s="21"/>
@@ -30912,24 +30939,52 @@
       <c r="BM107" s="21"/>
       <c r="BN107" s="21"/>
     </row>
-    <row r="108" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A108" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="B108" s="100"/>
-      <c r="C108" s="100"/>
-      <c r="D108" s="100"/>
-      <c r="E108" s="100"/>
-      <c r="F108" s="100"/>
-      <c r="G108" s="100"/>
-      <c r="H108" s="100"/>
-      <c r="I108" s="100"/>
-      <c r="J108" s="100"/>
-      <c r="K108" s="100"/>
-      <c r="L108" s="100"/>
-      <c r="M108" s="100"/>
-      <c r="N108" s="100"/>
-      <c r="O108" s="100"/>
+    <row r="108" spans="1:66" s="50" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A108" s="58">
+        <v>84</v>
+      </c>
+      <c r="B108" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F108" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="G108" s="58">
+        <v>400</v>
+      </c>
+      <c r="H108" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I108" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J108" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K108" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L108" s="58">
+        <v>1002</v>
+      </c>
+      <c r="M108" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N108" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="O108" s="59" t="s">
+        <v>68</v>
+      </c>
       <c r="P108" s="21"/>
       <c r="Q108" s="21"/>
       <c r="R108" s="21"/>
@@ -30982,220 +31037,220 @@
       <c r="BM108" s="21"/>
       <c r="BN108" s="21"/>
     </row>
-    <row r="109" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A109" s="38">
+    <row r="109" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A109" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="99"/>
+      <c r="C109" s="99"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="99"/>
+      <c r="H109" s="99"/>
+      <c r="I109" s="99"/>
+      <c r="J109" s="99"/>
+      <c r="K109" s="99"/>
+      <c r="L109" s="99"/>
+      <c r="M109" s="99"/>
+      <c r="N109" s="99"/>
+      <c r="O109" s="99"/>
+      <c r="P109" s="21"/>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="21"/>
+      <c r="T109" s="21"/>
+      <c r="U109" s="21"/>
+      <c r="V109" s="21"/>
+      <c r="W109" s="21"/>
+      <c r="X109" s="21"/>
+      <c r="Y109" s="21"/>
+      <c r="Z109" s="21"/>
+      <c r="AA109" s="21"/>
+      <c r="AB109" s="21"/>
+      <c r="AC109" s="21"/>
+      <c r="AD109" s="21"/>
+      <c r="AE109" s="21"/>
+      <c r="AF109" s="21"/>
+      <c r="AG109" s="21"/>
+      <c r="AH109" s="21"/>
+      <c r="AI109" s="21"/>
+      <c r="AJ109" s="21"/>
+      <c r="AK109" s="21"/>
+      <c r="AL109" s="21"/>
+      <c r="AM109" s="21"/>
+      <c r="AN109" s="21"/>
+      <c r="AO109" s="21"/>
+      <c r="AP109" s="21"/>
+      <c r="AQ109" s="21"/>
+      <c r="AR109" s="21"/>
+      <c r="AS109" s="21"/>
+      <c r="AT109" s="21"/>
+      <c r="AU109" s="21"/>
+      <c r="AV109" s="21"/>
+      <c r="AW109" s="21"/>
+      <c r="AX109" s="21"/>
+      <c r="AY109" s="21"/>
+      <c r="AZ109" s="21"/>
+      <c r="BA109" s="21"/>
+      <c r="BB109" s="21"/>
+      <c r="BC109" s="21"/>
+      <c r="BD109" s="21"/>
+      <c r="BE109" s="21"/>
+      <c r="BF109" s="21"/>
+      <c r="BG109" s="21"/>
+      <c r="BH109" s="21"/>
+      <c r="BI109" s="21"/>
+      <c r="BJ109" s="21"/>
+      <c r="BK109" s="21"/>
+      <c r="BL109" s="21"/>
+      <c r="BM109" s="21"/>
+      <c r="BN109" s="21"/>
+    </row>
+    <row r="110" spans="1:66" s="36" customFormat="1" ht="49.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A110" s="38">
         <v>145</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="D109" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G109" s="24">
-        <v>400</v>
-      </c>
-      <c r="H109" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="I109" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J109" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K109" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L109" s="86">
-        <v>3008</v>
-      </c>
-      <c r="M109" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="N109" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O109" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="P109" s="35"/>
-      <c r="Q109" s="35"/>
-      <c r="R109" s="35"/>
-      <c r="S109" s="35"/>
-      <c r="T109" s="35"/>
-      <c r="U109" s="35"/>
-      <c r="V109" s="35"/>
-      <c r="W109" s="35"/>
-      <c r="X109" s="35"/>
-      <c r="Y109" s="35"/>
-      <c r="Z109" s="35"/>
-      <c r="AA109" s="35"/>
-      <c r="AB109" s="35"/>
-      <c r="AC109" s="35"/>
-      <c r="AD109" s="35"/>
-      <c r="AE109" s="35"/>
-      <c r="AF109" s="35"/>
-      <c r="AG109" s="35"/>
-      <c r="AH109" s="35"/>
-      <c r="AI109" s="35"/>
-      <c r="AJ109" s="35"/>
-      <c r="AK109" s="35"/>
-      <c r="AL109" s="35"/>
-      <c r="AM109" s="35"/>
-      <c r="AN109" s="35"/>
-      <c r="AO109" s="35"/>
-      <c r="AP109" s="35"/>
-      <c r="AQ109" s="35"/>
-      <c r="AR109" s="35"/>
-      <c r="AS109" s="35"/>
-      <c r="AT109" s="35"/>
-      <c r="AU109" s="35"/>
-      <c r="AV109" s="35"/>
-      <c r="AW109" s="35"/>
-      <c r="AX109" s="35"/>
-      <c r="AY109" s="35"/>
-      <c r="AZ109" s="35"/>
-      <c r="BA109" s="35"/>
-      <c r="BB109" s="35"/>
-      <c r="BC109" s="35"/>
-      <c r="BD109" s="35"/>
-      <c r="BE109" s="35"/>
-      <c r="BF109" s="35"/>
-      <c r="BG109" s="35"/>
-      <c r="BH109" s="35"/>
-      <c r="BI109" s="35"/>
-      <c r="BJ109" s="35"/>
-      <c r="BK109" s="35"/>
-      <c r="BL109" s="35"/>
-      <c r="BM109" s="35"/>
-      <c r="BN109" s="35"/>
-    </row>
-    <row r="110" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
-        <v>85</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D110" s="4">
-        <v>8</v>
+      <c r="C110" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D110" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>142</v>
       </c>
       <c r="F110" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G110" s="24">
+        <v>400</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I110" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J110" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K110" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" s="86">
+        <v>3008</v>
+      </c>
+      <c r="M110" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="N110" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O110" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="P110" s="35"/>
+      <c r="Q110" s="35"/>
+      <c r="R110" s="35"/>
+      <c r="S110" s="35"/>
+      <c r="T110" s="35"/>
+      <c r="U110" s="35"/>
+      <c r="V110" s="35"/>
+      <c r="W110" s="35"/>
+      <c r="X110" s="35"/>
+      <c r="Y110" s="35"/>
+      <c r="Z110" s="35"/>
+      <c r="AA110" s="35"/>
+      <c r="AB110" s="35"/>
+      <c r="AC110" s="35"/>
+      <c r="AD110" s="35"/>
+      <c r="AE110" s="35"/>
+      <c r="AF110" s="35"/>
+      <c r="AG110" s="35"/>
+      <c r="AH110" s="35"/>
+      <c r="AI110" s="35"/>
+      <c r="AJ110" s="35"/>
+      <c r="AK110" s="35"/>
+      <c r="AL110" s="35"/>
+      <c r="AM110" s="35"/>
+      <c r="AN110" s="35"/>
+      <c r="AO110" s="35"/>
+      <c r="AP110" s="35"/>
+      <c r="AQ110" s="35"/>
+      <c r="AR110" s="35"/>
+      <c r="AS110" s="35"/>
+      <c r="AT110" s="35"/>
+      <c r="AU110" s="35"/>
+      <c r="AV110" s="35"/>
+      <c r="AW110" s="35"/>
+      <c r="AX110" s="35"/>
+      <c r="AY110" s="35"/>
+      <c r="AZ110" s="35"/>
+      <c r="BA110" s="35"/>
+      <c r="BB110" s="35"/>
+      <c r="BC110" s="35"/>
+      <c r="BD110" s="35"/>
+      <c r="BE110" s="35"/>
+      <c r="BF110" s="35"/>
+      <c r="BG110" s="35"/>
+      <c r="BH110" s="35"/>
+      <c r="BI110" s="35"/>
+      <c r="BJ110" s="35"/>
+      <c r="BK110" s="35"/>
+      <c r="BL110" s="35"/>
+      <c r="BM110" s="35"/>
+      <c r="BN110" s="35"/>
+    </row>
+    <row r="111" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>85</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111" s="4">
+        <v>8</v>
+      </c>
+      <c r="E111" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G110" s="44">
+      <c r="F111" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G111" s="44">
         <v>200</v>
       </c>
-      <c r="H110" s="24" t="s">
+      <c r="H111" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I110" s="24" t="s">
+      <c r="I111" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="J110" s="4" t="s">
+      <c r="J111" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K110" s="4" t="s">
+      <c r="K111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L110" s="4">
+      <c r="L111" s="4">
         <v>1010</v>
       </c>
-      <c r="M110" s="30" t="s">
+      <c r="M111" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N110" s="30" t="s">
+      <c r="N111" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="O110" s="30" t="s">
+      <c r="O111" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="22"/>
-      <c r="U110" s="22"/>
-      <c r="V110" s="22"/>
-      <c r="W110" s="22"/>
-      <c r="X110" s="22"/>
-      <c r="Y110" s="22"/>
-      <c r="Z110" s="22"/>
-      <c r="AA110" s="22"/>
-      <c r="AB110" s="22"/>
-      <c r="AC110" s="22"/>
-      <c r="AD110" s="22"/>
-      <c r="AE110" s="22"/>
-      <c r="AF110" s="22"/>
-      <c r="AG110" s="22"/>
-      <c r="AH110" s="22"/>
-      <c r="AI110" s="22"/>
-      <c r="AJ110" s="22"/>
-      <c r="AK110" s="22"/>
-      <c r="AL110" s="22"/>
-      <c r="AM110" s="22"/>
-      <c r="AN110" s="22"/>
-      <c r="AO110" s="22"/>
-      <c r="AP110" s="22"/>
-      <c r="AQ110" s="22"/>
-      <c r="AR110" s="22"/>
-      <c r="AS110" s="22"/>
-      <c r="AT110" s="22"/>
-      <c r="AU110" s="22"/>
-      <c r="AV110" s="22"/>
-      <c r="AW110" s="22"/>
-      <c r="AX110" s="22"/>
-      <c r="AY110" s="22"/>
-      <c r="AZ110" s="22"/>
-      <c r="BA110" s="22"/>
-      <c r="BB110" s="22"/>
-      <c r="BC110" s="22"/>
-      <c r="BD110" s="22"/>
-      <c r="BE110" s="22"/>
-      <c r="BF110" s="22"/>
-      <c r="BG110" s="22"/>
-      <c r="BH110" s="22"/>
-      <c r="BI110" s="22"/>
-      <c r="BJ110" s="22"/>
-      <c r="BK110" s="22"/>
-      <c r="BL110" s="22"/>
-      <c r="BM110" s="22"/>
-      <c r="BN110" s="22"/>
-    </row>
-    <row r="111" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A111" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="B111" s="99"/>
-      <c r="C111" s="99"/>
-      <c r="D111" s="99"/>
-      <c r="E111" s="99"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="99"/>
-      <c r="H111" s="99"/>
-      <c r="I111" s="99"/>
-      <c r="J111" s="99"/>
-      <c r="K111" s="99"/>
-      <c r="L111" s="99"/>
-      <c r="M111" s="99"/>
-      <c r="N111" s="99"/>
-      <c r="O111" s="99"/>
       <c r="P111" s="22"/>
       <c r="Q111" s="22"/>
       <c r="R111" s="22"/>
@@ -31248,24 +31303,24 @@
       <c r="BM111" s="22"/>
       <c r="BN111" s="22"/>
     </row>
-    <row r="112" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A112" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="B112" s="100"/>
-      <c r="C112" s="100"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
-      <c r="F112" s="100"/>
-      <c r="G112" s="100"/>
-      <c r="H112" s="100"/>
-      <c r="I112" s="100"/>
-      <c r="J112" s="100"/>
-      <c r="K112" s="100"/>
-      <c r="L112" s="100"/>
-      <c r="M112" s="100"/>
-      <c r="N112" s="100"/>
-      <c r="O112" s="100"/>
+    <row r="112" spans="1:66" s="7" customFormat="1" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A112" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" s="98"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="98"/>
+      <c r="E112" s="98"/>
+      <c r="F112" s="98"/>
+      <c r="G112" s="98"/>
+      <c r="H112" s="98"/>
+      <c r="I112" s="98"/>
+      <c r="J112" s="98"/>
+      <c r="K112" s="98"/>
+      <c r="L112" s="98"/>
+      <c r="M112" s="98"/>
+      <c r="N112" s="98"/>
+      <c r="O112" s="98"/>
       <c r="P112" s="22"/>
       <c r="Q112" s="22"/>
       <c r="R112" s="22"/>
@@ -31318,160 +31373,183 @@
       <c r="BM112" s="22"/>
       <c r="BN112" s="22"/>
     </row>
-    <row r="113" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="93">
+    <row r="113" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A113" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="99"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="99"/>
+      <c r="E113" s="99"/>
+      <c r="F113" s="99"/>
+      <c r="G113" s="99"/>
+      <c r="H113" s="99"/>
+      <c r="I113" s="99"/>
+      <c r="J113" s="99"/>
+      <c r="K113" s="99"/>
+      <c r="L113" s="99"/>
+      <c r="M113" s="99"/>
+      <c r="N113" s="99"/>
+      <c r="O113" s="99"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
+      <c r="S113" s="22"/>
+      <c r="T113" s="22"/>
+      <c r="U113" s="22"/>
+      <c r="V113" s="22"/>
+      <c r="W113" s="22"/>
+      <c r="X113" s="22"/>
+      <c r="Y113" s="22"/>
+      <c r="Z113" s="22"/>
+      <c r="AA113" s="22"/>
+      <c r="AB113" s="22"/>
+      <c r="AC113" s="22"/>
+      <c r="AD113" s="22"/>
+      <c r="AE113" s="22"/>
+      <c r="AF113" s="22"/>
+      <c r="AG113" s="22"/>
+      <c r="AH113" s="22"/>
+      <c r="AI113" s="22"/>
+      <c r="AJ113" s="22"/>
+      <c r="AK113" s="22"/>
+      <c r="AL113" s="22"/>
+      <c r="AM113" s="22"/>
+      <c r="AN113" s="22"/>
+      <c r="AO113" s="22"/>
+      <c r="AP113" s="22"/>
+      <c r="AQ113" s="22"/>
+      <c r="AR113" s="22"/>
+      <c r="AS113" s="22"/>
+      <c r="AT113" s="22"/>
+      <c r="AU113" s="22"/>
+      <c r="AV113" s="22"/>
+      <c r="AW113" s="22"/>
+      <c r="AX113" s="22"/>
+      <c r="AY113" s="22"/>
+      <c r="AZ113" s="22"/>
+      <c r="BA113" s="22"/>
+      <c r="BB113" s="22"/>
+      <c r="BC113" s="22"/>
+      <c r="BD113" s="22"/>
+      <c r="BE113" s="22"/>
+      <c r="BF113" s="22"/>
+      <c r="BG113" s="22"/>
+      <c r="BH113" s="22"/>
+      <c r="BI113" s="22"/>
+      <c r="BJ113" s="22"/>
+      <c r="BK113" s="22"/>
+      <c r="BL113" s="22"/>
+      <c r="BM113" s="22"/>
+      <c r="BN113" s="22"/>
+    </row>
+    <row r="114" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="92">
         <v>146</v>
-      </c>
-      <c r="B113" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="D113" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="F113" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G113" s="93">
-        <v>403</v>
-      </c>
-      <c r="H113" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="I113" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J113" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="K113" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="L113" s="93">
-        <v>1016</v>
-      </c>
-      <c r="M113" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="N113" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="O113" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="P113" s="21"/>
-      <c r="Q113" s="21"/>
-      <c r="R113" s="21"/>
-      <c r="S113" s="21"/>
-      <c r="T113" s="21"/>
-      <c r="U113" s="21"/>
-      <c r="V113" s="21"/>
-      <c r="W113" s="21"/>
-      <c r="X113" s="21"/>
-      <c r="Y113" s="21"/>
-      <c r="Z113" s="21"/>
-      <c r="AA113" s="21"/>
-      <c r="AB113" s="21"/>
-      <c r="AC113" s="21"/>
-      <c r="AD113" s="21"/>
-      <c r="AE113" s="21"/>
-      <c r="AF113" s="21"/>
-      <c r="AG113" s="21"/>
-      <c r="AH113" s="21"/>
-      <c r="AI113" s="21"/>
-      <c r="AJ113" s="21"/>
-      <c r="AK113" s="21"/>
-      <c r="AL113" s="21"/>
-      <c r="AM113" s="21"/>
-      <c r="AN113" s="21"/>
-      <c r="AO113" s="21"/>
-      <c r="AP113" s="21"/>
-      <c r="AQ113" s="21"/>
-      <c r="AR113" s="21"/>
-      <c r="AS113" s="21"/>
-      <c r="AT113" s="21"/>
-      <c r="AU113" s="21"/>
-      <c r="AV113" s="21"/>
-      <c r="AW113" s="21"/>
-      <c r="AX113" s="21"/>
-      <c r="AY113" s="21"/>
-      <c r="AZ113" s="21"/>
-      <c r="BA113" s="21"/>
-      <c r="BB113" s="21"/>
-      <c r="BC113" s="21"/>
-      <c r="BD113" s="21"/>
-      <c r="BE113" s="21"/>
-      <c r="BF113" s="21"/>
-      <c r="BG113" s="21"/>
-      <c r="BH113" s="21"/>
-      <c r="BI113" s="21"/>
-      <c r="BJ113" s="21"/>
-      <c r="BK113" s="21"/>
-      <c r="BL113" s="21"/>
-      <c r="BM113" s="21"/>
-      <c r="BN113" s="21"/>
-    </row>
-    <row r="114" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
-        <v>86</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="D114" s="4" t="s">
+      <c r="C114" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D114" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G114" s="24">
-        <v>401</v>
-      </c>
-      <c r="H114" s="58" t="s">
+      <c r="G114" s="92">
+        <v>403</v>
+      </c>
+      <c r="H114" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I114" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J114" s="4" t="s">
+      <c r="J114" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K114" s="4" t="s">
+      <c r="K114" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L114" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M114" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N114" s="32" t="s">
+      <c r="L114" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M114" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N114" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O114" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="O114" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P114" s="21"/>
+      <c r="Q114" s="21"/>
+      <c r="R114" s="21"/>
+      <c r="S114" s="21"/>
+      <c r="T114" s="21"/>
+      <c r="U114" s="21"/>
+      <c r="V114" s="21"/>
+      <c r="W114" s="21"/>
+      <c r="X114" s="21"/>
+      <c r="Y114" s="21"/>
+      <c r="Z114" s="21"/>
+      <c r="AA114" s="21"/>
+      <c r="AB114" s="21"/>
+      <c r="AC114" s="21"/>
+      <c r="AD114" s="21"/>
+      <c r="AE114" s="21"/>
+      <c r="AF114" s="21"/>
+      <c r="AG114" s="21"/>
+      <c r="AH114" s="21"/>
+      <c r="AI114" s="21"/>
+      <c r="AJ114" s="21"/>
+      <c r="AK114" s="21"/>
+      <c r="AL114" s="21"/>
+      <c r="AM114" s="21"/>
+      <c r="AN114" s="21"/>
+      <c r="AO114" s="21"/>
+      <c r="AP114" s="21"/>
+      <c r="AQ114" s="21"/>
+      <c r="AR114" s="21"/>
+      <c r="AS114" s="21"/>
+      <c r="AT114" s="21"/>
+      <c r="AU114" s="21"/>
+      <c r="AV114" s="21"/>
+      <c r="AW114" s="21"/>
+      <c r="AX114" s="21"/>
+      <c r="AY114" s="21"/>
+      <c r="AZ114" s="21"/>
+      <c r="BA114" s="21"/>
+      <c r="BB114" s="21"/>
+      <c r="BC114" s="21"/>
+      <c r="BD114" s="21"/>
+      <c r="BE114" s="21"/>
+      <c r="BF114" s="21"/>
+      <c r="BG114" s="21"/>
+      <c r="BH114" s="21"/>
+      <c r="BI114" s="21"/>
+      <c r="BJ114" s="21"/>
+      <c r="BK114" s="21"/>
+      <c r="BL114" s="21"/>
+      <c r="BM114" s="21"/>
+      <c r="BN114" s="21"/>
+    </row>
+    <row r="115" spans="1:66" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C115" s="23" t="s">
-        <v>149</v>
+      <c r="C115" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>12</v>
@@ -31498,78 +31576,27 @@
         <v>34</v>
       </c>
       <c r="L115" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M115" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N115" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O115" s="47" t="s">
+      <c r="O115" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="P115" s="22"/>
-      <c r="Q115" s="22"/>
-      <c r="R115" s="22"/>
-      <c r="S115" s="22"/>
-      <c r="T115" s="22"/>
-      <c r="U115" s="22"/>
-      <c r="V115" s="22"/>
-      <c r="W115" s="22"/>
-      <c r="X115" s="22"/>
-      <c r="Y115" s="22"/>
-      <c r="Z115" s="22"/>
-      <c r="AA115" s="22"/>
-      <c r="AB115" s="22"/>
-      <c r="AC115" s="22"/>
-      <c r="AD115" s="22"/>
-      <c r="AE115" s="22"/>
-      <c r="AF115" s="22"/>
-      <c r="AG115" s="22"/>
-      <c r="AH115" s="22"/>
-      <c r="AI115" s="22"/>
-      <c r="AJ115" s="22"/>
-      <c r="AK115" s="22"/>
-      <c r="AL115" s="22"/>
-      <c r="AM115" s="22"/>
-      <c r="AN115" s="22"/>
-      <c r="AO115" s="22"/>
-      <c r="AP115" s="22"/>
-      <c r="AQ115" s="22"/>
-      <c r="AR115" s="22"/>
-      <c r="AS115" s="22"/>
-      <c r="AT115" s="22"/>
-      <c r="AU115" s="22"/>
-      <c r="AV115" s="22"/>
-      <c r="AW115" s="22"/>
-      <c r="AX115" s="22"/>
-      <c r="AY115" s="22"/>
-      <c r="AZ115" s="22"/>
-      <c r="BA115" s="22"/>
-      <c r="BB115" s="22"/>
-      <c r="BC115" s="22"/>
-      <c r="BD115" s="22"/>
-      <c r="BE115" s="22"/>
-      <c r="BF115" s="22"/>
-      <c r="BG115" s="22"/>
-      <c r="BH115" s="22"/>
-      <c r="BI115" s="22"/>
-      <c r="BJ115" s="22"/>
-      <c r="BK115" s="22"/>
-      <c r="BL115" s="22"/>
-      <c r="BM115" s="22"/>
-      <c r="BN115" s="22"/>
     </row>
     <row r="116" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>12</v>
@@ -31581,7 +31608,7 @@
         <v>142</v>
       </c>
       <c r="G116" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H116" s="58" t="s">
         <v>218</v>
@@ -31593,19 +31620,19 @@
         <v>7</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L116" s="10">
-        <v>1003</v>
-      </c>
-      <c r="M116" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N116" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O116" s="30" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="L116" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M116" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N116" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O116" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="P116" s="22"/>
       <c r="Q116" s="22"/>
@@ -31659,15 +31686,15 @@
       <c r="BM116" s="22"/>
       <c r="BN116" s="22"/>
     </row>
-    <row r="117" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>150</v>
+      <c r="C117" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>12</v>
@@ -31691,13 +31718,13 @@
         <v>7</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L117" s="10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M117" s="30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N117" s="30" t="s">
         <v>136</v>
@@ -31757,15 +31784,15 @@
       <c r="BM117" s="22"/>
       <c r="BN117" s="22"/>
     </row>
-    <row r="118" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:66" s="7" customFormat="1" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>12</v>
@@ -31789,13 +31816,13 @@
         <v>7</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L118" s="10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M118" s="30" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N118" s="30" t="s">
         <v>136</v>
@@ -31855,26 +31882,26 @@
       <c r="BM118" s="22"/>
       <c r="BN118" s="22"/>
     </row>
-    <row r="119" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C119" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D119" s="53" t="s">
+      <c r="C119" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="53" t="s">
+      <c r="E119" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F119" s="53" t="s">
+      <c r="F119" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G119" s="54">
+      <c r="G119" s="24">
         <v>400</v>
       </c>
       <c r="H119" s="58" t="s">
@@ -31883,23 +31910,23 @@
       <c r="I119" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J119" s="53" t="s">
+      <c r="J119" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K119" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L119" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M119" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N119" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="O119" s="63" t="s">
-        <v>12</v>
+      <c r="K119" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L119" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M119" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N119" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O119" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
@@ -31953,27 +31980,27 @@
       <c r="BM119" s="22"/>
       <c r="BN119" s="22"/>
     </row>
-    <row r="120" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" s="7" customFormat="1" ht="33.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D120" s="4" t="s">
+      <c r="C120" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D120" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G120" s="24">
-        <v>404</v>
+      <c r="G120" s="54">
+        <v>400</v>
       </c>
       <c r="H120" s="58" t="s">
         <v>218</v>
@@ -31981,85 +32008,85 @@
       <c r="I120" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J120" s="4" t="s">
+      <c r="J120" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K120" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L120" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M120" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N120" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O120" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P120" s="21"/>
-      <c r="Q120" s="21"/>
-      <c r="R120" s="21"/>
-      <c r="S120" s="21"/>
-      <c r="T120" s="21"/>
-      <c r="U120" s="21"/>
-      <c r="V120" s="21"/>
-      <c r="W120" s="21"/>
-      <c r="X120" s="21"/>
-      <c r="Y120" s="21"/>
-      <c r="Z120" s="21"/>
-      <c r="AA120" s="21"/>
-      <c r="AB120" s="21"/>
-      <c r="AC120" s="21"/>
-      <c r="AD120" s="21"/>
-      <c r="AE120" s="21"/>
-      <c r="AF120" s="21"/>
-      <c r="AG120" s="21"/>
-      <c r="AH120" s="21"/>
-      <c r="AI120" s="21"/>
-      <c r="AJ120" s="21"/>
-      <c r="AK120" s="21"/>
-      <c r="AL120" s="21"/>
-      <c r="AM120" s="21"/>
-      <c r="AN120" s="21"/>
-      <c r="AO120" s="21"/>
-      <c r="AP120" s="21"/>
-      <c r="AQ120" s="21"/>
-      <c r="AR120" s="21"/>
-      <c r="AS120" s="21"/>
-      <c r="AT120" s="21"/>
-      <c r="AU120" s="21"/>
-      <c r="AV120" s="21"/>
-      <c r="AW120" s="21"/>
-      <c r="AX120" s="21"/>
-      <c r="AY120" s="21"/>
-      <c r="AZ120" s="21"/>
-      <c r="BA120" s="21"/>
-      <c r="BB120" s="21"/>
-      <c r="BC120" s="21"/>
-      <c r="BD120" s="21"/>
-      <c r="BE120" s="21"/>
-      <c r="BF120" s="21"/>
-      <c r="BG120" s="21"/>
-      <c r="BH120" s="21"/>
-      <c r="BI120" s="21"/>
-      <c r="BJ120" s="21"/>
-      <c r="BK120" s="21"/>
-      <c r="BL120" s="21"/>
-      <c r="BM120" s="21"/>
-      <c r="BN120" s="21"/>
-    </row>
-    <row r="121" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="L120" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M120" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N120" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O120" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="P120" s="22"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="22"/>
+      <c r="S120" s="22"/>
+      <c r="T120" s="22"/>
+      <c r="U120" s="22"/>
+      <c r="V120" s="22"/>
+      <c r="W120" s="22"/>
+      <c r="X120" s="22"/>
+      <c r="Y120" s="22"/>
+      <c r="Z120" s="22"/>
+      <c r="AA120" s="22"/>
+      <c r="AB120" s="22"/>
+      <c r="AC120" s="22"/>
+      <c r="AD120" s="22"/>
+      <c r="AE120" s="22"/>
+      <c r="AF120" s="22"/>
+      <c r="AG120" s="22"/>
+      <c r="AH120" s="22"/>
+      <c r="AI120" s="22"/>
+      <c r="AJ120" s="22"/>
+      <c r="AK120" s="22"/>
+      <c r="AL120" s="22"/>
+      <c r="AM120" s="22"/>
+      <c r="AN120" s="22"/>
+      <c r="AO120" s="22"/>
+      <c r="AP120" s="22"/>
+      <c r="AQ120" s="22"/>
+      <c r="AR120" s="22"/>
+      <c r="AS120" s="22"/>
+      <c r="AT120" s="22"/>
+      <c r="AU120" s="22"/>
+      <c r="AV120" s="22"/>
+      <c r="AW120" s="22"/>
+      <c r="AX120" s="22"/>
+      <c r="AY120" s="22"/>
+      <c r="AZ120" s="22"/>
+      <c r="BA120" s="22"/>
+      <c r="BB120" s="22"/>
+      <c r="BC120" s="22"/>
+      <c r="BD120" s="22"/>
+      <c r="BE120" s="22"/>
+      <c r="BF120" s="22"/>
+      <c r="BG120" s="22"/>
+      <c r="BH120" s="22"/>
+      <c r="BI120" s="22"/>
+      <c r="BJ120" s="22"/>
+      <c r="BK120" s="22"/>
+      <c r="BL120" s="22"/>
+      <c r="BM120" s="22"/>
+      <c r="BN120" s="22"/>
+    </row>
+    <row r="121" spans="1:66" s="11" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>12</v>
@@ -32083,13 +32110,13 @@
         <v>7</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L121" s="10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M121" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N121" s="30" t="s">
         <v>136</v>
@@ -32097,16 +32124,67 @@
       <c r="O121" s="30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="122" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="P121" s="21"/>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="21"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+      <c r="Y121" s="21"/>
+      <c r="Z121" s="21"/>
+      <c r="AA121" s="21"/>
+      <c r="AB121" s="21"/>
+      <c r="AC121" s="21"/>
+      <c r="AD121" s="21"/>
+      <c r="AE121" s="21"/>
+      <c r="AF121" s="21"/>
+      <c r="AG121" s="21"/>
+      <c r="AH121" s="21"/>
+      <c r="AI121" s="21"/>
+      <c r="AJ121" s="21"/>
+      <c r="AK121" s="21"/>
+      <c r="AL121" s="21"/>
+      <c r="AM121" s="21"/>
+      <c r="AN121" s="21"/>
+      <c r="AO121" s="21"/>
+      <c r="AP121" s="21"/>
+      <c r="AQ121" s="21"/>
+      <c r="AR121" s="21"/>
+      <c r="AS121" s="21"/>
+      <c r="AT121" s="21"/>
+      <c r="AU121" s="21"/>
+      <c r="AV121" s="21"/>
+      <c r="AW121" s="21"/>
+      <c r="AX121" s="21"/>
+      <c r="AY121" s="21"/>
+      <c r="AZ121" s="21"/>
+      <c r="BA121" s="21"/>
+      <c r="BB121" s="21"/>
+      <c r="BC121" s="21"/>
+      <c r="BD121" s="21"/>
+      <c r="BE121" s="21"/>
+      <c r="BF121" s="21"/>
+      <c r="BG121" s="21"/>
+      <c r="BH121" s="21"/>
+      <c r="BI121" s="21"/>
+      <c r="BJ121" s="21"/>
+      <c r="BK121" s="21"/>
+      <c r="BL121" s="21"/>
+      <c r="BM121" s="21"/>
+      <c r="BN121" s="21"/>
+    </row>
+    <row r="122" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>12</v>
@@ -32118,7 +32196,7 @@
         <v>142</v>
       </c>
       <c r="G122" s="24">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H122" s="58" t="s">
         <v>218</v>
@@ -32133,10 +32211,10 @@
         <v>32</v>
       </c>
       <c r="L122" s="10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M122" s="30" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N122" s="30" t="s">
         <v>136</v>
@@ -32145,15 +32223,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A123" s="26">
-        <v>141</v>
+    <row r="123" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>94</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C123" s="84" t="s">
-        <v>231</v>
+      <c r="C123" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>12</v>
@@ -32161,11 +32239,11 @@
       <c r="E123" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F123" s="26" t="s">
+      <c r="F123" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G123" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H123" s="58" t="s">
         <v>218</v>
@@ -32179,91 +32257,40 @@
       <c r="K123" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L123" s="26">
-        <v>3013</v>
-      </c>
-      <c r="M123" s="84" t="s">
-        <v>232</v>
+      <c r="L123" s="10">
+        <v>1008</v>
+      </c>
+      <c r="M123" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="N123" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O123" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="P123" s="21"/>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-      <c r="Z123" s="21"/>
-      <c r="AA123" s="21"/>
-      <c r="AB123" s="21"/>
-      <c r="AC123" s="21"/>
-      <c r="AD123" s="21"/>
-      <c r="AE123" s="21"/>
-      <c r="AF123" s="21"/>
-      <c r="AG123" s="21"/>
-      <c r="AH123" s="21"/>
-      <c r="AI123" s="21"/>
-      <c r="AJ123" s="21"/>
-      <c r="AK123" s="21"/>
-      <c r="AL123" s="21"/>
-      <c r="AM123" s="21"/>
-      <c r="AN123" s="21"/>
-      <c r="AO123" s="21"/>
-      <c r="AP123" s="21"/>
-      <c r="AQ123" s="21"/>
-      <c r="AR123" s="21"/>
-      <c r="AS123" s="21"/>
-      <c r="AT123" s="21"/>
-      <c r="AU123" s="21"/>
-      <c r="AV123" s="21"/>
-      <c r="AW123" s="21"/>
-      <c r="AX123" s="21"/>
-      <c r="AY123" s="21"/>
-      <c r="AZ123" s="21"/>
-      <c r="BA123" s="21"/>
-      <c r="BB123" s="21"/>
-      <c r="BC123" s="21"/>
-      <c r="BD123" s="21"/>
-      <c r="BE123" s="21"/>
-      <c r="BF123" s="21"/>
-      <c r="BG123" s="21"/>
-      <c r="BH123" s="21"/>
-      <c r="BI123" s="21"/>
-      <c r="BJ123" s="21"/>
-      <c r="BK123" s="21"/>
-      <c r="BL123" s="21"/>
-      <c r="BM123" s="21"/>
-      <c r="BN123" s="21"/>
-    </row>
-    <row r="124" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
-        <v>95</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:66" s="50" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A124" s="26">
+        <v>141</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D124" s="24" t="s">
+      <c r="C124" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="26" t="s">
         <v>142</v>
       </c>
       <c r="G124" s="24">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H124" s="58" t="s">
         <v>218</v>
@@ -32275,32 +32302,83 @@
         <v>7</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L124" s="4">
-        <v>1011</v>
-      </c>
-      <c r="M124" s="32" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="L124" s="26">
+        <v>3013</v>
+      </c>
+      <c r="M124" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="N124" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O124" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="P124" s="21"/>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="21"/>
+      <c r="S124" s="21"/>
+      <c r="T124" s="21"/>
+      <c r="U124" s="21"/>
+      <c r="V124" s="21"/>
+      <c r="W124" s="21"/>
+      <c r="X124" s="21"/>
+      <c r="Y124" s="21"/>
+      <c r="Z124" s="21"/>
+      <c r="AA124" s="21"/>
+      <c r="AB124" s="21"/>
+      <c r="AC124" s="21"/>
+      <c r="AD124" s="21"/>
+      <c r="AE124" s="21"/>
+      <c r="AF124" s="21"/>
+      <c r="AG124" s="21"/>
+      <c r="AH124" s="21"/>
+      <c r="AI124" s="21"/>
+      <c r="AJ124" s="21"/>
+      <c r="AK124" s="21"/>
+      <c r="AL124" s="21"/>
+      <c r="AM124" s="21"/>
+      <c r="AN124" s="21"/>
+      <c r="AO124" s="21"/>
+      <c r="AP124" s="21"/>
+      <c r="AQ124" s="21"/>
+      <c r="AR124" s="21"/>
+      <c r="AS124" s="21"/>
+      <c r="AT124" s="21"/>
+      <c r="AU124" s="21"/>
+      <c r="AV124" s="21"/>
+      <c r="AW124" s="21"/>
+      <c r="AX124" s="21"/>
+      <c r="AY124" s="21"/>
+      <c r="AZ124" s="21"/>
+      <c r="BA124" s="21"/>
+      <c r="BB124" s="21"/>
+      <c r="BC124" s="21"/>
+      <c r="BD124" s="21"/>
+      <c r="BE124" s="21"/>
+      <c r="BF124" s="21"/>
+      <c r="BG124" s="21"/>
+      <c r="BH124" s="21"/>
+      <c r="BI124" s="21"/>
+      <c r="BJ124" s="21"/>
+      <c r="BK124" s="21"/>
+      <c r="BL124" s="21"/>
+      <c r="BM124" s="21"/>
+      <c r="BN124" s="21"/>
+    </row>
+    <row r="125" spans="1:66" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D125" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D125" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E125" s="4" t="s">
@@ -32310,7 +32388,7 @@
         <v>142</v>
       </c>
       <c r="G125" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H125" s="58" t="s">
         <v>218</v>
@@ -32324,185 +32402,187 @@
       <c r="K125" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L125" s="10">
-        <v>4001</v>
-      </c>
-      <c r="M125" s="30" t="s">
-        <v>19</v>
+      <c r="L125" s="4">
+        <v>1011</v>
+      </c>
+      <c r="M125" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="N125" s="30" t="s">
         <v>136</v>
       </c>
       <c r="O125" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P125" s="22"/>
-      <c r="Q125" s="22"/>
-      <c r="R125" s="22"/>
-      <c r="S125" s="22"/>
-      <c r="T125" s="22"/>
-      <c r="U125" s="22"/>
-      <c r="V125" s="22"/>
-      <c r="W125" s="22"/>
-      <c r="X125" s="22"/>
-      <c r="Y125" s="22"/>
-      <c r="Z125" s="22"/>
-      <c r="AA125" s="22"/>
-      <c r="AB125" s="22"/>
-      <c r="AC125" s="22"/>
-      <c r="AD125" s="22"/>
-      <c r="AE125" s="22"/>
-      <c r="AF125" s="22"/>
-      <c r="AG125" s="22"/>
-      <c r="AH125" s="22"/>
-      <c r="AI125" s="22"/>
-      <c r="AJ125" s="22"/>
-      <c r="AK125" s="22"/>
-      <c r="AL125" s="22"/>
-      <c r="AM125" s="22"/>
-      <c r="AN125" s="22"/>
-      <c r="AO125" s="22"/>
-      <c r="AP125" s="22"/>
-      <c r="AQ125" s="22"/>
-      <c r="AR125" s="22"/>
-      <c r="AS125" s="22"/>
-      <c r="AT125" s="22"/>
-      <c r="AU125" s="22"/>
-      <c r="AV125" s="22"/>
-      <c r="AW125" s="22"/>
-      <c r="AX125" s="22"/>
-      <c r="AY125" s="22"/>
-      <c r="AZ125" s="22"/>
-      <c r="BA125" s="22"/>
-      <c r="BB125" s="22"/>
-      <c r="BC125" s="22"/>
-      <c r="BD125" s="22"/>
-      <c r="BE125" s="22"/>
-      <c r="BF125" s="22"/>
-      <c r="BG125" s="22"/>
-      <c r="BH125" s="22"/>
-      <c r="BI125" s="22"/>
-      <c r="BJ125" s="22"/>
-      <c r="BK125" s="22"/>
-      <c r="BL125" s="22"/>
-      <c r="BM125" s="22"/>
-      <c r="BN125" s="22"/>
-    </row>
-    <row r="126" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A126" s="26">
-        <v>142</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:66" s="7" customFormat="1" ht="31.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>96</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="84" t="s">
+      <c r="C126" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G126" s="24">
+        <v>400</v>
+      </c>
+      <c r="H126" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I126" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L126" s="10">
+        <v>4001</v>
+      </c>
+      <c r="M126" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N126" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O126" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P126" s="22"/>
+      <c r="Q126" s="22"/>
+      <c r="R126" s="22"/>
+      <c r="S126" s="22"/>
+      <c r="T126" s="22"/>
+      <c r="U126" s="22"/>
+      <c r="V126" s="22"/>
+      <c r="W126" s="22"/>
+      <c r="X126" s="22"/>
+      <c r="Y126" s="22"/>
+      <c r="Z126" s="22"/>
+      <c r="AA126" s="22"/>
+      <c r="AB126" s="22"/>
+      <c r="AC126" s="22"/>
+      <c r="AD126" s="22"/>
+      <c r="AE126" s="22"/>
+      <c r="AF126" s="22"/>
+      <c r="AG126" s="22"/>
+      <c r="AH126" s="22"/>
+      <c r="AI126" s="22"/>
+      <c r="AJ126" s="22"/>
+      <c r="AK126" s="22"/>
+      <c r="AL126" s="22"/>
+      <c r="AM126" s="22"/>
+      <c r="AN126" s="22"/>
+      <c r="AO126" s="22"/>
+      <c r="AP126" s="22"/>
+      <c r="AQ126" s="22"/>
+      <c r="AR126" s="22"/>
+      <c r="AS126" s="22"/>
+      <c r="AT126" s="22"/>
+      <c r="AU126" s="22"/>
+      <c r="AV126" s="22"/>
+      <c r="AW126" s="22"/>
+      <c r="AX126" s="22"/>
+      <c r="AY126" s="22"/>
+      <c r="AZ126" s="22"/>
+      <c r="BA126" s="22"/>
+      <c r="BB126" s="22"/>
+      <c r="BC126" s="22"/>
+      <c r="BD126" s="22"/>
+      <c r="BE126" s="22"/>
+      <c r="BF126" s="22"/>
+      <c r="BG126" s="22"/>
+      <c r="BH126" s="22"/>
+      <c r="BI126" s="22"/>
+      <c r="BJ126" s="22"/>
+      <c r="BK126" s="22"/>
+      <c r="BL126" s="22"/>
+      <c r="BM126" s="22"/>
+      <c r="BN126" s="22"/>
+    </row>
+    <row r="127" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A127" s="26">
+        <v>142</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="65">
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="65">
         <v>413</v>
       </c>
-      <c r="H126" s="65" t="s">
+      <c r="H127" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="I126" s="65"/>
-      <c r="J126" s="58" t="s">
+      <c r="I127" s="65"/>
+      <c r="J127" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K126" s="26"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="84" t="s">
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="N126" s="33"/>
-      <c r="O126" s="33"/>
-    </row>
-    <row r="127" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A127" s="100" t="s">
+      <c r="N127" s="33"/>
+      <c r="O127" s="33"/>
+    </row>
+    <row r="128" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A128" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="B127" s="100"/>
-      <c r="C127" s="100"/>
-      <c r="D127" s="100"/>
-      <c r="E127" s="100"/>
-      <c r="F127" s="100"/>
-      <c r="G127" s="100"/>
-      <c r="H127" s="100"/>
-      <c r="I127" s="100"/>
-      <c r="J127" s="100"/>
-      <c r="K127" s="100"/>
-      <c r="L127" s="100"/>
-      <c r="M127" s="100"/>
-      <c r="N127" s="100"/>
-      <c r="O127" s="100"/>
-    </row>
-    <row r="128" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="8">
-        <v>151</v>
-      </c>
-      <c r="B128" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C128" s="97" t="s">
-        <v>271</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G128" s="38">
-        <v>200</v>
-      </c>
-      <c r="H128" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I128" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L128" s="8">
-        <v>4005</v>
-      </c>
-      <c r="M128" s="97" t="s">
-        <v>271</v>
-      </c>
-      <c r="N128" s="71"/>
-      <c r="O128" s="97" t="s">
-        <v>270</v>
-      </c>
+      <c r="B128" s="99"/>
+      <c r="C128" s="99"/>
+      <c r="D128" s="99"/>
+      <c r="E128" s="99"/>
+      <c r="F128" s="99"/>
+      <c r="G128" s="99"/>
+      <c r="H128" s="99"/>
+      <c r="I128" s="99"/>
+      <c r="J128" s="99"/>
+      <c r="K128" s="99"/>
+      <c r="L128" s="99"/>
+      <c r="M128" s="99"/>
+      <c r="N128" s="99"/>
+      <c r="O128" s="99"/>
     </row>
     <row r="129" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B129" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="23" t="s">
-        <v>87</v>
+      <c r="C129" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G129" s="38">
+      <c r="G129" s="4">
         <v>200</v>
       </c>
       <c r="H129" s="24" t="s">
@@ -32514,33 +32594,33 @@
       <c r="J129" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K129" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L129" s="8">
-        <v>4002</v>
-      </c>
-      <c r="M129" s="32" t="s">
-        <v>40</v>
+      <c r="K129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L129" s="4">
+        <v>4006</v>
+      </c>
+      <c r="M129" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="N129" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O129" s="31" t="s">
-        <v>64</v>
+      <c r="O129" s="49" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
-        <v>98</v>
+      <c r="A130" s="8">
+        <v>151</v>
       </c>
       <c r="B130" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C130" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D130" s="26" t="s">
+      <c r="C130" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E130" s="5" t="s">
@@ -32561,33 +32641,33 @@
       <c r="J130" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K130" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L130" s="26">
-        <v>4003</v>
-      </c>
-      <c r="M130" s="32" t="s">
-        <v>84</v>
+      <c r="K130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L130" s="8">
+        <v>4005</v>
+      </c>
+      <c r="M130" s="96" t="s">
+        <v>271</v>
       </c>
       <c r="N130" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O130" s="33" t="s">
-        <v>1</v>
+      <c r="O130" s="96" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B131" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C131" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="D131" s="26" t="s">
+      <c r="C131" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -32608,39 +32688,39 @@
       <c r="J131" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K131" s="26" t="s">
+      <c r="K131" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L131" s="26">
-        <v>4004</v>
+      <c r="L131" s="8">
+        <v>4002</v>
       </c>
       <c r="M131" s="32" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="N131" s="31" t="s">
         <v>136</v>
       </c>
       <c r="O131" s="31" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D132" s="4">
-        <v>8</v>
-      </c>
-      <c r="E132" s="24" t="s">
+      <c r="C132" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F132" s="24" t="s">
+      <c r="F132" s="5" t="s">
         <v>142</v>
       </c>
       <c r="G132" s="38">
@@ -32652,276 +32732,276 @@
       <c r="I132" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J132" s="4" t="s">
+      <c r="J132" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K132" s="4" t="s">
+      <c r="K132" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L132" s="26">
+        <v>4003</v>
+      </c>
+      <c r="M132" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="N132" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="O132" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>115</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G133" s="38">
+        <v>200</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I133" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K133" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L133" s="26">
+        <v>4004</v>
+      </c>
+      <c r="M133" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="N133" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="O133" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>99</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D134" s="4">
+        <v>8</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G134" s="38">
+        <v>200</v>
+      </c>
+      <c r="H134" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I134" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L132" s="4">
+      <c r="L134" s="4">
         <v>1010</v>
       </c>
-      <c r="M132" s="30" t="s">
+      <c r="M134" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N132" s="30" t="s">
+      <c r="N134" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O132" s="30" t="s">
+      <c r="O134" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="99" t="s">
+    <row r="135" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="B133" s="99"/>
-      <c r="C133" s="99"/>
-      <c r="D133" s="99"/>
-      <c r="E133" s="99"/>
-      <c r="F133" s="99"/>
-      <c r="G133" s="99"/>
-      <c r="H133" s="99"/>
-      <c r="I133" s="99"/>
-      <c r="J133" s="99"/>
-      <c r="K133" s="99"/>
-      <c r="L133" s="99"/>
-      <c r="M133" s="99"/>
-      <c r="N133" s="99"/>
-      <c r="O133" s="99"/>
-    </row>
-    <row r="134" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A134" s="100" t="s">
+      <c r="B135" s="98"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="98"/>
+      <c r="E135" s="98"/>
+      <c r="F135" s="98"/>
+      <c r="G135" s="98"/>
+      <c r="H135" s="98"/>
+      <c r="I135" s="98"/>
+      <c r="J135" s="98"/>
+      <c r="K135" s="98"/>
+      <c r="L135" s="98"/>
+      <c r="M135" s="98"/>
+      <c r="N135" s="98"/>
+      <c r="O135" s="98"/>
+    </row>
+    <row r="136" spans="1:66" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A136" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="B134" s="100"/>
-      <c r="C134" s="100"/>
-      <c r="D134" s="100"/>
-      <c r="E134" s="100"/>
-      <c r="F134" s="100"/>
-      <c r="G134" s="100"/>
-      <c r="H134" s="100"/>
-      <c r="I134" s="100"/>
-      <c r="J134" s="100"/>
-      <c r="K134" s="100"/>
-      <c r="L134" s="100"/>
-      <c r="M134" s="100"/>
-      <c r="N134" s="100"/>
-      <c r="O134" s="100"/>
-    </row>
-    <row r="135" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="93">
+      <c r="B136" s="99"/>
+      <c r="C136" s="99"/>
+      <c r="D136" s="99"/>
+      <c r="E136" s="99"/>
+      <c r="F136" s="99"/>
+      <c r="G136" s="99"/>
+      <c r="H136" s="99"/>
+      <c r="I136" s="99"/>
+      <c r="J136" s="99"/>
+      <c r="K136" s="99"/>
+      <c r="L136" s="99"/>
+      <c r="M136" s="99"/>
+      <c r="N136" s="99"/>
+      <c r="O136" s="99"/>
+    </row>
+    <row r="137" spans="1:66" s="11" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="92">
         <v>146</v>
-      </c>
-      <c r="B135" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C135" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="D135" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="F135" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="G135" s="93">
-        <v>403</v>
-      </c>
-      <c r="H135" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="I135" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J135" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="K135" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="L135" s="93">
-        <v>1016</v>
-      </c>
-      <c r="M135" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="N135" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="O135" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="P135" s="21"/>
-      <c r="Q135" s="21"/>
-      <c r="R135" s="21"/>
-      <c r="S135" s="21"/>
-      <c r="T135" s="21"/>
-      <c r="U135" s="21"/>
-      <c r="V135" s="21"/>
-      <c r="W135" s="21"/>
-      <c r="X135" s="21"/>
-      <c r="Y135" s="21"/>
-      <c r="Z135" s="21"/>
-      <c r="AA135" s="21"/>
-      <c r="AB135" s="21"/>
-      <c r="AC135" s="21"/>
-      <c r="AD135" s="21"/>
-      <c r="AE135" s="21"/>
-      <c r="AF135" s="21"/>
-      <c r="AG135" s="21"/>
-      <c r="AH135" s="21"/>
-      <c r="AI135" s="21"/>
-      <c r="AJ135" s="21"/>
-      <c r="AK135" s="21"/>
-      <c r="AL135" s="21"/>
-      <c r="AM135" s="21"/>
-      <c r="AN135" s="21"/>
-      <c r="AO135" s="21"/>
-      <c r="AP135" s="21"/>
-      <c r="AQ135" s="21"/>
-      <c r="AR135" s="21"/>
-      <c r="AS135" s="21"/>
-      <c r="AT135" s="21"/>
-      <c r="AU135" s="21"/>
-      <c r="AV135" s="21"/>
-      <c r="AW135" s="21"/>
-      <c r="AX135" s="21"/>
-      <c r="AY135" s="21"/>
-      <c r="AZ135" s="21"/>
-      <c r="BA135" s="21"/>
-      <c r="BB135" s="21"/>
-      <c r="BC135" s="21"/>
-      <c r="BD135" s="21"/>
-      <c r="BE135" s="21"/>
-      <c r="BF135" s="21"/>
-      <c r="BG135" s="21"/>
-      <c r="BH135" s="21"/>
-      <c r="BI135" s="21"/>
-      <c r="BJ135" s="21"/>
-      <c r="BK135" s="21"/>
-      <c r="BL135" s="21"/>
-      <c r="BM135" s="21"/>
-      <c r="BN135" s="21"/>
-    </row>
-    <row r="136" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
-        <v>102</v>
-      </c>
-      <c r="B136" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C136" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G136" s="24">
-        <v>401</v>
-      </c>
-      <c r="H136" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="I136" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K136" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L136" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M136" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="N136" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O136" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
-        <v>103</v>
       </c>
       <c r="B137" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C137" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D137" s="4" t="s">
+      <c r="C137" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D137" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E137" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="G137" s="24">
-        <v>401</v>
-      </c>
-      <c r="H137" s="65" t="s">
+      <c r="G137" s="92">
+        <v>403</v>
+      </c>
+      <c r="H137" s="92" t="s">
         <v>218</v>
       </c>
       <c r="I137" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J137" s="4" t="s">
+      <c r="J137" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K137" s="4" t="s">
+      <c r="K137" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="L137" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M137" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="N137" s="32" t="s">
+      <c r="L137" s="92">
+        <v>1016</v>
+      </c>
+      <c r="M137" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="N137" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O137" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="O137" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P137" s="21"/>
+      <c r="Q137" s="21"/>
+      <c r="R137" s="21"/>
+      <c r="S137" s="21"/>
+      <c r="T137" s="21"/>
+      <c r="U137" s="21"/>
+      <c r="V137" s="21"/>
+      <c r="W137" s="21"/>
+      <c r="X137" s="21"/>
+      <c r="Y137" s="21"/>
+      <c r="Z137" s="21"/>
+      <c r="AA137" s="21"/>
+      <c r="AB137" s="21"/>
+      <c r="AC137" s="21"/>
+      <c r="AD137" s="21"/>
+      <c r="AE137" s="21"/>
+      <c r="AF137" s="21"/>
+      <c r="AG137" s="21"/>
+      <c r="AH137" s="21"/>
+      <c r="AI137" s="21"/>
+      <c r="AJ137" s="21"/>
+      <c r="AK137" s="21"/>
+      <c r="AL137" s="21"/>
+      <c r="AM137" s="21"/>
+      <c r="AN137" s="21"/>
+      <c r="AO137" s="21"/>
+      <c r="AP137" s="21"/>
+      <c r="AQ137" s="21"/>
+      <c r="AR137" s="21"/>
+      <c r="AS137" s="21"/>
+      <c r="AT137" s="21"/>
+      <c r="AU137" s="21"/>
+      <c r="AV137" s="21"/>
+      <c r="AW137" s="21"/>
+      <c r="AX137" s="21"/>
+      <c r="AY137" s="21"/>
+      <c r="AZ137" s="21"/>
+      <c r="BA137" s="21"/>
+      <c r="BB137" s="21"/>
+      <c r="BC137" s="21"/>
+      <c r="BD137" s="21"/>
+      <c r="BE137" s="21"/>
+      <c r="BF137" s="21"/>
+      <c r="BG137" s="21"/>
+      <c r="BH137" s="21"/>
+      <c r="BI137" s="21"/>
+      <c r="BJ137" s="21"/>
+      <c r="BK137" s="21"/>
+      <c r="BL137" s="21"/>
+      <c r="BM137" s="21"/>
+      <c r="BN137" s="21"/>
+    </row>
+    <row r="138" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B138" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C138" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D138" s="24">
-        <v>201</v>
-      </c>
-      <c r="E138" s="24" t="s">
+      <c r="C138" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F138" s="24" t="s">
+      <c r="F138" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G138" s="44">
-        <v>400</v>
+      <c r="G138" s="24">
+        <v>401</v>
       </c>
       <c r="H138" s="65" t="s">
         <v>218</v>
@@ -32929,46 +33009,46 @@
       <c r="I138" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J138" s="24" t="s">
+      <c r="J138" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K138" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L138" s="40">
-        <v>1003</v>
-      </c>
-      <c r="M138" s="32" t="s">
-        <v>14</v>
+      <c r="K138" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L138" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M138" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="N138" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="O138" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="139" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O138" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B139" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D139" s="24">
-        <v>201</v>
-      </c>
-      <c r="E139" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F139" s="24" t="s">
+      <c r="F139" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G139" s="24">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H139" s="65" t="s">
         <v>218</v>
@@ -32976,45 +33056,45 @@
       <c r="I139" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J139" s="24" t="s">
+      <c r="J139" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K139" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L139" s="25">
-        <v>1004</v>
-      </c>
-      <c r="M139" s="32" t="s">
-        <v>25</v>
+      <c r="K139" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L139" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M139" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="N139" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="O139" s="32" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="O139" s="47" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C140" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D140" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="53" t="s">
+      <c r="C140" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="D140" s="24">
+        <v>201</v>
+      </c>
+      <c r="E140" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F140" s="53" t="s">
+      <c r="F140" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G140" s="54">
+      <c r="G140" s="44">
         <v>400</v>
       </c>
       <c r="H140" s="65" t="s">
@@ -33023,37 +33103,37 @@
       <c r="I140" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J140" s="53" t="s">
+      <c r="J140" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K140" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L140" s="53">
-        <v>1015</v>
-      </c>
-      <c r="M140" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N140" s="52" t="s">
+      <c r="K140" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L140" s="40">
+        <v>1003</v>
+      </c>
+      <c r="M140" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N140" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O140" s="63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="O140" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:66" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="D141" s="24">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>142</v>
@@ -33061,8 +33141,8 @@
       <c r="F141" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G141" s="44">
-        <v>403</v>
+      <c r="G141" s="24">
+        <v>400</v>
       </c>
       <c r="H141" s="65" t="s">
         <v>218</v>
@@ -33077,39 +33157,39 @@
         <v>11</v>
       </c>
       <c r="L141" s="25">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="M141" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N141" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O141" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="O141" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B142" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C142" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D142" s="24">
-        <v>202</v>
-      </c>
-      <c r="E142" s="24" t="s">
+      <c r="C142" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D142" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F142" s="24" t="s">
+      <c r="F142" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G142" s="44">
-        <v>403</v>
+      <c r="G142" s="54">
+        <v>400</v>
       </c>
       <c r="H142" s="65" t="s">
         <v>218</v>
@@ -33117,34 +33197,34 @@
       <c r="I142" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J142" s="24" t="s">
+      <c r="J142" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K142" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L142" s="25">
-        <v>1007</v>
-      </c>
-      <c r="M142" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N142" s="32" t="s">
+      <c r="K142" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L142" s="53">
+        <v>1015</v>
+      </c>
+      <c r="M142" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N142" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="O142" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O142" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B143" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D143" s="24">
         <v>202</v>
@@ -33155,7 +33235,7 @@
       <c r="F143" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G143" s="24">
+      <c r="G143" s="44">
         <v>403</v>
       </c>
       <c r="H143" s="65" t="s">
@@ -33168,13 +33248,13 @@
         <v>7</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L143" s="25">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="M143" s="32" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N143" s="32" t="s">
         <v>57</v>
@@ -33183,15 +33263,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:66" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="D144" s="24">
         <v>202</v>
@@ -33202,7 +33282,7 @@
       <c r="F144" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G144" s="24">
+      <c r="G144" s="44">
         <v>403</v>
       </c>
       <c r="H144" s="65" t="s">
@@ -33217,11 +33297,11 @@
       <c r="K144" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L144" s="65">
-        <v>5001</v>
+      <c r="L144" s="25">
+        <v>1007</v>
       </c>
       <c r="M144" s="32" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="N144" s="32" t="s">
         <v>57</v>
@@ -33230,15 +33310,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="D145" s="24">
         <v>202</v>
@@ -33249,7 +33329,7 @@
       <c r="F145" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G145" s="44">
+      <c r="G145" s="24">
         <v>403</v>
       </c>
       <c r="H145" s="65" t="s">
@@ -33262,42 +33342,42 @@
         <v>7</v>
       </c>
       <c r="K145" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L145" s="24">
-        <v>1011</v>
+        <v>32</v>
+      </c>
+      <c r="L145" s="25">
+        <v>1008</v>
       </c>
       <c r="M145" s="32" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="N145" s="32" t="s">
         <v>57</v>
       </c>
       <c r="O145" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D146" s="4">
-        <v>203</v>
-      </c>
-      <c r="E146" s="4" t="s">
+      <c r="C146" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D146" s="24">
+        <v>202</v>
+      </c>
+      <c r="E146" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="24" t="s">
         <v>142</v>
       </c>
       <c r="G146" s="24">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H146" s="65" t="s">
         <v>218</v>
@@ -33305,46 +33385,46 @@
       <c r="I146" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J146" s="4" t="s">
+      <c r="J146" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K146" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L146" s="10">
-        <v>3002</v>
-      </c>
-      <c r="M146" s="30" t="s">
-        <v>180</v>
+      <c r="K146" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L146" s="65">
+        <v>5001</v>
+      </c>
+      <c r="M146" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="N146" s="32" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="O146" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="26">
-        <v>132</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>111</v>
       </c>
       <c r="B147" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C147" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="D147" s="4">
-        <v>203</v>
-      </c>
-      <c r="E147" s="4" t="s">
+      <c r="C147" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D147" s="24">
+        <v>202</v>
+      </c>
+      <c r="E147" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G147" s="24">
-        <v>400</v>
+      <c r="G147" s="44">
+        <v>403</v>
       </c>
       <c r="H147" s="65" t="s">
         <v>218</v>
@@ -33352,37 +33432,37 @@
       <c r="I147" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J147" s="58" t="s">
+      <c r="J147" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L147" s="26">
-        <v>3003</v>
-      </c>
-      <c r="M147" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="N147" s="33" t="s">
-        <v>216</v>
+      <c r="K147" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L147" s="24">
+        <v>1011</v>
+      </c>
+      <c r="M147" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="N147" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="O147" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="26">
-        <v>131</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>112</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C148" s="57" t="s">
-        <v>198</v>
+      <c r="C148" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="D148" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>142</v>
@@ -33399,37 +33479,37 @@
       <c r="I148" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J148" s="58" t="s">
+      <c r="J148" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L148" s="26">
-        <v>3004</v>
-      </c>
-      <c r="M148" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="N148" s="33" t="s">
+      <c r="L148" s="10">
+        <v>3002</v>
+      </c>
+      <c r="M148" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="N148" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="O148" s="56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="8">
-        <v>130</v>
+      <c r="O148" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="26">
+        <v>132</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C149" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="D149" s="4">
         <v>203</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>142</v>
@@ -33453,30 +33533,30 @@
         <v>11</v>
       </c>
       <c r="L149" s="26">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="M149" s="57" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N149" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O149" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="8">
-        <v>128</v>
+      <c r="O149" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="26">
+        <v>131</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C150" s="57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D150" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>142</v>
@@ -33500,27 +33580,27 @@
         <v>11</v>
       </c>
       <c r="L150" s="26">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="M150" s="57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N150" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O150" s="57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="26">
-        <v>129</v>
+      <c r="O150" s="56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="8">
+        <v>130</v>
       </c>
       <c r="B151" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C151" s="67" t="s">
-        <v>207</v>
+      <c r="C151" s="57" t="s">
+        <v>203</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>12</v>
@@ -33531,8 +33611,8 @@
       <c r="F151" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G151" s="65">
-        <v>404</v>
+      <c r="G151" s="24">
+        <v>400</v>
       </c>
       <c r="H151" s="65" t="s">
         <v>218</v>
@@ -33546,52 +33626,112 @@
       <c r="K151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L151" s="66">
-        <v>3007</v>
-      </c>
-      <c r="M151" s="67" t="s">
-        <v>207</v>
+      <c r="L151" s="26">
+        <v>3005</v>
+      </c>
+      <c r="M151" s="57" t="s">
+        <v>203</v>
       </c>
       <c r="N151" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O151" s="57" t="s">
+      <c r="O151" s="56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="8">
+        <v>128</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C152" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D152" s="4">
+        <v>203</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G152" s="24">
+        <v>400</v>
+      </c>
+      <c r="H152" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="I152" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J152" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L152" s="26">
+        <v>3006</v>
+      </c>
+      <c r="M152" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="N152" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="O152" s="57" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
-      <c r="B152" s="21"/>
-      <c r="C152" s="22"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="45"/>
-      <c r="H152" s="45"/>
-      <c r="I152" s="45"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20"/>
-      <c r="L152" s="20"/>
-      <c r="M152" s="34"/>
-      <c r="N152" s="21"/>
-      <c r="O152" s="21"/>
-    </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
-      <c r="B153" s="21"/>
-      <c r="C153" s="22"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="45"/>
-      <c r="I153" s="45"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
-      <c r="M153" s="34"/>
-      <c r="N153" s="21"/>
-      <c r="O153" s="21"/>
+      <c r="A153" s="26">
+        <v>129</v>
+      </c>
+      <c r="B153" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C153" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G153" s="65">
+        <v>404</v>
+      </c>
+      <c r="H153" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="I153" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J153" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L153" s="66">
+        <v>3007</v>
+      </c>
+      <c r="M153" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N153" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="O153" s="57" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
@@ -33877,6 +34017,7 @@
       <c r="I170" s="45"/>
       <c r="J170" s="20"/>
       <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
       <c r="M170" s="34"/>
       <c r="N170" s="21"/>
       <c r="O170" s="21"/>
@@ -33910,7 +34051,6 @@
       <c r="I172" s="45"/>
       <c r="J172" s="20"/>
       <c r="K172" s="20"/>
-      <c r="L172" s="20"/>
       <c r="M172" s="34"/>
       <c r="N172" s="21"/>
       <c r="O172" s="21"/>
@@ -38777,34 +38917,68 @@
       <c r="N458" s="21"/>
       <c r="O458" s="21"/>
     </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A459" s="20"/>
+      <c r="B459" s="21"/>
+      <c r="C459" s="22"/>
+      <c r="D459" s="20"/>
+      <c r="E459" s="20"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="45"/>
+      <c r="H459" s="45"/>
+      <c r="I459" s="45"/>
+      <c r="J459" s="20"/>
+      <c r="K459" s="20"/>
+      <c r="L459" s="20"/>
+      <c r="M459" s="34"/>
+      <c r="N459" s="21"/>
+      <c r="O459" s="21"/>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A460" s="20"/>
+      <c r="B460" s="21"/>
+      <c r="C460" s="22"/>
+      <c r="D460" s="20"/>
+      <c r="E460" s="20"/>
+      <c r="F460" s="20"/>
+      <c r="G460" s="45"/>
+      <c r="H460" s="45"/>
+      <c r="I460" s="45"/>
+      <c r="J460" s="20"/>
+      <c r="K460" s="20"/>
+      <c r="L460" s="20"/>
+      <c r="M460" s="34"/>
+      <c r="N460" s="21"/>
+      <c r="O460" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G458"/>
+  <autoFilter ref="G1:G460"/>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A133:O133"/>
-    <mergeCell ref="A134:O134"/>
-    <mergeCell ref="A127:O127"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="A112:O112"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A87:O87"/>
-    <mergeCell ref="A111:O111"/>
-    <mergeCell ref="A74:O74"/>
-    <mergeCell ref="A60:O60"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A59:O59"/>
-    <mergeCell ref="A73:O73"/>
+    <mergeCell ref="A60:O60"/>
+    <mergeCell ref="A74:O74"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="A112:O112"/>
+    <mergeCell ref="A75:O75"/>
+    <mergeCell ref="A61:O61"/>
+    <mergeCell ref="A135:O135"/>
+    <mergeCell ref="A136:O136"/>
+    <mergeCell ref="A128:O128"/>
+    <mergeCell ref="A109:O109"/>
+    <mergeCell ref="A113:O113"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J68:J72 J51:J57 J96:J107 J82:J86 J7:J8 J65:J66 J79:J80 J92:J94 J116:J118 J138:J139 J10:J16 J141:J151 J120:J126 J109:J110 J28:J49 J25 J19:J20 J128:J132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J129:J134 J97:J108 J83:J87 J7:J8 J66:J67 J80:J81 J93:J95 J117:J119 J140:J141 J10:J16 J143:J153 J121:J127 J110:J111 J28:J49 J25 J19:J20 J51:J58">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K51:K57 K68:K72 K82:K86 K132 K7:K8 K65:K66 K79:K80 K92:K94 K116:K118 K138:K139 K10:K16 K96:K107 K141:K151 K120:K126 K109:K110 K25:K49 K19:K20 K128:K129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K129:K131 K69:K73 K83:K87 K134 K7:K8 K66:K67 K80:K81 K93:K95 K117:K119 K140:K141 K10:K16 K97:K108 K143:K153 K121:K127 K110:K111 K25:K49 K19:K20 K51:K58">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L68:L72 L10:L14 L82:L86 L110 L132 L51:L55 L145:L146 L141:L143 L7:L8 L65:L66 L79:L80 L92:L94 L116:L118 L138:L139 L16 L39:L48 L96:L101 L120:L122 L124:L126 L28 L30:L37 L25 L19:L20 L129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L69:L73 L10:L14 L83:L87 L111 L134 L51:L55 L147:L148 L143:L145 L7:L8 L66:L67 L80:L81 L93:L95 L117:L119 L140:L141 L16 L39:L48 L97:L102 L121:L123 L125:L127 L28 L30:L37 L25 L19:L20 L131">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -38816,8 +38990,8 @@
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="20" max="16383" man="1"/>
-    <brk id="58" max="16383" man="1"/>
-    <brk id="86" max="9" man="1"/>
+    <brk id="59" max="16383" man="1"/>
+    <brk id="87" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
+++ b/data-items/Employer_Submission_RPN_Validation_Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="282">
   <si>
     <t>Payslip</t>
   </si>
@@ -921,6 +921,9 @@
   <si>
     <t>leaveDate</t>
   </si>
+  <si>
+    <t>Corrected validation code</t>
+  </si>
 </sst>
 </file>
 
@@ -22139,10 +22142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M63"/>
+  <dimension ref="B8:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22773,6 +22776,15 @@
         <v>164</v>
       </c>
     </row>
+    <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="79"/>
+      <c r="C64" s="79">
+        <v>112</v>
+      </c>
+      <c r="D64" s="83" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:E9"/>
@@ -22790,9 +22802,9 @@
   </sheetPr>
   <dimension ref="A1:BN460"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -33485,8 +33497,8 @@
       <c r="K148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L148" s="10">
-        <v>3002</v>
+      <c r="L148" s="20">
+        <v>5005</v>
       </c>
       <c r="M148" s="30" t="s">
         <v>180</v>
@@ -33762,7 +33774,6 @@
       <c r="I155" s="45"/>
       <c r="J155" s="20"/>
       <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
       <c r="M155" s="34"/>
       <c r="N155" s="21"/>
       <c r="O155" s="21"/>
@@ -38955,21 +38966,21 @@
   <autoFilter ref="G1:G460"/>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A135:O135"/>
+    <mergeCell ref="A136:O136"/>
+    <mergeCell ref="A128:O128"/>
+    <mergeCell ref="A109:O109"/>
+    <mergeCell ref="A113:O113"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="A112:O112"/>
+    <mergeCell ref="A75:O75"/>
+    <mergeCell ref="A61:O61"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A21:O21"/>
     <mergeCell ref="A60:O60"/>
     <mergeCell ref="A74:O74"/>
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A112:O112"/>
-    <mergeCell ref="A75:O75"/>
-    <mergeCell ref="A61:O61"/>
-    <mergeCell ref="A135:O135"/>
-    <mergeCell ref="A136:O136"/>
-    <mergeCell ref="A128:O128"/>
-    <mergeCell ref="A109:O109"/>
-    <mergeCell ref="A113:O113"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J129:J134 J97:J108 J83:J87 J7:J8 J66:J67 J80:J81 J93:J95 J117:J119 J140:J141 J10:J16 J143:J153 J121:J127 J110:J111 J28:J49 J25 J19:J20 J51:J58">
